--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +885,1285 @@
         <v>15.75</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>S100UA4H.zip</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2327</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>9154320</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23450671000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2561.705402476645</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>S100U8JX.zip</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3989</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-08-14</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1206000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>787604000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>653.0713101160862</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>S100U5II.zip</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3529</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>998000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>667598000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>668.9358717434869</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>S100U528.zip</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7305</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>309800</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1321438000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4265.455132343447</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>S100U4Z0.zip</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>8129</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>7258230</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24720910000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3405.914389596362</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>S100U07U.zip</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3666</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1053200</v>
+      </c>
+      <c r="G18" t="n">
+        <v>663809000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>630.278199772123</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>S100U1HO.zip</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4347</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>614893</v>
+      </c>
+      <c r="G19" t="n">
+        <v>940560000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1529.631984751819</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8.200000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S100TRA6.zip</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>8129</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3886330</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10549885000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2714.613787300615</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>S100TMDP.zip</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>8929</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1260812</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1699255000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1347.74653160027</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.140000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>S100TK8M.zip</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4042</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>16459200</v>
+      </c>
+      <c r="G22" t="n">
+        <v>33451116000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2032.365850102071</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>S100TLGT.zip</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3591</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2846091</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6888596000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2420.370957920882</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>S100THZ6.zip</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4347</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400493</v>
+      </c>
+      <c r="G24" t="n">
+        <v>580713000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1449.995380693296</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>S100TFJS.zip</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>9024</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>16207437</v>
+      </c>
+      <c r="G25" t="n">
+        <v>27823532000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1716.713876475349</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>S100TBA3.zip</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7731</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>17639800</v>
+      </c>
+      <c r="G26" t="n">
+        <v>26675255000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1512.21980974841</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>S100TB1B.zip</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4536</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>18290500</v>
+      </c>
+      <c r="G27" t="n">
+        <v>24591924000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1344.518957928979</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>S100T0IC.zip</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4549</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2006900</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3367745000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1678.083113259255</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>S100SY8N.zip</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3328</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>845300</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1219326000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1442.477227019993</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>S100SW6R.zip</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3328</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>675500</v>
+      </c>
+      <c r="G30" t="n">
+        <v>976503000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1445.60029607698</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.220000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>S100S1V3.zip</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2501</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4010500</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10817766000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2697.360927565142</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>S100RZUR.zip</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4023</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>796000</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7960</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>S100RYJW.zip</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5844</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4998800</v>
+      </c>
+      <c r="G33" t="n">
+        <v>24949147000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4991.027246539169</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>S100RX5R.zip</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>8303</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2800.725</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>S100RVIC.zip</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2812</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>S100RT6D.zip</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>9072</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>8377400</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13394541000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1598.889989734285</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>S100QVSV.zip</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1878</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>3452100</v>
+      </c>
+      <c r="G37" t="n">
+        <v>44793976000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12975.86280814577</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>S100QSK8.zip</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>7350</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>S100QNRY.zip</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>5561200</v>
+      </c>
+      <c r="G39" t="n">
+        <v>12623472000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2269.918722577861</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>S100QGUZ.zip</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3558</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1214200</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1267.324164058639</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>S100QF8K.zip</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>4463000</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>S100QF0T.zip</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>4463000</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>S100QDGW.zip</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4324</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>13655200</v>
+      </c>
+      <c r="G43" t="n">
+        <v>56753467000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4156.179843576074</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.050000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>S100QBB7.zip</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>3608</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>4569000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2005111000</v>
+      </c>
+      <c r="H44" t="n">
+        <v>438.851170934559</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>S100Q1O2.zip</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>6236</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>911500</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1306557000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1433.414152495886</v>
+      </c>
+      <c r="I45" t="n">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>S100PZAN.zip</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7272</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>17688500</v>
+      </c>
+      <c r="G46" t="n">
+        <v>52513090000</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2968.770104870396</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.050000000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>S100PYKO.zip</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4956</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2039200</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3273303000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1605.189780306002</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,71 +483,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1878</v>
+        <v>6145</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3475000</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>47745269000</v>
+        <v>171000</v>
       </c>
       <c r="H2" t="n">
-        <v>13739.64575539568</v>
+        <v>1710</v>
       </c>
       <c r="I2" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3328</v>
+        <v>6908</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>992000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2480</v>
+      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -555,86 +557,84 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3106</v>
+        <v>1878</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>900156</v>
+        <v>3475000</v>
       </c>
       <c r="G4" t="n">
-        <v>4095263000</v>
+        <v>47745269000</v>
       </c>
       <c r="H4" t="n">
-        <v>4549.503641591014</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9302</v>
+        <v>3328</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3799000</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5671170000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1492.806001579363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>5.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,35 +643,35 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9684</v>
+        <v>9302</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6704059</v>
+        <v>3799000</v>
       </c>
       <c r="G6" t="n">
-        <v>42054369000</v>
+        <v>5671170000</v>
       </c>
       <c r="H6" t="n">
-        <v>6272.971195510064</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I6" t="n">
-        <v>5.47</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,257 +680,257 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6927</v>
+        <v>3106</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1142700</v>
+        <v>900156</v>
       </c>
       <c r="G7" t="n">
-        <v>1023871000</v>
+        <v>4095263000</v>
       </c>
       <c r="H7" t="n">
-        <v>896.0103264198827</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I7" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4676</v>
+        <v>9684</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G8" t="n">
-        <v>242000</v>
+        <v>42054369000</v>
       </c>
       <c r="H8" t="n">
-        <v>2420</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3963</v>
+        <v>4619</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1507900</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>635874000</v>
+        <v>119000</v>
       </c>
       <c r="H9" t="n">
-        <v>421.6950726175476</v>
+        <v>1190</v>
       </c>
       <c r="I9" t="n">
-        <v>5.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4512</v>
+        <v>6332</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2137400</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>620573000</v>
+        <v>141000</v>
       </c>
       <c r="H10" t="n">
-        <v>290.3401328717133</v>
+        <v>1410</v>
       </c>
       <c r="I10" t="n">
-        <v>6.140000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9987</v>
+        <v>6927</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3888200</v>
+        <v>1142700</v>
       </c>
       <c r="G11" t="n">
-        <v>16086019000</v>
+        <v>1023871000</v>
       </c>
       <c r="H11" t="n">
-        <v>4137.137750115735</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4272</v>
+        <v>4676</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>26855100</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>29860350000</v>
+        <v>242000</v>
       </c>
       <c r="H12" t="n">
-        <v>1111.90611839092</v>
+        <v>2420</v>
       </c>
       <c r="I12" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2327</v>
+        <v>1776</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9154320</v>
+        <v>126500</v>
       </c>
       <c r="G13" t="n">
-        <v>23450671000</v>
+        <v>153399000</v>
       </c>
       <c r="H13" t="n">
-        <v>2561.705402476645</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -939,553 +939,553 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3989</v>
+        <v>3963</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1206000</v>
+        <v>1507900</v>
       </c>
       <c r="G14" t="n">
-        <v>787604000</v>
+        <v>635874000</v>
       </c>
       <c r="H14" t="n">
-        <v>653.0713101160862</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3529</v>
+        <v>6923</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>998000</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>667598000</v>
+        <v>256000</v>
       </c>
       <c r="H15" t="n">
-        <v>668.9358717434869</v>
+        <v>2560</v>
       </c>
       <c r="I15" t="n">
-        <v>5.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7305</v>
+        <v>6890</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>309800</v>
+        <v>30000</v>
       </c>
       <c r="G16" t="n">
-        <v>1321438000</v>
+        <v>71610000</v>
       </c>
       <c r="H16" t="n">
-        <v>4265.455132343447</v>
+        <v>2387</v>
       </c>
       <c r="I16" t="n">
-        <v>5.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8129</v>
+        <v>4512</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7258230</v>
+        <v>2137400</v>
       </c>
       <c r="G17" t="n">
-        <v>24720910000</v>
+        <v>620573000</v>
       </c>
       <c r="H17" t="n">
-        <v>3405.914389596362</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I17" t="n">
-        <v>9.460000000000001</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3666</v>
+        <v>9006</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1053200</v>
+        <v>30000</v>
       </c>
       <c r="G18" t="n">
-        <v>663809000</v>
+        <v>34824000</v>
       </c>
       <c r="H18" t="n">
-        <v>630.278199772123</v>
+        <v>1160.8</v>
       </c>
       <c r="I18" t="n">
-        <v>5.16</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4347</v>
+        <v>9987</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>614893</v>
+        <v>3888200</v>
       </c>
       <c r="G19" t="n">
-        <v>940560000</v>
+        <v>16086019000</v>
       </c>
       <c r="H19" t="n">
-        <v>1529.631984751819</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I19" t="n">
-        <v>8.200000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8129</v>
+        <v>3861</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3886330</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>10549885000</v>
+        <v>59000</v>
       </c>
       <c r="H20" t="n">
-        <v>2714.613787300615</v>
+        <v>590</v>
       </c>
       <c r="I20" t="n">
-        <v>5.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8929</v>
+        <v>5715</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1260812</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>1699255000</v>
+        <v>160000</v>
       </c>
       <c r="H21" t="n">
-        <v>1347.74653160027</v>
+        <v>1600</v>
       </c>
       <c r="I21" t="n">
-        <v>5.140000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4042</v>
+        <v>9257</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>16459200</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>33451116000</v>
+        <v>57000</v>
       </c>
       <c r="H22" t="n">
-        <v>2032.365850102071</v>
+        <v>570</v>
       </c>
       <c r="I22" t="n">
-        <v>5.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3591</v>
+        <v>6908</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2846091</v>
+        <v>502000</v>
       </c>
       <c r="G23" t="n">
-        <v>6888596000</v>
+        <v>1257178000</v>
       </c>
       <c r="H23" t="n">
-        <v>2420.370957920882</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I23" t="n">
-        <v>5.13</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4347</v>
+        <v>5482</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>400493</v>
+        <v>433300</v>
       </c>
       <c r="G24" t="n">
-        <v>580713000</v>
+        <v>1367192000</v>
       </c>
       <c r="H24" t="n">
-        <v>1449.995380693296</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I24" t="n">
-        <v>5.06</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9024</v>
+        <v>4272</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>16207437</v>
+        <v>26855100</v>
       </c>
       <c r="G25" t="n">
-        <v>27823532000</v>
+        <v>29860350000</v>
       </c>
       <c r="H25" t="n">
-        <v>1716.713876475349</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I25" t="n">
-        <v>5.01</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7731</v>
+        <v>8141</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>26675255000</v>
+        <v>93000</v>
       </c>
       <c r="H26" t="n">
-        <v>1512.21980974841</v>
+        <v>930</v>
       </c>
       <c r="I26" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4536</v>
+        <v>6145</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>18290500</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>24591924000</v>
+        <v>171000</v>
       </c>
       <c r="H27" t="n">
-        <v>1344.518957928979</v>
+        <v>1710</v>
       </c>
       <c r="I27" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4549</v>
+        <v>2327</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2006900</v>
+        <v>9154320</v>
       </c>
       <c r="G28" t="n">
-        <v>3367745000</v>
+        <v>23450671000</v>
       </c>
       <c r="H28" t="n">
-        <v>1678.083113259255</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I28" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1494,383 +1494,391 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3328</v>
+        <v>3989</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>845300</v>
+        <v>1206000</v>
       </c>
       <c r="G29" t="n">
-        <v>1219326000</v>
+        <v>787604000</v>
       </c>
       <c r="H29" t="n">
-        <v>1442.477227019993</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I29" t="n">
-        <v>6.54</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3328</v>
+        <v>6908</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>675500</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>976503000</v>
+        <v>288000</v>
       </c>
       <c r="H30" t="n">
-        <v>1445.60029607698</v>
+        <v>2880</v>
       </c>
       <c r="I30" t="n">
-        <v>5.220000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2501</v>
+        <v>5988</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4010500</v>
+        <v>527300</v>
       </c>
       <c r="G31" t="n">
-        <v>10817766000</v>
+        <v>1212090000</v>
       </c>
       <c r="H31" t="n">
-        <v>2697.360927565142</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I31" t="n">
-        <v>5.09</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4023</v>
+        <v>3529</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>998000</v>
       </c>
       <c r="G32" t="n">
-        <v>796000</v>
+        <v>667598000</v>
       </c>
       <c r="H32" t="n">
-        <v>7960</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5844</v>
+        <v>7305</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4998800</v>
+        <v>309800</v>
       </c>
       <c r="G33" t="n">
-        <v>24949147000</v>
+        <v>1321438000</v>
       </c>
       <c r="H33" t="n">
-        <v>4991.027246539169</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I33" t="n">
-        <v>6.59</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8303</v>
+        <v>5541</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20000000</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>56014500000</v>
+        <v>127000</v>
       </c>
       <c r="H34" t="n">
-        <v>2800.725</v>
+        <v>1270</v>
       </c>
       <c r="I34" t="n">
-        <v>9.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2812</v>
+        <v>8803</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>361000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3610</v>
+      </c>
       <c r="I35" t="n">
-        <v>9.779999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9072</v>
+        <v>8129</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>8377400</v>
+        <v>7258230</v>
       </c>
       <c r="G36" t="n">
-        <v>13394541000</v>
+        <v>24720910000</v>
       </c>
       <c r="H36" t="n">
-        <v>1598.889989734285</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I36" t="n">
-        <v>12.74</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1878</v>
+        <v>3666</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3452100</v>
+        <v>1053200</v>
       </c>
       <c r="G37" t="n">
-        <v>44793976000</v>
+        <v>663809000</v>
       </c>
       <c r="H37" t="n">
-        <v>12975.86280814577</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I37" t="n">
-        <v>5.01</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7350</v>
+        <v>4347</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+        <v>614893</v>
+      </c>
+      <c r="G38" t="n">
+        <v>940560000</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1529.631984751819</v>
+      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1951</v>
+        <v>8129</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5561200</v>
+        <v>3886330</v>
       </c>
       <c r="G39" t="n">
-        <v>12623472000</v>
+        <v>10549885000</v>
       </c>
       <c r="H39" t="n">
-        <v>2269.918722577861</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I39" t="n">
         <v>5.06</v>
@@ -1879,12 +1887,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1893,68 +1901,72 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3558</v>
+        <v>8929</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1214200</v>
+        <v>1260812</v>
       </c>
       <c r="G40" t="n">
-        <v>1538785000</v>
+        <v>1699255000</v>
       </c>
       <c r="H40" t="n">
-        <v>1267.324164058639</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I40" t="n">
-        <v>10.57</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2329</v>
+        <v>7278</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+        <v>115400</v>
+      </c>
+      <c r="G41" t="n">
+        <v>302115000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2617.980935875217</v>
+      </c>
       <c r="I41" t="n">
-        <v>9.550000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1963,31 +1975,35 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2329</v>
+        <v>3591</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+        <v>2846091</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6888596000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2420.370957920882</v>
+      </c>
       <c r="I42" t="n">
-        <v>9.550000000000001</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1996,72 +2012,72 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4324</v>
+        <v>4042</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>13655200</v>
+        <v>16459200</v>
       </c>
       <c r="G43" t="n">
-        <v>56753467000</v>
+        <v>33451116000</v>
       </c>
       <c r="H43" t="n">
-        <v>4156.179843576074</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I43" t="n">
-        <v>5.050000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3608</v>
+        <v>4521</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4569000</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>2005111000</v>
+        <v>353000</v>
       </c>
       <c r="H44" t="n">
-        <v>438.851170934559</v>
+        <v>3530</v>
       </c>
       <c r="I44" t="n">
-        <v>5.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2070,98 +2086,1340 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6236</v>
+        <v>4347</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>911500</v>
+        <v>400493</v>
       </c>
       <c r="G45" t="n">
-        <v>1306557000</v>
+        <v>580713000</v>
       </c>
       <c r="H45" t="n">
-        <v>1433.414152495886</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I45" t="n">
-        <v>19.45</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7272</v>
+        <v>9024</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>17688500</v>
+        <v>16207437</v>
       </c>
       <c r="G46" t="n">
-        <v>52513090000</v>
+        <v>27823532000</v>
       </c>
       <c r="H46" t="n">
-        <v>2968.770104870396</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I46" t="n">
-        <v>5.050000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>S100TDVX.zip</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1518</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" t="n">
+        <v>292000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2920</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>S100TBA3.zip</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>7731</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>17639800</v>
+      </c>
+      <c r="G48" t="n">
+        <v>26675255000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1512.21980974841</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>S100TB1B.zip</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4536</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>18290500</v>
+      </c>
+      <c r="G49" t="n">
+        <v>24591924000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1344.518957928979</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>S100T7B6.zip</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4185</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>405000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4050</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>S100T0IC.zip</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4549</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>2006900</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3367745000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1678.083113259255</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>S100SXVR.zip</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>8304</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>100</v>
+      </c>
+      <c r="G52" t="n">
+        <v>219000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2190</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>S100SY8N.zip</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3328</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>845300</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1219326000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1442.477227019993</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>S100SW6R.zip</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3328</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>675500</v>
+      </c>
+      <c r="G54" t="n">
+        <v>976503000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1445.60029607698</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5.220000000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>S100SO4R.zip</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>5541</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>100</v>
+      </c>
+      <c r="G55" t="n">
+        <v>117000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1170</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>S100S8AS.zip</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4987</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1543800</v>
+      </c>
+      <c r="G56" t="n">
+        <v>874286000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>566.3207669387226</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.779999999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>S100S1V3.zip</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2501</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>4010500</v>
+      </c>
+      <c r="G57" t="n">
+        <v>10817766000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2697.360927565142</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>S100RZUR.zip</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4023</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>100</v>
+      </c>
+      <c r="G58" t="n">
+        <v>796000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7960</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>S100RYJW.zip</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>5844</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>4998800</v>
+      </c>
+      <c r="G59" t="n">
+        <v>24949147000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4991.027246539169</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>S100RX5R.zip</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>8303</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2800.725</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>S100RVIC.zip</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2812</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>S100RT6D.zip</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>9072</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>8377400</v>
+      </c>
+      <c r="G62" t="n">
+        <v>13394541000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1598.889989734285</v>
+      </c>
+      <c r="I62" t="n">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>S100R23B.zip</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>8140</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1322800</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4536170000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3429.218324765649</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>S100QVSV.zip</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1878</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3452100</v>
+      </c>
+      <c r="G64" t="n">
+        <v>44793976000</v>
+      </c>
+      <c r="H64" t="n">
+        <v>12975.86280814577</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>S100QSK8.zip</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>7350</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>S100QP55.zip</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>6770</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>11259700</v>
+      </c>
+      <c r="G66" t="n">
+        <v>14161429000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1257.709264012363</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>S100QNRY.zip</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>5561200</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12623472000</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2269.918722577861</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>S100QNNV.zip</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3085</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1756300</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4694343000</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2672.859420372374</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>S100QJNN.zip</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>9842</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>2082200</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3059101000</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1469.167707232735</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.029999999999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>S100QGUZ.zip</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3558</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>1214200</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1267.324164058639</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>S100QF8K.zip</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>4463000</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>S100QF0T.zip</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>4463000</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>S100QDGW.zip</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4324</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>13655200</v>
+      </c>
+      <c r="G73" t="n">
+        <v>56753467000</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4156.179843576074</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5.050000000000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>S100QBB7.zip</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>3608</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>4569000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2005111000</v>
+      </c>
+      <c r="H74" t="n">
+        <v>438.851170934559</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>S100Q8UN.zip</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>6804</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>3315900</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4322098000</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1303.446424801713</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>S100Q1O2.zip</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>6236</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>911500</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1306557000</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1433.414152495886</v>
+      </c>
+      <c r="I76" t="n">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>S100Q1FN.zip</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>6770</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>2344200</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2853488000</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1217.254500469243</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>S100PZAN.zip</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>7272</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>17688500</v>
+      </c>
+      <c r="G78" t="n">
+        <v>52513090000</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2968.770104870396</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.050000000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>S100PYKO.zip</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D79" t="n">
         <v>4956</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2023-01-11</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="F79" t="n">
         <v>2039200</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G79" t="n">
         <v>3273303000</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H79" t="n">
         <v>1605.189780306002</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I79" t="n">
         <v>5.01</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>S100PA7Q.zip</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>9842</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1974900</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2942498000</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1489.94784546053</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>S100P7Z9.zip</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2022-09-14_01_2022-09-22.csv</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1822</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>915931</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3288212000</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3590.021519088228</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.07</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,49 +483,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6145</v>
+        <v>5983</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>44800</v>
       </c>
       <c r="G2" t="n">
-        <v>171000</v>
+        <v>315399000</v>
       </c>
       <c r="H2" t="n">
-        <v>1710</v>
+        <v>7040.15625</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,21 +534,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6908</v>
+        <v>6145</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>992000</v>
+        <v>171000</v>
       </c>
       <c r="H3" t="n">
-        <v>2480</v>
+        <v>1710</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -557,110 +557,110 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1878</v>
+        <v>6908</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3475000</v>
+        <v>400</v>
       </c>
       <c r="G4" t="n">
-        <v>47745269000</v>
+        <v>992000</v>
       </c>
       <c r="H4" t="n">
-        <v>13739.64575539568</v>
+        <v>2480</v>
       </c>
       <c r="I4" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9302</v>
+        <v>3328</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3799000</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5671170000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1492.806001579363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>5.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -703,12 +703,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -717,72 +717,72 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9684</v>
+        <v>9302</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6704059</v>
+        <v>3799000</v>
       </c>
       <c r="G8" t="n">
-        <v>42054369000</v>
+        <v>5671170000</v>
       </c>
       <c r="H8" t="n">
-        <v>6272.971195510064</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I8" t="n">
-        <v>5.47</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G9" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H9" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -791,21 +791,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H10" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -814,197 +814,197 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6927</v>
+        <v>6332</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1142700</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>1023871000</v>
+        <v>141000</v>
       </c>
       <c r="H11" t="n">
-        <v>896.0103264198827</v>
+        <v>1410</v>
       </c>
       <c r="I11" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4676</v>
+        <v>6927</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G12" t="n">
-        <v>242000</v>
+        <v>1023871000</v>
       </c>
       <c r="H12" t="n">
-        <v>2420</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H13" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I13" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G14" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H14" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I14" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G15" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H15" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1013,183 +1013,183 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H16" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4512</v>
+        <v>6890</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2137400</v>
+        <v>30000</v>
       </c>
       <c r="G17" t="n">
-        <v>620573000</v>
+        <v>71610000</v>
       </c>
       <c r="H17" t="n">
-        <v>290.3401328717133</v>
+        <v>2387</v>
       </c>
       <c r="I17" t="n">
-        <v>6.140000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G18" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H18" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9987</v>
+        <v>9006</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3888200</v>
+        <v>30000</v>
       </c>
       <c r="G19" t="n">
-        <v>16086019000</v>
+        <v>34824000</v>
       </c>
       <c r="H19" t="n">
-        <v>4137.137750115735</v>
+        <v>1160.8</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3861</v>
+        <v>9987</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>3888200</v>
       </c>
       <c r="G20" t="n">
-        <v>59000</v>
+        <v>16086019000</v>
       </c>
       <c r="H20" t="n">
-        <v>590</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1198,21 +1198,21 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5715</v>
+        <v>3861</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>160000</v>
+        <v>59000</v>
       </c>
       <c r="H21" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1221,12 +1221,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1235,21 +1235,21 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9257</v>
+        <v>5715</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>57000</v>
+        <v>160000</v>
       </c>
       <c r="H22" t="n">
-        <v>570</v>
+        <v>1600</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1258,12 +1258,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1272,35 +1272,35 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6908</v>
+        <v>9257</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>502000</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>1257178000</v>
+        <v>57000</v>
       </c>
       <c r="H23" t="n">
-        <v>2504.338645418327</v>
+        <v>570</v>
       </c>
       <c r="I23" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1309,81 +1309,81 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5482</v>
+        <v>6908</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>433300</v>
+        <v>502000</v>
       </c>
       <c r="G24" t="n">
-        <v>1367192000</v>
+        <v>1257178000</v>
       </c>
       <c r="H24" t="n">
-        <v>3155.301177013616</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I24" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4272</v>
+        <v>5482</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>26855100</v>
+        <v>433300</v>
       </c>
       <c r="G25" t="n">
-        <v>29860350000</v>
+        <v>1367192000</v>
       </c>
       <c r="H25" t="n">
-        <v>1111.90611839092</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I25" t="n">
-        <v>15.75</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8141</v>
+        <v>4272</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1391,27 +1391,27 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G26" t="n">
-        <v>93000</v>
+        <v>29860350000</v>
       </c>
       <c r="H26" t="n">
-        <v>930</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1420,21 +1420,21 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6145</v>
+        <v>8141</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>171000</v>
+        <v>93000</v>
       </c>
       <c r="H27" t="n">
-        <v>1710</v>
+        <v>930</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1443,123 +1443,123 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2327</v>
+        <v>6145</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>9154320</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>23450671000</v>
+        <v>171000</v>
       </c>
       <c r="H28" t="n">
-        <v>2561.705402476645</v>
+        <v>1710</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3989</v>
+        <v>2327</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1206000</v>
+        <v>9154320</v>
       </c>
       <c r="G29" t="n">
-        <v>787604000</v>
+        <v>23450671000</v>
       </c>
       <c r="H29" t="n">
-        <v>653.0713101160862</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I29" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6908</v>
+        <v>3989</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>1206000</v>
       </c>
       <c r="G30" t="n">
-        <v>288000</v>
+        <v>787604000</v>
       </c>
       <c r="H30" t="n">
-        <v>2880</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1568,72 +1568,72 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5988</v>
+        <v>6908</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>527300</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>1212090000</v>
+        <v>288000</v>
       </c>
       <c r="H31" t="n">
-        <v>2298.672482457804</v>
+        <v>2880</v>
       </c>
       <c r="I31" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3529</v>
+        <v>5988</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>998000</v>
+        <v>527300</v>
       </c>
       <c r="G32" t="n">
-        <v>667598000</v>
+        <v>1212090000</v>
       </c>
       <c r="H32" t="n">
-        <v>668.9358717434869</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I32" t="n">
-        <v>5.76</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1642,72 +1642,72 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7305</v>
+        <v>3529</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>309800</v>
+        <v>998000</v>
       </c>
       <c r="G33" t="n">
-        <v>1321438000</v>
+        <v>667598000</v>
       </c>
       <c r="H33" t="n">
-        <v>4265.455132343447</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I33" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5541</v>
+        <v>7305</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>309800</v>
       </c>
       <c r="G34" t="n">
-        <v>127000</v>
+        <v>1321438000</v>
       </c>
       <c r="H34" t="n">
-        <v>1270</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1716,21 +1716,21 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8803</v>
+        <v>5541</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>361000</v>
+        <v>127000</v>
       </c>
       <c r="H35" t="n">
-        <v>3610</v>
+        <v>1270</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1739,86 +1739,86 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8129</v>
+        <v>8803</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7258230</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>24720910000</v>
+        <v>361000</v>
       </c>
       <c r="H36" t="n">
-        <v>3405.914389596362</v>
+        <v>3610</v>
       </c>
       <c r="I36" t="n">
-        <v>9.460000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3666</v>
+        <v>8129</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1053200</v>
+        <v>7258230</v>
       </c>
       <c r="G37" t="n">
-        <v>663809000</v>
+        <v>24720910000</v>
       </c>
       <c r="H37" t="n">
-        <v>630.278199772123</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I37" t="n">
-        <v>5.16</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1827,172 +1827,172 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4347</v>
+        <v>3666</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>614893</v>
+        <v>1053200</v>
       </c>
       <c r="G38" t="n">
-        <v>940560000</v>
+        <v>663809000</v>
       </c>
       <c r="H38" t="n">
-        <v>1529.631984751819</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I38" t="n">
-        <v>8.200000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8129</v>
+        <v>4347</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3886330</v>
+        <v>614893</v>
       </c>
       <c r="G39" t="n">
-        <v>10549885000</v>
+        <v>940560000</v>
       </c>
       <c r="H39" t="n">
-        <v>2714.613787300615</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I39" t="n">
-        <v>5.06</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8929</v>
+        <v>8129</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1260812</v>
+        <v>3886330</v>
       </c>
       <c r="G40" t="n">
-        <v>1699255000</v>
+        <v>10549885000</v>
       </c>
       <c r="H40" t="n">
-        <v>1347.74653160027</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I40" t="n">
-        <v>5.140000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7278</v>
+        <v>8929</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>115400</v>
+        <v>1260812</v>
       </c>
       <c r="G41" t="n">
-        <v>302115000</v>
+        <v>1699255000</v>
       </c>
       <c r="H41" t="n">
-        <v>2617.980935875217</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I41" t="n">
-        <v>0.24</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3591</v>
+        <v>7278</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2846091</v>
+        <v>115400</v>
       </c>
       <c r="G42" t="n">
-        <v>6888596000</v>
+        <v>302115000</v>
       </c>
       <c r="H42" t="n">
-        <v>2420.370957920882</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I42" t="n">
-        <v>5.13</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="43">
@@ -2035,197 +2035,197 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4521</v>
+        <v>3591</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>2846091</v>
       </c>
       <c r="G44" t="n">
-        <v>353000</v>
+        <v>6888596000</v>
       </c>
       <c r="H44" t="n">
-        <v>3530</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4347</v>
+        <v>4521</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>400493</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>580713000</v>
+        <v>353000</v>
       </c>
       <c r="H45" t="n">
-        <v>1449.995380693296</v>
+        <v>3530</v>
       </c>
       <c r="I45" t="n">
-        <v>5.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9024</v>
+        <v>4347</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>16207437</v>
+        <v>400493</v>
       </c>
       <c r="G46" t="n">
-        <v>27823532000</v>
+        <v>580713000</v>
       </c>
       <c r="H46" t="n">
-        <v>1716.713876475349</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I46" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1518</v>
+        <v>9024</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>16207437</v>
       </c>
       <c r="G47" t="n">
-        <v>292000</v>
+        <v>27823532000</v>
       </c>
       <c r="H47" t="n">
-        <v>2920</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7731</v>
+        <v>1518</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>26675255000</v>
+        <v>292000</v>
       </c>
       <c r="H48" t="n">
-        <v>1512.21980974841</v>
+        <v>2920</v>
       </c>
       <c r="I48" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2234,21 +2234,21 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4536</v>
+        <v>7731</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>18290500</v>
+        <v>17639800</v>
       </c>
       <c r="G49" t="n">
-        <v>24591924000</v>
+        <v>26675255000</v>
       </c>
       <c r="H49" t="n">
-        <v>1344.518957928979</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I49" t="n">
         <v>5.02</v>
@@ -2257,160 +2257,160 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4185</v>
+        <v>4536</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>18290500</v>
       </c>
       <c r="G50" t="n">
-        <v>405000</v>
+        <v>24591924000</v>
       </c>
       <c r="H50" t="n">
-        <v>4050</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4549</v>
+        <v>4185</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2006900</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>3367745000</v>
+        <v>405000</v>
       </c>
       <c r="H51" t="n">
-        <v>1678.083113259255</v>
+        <v>4050</v>
       </c>
       <c r="I51" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8304</v>
+        <v>4549</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>2006900</v>
       </c>
       <c r="G52" t="n">
-        <v>219000</v>
+        <v>3367745000</v>
       </c>
       <c r="H52" t="n">
-        <v>2190</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3328</v>
+        <v>8304</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>845300</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>1219326000</v>
+        <v>219000</v>
       </c>
       <c r="H53" t="n">
-        <v>1442.477227019993</v>
+        <v>2190</v>
       </c>
       <c r="I53" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2423,68 +2423,68 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>675500</v>
+        <v>845300</v>
       </c>
       <c r="G54" t="n">
-        <v>976503000</v>
+        <v>1219326000</v>
       </c>
       <c r="H54" t="n">
-        <v>1445.60029607698</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I54" t="n">
-        <v>5.220000000000001</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5541</v>
+        <v>3328</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>675500</v>
       </c>
       <c r="G55" t="n">
-        <v>117000</v>
+        <v>976503000</v>
       </c>
       <c r="H55" t="n">
-        <v>1170</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2493,327 +2493,327 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4987</v>
+        <v>5541</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1543800</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>874286000</v>
+        <v>117000</v>
       </c>
       <c r="H56" t="n">
-        <v>566.3207669387226</v>
+        <v>1170</v>
       </c>
       <c r="I56" t="n">
-        <v>5.779999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2501</v>
+        <v>4987</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4010500</v>
+        <v>1543800</v>
       </c>
       <c r="G57" t="n">
-        <v>10817766000</v>
+        <v>874286000</v>
       </c>
       <c r="H57" t="n">
-        <v>2697.360927565142</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I57" t="n">
-        <v>5.09</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4023</v>
+        <v>2501</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>4010500</v>
       </c>
       <c r="G58" t="n">
-        <v>796000</v>
+        <v>10817766000</v>
       </c>
       <c r="H58" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5844</v>
+        <v>4023</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>24949147000</v>
+        <v>796000</v>
       </c>
       <c r="H59" t="n">
-        <v>4991.027246539169</v>
+        <v>7960</v>
       </c>
       <c r="I59" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8303</v>
+        <v>5844</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>20000000</v>
+        <v>4998800</v>
       </c>
       <c r="G60" t="n">
-        <v>56014500000</v>
+        <v>24949147000</v>
       </c>
       <c r="H60" t="n">
-        <v>2800.725</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I60" t="n">
-        <v>9.75</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2812</v>
+        <v>8303</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I61" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>9072</v>
+        <v>2812</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8377400</v>
-      </c>
-      <c r="G62" t="n">
-        <v>13394541000</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1598.889989734285</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>12.74</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>8140</v>
+        <v>9072</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1322800</v>
+        <v>8377400</v>
       </c>
       <c r="G63" t="n">
-        <v>4536170000</v>
+        <v>13394541000</v>
       </c>
       <c r="H63" t="n">
-        <v>3429.218324765649</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I63" t="n">
-        <v>5.29</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1878</v>
+        <v>8140</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3452100</v>
+        <v>1322800</v>
       </c>
       <c r="G64" t="n">
-        <v>44793976000</v>
+        <v>4536170000</v>
       </c>
       <c r="H64" t="n">
-        <v>12975.86280814577</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I64" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2822,142 +2822,142 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>7350</v>
+        <v>1878</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+        <v>3452100</v>
+      </c>
+      <c r="G65" t="n">
+        <v>44793976000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>12975.86280814577</v>
+      </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6770</v>
+        <v>7350</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>11259700</v>
-      </c>
-      <c r="G66" t="n">
-        <v>14161429000</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1257.709264012363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>5.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1951</v>
+        <v>6770</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5561200</v>
+        <v>11259700</v>
       </c>
       <c r="G67" t="n">
-        <v>12623472000</v>
+        <v>14161429000</v>
       </c>
       <c r="H67" t="n">
-        <v>2269.918722577861</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I67" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3085</v>
+        <v>1951</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1756300</v>
+        <v>5561200</v>
       </c>
       <c r="G68" t="n">
-        <v>4694343000</v>
+        <v>12623472000</v>
       </c>
       <c r="H68" t="n">
-        <v>2672.859420372374</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I68" t="n">
-        <v>5.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2966,94 +2966,98 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9842</v>
+        <v>3085</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2082200</v>
+        <v>1756300</v>
       </c>
       <c r="G69" t="n">
-        <v>3059101000</v>
+        <v>4694343000</v>
       </c>
       <c r="H69" t="n">
-        <v>1469.167707232735</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I69" t="n">
-        <v>5.029999999999999</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3558</v>
+        <v>9842</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1214200</v>
+        <v>2082200</v>
       </c>
       <c r="G70" t="n">
-        <v>1538785000</v>
+        <v>3059101000</v>
       </c>
       <c r="H70" t="n">
-        <v>1267.324164058639</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="I70" t="n">
-        <v>10.57</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2329</v>
+        <v>3558</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+        <v>1214200</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1267.324164058639</v>
+      </c>
       <c r="I71" t="n">
-        <v>9.550000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="72">
@@ -3092,333 +3096,366 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QF8K.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4324</v>
+        <v>2329</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G73" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H73" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>5.050000000000001</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3608</v>
+        <v>4324</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4569000</v>
+        <v>13655200</v>
       </c>
       <c r="G74" t="n">
-        <v>2005111000</v>
+        <v>56753467000</v>
       </c>
       <c r="H74" t="n">
-        <v>438.851170934559</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I74" t="n">
-        <v>5.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6804</v>
+        <v>3608</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3315900</v>
+        <v>4569000</v>
       </c>
       <c r="G75" t="n">
-        <v>4322098000</v>
+        <v>2005111000</v>
       </c>
       <c r="H75" t="n">
-        <v>1303.446424801713</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I75" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6236</v>
+        <v>6804</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>911500</v>
+        <v>3315900</v>
       </c>
       <c r="G76" t="n">
-        <v>1306557000</v>
+        <v>4322098000</v>
       </c>
       <c r="H76" t="n">
-        <v>1433.414152495886</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I76" t="n">
-        <v>19.45</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6770</v>
+        <v>6236</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2344200</v>
+        <v>911500</v>
       </c>
       <c r="G77" t="n">
-        <v>2853488000</v>
+        <v>1306557000</v>
       </c>
       <c r="H77" t="n">
-        <v>1217.254500469243</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I77" t="n">
-        <v>1.07</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7272</v>
+        <v>6770</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>17688500</v>
+        <v>2344200</v>
       </c>
       <c r="G78" t="n">
-        <v>52513090000</v>
+        <v>2853488000</v>
       </c>
       <c r="H78" t="n">
-        <v>2968.770104870396</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I78" t="n">
-        <v>5.050000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4956</v>
+        <v>7272</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2039200</v>
+        <v>17688500</v>
       </c>
       <c r="G79" t="n">
-        <v>3273303000</v>
+        <v>52513090000</v>
       </c>
       <c r="H79" t="n">
-        <v>1605.189780306002</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I79" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100PA7Q.zip</t>
+          <t>S100PYKO.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>9842</v>
+        <v>4956</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1974900</v>
+        <v>2039200</v>
       </c>
       <c r="G80" t="n">
-        <v>2942498000</v>
+        <v>3273303000</v>
       </c>
       <c r="H80" t="n">
-        <v>1489.94784546053</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="I80" t="n">
-        <v>4.77</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>S100PA7Q.zip</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>9842</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1974900</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2942498000</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1489.94784546053</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
           <t>S100P7Z9.zip</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E35393-000_2022-09-14_01_2022-09-22.csv</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D82" t="n">
         <v>1822</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2022-09-14</t>
         </is>
       </c>
-      <c r="F81" t="n">
+      <c r="F82" t="n">
         <v>915931</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G82" t="n">
         <v>3288212000</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H82" t="n">
         <v>3590.021519088228</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I82" t="n">
         <v>5.07</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -520,49 +520,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6145</v>
+        <v>5983</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>44800</v>
       </c>
       <c r="G3" t="n">
-        <v>171000</v>
+        <v>315399000</v>
       </c>
       <c r="H3" t="n">
-        <v>1710</v>
+        <v>7040.15625</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,21 +571,21 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6908</v>
+        <v>6145</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>992000</v>
+        <v>171000</v>
       </c>
       <c r="H4" t="n">
-        <v>2480</v>
+        <v>1710</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -594,84 +594,86 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1878</v>
+        <v>6908</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3475000</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>47745269000</v>
+        <v>992000</v>
       </c>
       <c r="H5" t="n">
-        <v>13739.64575539568</v>
+        <v>2480</v>
       </c>
       <c r="I5" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,24 +682,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3106</v>
+        <v>3328</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>900156</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4095263000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4549.503641591014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -740,86 +740,86 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9684</v>
+        <v>3106</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6704059</v>
+        <v>900156</v>
       </c>
       <c r="G9" t="n">
-        <v>42054369000</v>
+        <v>4095263000</v>
       </c>
       <c r="H9" t="n">
-        <v>6272.971195510064</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I9" t="n">
-        <v>5.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G10" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H10" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -828,21 +828,21 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H11" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -851,197 +851,197 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6927</v>
+        <v>6332</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1142700</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>1023871000</v>
+        <v>141000</v>
       </c>
       <c r="H12" t="n">
-        <v>896.0103264198827</v>
+        <v>1410</v>
       </c>
       <c r="I12" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4676</v>
+        <v>6927</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G13" t="n">
-        <v>242000</v>
+        <v>1023871000</v>
       </c>
       <c r="H13" t="n">
-        <v>2420</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H14" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I14" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G15" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H15" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I15" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G16" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H16" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1050,183 +1050,183 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H17" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4512</v>
+        <v>6890</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2137400</v>
+        <v>30000</v>
       </c>
       <c r="G18" t="n">
-        <v>620573000</v>
+        <v>71610000</v>
       </c>
       <c r="H18" t="n">
-        <v>290.3401328717133</v>
+        <v>2387</v>
       </c>
       <c r="I18" t="n">
-        <v>6.140000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G19" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H19" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9987</v>
+        <v>9006</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3888200</v>
+        <v>30000</v>
       </c>
       <c r="G20" t="n">
-        <v>16086019000</v>
+        <v>34824000</v>
       </c>
       <c r="H20" t="n">
-        <v>4137.137750115735</v>
+        <v>1160.8</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3861</v>
+        <v>9987</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>3888200</v>
       </c>
       <c r="G21" t="n">
-        <v>59000</v>
+        <v>16086019000</v>
       </c>
       <c r="H21" t="n">
-        <v>590</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1235,21 +1235,21 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5715</v>
+        <v>3861</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>160000</v>
+        <v>59000</v>
       </c>
       <c r="H22" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1258,12 +1258,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1272,21 +1272,21 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9257</v>
+        <v>5715</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>57000</v>
+        <v>160000</v>
       </c>
       <c r="H23" t="n">
-        <v>570</v>
+        <v>1600</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1295,12 +1295,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1309,35 +1309,35 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6908</v>
+        <v>9257</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>502000</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>1257178000</v>
+        <v>57000</v>
       </c>
       <c r="H24" t="n">
-        <v>2504.338645418327</v>
+        <v>570</v>
       </c>
       <c r="I24" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1346,81 +1346,81 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5482</v>
+        <v>6908</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>433300</v>
+        <v>502000</v>
       </c>
       <c r="G25" t="n">
-        <v>1367192000</v>
+        <v>1257178000</v>
       </c>
       <c r="H25" t="n">
-        <v>3155.301177013616</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I25" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4272</v>
+        <v>5482</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>26855100</v>
+        <v>433300</v>
       </c>
       <c r="G26" t="n">
-        <v>29860350000</v>
+        <v>1367192000</v>
       </c>
       <c r="H26" t="n">
-        <v>1111.90611839092</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I26" t="n">
-        <v>15.75</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8141</v>
+        <v>4272</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1428,27 +1428,27 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G27" t="n">
-        <v>93000</v>
+        <v>29860350000</v>
       </c>
       <c r="H27" t="n">
-        <v>930</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1457,21 +1457,21 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6145</v>
+        <v>8141</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>171000</v>
+        <v>93000</v>
       </c>
       <c r="H28" t="n">
-        <v>1710</v>
+        <v>930</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1480,123 +1480,123 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2327</v>
+        <v>6145</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9154320</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>23450671000</v>
+        <v>171000</v>
       </c>
       <c r="H29" t="n">
-        <v>2561.705402476645</v>
+        <v>1710</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3989</v>
+        <v>2327</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1206000</v>
+        <v>9154320</v>
       </c>
       <c r="G30" t="n">
-        <v>787604000</v>
+        <v>23450671000</v>
       </c>
       <c r="H30" t="n">
-        <v>653.0713101160862</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I30" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6908</v>
+        <v>3989</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>1206000</v>
       </c>
       <c r="G31" t="n">
-        <v>288000</v>
+        <v>787604000</v>
       </c>
       <c r="H31" t="n">
-        <v>2880</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1605,72 +1605,72 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5988</v>
+        <v>6908</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>527300</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>1212090000</v>
+        <v>288000</v>
       </c>
       <c r="H32" t="n">
-        <v>2298.672482457804</v>
+        <v>2880</v>
       </c>
       <c r="I32" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3529</v>
+        <v>5988</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>998000</v>
+        <v>527300</v>
       </c>
       <c r="G33" t="n">
-        <v>667598000</v>
+        <v>1212090000</v>
       </c>
       <c r="H33" t="n">
-        <v>668.9358717434869</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I33" t="n">
-        <v>5.76</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1679,72 +1679,72 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7305</v>
+        <v>3529</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>309800</v>
+        <v>998000</v>
       </c>
       <c r="G34" t="n">
-        <v>1321438000</v>
+        <v>667598000</v>
       </c>
       <c r="H34" t="n">
-        <v>4265.455132343447</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I34" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5541</v>
+        <v>7305</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>309800</v>
       </c>
       <c r="G35" t="n">
-        <v>127000</v>
+        <v>1321438000</v>
       </c>
       <c r="H35" t="n">
-        <v>1270</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1753,21 +1753,21 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8803</v>
+        <v>5541</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>361000</v>
+        <v>127000</v>
       </c>
       <c r="H36" t="n">
-        <v>3610</v>
+        <v>1270</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1776,86 +1776,86 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8129</v>
+        <v>8803</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7258230</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>24720910000</v>
+        <v>361000</v>
       </c>
       <c r="H37" t="n">
-        <v>3405.914389596362</v>
+        <v>3610</v>
       </c>
       <c r="I37" t="n">
-        <v>9.460000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3666</v>
+        <v>8129</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1053200</v>
+        <v>7258230</v>
       </c>
       <c r="G38" t="n">
-        <v>663809000</v>
+        <v>24720910000</v>
       </c>
       <c r="H38" t="n">
-        <v>630.278199772123</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I38" t="n">
-        <v>5.16</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1864,192 +1864,192 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4347</v>
+        <v>3666</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>614893</v>
+        <v>1053200</v>
       </c>
       <c r="G39" t="n">
-        <v>940560000</v>
+        <v>663809000</v>
       </c>
       <c r="H39" t="n">
-        <v>1529.631984751819</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I39" t="n">
-        <v>8.200000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8129</v>
+        <v>4347</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3886330</v>
+        <v>614893</v>
       </c>
       <c r="G40" t="n">
-        <v>10549885000</v>
+        <v>940560000</v>
       </c>
       <c r="H40" t="n">
-        <v>2714.613787300615</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I40" t="n">
-        <v>5.06</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8929</v>
+        <v>8129</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1260812</v>
+        <v>3886330</v>
       </c>
       <c r="G41" t="n">
-        <v>1699255000</v>
+        <v>10549885000</v>
       </c>
       <c r="H41" t="n">
-        <v>1347.74653160027</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I41" t="n">
-        <v>5.140000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7278</v>
+        <v>8929</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>115400</v>
+        <v>1260812</v>
       </c>
       <c r="G42" t="n">
-        <v>302115000</v>
+        <v>1699255000</v>
       </c>
       <c r="H42" t="n">
-        <v>2617.980935875217</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I42" t="n">
-        <v>0.24</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4042</v>
+        <v>7278</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>16459200</v>
+        <v>115400</v>
       </c>
       <c r="G43" t="n">
-        <v>33451116000</v>
+        <v>302115000</v>
       </c>
       <c r="H43" t="n">
-        <v>2032.365850102071</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I43" t="n">
-        <v>5.06</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3591</v>
+        <v>4042</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2057,212 +2057,212 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2846091</v>
+        <v>16459200</v>
       </c>
       <c r="G44" t="n">
-        <v>6888596000</v>
+        <v>33451116000</v>
       </c>
       <c r="H44" t="n">
-        <v>2420.370957920882</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I44" t="n">
-        <v>5.13</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4521</v>
+        <v>3591</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>2846091</v>
       </c>
       <c r="G45" t="n">
-        <v>353000</v>
+        <v>6888596000</v>
       </c>
       <c r="H45" t="n">
-        <v>3530</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4347</v>
+        <v>4521</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>400493</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>580713000</v>
+        <v>353000</v>
       </c>
       <c r="H46" t="n">
-        <v>1449.995380693296</v>
+        <v>3530</v>
       </c>
       <c r="I46" t="n">
-        <v>5.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>9024</v>
+        <v>4347</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>16207437</v>
+        <v>400493</v>
       </c>
       <c r="G47" t="n">
-        <v>27823532000</v>
+        <v>580713000</v>
       </c>
       <c r="H47" t="n">
-        <v>1716.713876475349</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I47" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1518</v>
+        <v>9024</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>16207437</v>
       </c>
       <c r="G48" t="n">
-        <v>292000</v>
+        <v>27823532000</v>
       </c>
       <c r="H48" t="n">
-        <v>2920</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7731</v>
+        <v>1518</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>26675255000</v>
+        <v>292000</v>
       </c>
       <c r="H49" t="n">
-        <v>1512.21980974841</v>
+        <v>2920</v>
       </c>
       <c r="I49" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2271,21 +2271,21 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4536</v>
+        <v>7731</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>18290500</v>
+        <v>17639800</v>
       </c>
       <c r="G50" t="n">
-        <v>24591924000</v>
+        <v>26675255000</v>
       </c>
       <c r="H50" t="n">
-        <v>1344.518957928979</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I50" t="n">
         <v>5.02</v>
@@ -2294,160 +2294,160 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4185</v>
+        <v>4536</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>18290500</v>
       </c>
       <c r="G51" t="n">
-        <v>405000</v>
+        <v>24591924000</v>
       </c>
       <c r="H51" t="n">
-        <v>4050</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4549</v>
+        <v>4185</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2006900</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>3367745000</v>
+        <v>405000</v>
       </c>
       <c r="H52" t="n">
-        <v>1678.083113259255</v>
+        <v>4050</v>
       </c>
       <c r="I52" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>8304</v>
+        <v>4549</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>2006900</v>
       </c>
       <c r="G53" t="n">
-        <v>219000</v>
+        <v>3367745000</v>
       </c>
       <c r="H53" t="n">
-        <v>2190</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3328</v>
+        <v>8304</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>845300</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>1219326000</v>
+        <v>219000</v>
       </c>
       <c r="H54" t="n">
-        <v>1442.477227019993</v>
+        <v>2190</v>
       </c>
       <c r="I54" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2460,68 +2460,68 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>675500</v>
+        <v>845300</v>
       </c>
       <c r="G55" t="n">
-        <v>976503000</v>
+        <v>1219326000</v>
       </c>
       <c r="H55" t="n">
-        <v>1445.60029607698</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I55" t="n">
-        <v>5.220000000000001</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5541</v>
+        <v>3328</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>675500</v>
       </c>
       <c r="G56" t="n">
-        <v>117000</v>
+        <v>976503000</v>
       </c>
       <c r="H56" t="n">
-        <v>1170</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2530,327 +2530,327 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4987</v>
+        <v>5541</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1543800</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>874286000</v>
+        <v>117000</v>
       </c>
       <c r="H57" t="n">
-        <v>566.3207669387226</v>
+        <v>1170</v>
       </c>
       <c r="I57" t="n">
-        <v>5.779999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2501</v>
+        <v>4987</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4010500</v>
+        <v>1543800</v>
       </c>
       <c r="G58" t="n">
-        <v>10817766000</v>
+        <v>874286000</v>
       </c>
       <c r="H58" t="n">
-        <v>2697.360927565142</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I58" t="n">
-        <v>5.09</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4023</v>
+        <v>2501</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>4010500</v>
       </c>
       <c r="G59" t="n">
-        <v>796000</v>
+        <v>10817766000</v>
       </c>
       <c r="H59" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5844</v>
+        <v>4023</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>24949147000</v>
+        <v>796000</v>
       </c>
       <c r="H60" t="n">
-        <v>4991.027246539169</v>
+        <v>7960</v>
       </c>
       <c r="I60" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8303</v>
+        <v>5844</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>20000000</v>
+        <v>4998800</v>
       </c>
       <c r="G61" t="n">
-        <v>56014500000</v>
+        <v>24949147000</v>
       </c>
       <c r="H61" t="n">
-        <v>2800.725</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I61" t="n">
-        <v>9.75</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2812</v>
+        <v>8303</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I62" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>9072</v>
+        <v>2812</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>8377400</v>
-      </c>
-      <c r="G63" t="n">
-        <v>13394541000</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1598.889989734285</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>12.74</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8140</v>
+        <v>9072</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1322800</v>
+        <v>8377400</v>
       </c>
       <c r="G64" t="n">
-        <v>4536170000</v>
+        <v>13394541000</v>
       </c>
       <c r="H64" t="n">
-        <v>3429.218324765649</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I64" t="n">
-        <v>5.29</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1878</v>
+        <v>8140</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3452100</v>
+        <v>1322800</v>
       </c>
       <c r="G65" t="n">
-        <v>44793976000</v>
+        <v>4536170000</v>
       </c>
       <c r="H65" t="n">
-        <v>12975.86280814577</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I65" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2859,142 +2859,142 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7350</v>
+        <v>1878</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+        <v>3452100</v>
+      </c>
+      <c r="G66" t="n">
+        <v>44793976000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>12975.86280814577</v>
+      </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6770</v>
+        <v>7350</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>11259700</v>
-      </c>
-      <c r="G67" t="n">
-        <v>14161429000</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1257.709264012363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>5.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1951</v>
+        <v>6770</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>5561200</v>
+        <v>11259700</v>
       </c>
       <c r="G68" t="n">
-        <v>12623472000</v>
+        <v>14161429000</v>
       </c>
       <c r="H68" t="n">
-        <v>2269.918722577861</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I68" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3085</v>
+        <v>1951</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1756300</v>
+        <v>5561200</v>
       </c>
       <c r="G69" t="n">
-        <v>4694343000</v>
+        <v>12623472000</v>
       </c>
       <c r="H69" t="n">
-        <v>2672.859420372374</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I69" t="n">
-        <v>5.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3003,94 +3003,98 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9842</v>
+        <v>3085</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2082200</v>
+        <v>1756300</v>
       </c>
       <c r="G70" t="n">
-        <v>3059101000</v>
+        <v>4694343000</v>
       </c>
       <c r="H70" t="n">
-        <v>1469.167707232735</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I70" t="n">
-        <v>5.029999999999999</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3558</v>
+        <v>9842</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1214200</v>
+        <v>2082200</v>
       </c>
       <c r="G71" t="n">
-        <v>1538785000</v>
+        <v>3059101000</v>
       </c>
       <c r="H71" t="n">
-        <v>1267.324164058639</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="I71" t="n">
-        <v>10.57</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2329</v>
+        <v>3558</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+        <v>1214200</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1267.324164058639</v>
+      </c>
       <c r="I72" t="n">
-        <v>9.550000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="73">
@@ -3129,333 +3133,366 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4324</v>
+        <v>2329</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G74" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H74" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>5.050000000000001</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3608</v>
+        <v>4324</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4569000</v>
+        <v>13655200</v>
       </c>
       <c r="G75" t="n">
-        <v>2005111000</v>
+        <v>56753467000</v>
       </c>
       <c r="H75" t="n">
-        <v>438.851170934559</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I75" t="n">
-        <v>5.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6804</v>
+        <v>3608</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3315900</v>
+        <v>4569000</v>
       </c>
       <c r="G76" t="n">
-        <v>4322098000</v>
+        <v>2005111000</v>
       </c>
       <c r="H76" t="n">
-        <v>1303.446424801713</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I76" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6236</v>
+        <v>6804</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>911500</v>
+        <v>3315900</v>
       </c>
       <c r="G77" t="n">
-        <v>1306557000</v>
+        <v>4322098000</v>
       </c>
       <c r="H77" t="n">
-        <v>1433.414152495886</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I77" t="n">
-        <v>19.45</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6770</v>
+        <v>6236</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2344200</v>
+        <v>911500</v>
       </c>
       <c r="G78" t="n">
-        <v>2853488000</v>
+        <v>1306557000</v>
       </c>
       <c r="H78" t="n">
-        <v>1217.254500469243</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I78" t="n">
-        <v>1.07</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>7272</v>
+        <v>6770</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>17688500</v>
+        <v>2344200</v>
       </c>
       <c r="G79" t="n">
-        <v>52513090000</v>
+        <v>2853488000</v>
       </c>
       <c r="H79" t="n">
-        <v>2968.770104870396</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I79" t="n">
-        <v>5.050000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4956</v>
+        <v>7272</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2039200</v>
+        <v>17688500</v>
       </c>
       <c r="G80" t="n">
-        <v>3273303000</v>
+        <v>52513090000</v>
       </c>
       <c r="H80" t="n">
-        <v>1605.189780306002</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I80" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100PA7Q.zip</t>
+          <t>S100PYKO.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>9842</v>
+        <v>4956</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1974900</v>
+        <v>2039200</v>
       </c>
       <c r="G81" t="n">
-        <v>2942498000</v>
+        <v>3273303000</v>
       </c>
       <c r="H81" t="n">
-        <v>1489.94784546053</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="I81" t="n">
-        <v>4.77</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>S100PA7Q.zip</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>9842</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1974900</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2942498000</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1489.94784546053</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
           <t>S100P7Z9.zip</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E35393-000_2022-09-14_01_2022-09-22.csv</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D83" t="n">
         <v>1822</v>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2022-09-14</t>
         </is>
       </c>
-      <c r="F82" t="n">
+      <c r="F83" t="n">
         <v>915931</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G83" t="n">
         <v>3288212000</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H83" t="n">
         <v>3590.021519088228</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I83" t="n">
         <v>5.07</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,38 +483,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5983</v>
+        <v>2229</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>44800</v>
+        <v>8012900</v>
       </c>
       <c r="G2" t="n">
-        <v>315399000</v>
+        <v>23390757000</v>
       </c>
       <c r="H2" t="n">
-        <v>7040.15625</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I2" t="n">
-        <v>4.07</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="3">
@@ -557,145 +557,147 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6145</v>
+        <v>5983</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>44800</v>
       </c>
       <c r="G4" t="n">
-        <v>171000</v>
+        <v>315399000</v>
       </c>
       <c r="H4" t="n">
-        <v>1710</v>
+        <v>7040.15625</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6908</v>
+        <v>6104</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>1297500</v>
       </c>
       <c r="G5" t="n">
-        <v>992000</v>
+        <v>4476090000</v>
       </c>
       <c r="H5" t="n">
-        <v>2480</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1878</v>
+        <v>6952</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3475000</v>
+        <v>12332900</v>
       </c>
       <c r="G6" t="n">
-        <v>47745269000</v>
+        <v>14653495000</v>
       </c>
       <c r="H6" t="n">
-        <v>13739.64575539568</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I6" t="n">
-        <v>5.04</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3328</v>
+        <v>6145</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>171000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1710</v>
+      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
@@ -703,257 +705,255 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9302</v>
+        <v>6908</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3799000</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>5671170000</v>
+        <v>992000</v>
       </c>
       <c r="H8" t="n">
-        <v>1492.806001579363</v>
+        <v>2480</v>
       </c>
       <c r="I8" t="n">
-        <v>5.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3106</v>
+        <v>1878</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>900156</v>
+        <v>3475000</v>
       </c>
       <c r="G9" t="n">
-        <v>4095263000</v>
+        <v>47745269000</v>
       </c>
       <c r="H9" t="n">
-        <v>4549.503641591014</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9684</v>
+        <v>3328</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6704059</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>42054369000</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6272.971195510064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>5.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4619</v>
+        <v>9302</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>3799000</v>
       </c>
       <c r="G11" t="n">
-        <v>119000</v>
+        <v>5671170000</v>
       </c>
       <c r="H11" t="n">
-        <v>1190</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6332</v>
+        <v>3106</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>900156</v>
       </c>
       <c r="G12" t="n">
-        <v>141000</v>
+        <v>4095263000</v>
       </c>
       <c r="H12" t="n">
-        <v>1410</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6927</v>
+        <v>9684</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1142700</v>
+        <v>6704059</v>
       </c>
       <c r="G13" t="n">
-        <v>1023871000</v>
+        <v>42054369000</v>
       </c>
       <c r="H13" t="n">
-        <v>896.0103264198827</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I13" t="n">
-        <v>5.01</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4676</v>
+        <v>4619</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>242000</v>
+        <v>119000</v>
       </c>
       <c r="H14" t="n">
-        <v>2420</v>
+        <v>1190</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -962,12 +962,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -976,257 +976,257 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1776</v>
+        <v>6332</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>153399000</v>
+        <v>141000</v>
       </c>
       <c r="H15" t="n">
-        <v>1212.640316205534</v>
+        <v>1410</v>
       </c>
       <c r="I15" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3963</v>
+        <v>4849</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1507900</v>
+        <v>2946942</v>
       </c>
       <c r="G16" t="n">
-        <v>635874000</v>
+        <v>5148132000</v>
       </c>
       <c r="H16" t="n">
-        <v>421.6950726175476</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I16" t="n">
-        <v>5.18</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6923</v>
+        <v>6927</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G17" t="n">
-        <v>256000</v>
+        <v>1023871000</v>
       </c>
       <c r="H17" t="n">
-        <v>2560</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6890</v>
+        <v>4676</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>71610000</v>
+        <v>242000</v>
       </c>
       <c r="H18" t="n">
-        <v>2387</v>
+        <v>2420</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4512</v>
+        <v>1776</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2137400</v>
+        <v>126500</v>
       </c>
       <c r="G19" t="n">
-        <v>620573000</v>
+        <v>153399000</v>
       </c>
       <c r="H19" t="n">
-        <v>290.3401328717133</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I19" t="n">
-        <v>6.140000000000001</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9006</v>
+        <v>3963</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>30000</v>
+        <v>1507900</v>
       </c>
       <c r="G20" t="n">
-        <v>34824000</v>
+        <v>635874000</v>
       </c>
       <c r="H20" t="n">
-        <v>1160.8</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9987</v>
+        <v>6923</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3888200</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>16086019000</v>
+        <v>256000</v>
       </c>
       <c r="H21" t="n">
-        <v>4137.137750115735</v>
+        <v>2560</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1235,72 +1235,72 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3861</v>
+        <v>6890</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="G22" t="n">
-        <v>59000</v>
+        <v>71610000</v>
       </c>
       <c r="H22" t="n">
-        <v>590</v>
+        <v>2387</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5715</v>
+        <v>4512</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>2137400</v>
       </c>
       <c r="G23" t="n">
-        <v>160000</v>
+        <v>620573000</v>
       </c>
       <c r="H23" t="n">
-        <v>1600</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1309,146 +1309,146 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9257</v>
+        <v>9006</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="G24" t="n">
-        <v>57000</v>
+        <v>34824000</v>
       </c>
       <c r="H24" t="n">
-        <v>570</v>
+        <v>1160.8</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6908</v>
+        <v>9987</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>502000</v>
+        <v>3888200</v>
       </c>
       <c r="G25" t="n">
-        <v>1257178000</v>
+        <v>16086019000</v>
       </c>
       <c r="H25" t="n">
-        <v>2504.338645418327</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I25" t="n">
-        <v>2.04</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100V7YO.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5482</v>
+        <v>4626</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>433300</v>
+        <v>4670190</v>
       </c>
       <c r="G26" t="n">
-        <v>1367192000</v>
+        <v>16652257000</v>
       </c>
       <c r="H26" t="n">
-        <v>3155.301177013616</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="I26" t="n">
-        <v>2.18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4272</v>
+        <v>7732</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>26855100</v>
+        <v>7995900</v>
       </c>
       <c r="G27" t="n">
-        <v>29860350000</v>
+        <v>16678425000</v>
       </c>
       <c r="H27" t="n">
-        <v>1111.90611839092</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I27" t="n">
-        <v>15.75</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1457,21 +1457,21 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8141</v>
+        <v>3861</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>93000</v>
+        <v>59000</v>
       </c>
       <c r="H28" t="n">
-        <v>930</v>
+        <v>590</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1480,12 +1480,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1494,21 +1494,21 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6145</v>
+        <v>5715</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>171000</v>
+        <v>160000</v>
       </c>
       <c r="H29" t="n">
-        <v>1710</v>
+        <v>1600</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1517,86 +1517,86 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2327</v>
+        <v>3978</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>9154320</v>
+        <v>2891700</v>
       </c>
       <c r="G30" t="n">
-        <v>23450671000</v>
+        <v>3425686000</v>
       </c>
       <c r="H30" t="n">
-        <v>2561.705402476645</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3989</v>
+        <v>4452</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1206000</v>
+        <v>24347342</v>
       </c>
       <c r="G31" t="n">
-        <v>787604000</v>
+        <v>148917027000</v>
       </c>
       <c r="H31" t="n">
-        <v>653.0713101160862</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1605,21 +1605,21 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6908</v>
+        <v>9257</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>288000</v>
+        <v>57000</v>
       </c>
       <c r="H32" t="n">
-        <v>2880</v>
+        <v>570</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1628,123 +1628,123 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5988</v>
+        <v>4385</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>527300</v>
+        <v>8815360</v>
       </c>
       <c r="G33" t="n">
-        <v>1212090000</v>
+        <v>17684138000</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.672482457804</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I33" t="n">
-        <v>1.42</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3529</v>
+        <v>7984</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>998000</v>
+        <v>6096500</v>
       </c>
       <c r="G34" t="n">
-        <v>667598000</v>
+        <v>13153972000</v>
       </c>
       <c r="H34" t="n">
-        <v>668.9358717434869</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I34" t="n">
-        <v>5.76</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7305</v>
+        <v>1973</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>309800</v>
+        <v>8973383</v>
       </c>
       <c r="G35" t="n">
-        <v>1321438000</v>
+        <v>24947403000</v>
       </c>
       <c r="H35" t="n">
-        <v>4265.455132343447</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I35" t="n">
-        <v>5.12</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1753,35 +1753,35 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5541</v>
+        <v>6908</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>502000</v>
       </c>
       <c r="G36" t="n">
-        <v>127000</v>
+        <v>1257178000</v>
       </c>
       <c r="H36" t="n">
-        <v>1270</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1790,331 +1790,331 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8803</v>
+        <v>5482</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>433300</v>
       </c>
       <c r="G37" t="n">
-        <v>361000</v>
+        <v>1367192000</v>
       </c>
       <c r="H37" t="n">
-        <v>3610</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8129</v>
+        <v>4272</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>7258230</v>
+        <v>26855100</v>
       </c>
       <c r="G38" t="n">
-        <v>24720910000</v>
+        <v>29860350000</v>
       </c>
       <c r="H38" t="n">
-        <v>3405.914389596362</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I38" t="n">
-        <v>9.460000000000001</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3666</v>
+        <v>8141</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1053200</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>663809000</v>
+        <v>93000</v>
       </c>
       <c r="H39" t="n">
-        <v>630.278199772123</v>
+        <v>930</v>
       </c>
       <c r="I39" t="n">
-        <v>5.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4347</v>
+        <v>6145</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>614893</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>940560000</v>
+        <v>171000</v>
       </c>
       <c r="H40" t="n">
-        <v>1529.631984751819</v>
+        <v>1710</v>
       </c>
       <c r="I40" t="n">
-        <v>8.200000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100UBH9.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8129</v>
+        <v>3569</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3886330</v>
+        <v>4271704</v>
       </c>
       <c r="G41" t="n">
-        <v>10549885000</v>
+        <v>5808044000</v>
       </c>
       <c r="H41" t="n">
-        <v>2714.613787300615</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="I41" t="n">
-        <v>5.06</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8929</v>
+        <v>4205</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1260812</v>
+        <v>14426600</v>
       </c>
       <c r="G42" t="n">
-        <v>1699255000</v>
+        <v>24829312000</v>
       </c>
       <c r="H42" t="n">
-        <v>1347.74653160027</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I42" t="n">
-        <v>5.140000000000001</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7278</v>
+        <v>2327</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>115400</v>
+        <v>9154320</v>
       </c>
       <c r="G43" t="n">
-        <v>302115000</v>
+        <v>23450671000</v>
       </c>
       <c r="H43" t="n">
-        <v>2617.980935875217</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I43" t="n">
-        <v>0.24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4042</v>
+        <v>3989</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>16459200</v>
+        <v>1206000</v>
       </c>
       <c r="G44" t="n">
-        <v>33451116000</v>
+        <v>787604000</v>
       </c>
       <c r="H44" t="n">
-        <v>2032.365850102071</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I44" t="n">
-        <v>5.06</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3591</v>
+        <v>6908</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2846091</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>6888596000</v>
+        <v>288000</v>
       </c>
       <c r="H45" t="n">
-        <v>2420.370957920882</v>
+        <v>2880</v>
       </c>
       <c r="I45" t="n">
-        <v>5.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2123,35 +2123,35 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4521</v>
+        <v>5988</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>527300</v>
       </c>
       <c r="G46" t="n">
-        <v>353000</v>
+        <v>1212090000</v>
       </c>
       <c r="H46" t="n">
-        <v>3530</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2160,294 +2160,294 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4347</v>
+        <v>3529</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>400493</v>
+        <v>998000</v>
       </c>
       <c r="G47" t="n">
-        <v>580713000</v>
+        <v>667598000</v>
       </c>
       <c r="H47" t="n">
-        <v>1449.995380693296</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I47" t="n">
-        <v>5.06</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9024</v>
+        <v>7305</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>16207437</v>
+        <v>309800</v>
       </c>
       <c r="G48" t="n">
-        <v>27823532000</v>
+        <v>1321438000</v>
       </c>
       <c r="H48" t="n">
-        <v>1716.713876475349</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I48" t="n">
-        <v>5.01</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1518</v>
+        <v>2168</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>2094200</v>
       </c>
       <c r="G49" t="n">
-        <v>292000</v>
+        <v>4445105000</v>
       </c>
       <c r="H49" t="n">
-        <v>2920</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7731</v>
+        <v>5541</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>26675255000</v>
+        <v>127000</v>
       </c>
       <c r="H50" t="n">
-        <v>1512.21980974841</v>
+        <v>1270</v>
       </c>
       <c r="I50" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4536</v>
+        <v>8803</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>18290500</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>24591924000</v>
+        <v>361000</v>
       </c>
       <c r="H51" t="n">
-        <v>1344.518957928979</v>
+        <v>3610</v>
       </c>
       <c r="I51" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4185</v>
+        <v>4967</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>4062075</v>
       </c>
       <c r="G52" t="n">
-        <v>405000</v>
+        <v>20578848000</v>
       </c>
       <c r="H52" t="n">
-        <v>4050</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4549</v>
+        <v>4967</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2006900</v>
+        <v>4062075</v>
       </c>
       <c r="G53" t="n">
-        <v>3367745000</v>
+        <v>8729143000</v>
       </c>
       <c r="H53" t="n">
-        <v>1678.083113259255</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I53" t="n">
-        <v>5.01</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>8304</v>
+        <v>8129</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>7258230</v>
       </c>
       <c r="G54" t="n">
-        <v>219000</v>
+        <v>24720910000</v>
       </c>
       <c r="H54" t="n">
-        <v>2190</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2456,35 +2456,35 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3328</v>
+        <v>3666</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>845300</v>
+        <v>1053200</v>
       </c>
       <c r="G55" t="n">
-        <v>1219326000</v>
+        <v>663809000</v>
       </c>
       <c r="H55" t="n">
-        <v>1442.477227019993</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I55" t="n">
-        <v>6.54</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2493,183 +2493,183 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3328</v>
+        <v>4347</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>675500</v>
+        <v>614893</v>
       </c>
       <c r="G56" t="n">
-        <v>976503000</v>
+        <v>940560000</v>
       </c>
       <c r="H56" t="n">
-        <v>1445.60029607698</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I56" t="n">
-        <v>5.220000000000001</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5541</v>
+        <v>8129</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>3886330</v>
       </c>
       <c r="G57" t="n">
-        <v>117000</v>
+        <v>10549885000</v>
       </c>
       <c r="H57" t="n">
-        <v>1170</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4987</v>
+        <v>8929</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1543800</v>
+        <v>1260812</v>
       </c>
       <c r="G58" t="n">
-        <v>874286000</v>
+        <v>1699255000</v>
       </c>
       <c r="H58" t="n">
-        <v>566.3207669387226</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I58" t="n">
-        <v>5.779999999999999</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2501</v>
+        <v>7278</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4010500</v>
+        <v>115400</v>
       </c>
       <c r="G59" t="n">
-        <v>10817766000</v>
+        <v>302115000</v>
       </c>
       <c r="H59" t="n">
-        <v>2697.360927565142</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I59" t="n">
-        <v>5.09</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4023</v>
+        <v>3591</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>2846091</v>
       </c>
       <c r="G60" t="n">
-        <v>796000</v>
+        <v>6888596000</v>
       </c>
       <c r="H60" t="n">
-        <v>7960</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2678,142 +2678,146 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5844</v>
+        <v>4042</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4998800</v>
+        <v>16459200</v>
       </c>
       <c r="G61" t="n">
-        <v>24949147000</v>
+        <v>33451116000</v>
       </c>
       <c r="H61" t="n">
-        <v>4991.027246539169</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I61" t="n">
-        <v>6.59</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8303</v>
+        <v>4521</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>20000000</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>56014500000</v>
+        <v>353000</v>
       </c>
       <c r="H62" t="n">
-        <v>2800.725</v>
+        <v>3530</v>
       </c>
       <c r="I62" t="n">
-        <v>9.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2812</v>
+        <v>4347</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+        <v>400493</v>
+      </c>
+      <c r="G63" t="n">
+        <v>580713000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1449.995380693296</v>
+      </c>
       <c r="I63" t="n">
-        <v>9.779999999999999</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>9072</v>
+        <v>9024</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>8377400</v>
+        <v>16207437</v>
       </c>
       <c r="G64" t="n">
-        <v>13394541000</v>
+        <v>27823532000</v>
       </c>
       <c r="H64" t="n">
-        <v>1598.889989734285</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I64" t="n">
-        <v>12.74</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2822,35 +2826,35 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>8140</v>
+        <v>1518</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1322800</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>4536170000</v>
+        <v>292000</v>
       </c>
       <c r="H65" t="n">
-        <v>3429.218324765649</v>
+        <v>2920</v>
       </c>
       <c r="I65" t="n">
-        <v>5.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2859,35 +2863,35 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1878</v>
+        <v>7731</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3452100</v>
+        <v>17639800</v>
       </c>
       <c r="G66" t="n">
-        <v>44793976000</v>
+        <v>26675255000</v>
       </c>
       <c r="H66" t="n">
-        <v>12975.86280814577</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I66" t="n">
-        <v>5.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2896,31 +2900,35 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>7350</v>
+        <v>4536</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+        <v>18290500</v>
+      </c>
+      <c r="G67" t="n">
+        <v>24591924000</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1344.518957928979</v>
+      </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2929,109 +2937,109 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6770</v>
+        <v>4185</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>11259700</v>
+        <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>14161429000</v>
+        <v>405000</v>
       </c>
       <c r="H68" t="n">
-        <v>1257.709264012363</v>
+        <v>4050</v>
       </c>
       <c r="I68" t="n">
-        <v>5.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1951</v>
+        <v>4549</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5561200</v>
+        <v>2006900</v>
       </c>
       <c r="G69" t="n">
-        <v>12623472000</v>
+        <v>3367745000</v>
       </c>
       <c r="H69" t="n">
-        <v>2269.918722577861</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I69" t="n">
-        <v>5.06</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3085</v>
+        <v>9627</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1756300</v>
+        <v>3401100</v>
       </c>
       <c r="G70" t="n">
-        <v>4694343000</v>
+        <v>9648726000</v>
       </c>
       <c r="H70" t="n">
-        <v>2672.859420372374</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I70" t="n">
-        <v>5.31</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3040,35 +3048,35 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>9842</v>
+        <v>8304</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2082200</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>3059101000</v>
+        <v>219000</v>
       </c>
       <c r="H71" t="n">
-        <v>1469.167707232735</v>
+        <v>2190</v>
       </c>
       <c r="I71" t="n">
-        <v>5.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3077,423 +3085,1562 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3558</v>
+        <v>3328</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1214200</v>
+        <v>845300</v>
       </c>
       <c r="G72" t="n">
-        <v>1538785000</v>
+        <v>1219326000</v>
       </c>
       <c r="H72" t="n">
-        <v>1267.324164058639</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I72" t="n">
-        <v>10.57</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2329</v>
+        <v>3328</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+        <v>675500</v>
+      </c>
+      <c r="G73" t="n">
+        <v>976503000</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1445.60029607698</v>
+      </c>
       <c r="I73" t="n">
-        <v>9.550000000000001</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2329</v>
+        <v>5541</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="G74" t="n">
+        <v>117000</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1170</v>
+      </c>
       <c r="I74" t="n">
-        <v>9.550000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4324</v>
+        <v>7315</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>13655200</v>
+        <v>6994900</v>
       </c>
       <c r="G75" t="n">
-        <v>56753467000</v>
+        <v>5874641000</v>
       </c>
       <c r="H75" t="n">
-        <v>4156.179843576074</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I75" t="n">
-        <v>5.050000000000001</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3608</v>
+        <v>4837</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4569000</v>
+        <v>5428600</v>
       </c>
       <c r="G76" t="n">
-        <v>2005111000</v>
+        <v>4378021000</v>
       </c>
       <c r="H76" t="n">
-        <v>438.851170934559</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I76" t="n">
-        <v>5.07</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6804</v>
+        <v>4293</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3315900</v>
+        <v>20896886</v>
       </c>
       <c r="G77" t="n">
-        <v>4322098000</v>
+        <v>9376038000</v>
       </c>
       <c r="H77" t="n">
-        <v>1303.446424801713</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I77" t="n">
-        <v>5.26</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6236</v>
+        <v>4631</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>911500</v>
+        <v>6563759</v>
       </c>
       <c r="G78" t="n">
-        <v>1306557000</v>
+        <v>16844475000</v>
       </c>
       <c r="H78" t="n">
-        <v>1433.414152495886</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I78" t="n">
-        <v>19.45</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6770</v>
+        <v>6232</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2344200</v>
+        <v>1499000</v>
       </c>
       <c r="G79" t="n">
-        <v>2853488000</v>
+        <v>1369002000</v>
       </c>
       <c r="H79" t="n">
-        <v>1217.254500469243</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I79" t="n">
-        <v>1.07</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7272</v>
+        <v>4987</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>17688500</v>
+        <v>1543800</v>
       </c>
       <c r="G80" t="n">
-        <v>52513090000</v>
+        <v>874286000</v>
       </c>
       <c r="H80" t="n">
-        <v>2968.770104870396</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I80" t="n">
-        <v>5.050000000000001</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4956</v>
+        <v>4739</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2039200</v>
+        <v>15400600</v>
       </c>
       <c r="G81" t="n">
-        <v>3273303000</v>
+        <v>66216726000</v>
       </c>
       <c r="H81" t="n">
-        <v>1605.189780306002</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I81" t="n">
-        <v>5.01</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100PA7Q.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>9842</v>
+        <v>2501</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1974900</v>
+        <v>4010500</v>
       </c>
       <c r="G82" t="n">
-        <v>2942498000</v>
+        <v>10817766000</v>
       </c>
       <c r="H82" t="n">
-        <v>1489.94784546053</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I82" t="n">
-        <v>4.77</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S100P7Z9.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2022-09-14_01_2022-09-22.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>4023</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>100</v>
+      </c>
+      <c r="G83" t="n">
+        <v>796000</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7960</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>S100RYJW.zip</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>5844</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>4998800</v>
+      </c>
+      <c r="G84" t="n">
+        <v>24949147000</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4991.027246539169</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>S100RX5R.zip</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>8303</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2800.725</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>S100RVIC.zip</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2812</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>9.779999999999999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>S100RT6D.zip</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>9072</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>8377400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>13394541000</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1598.889989734285</v>
+      </c>
+      <c r="I87" t="n">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>S100RSA5.zip</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>5194</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1068798</v>
+      </c>
+      <c r="G88" t="n">
+        <v>997342000</v>
+      </c>
+      <c r="H88" t="n">
+        <v>933.1435874692879</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>S100R23B.zip</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>1822</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2022-09-14</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>915931</v>
-      </c>
-      <c r="G83" t="n">
-        <v>3288212000</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3590.021519088228</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="D89" t="n">
+        <v>8140</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1322800</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4536170000</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3429.218324765649</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>S100QVSV.zip</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1878</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>3452100</v>
+      </c>
+      <c r="G90" t="n">
+        <v>44793976000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>12975.86280814577</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>S100QU54.zip</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>4536300</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4025006000</v>
+      </c>
+      <c r="H91" t="n">
+        <v>887.288318673809</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>S100QUDZ.zip</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1861</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>3102784</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8614573000</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2776.401128792723</v>
+      </c>
+      <c r="I92" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>S100QSK8.zip</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>7350</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>S100QRVC.zip</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>3549</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2023-05-15</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1735200</v>
+      </c>
+      <c r="G94" t="n">
+        <v>11532479000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6646.195827570309</v>
+      </c>
+      <c r="I94" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>S100QP55.zip</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>6770</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>11259700</v>
+      </c>
+      <c r="G95" t="n">
+        <v>14161429000</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1257.709264012363</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>S100QRUW.zip</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>3391</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>6354522</v>
+      </c>
+      <c r="G96" t="n">
+        <v>28876223000</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4544.200649553184</v>
+      </c>
+      <c r="I96" t="n">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>S100QNRY.zip</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>5561200</v>
+      </c>
+      <c r="G97" t="n">
+        <v>12623472000</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2269.918722577861</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>S100QNNV.zip</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>3085</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1756300</v>
+      </c>
+      <c r="G98" t="n">
+        <v>4694343000</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2672.859420372374</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>S100QJNN.zip</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>9842</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>2082200</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3059101000</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1469.167707232735</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5.029999999999999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>S100QI52.zip</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>9672</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>2410900</v>
+      </c>
+      <c r="G100" t="n">
+        <v>9382590000</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3891.73752540545</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>S100QGUZ.zip</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3558</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>1214200</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1267.324164058639</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>S100QF0T.zip</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>4463000</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>S100QF8K.zip</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>4463000</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>S100QDGW.zip</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>4324</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>13655200</v>
+      </c>
+      <c r="G104" t="n">
+        <v>56753467000</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4156.179843576074</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5.050000000000001</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>S100QBB7.zip</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>3608</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>4569000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2005111000</v>
+      </c>
+      <c r="H105" t="n">
+        <v>438.851170934559</v>
+      </c>
+      <c r="I105" t="n">
         <v>5.07</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>S100Q8UN.zip</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>6804</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>3315900</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4322098000</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1303.446424801713</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>S100Q1O2.zip</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>6236</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>911500</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1306557000</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1433.414152495886</v>
+      </c>
+      <c r="I107" t="n">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>S100Q1FN.zip</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>6770</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>2344200</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2853488000</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1217.254500469243</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>S100PZAN.zip</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>7272</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>17688500</v>
+      </c>
+      <c r="G109" t="n">
+        <v>52513090000</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2968.770104870396</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5.050000000000001</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>S100PYKO.zip</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>4956</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>2039200</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3273303000</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1605.189780306002</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>S100PVDC.zip</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>8057</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>787800</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2754799000</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3496.825336379792</v>
+      </c>
+      <c r="I111" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>S100PV98.zip</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>3391</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>2617759</v>
+      </c>
+      <c r="G112" t="n">
+        <v>21628867000</v>
+      </c>
+      <c r="H112" t="n">
+        <v>8262.359904024779</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>S100PH6I.zip</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>6707</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1699900</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9313663000</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5478.947585152067</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>S100PA7Q.zip</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>9842</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1974900</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2942498000</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1489.94784546053</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,86 +483,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100WO9C.zip</t>
+          <t>S100WQ4O.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2229</v>
+        <v>8233</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8012900</v>
+        <v>261400</v>
       </c>
       <c r="G2" t="n">
-        <v>23390757000</v>
+        <v>287906000</v>
       </c>
       <c r="H2" t="n">
-        <v>2919.137515755844</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="I2" t="n">
-        <v>5.98</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5983</v>
+        <v>2229</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>44800</v>
+        <v>8012900</v>
       </c>
       <c r="G3" t="n">
-        <v>315399000</v>
+        <v>23390757000</v>
       </c>
       <c r="H3" t="n">
-        <v>7040.15625</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I3" t="n">
-        <v>4.07</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -594,49 +594,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100WKF3.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6104</v>
+        <v>5983</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1297500</v>
+        <v>44800</v>
       </c>
       <c r="G5" t="n">
-        <v>4476090000</v>
+        <v>315399000</v>
       </c>
       <c r="H5" t="n">
-        <v>3449.780346820809</v>
+        <v>7040.15625</v>
       </c>
       <c r="I5" t="n">
-        <v>5.23</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,72 +645,72 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6952</v>
+        <v>6104</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12332900</v>
+        <v>1297500</v>
       </c>
       <c r="G6" t="n">
-        <v>14653495000</v>
+        <v>4476090000</v>
       </c>
       <c r="H6" t="n">
-        <v>1188.162962482466</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I6" t="n">
-        <v>5.19</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6145</v>
+        <v>6952</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>12332900</v>
       </c>
       <c r="G7" t="n">
-        <v>171000</v>
+        <v>14653495000</v>
       </c>
       <c r="H7" t="n">
-        <v>1710</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,21 +719,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6908</v>
+        <v>6145</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>992000</v>
+        <v>171000</v>
       </c>
       <c r="H8" t="n">
-        <v>2480</v>
+        <v>1710</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -742,110 +742,110 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1878</v>
+        <v>6908</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3475000</v>
+        <v>400</v>
       </c>
       <c r="G9" t="n">
-        <v>47745269000</v>
+        <v>992000</v>
       </c>
       <c r="H9" t="n">
-        <v>13739.64575539568</v>
+        <v>2480</v>
       </c>
       <c r="I9" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9302</v>
+        <v>3328</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3799000</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5671170000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1492.806001579363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>5.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -888,12 +888,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -902,72 +902,72 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9684</v>
+        <v>9302</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6704059</v>
+        <v>3799000</v>
       </c>
       <c r="G13" t="n">
-        <v>42054369000</v>
+        <v>5671170000</v>
       </c>
       <c r="H13" t="n">
-        <v>6272.971195510064</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I13" t="n">
-        <v>5.47</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G14" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H14" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -976,21 +976,21 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H15" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -999,58 +999,58 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4849</v>
+        <v>6332</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2946942</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>5148132000</v>
+        <v>141000</v>
       </c>
       <c r="H16" t="n">
-        <v>1746.940387696806</v>
+        <v>1410</v>
       </c>
       <c r="I16" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6927</v>
+        <v>4849</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1058,175 +1058,175 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1142700</v>
+        <v>2946942</v>
       </c>
       <c r="G17" t="n">
-        <v>1023871000</v>
+        <v>5148132000</v>
       </c>
       <c r="H17" t="n">
-        <v>896.0103264198827</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I17" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4676</v>
+        <v>6927</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G18" t="n">
-        <v>242000</v>
+        <v>1023871000</v>
       </c>
       <c r="H18" t="n">
-        <v>2420</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H19" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I19" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G20" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H20" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I20" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G21" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H21" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1235,155 +1235,155 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H22" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4512</v>
+        <v>6890</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2137400</v>
+        <v>30000</v>
       </c>
       <c r="G23" t="n">
-        <v>620573000</v>
+        <v>71610000</v>
       </c>
       <c r="H23" t="n">
-        <v>290.3401328717133</v>
+        <v>2387</v>
       </c>
       <c r="I23" t="n">
-        <v>6.140000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G24" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H24" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9987</v>
+        <v>9006</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3888200</v>
+        <v>30000</v>
       </c>
       <c r="G25" t="n">
-        <v>16086019000</v>
+        <v>34824000</v>
       </c>
       <c r="H25" t="n">
-        <v>4137.137750115735</v>
+        <v>1160.8</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100V7YO.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4626</v>
+        <v>9987</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1391,27 +1391,27 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4670190</v>
+        <v>3888200</v>
       </c>
       <c r="G26" t="n">
-        <v>16652257000</v>
+        <v>16086019000</v>
       </c>
       <c r="H26" t="n">
-        <v>3565.648720929983</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100V7YO.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1420,72 +1420,72 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7732</v>
+        <v>4626</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7995900</v>
+        <v>4670190</v>
       </c>
       <c r="G27" t="n">
-        <v>16678425000</v>
+        <v>16652257000</v>
       </c>
       <c r="H27" t="n">
-        <v>2085.872134468915</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="I27" t="n">
-        <v>7.380000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3861</v>
+        <v>7732</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>7995900</v>
       </c>
       <c r="G28" t="n">
-        <v>59000</v>
+        <v>16678425000</v>
       </c>
       <c r="H28" t="n">
-        <v>590</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1494,21 +1494,21 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5715</v>
+        <v>3861</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>160000</v>
+        <v>59000</v>
       </c>
       <c r="H29" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1517,49 +1517,49 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100UYE4.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3978</v>
+        <v>5715</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2891700</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>3425686000</v>
+        <v>160000</v>
       </c>
       <c r="H30" t="n">
-        <v>1184.661617733513</v>
+        <v>1600</v>
       </c>
       <c r="I30" t="n">
-        <v>7.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100UWW1.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1568,109 +1568,109 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4452</v>
+        <v>3978</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24347342</v>
+        <v>2891700</v>
       </c>
       <c r="G31" t="n">
-        <v>148917027000</v>
+        <v>3425686000</v>
       </c>
       <c r="H31" t="n">
-        <v>6116.356643776557</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I31" t="n">
-        <v>5.23</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9257</v>
+        <v>4452</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>24347342</v>
       </c>
       <c r="G32" t="n">
-        <v>57000</v>
+        <v>148917027000</v>
       </c>
       <c r="H32" t="n">
-        <v>570</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100UORL.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4385</v>
+        <v>9257</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8815360</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>17684138000</v>
+        <v>57000</v>
       </c>
       <c r="H33" t="n">
-        <v>2006.059650428343</v>
+        <v>570</v>
       </c>
       <c r="I33" t="n">
-        <v>5.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100UMI2.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1679,35 +1679,35 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7984</v>
+        <v>4385</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6096500</v>
+        <v>8815360</v>
       </c>
       <c r="G34" t="n">
-        <v>13153972000</v>
+        <v>17684138000</v>
       </c>
       <c r="H34" t="n">
-        <v>2157.626835069302</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I34" t="n">
-        <v>5.02</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100UMJC.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1716,72 +1716,72 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1973</v>
+        <v>7984</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>8973383</v>
+        <v>6096500</v>
       </c>
       <c r="G35" t="n">
-        <v>24947403000</v>
+        <v>13153972000</v>
       </c>
       <c r="H35" t="n">
-        <v>2780.155823060266</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I35" t="n">
-        <v>6.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6908</v>
+        <v>1973</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>502000</v>
+        <v>8973383</v>
       </c>
       <c r="G36" t="n">
-        <v>1257178000</v>
+        <v>24947403000</v>
       </c>
       <c r="H36" t="n">
-        <v>2504.338645418327</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I36" t="n">
-        <v>2.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1790,61 +1790,61 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5482</v>
+        <v>6908</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>433300</v>
+        <v>502000</v>
       </c>
       <c r="G37" t="n">
-        <v>1367192000</v>
+        <v>1257178000</v>
       </c>
       <c r="H37" t="n">
-        <v>3155.301177013616</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I37" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4272</v>
+        <v>5482</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>26855100</v>
+        <v>433300</v>
       </c>
       <c r="G38" t="n">
-        <v>29860350000</v>
+        <v>1367192000</v>
       </c>
       <c r="H38" t="n">
-        <v>1111.90611839092</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I38" t="n">
-        <v>15.75</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="39">
@@ -1887,81 +1887,81 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6145</v>
+        <v>4272</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G40" t="n">
-        <v>171000</v>
+        <v>29860350000</v>
       </c>
       <c r="H40" t="n">
-        <v>1710</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100UBH9.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3569</v>
+        <v>6145</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4271704</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>5808044000</v>
+        <v>171000</v>
       </c>
       <c r="H41" t="n">
-        <v>1359.655069733296</v>
+        <v>1710</v>
       </c>
       <c r="I41" t="n">
-        <v>6.279999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UBH9.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4205</v>
+        <v>3569</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1983,138 +1983,138 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>14426600</v>
+        <v>4271704</v>
       </c>
       <c r="G42" t="n">
-        <v>24829312000</v>
+        <v>5808044000</v>
       </c>
       <c r="H42" t="n">
-        <v>1721.078563209627</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="I42" t="n">
-        <v>6.29</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2327</v>
+        <v>4205</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>9154320</v>
+        <v>14426600</v>
       </c>
       <c r="G43" t="n">
-        <v>23450671000</v>
+        <v>24829312000</v>
       </c>
       <c r="H43" t="n">
-        <v>2561.705402476645</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3989</v>
+        <v>2327</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1206000</v>
+        <v>9154320</v>
       </c>
       <c r="G44" t="n">
-        <v>787604000</v>
+        <v>23450671000</v>
       </c>
       <c r="H44" t="n">
-        <v>653.0713101160862</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I44" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6908</v>
+        <v>3989</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>1206000</v>
       </c>
       <c r="G45" t="n">
-        <v>288000</v>
+        <v>787604000</v>
       </c>
       <c r="H45" t="n">
-        <v>2880</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2123,72 +2123,72 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5988</v>
+        <v>6908</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>527300</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>1212090000</v>
+        <v>288000</v>
       </c>
       <c r="H46" t="n">
-        <v>2298.672482457804</v>
+        <v>2880</v>
       </c>
       <c r="I46" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3529</v>
+        <v>5988</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>998000</v>
+        <v>527300</v>
       </c>
       <c r="G47" t="n">
-        <v>667598000</v>
+        <v>1212090000</v>
       </c>
       <c r="H47" t="n">
-        <v>668.9358717434869</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I47" t="n">
-        <v>5.76</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2197,81 +2197,81 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7305</v>
+        <v>3529</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>309800</v>
+        <v>998000</v>
       </c>
       <c r="G48" t="n">
-        <v>1321438000</v>
+        <v>667598000</v>
       </c>
       <c r="H48" t="n">
-        <v>4265.455132343447</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I48" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2168</v>
+        <v>7305</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2094200</v>
+        <v>309800</v>
       </c>
       <c r="G49" t="n">
-        <v>4445105000</v>
+        <v>1321438000</v>
       </c>
       <c r="H49" t="n">
-        <v>2122.579027791042</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I49" t="n">
-        <v>5.02</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5541</v>
+        <v>2168</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2279,27 +2279,27 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>2094200</v>
       </c>
       <c r="G50" t="n">
-        <v>127000</v>
+        <v>4445105000</v>
       </c>
       <c r="H50" t="n">
-        <v>1270</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2308,21 +2308,21 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8803</v>
+        <v>5541</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F51" t="n">
         <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>361000</v>
+        <v>127000</v>
       </c>
       <c r="H51" t="n">
-        <v>3610</v>
+        <v>1270</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2331,21 +2331,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4967</v>
+        <v>8803</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2353,16 +2353,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>20578848000</v>
+        <v>361000</v>
       </c>
       <c r="H52" t="n">
-        <v>5066.092575838703</v>
+        <v>3610</v>
       </c>
       <c r="I52" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2405,86 +2405,86 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>8129</v>
+        <v>4967</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7258230</v>
+        <v>4062075</v>
       </c>
       <c r="G54" t="n">
-        <v>24720910000</v>
+        <v>20578848000</v>
       </c>
       <c r="H54" t="n">
-        <v>3405.914389596362</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I54" t="n">
-        <v>9.460000000000001</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3666</v>
+        <v>8129</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1053200</v>
+        <v>7258230</v>
       </c>
       <c r="G55" t="n">
-        <v>663809000</v>
+        <v>24720910000</v>
       </c>
       <c r="H55" t="n">
-        <v>630.278199772123</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I55" t="n">
-        <v>5.16</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2493,172 +2493,172 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4347</v>
+        <v>3666</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>614893</v>
+        <v>1053200</v>
       </c>
       <c r="G56" t="n">
-        <v>940560000</v>
+        <v>663809000</v>
       </c>
       <c r="H56" t="n">
-        <v>1529.631984751819</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I56" t="n">
-        <v>8.200000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>8129</v>
+        <v>4347</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3886330</v>
+        <v>614893</v>
       </c>
       <c r="G57" t="n">
-        <v>10549885000</v>
+        <v>940560000</v>
       </c>
       <c r="H57" t="n">
-        <v>2714.613787300615</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I57" t="n">
-        <v>5.06</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8929</v>
+        <v>8129</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1260812</v>
+        <v>3886330</v>
       </c>
       <c r="G58" t="n">
-        <v>1699255000</v>
+        <v>10549885000</v>
       </c>
       <c r="H58" t="n">
-        <v>1347.74653160027</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I58" t="n">
-        <v>5.140000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>7278</v>
+        <v>8929</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>115400</v>
+        <v>1260812</v>
       </c>
       <c r="G59" t="n">
-        <v>302115000</v>
+        <v>1699255000</v>
       </c>
       <c r="H59" t="n">
-        <v>2617.980935875217</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I59" t="n">
-        <v>0.24</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3591</v>
+        <v>7278</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2846091</v>
+        <v>115400</v>
       </c>
       <c r="G60" t="n">
-        <v>6888596000</v>
+        <v>302115000</v>
       </c>
       <c r="H60" t="n">
-        <v>2420.370957920882</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I60" t="n">
-        <v>5.13</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="61">
@@ -2701,197 +2701,197 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4521</v>
+        <v>3591</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>2846091</v>
       </c>
       <c r="G62" t="n">
-        <v>353000</v>
+        <v>6888596000</v>
       </c>
       <c r="H62" t="n">
-        <v>3530</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4347</v>
+        <v>4521</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>400493</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>580713000</v>
+        <v>353000</v>
       </c>
       <c r="H63" t="n">
-        <v>1449.995380693296</v>
+        <v>3530</v>
       </c>
       <c r="I63" t="n">
-        <v>5.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>9024</v>
+        <v>4347</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>16207437</v>
+        <v>400493</v>
       </c>
       <c r="G64" t="n">
-        <v>27823532000</v>
+        <v>580713000</v>
       </c>
       <c r="H64" t="n">
-        <v>1716.713876475349</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I64" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1518</v>
+        <v>9024</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>16207437</v>
       </c>
       <c r="G65" t="n">
-        <v>292000</v>
+        <v>27823532000</v>
       </c>
       <c r="H65" t="n">
-        <v>2920</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>7731</v>
+        <v>1518</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>26675255000</v>
+        <v>292000</v>
       </c>
       <c r="H66" t="n">
-        <v>1512.21980974841</v>
+        <v>2920</v>
       </c>
       <c r="I66" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2900,21 +2900,21 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4536</v>
+        <v>7731</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>18290500</v>
+        <v>17639800</v>
       </c>
       <c r="G67" t="n">
-        <v>24591924000</v>
+        <v>26675255000</v>
       </c>
       <c r="H67" t="n">
-        <v>1344.518957928979</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I67" t="n">
         <v>5.02</v>
@@ -2923,197 +2923,197 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4185</v>
+        <v>4536</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>18290500</v>
       </c>
       <c r="G68" t="n">
-        <v>405000</v>
+        <v>24591924000</v>
       </c>
       <c r="H68" t="n">
-        <v>4050</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4549</v>
+        <v>4185</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2006900</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>3367745000</v>
+        <v>405000</v>
       </c>
       <c r="H69" t="n">
-        <v>1678.083113259255</v>
+        <v>4050</v>
       </c>
       <c r="I69" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100SZYE.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9627</v>
+        <v>4549</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3401100</v>
+        <v>2006900</v>
       </c>
       <c r="G70" t="n">
-        <v>9648726000</v>
+        <v>3367745000</v>
       </c>
       <c r="H70" t="n">
-        <v>2836.942753814942</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I70" t="n">
-        <v>9.6</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8304</v>
+        <v>9627</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>3401100</v>
       </c>
       <c r="G71" t="n">
-        <v>219000</v>
+        <v>9648726000</v>
       </c>
       <c r="H71" t="n">
-        <v>2190</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3328</v>
+        <v>8304</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>845300</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>1219326000</v>
+        <v>219000</v>
       </c>
       <c r="H72" t="n">
-        <v>1442.477227019993</v>
+        <v>2190</v>
       </c>
       <c r="I72" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3126,105 +3126,105 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>675500</v>
+        <v>845300</v>
       </c>
       <c r="G73" t="n">
-        <v>976503000</v>
+        <v>1219326000</v>
       </c>
       <c r="H73" t="n">
-        <v>1445.60029607698</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I73" t="n">
-        <v>5.220000000000001</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5541</v>
+        <v>3328</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>675500</v>
       </c>
       <c r="G74" t="n">
-        <v>117000</v>
+        <v>976503000</v>
       </c>
       <c r="H74" t="n">
-        <v>1170</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100SN7U.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7315</v>
+        <v>5541</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>6994900</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>5874641000</v>
+        <v>117000</v>
       </c>
       <c r="H75" t="n">
-        <v>839.8463166020958</v>
+        <v>1170</v>
       </c>
       <c r="I75" t="n">
-        <v>14.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100SLMH.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3233,35 +3233,35 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4837</v>
+        <v>7315</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5428600</v>
+        <v>6994900</v>
       </c>
       <c r="G76" t="n">
-        <v>4378021000</v>
+        <v>5874641000</v>
       </c>
       <c r="H76" t="n">
-        <v>806.4733080352208</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I76" t="n">
-        <v>9.74</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3270,30 +3270,30 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4293</v>
+        <v>4837</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>20896886</v>
+        <v>5428600</v>
       </c>
       <c r="G77" t="n">
-        <v>9376038000</v>
+        <v>4378021000</v>
       </c>
       <c r="H77" t="n">
-        <v>448.6811097117532</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I77" t="n">
-        <v>9.9</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4631</v>
+        <v>4293</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3315,27 +3315,27 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6563759</v>
+        <v>20896886</v>
       </c>
       <c r="G78" t="n">
-        <v>16844475000</v>
+        <v>9376038000</v>
       </c>
       <c r="H78" t="n">
-        <v>2566.284807227078</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I78" t="n">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100SDCB.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3344,475 +3344,475 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6232</v>
+        <v>4631</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1499000</v>
+        <v>6563759</v>
       </c>
       <c r="G79" t="n">
-        <v>1369002000</v>
+        <v>16844475000</v>
       </c>
       <c r="H79" t="n">
-        <v>913.2768512341561</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I79" t="n">
-        <v>10.47</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4987</v>
+        <v>6232</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1543800</v>
+        <v>1499000</v>
       </c>
       <c r="G80" t="n">
-        <v>874286000</v>
+        <v>1369002000</v>
       </c>
       <c r="H80" t="n">
-        <v>566.3207669387226</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I80" t="n">
-        <v>5.779999999999999</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100S4PN.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4739</v>
+        <v>4987</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>15400600</v>
+        <v>1543800</v>
       </c>
       <c r="G81" t="n">
-        <v>66216726000</v>
+        <v>874286000</v>
       </c>
       <c r="H81" t="n">
-        <v>4299.619884939548</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I81" t="n">
-        <v>6.419999999999999</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2501</v>
+        <v>4739</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4010500</v>
+        <v>15400600</v>
       </c>
       <c r="G82" t="n">
-        <v>10817766000</v>
+        <v>66216726000</v>
       </c>
       <c r="H82" t="n">
-        <v>2697.360927565142</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I82" t="n">
-        <v>5.09</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4023</v>
+        <v>2501</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>4010500</v>
       </c>
       <c r="G83" t="n">
-        <v>796000</v>
+        <v>10817766000</v>
       </c>
       <c r="H83" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>5844</v>
+        <v>4023</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>24949147000</v>
+        <v>796000</v>
       </c>
       <c r="H84" t="n">
-        <v>4991.027246539169</v>
+        <v>7960</v>
       </c>
       <c r="I84" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8303</v>
+        <v>5844</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20000000</v>
+        <v>4998800</v>
       </c>
       <c r="G85" t="n">
-        <v>56014500000</v>
+        <v>24949147000</v>
       </c>
       <c r="H85" t="n">
-        <v>2800.725</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I85" t="n">
-        <v>9.75</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2812</v>
+        <v>8303</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I86" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>9072</v>
+        <v>2812</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>8377400</v>
-      </c>
-      <c r="G87" t="n">
-        <v>13394541000</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1598.889989734285</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>12.74</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S100RSA5.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>5194</v>
+        <v>9072</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1068798</v>
+        <v>8377400</v>
       </c>
       <c r="G88" t="n">
-        <v>997342000</v>
+        <v>13394541000</v>
       </c>
       <c r="H88" t="n">
-        <v>933.1435874692879</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I88" t="n">
-        <v>9.77</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RSA5.zip</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>8140</v>
+        <v>5194</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1322800</v>
+        <v>1068798</v>
       </c>
       <c r="G89" t="n">
-        <v>4536170000</v>
+        <v>997342000</v>
       </c>
       <c r="H89" t="n">
-        <v>3429.218324765649</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="I89" t="n">
-        <v>5.29</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1878</v>
+        <v>8140</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3452100</v>
+        <v>1322800</v>
       </c>
       <c r="G90" t="n">
-        <v>44793976000</v>
+        <v>4536170000</v>
       </c>
       <c r="H90" t="n">
-        <v>12975.86280814577</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I90" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7157</v>
+        <v>1878</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4536300</v>
+        <v>3452100</v>
       </c>
       <c r="G91" t="n">
-        <v>4025006000</v>
+        <v>44793976000</v>
       </c>
       <c r="H91" t="n">
-        <v>887.288318673809</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="I91" t="n">
-        <v>6.5</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1861</v>
+        <v>7157</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3829,143 +3829,143 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3102784</v>
+        <v>4536300</v>
       </c>
       <c r="G92" t="n">
-        <v>8614573000</v>
+        <v>4025006000</v>
       </c>
       <c r="H92" t="n">
-        <v>2776.401128792723</v>
+        <v>887.288318673809</v>
       </c>
       <c r="I92" t="n">
-        <v>7.07</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>7350</v>
+        <v>1861</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+        <v>3102784</v>
+      </c>
+      <c r="G93" t="n">
+        <v>8614573000</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2776.401128792723</v>
+      </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S100QRVC.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3549</v>
+        <v>7350</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1735200</v>
-      </c>
-      <c r="G94" t="n">
-        <v>11532479000</v>
-      </c>
-      <c r="H94" t="n">
-        <v>6646.195827570309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QRVC.zip</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6770</v>
+        <v>3549</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>11259700</v>
+        <v>1735200</v>
       </c>
       <c r="G95" t="n">
-        <v>14161429000</v>
+        <v>11532479000</v>
       </c>
       <c r="H95" t="n">
-        <v>1257.709264012363</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="I95" t="n">
-        <v>5.13</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3391</v>
+        <v>6770</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3973,101 +3973,101 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6354522</v>
+        <v>11259700</v>
       </c>
       <c r="G96" t="n">
-        <v>28876223000</v>
+        <v>14161429000</v>
       </c>
       <c r="H96" t="n">
-        <v>4544.200649553184</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I96" t="n">
-        <v>12.84</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QRUW.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1951</v>
+        <v>3391</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5561200</v>
+        <v>6354522</v>
       </c>
       <c r="G97" t="n">
-        <v>12623472000</v>
+        <v>28876223000</v>
       </c>
       <c r="H97" t="n">
-        <v>2269.918722577861</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="I97" t="n">
-        <v>5.06</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3085</v>
+        <v>1951</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1756300</v>
+        <v>5561200</v>
       </c>
       <c r="G98" t="n">
-        <v>4694343000</v>
+        <v>12623472000</v>
       </c>
       <c r="H98" t="n">
-        <v>2672.859420372374</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I98" t="n">
-        <v>5.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4076,131 +4076,135 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>9842</v>
+        <v>3085</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2082200</v>
+        <v>1756300</v>
       </c>
       <c r="G99" t="n">
-        <v>3059101000</v>
+        <v>4694343000</v>
       </c>
       <c r="H99" t="n">
-        <v>1469.167707232735</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I99" t="n">
-        <v>5.029999999999999</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100QI52.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>9672</v>
+        <v>9842</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2410900</v>
+        <v>2082200</v>
       </c>
       <c r="G100" t="n">
-        <v>9382590000</v>
+        <v>3059101000</v>
       </c>
       <c r="H100" t="n">
-        <v>3891.73752540545</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="I100" t="n">
-        <v>8.380000000000001</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QI52.zip</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3558</v>
+        <v>9672</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1214200</v>
+        <v>2410900</v>
       </c>
       <c r="G101" t="n">
-        <v>1538785000</v>
+        <v>9382590000</v>
       </c>
       <c r="H101" t="n">
-        <v>1267.324164058639</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="I101" t="n">
-        <v>10.57</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2329</v>
+        <v>3558</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+        <v>1214200</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1267.324164058639</v>
+      </c>
       <c r="I102" t="n">
-        <v>9.550000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="103">
@@ -4239,303 +4243,299 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4324</v>
+        <v>2329</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G104" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H104" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>5.050000000000001</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3608</v>
+        <v>4324</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4569000</v>
+        <v>13655200</v>
       </c>
       <c r="G105" t="n">
-        <v>2005111000</v>
+        <v>56753467000</v>
       </c>
       <c r="H105" t="n">
-        <v>438.851170934559</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I105" t="n">
-        <v>5.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>6804</v>
+        <v>3608</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3315900</v>
+        <v>4569000</v>
       </c>
       <c r="G106" t="n">
-        <v>4322098000</v>
+        <v>2005111000</v>
       </c>
       <c r="H106" t="n">
-        <v>1303.446424801713</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I106" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>6236</v>
+        <v>6804</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>911500</v>
+        <v>3315900</v>
       </c>
       <c r="G107" t="n">
-        <v>1306557000</v>
+        <v>4322098000</v>
       </c>
       <c r="H107" t="n">
-        <v>1433.414152495886</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I107" t="n">
-        <v>19.45</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6770</v>
+        <v>6236</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2344200</v>
+        <v>911500</v>
       </c>
       <c r="G108" t="n">
-        <v>2853488000</v>
+        <v>1306557000</v>
       </c>
       <c r="H108" t="n">
-        <v>1217.254500469243</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I108" t="n">
-        <v>1.07</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>7272</v>
+        <v>6770</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>17688500</v>
+        <v>2344200</v>
       </c>
       <c r="G109" t="n">
-        <v>52513090000</v>
+        <v>2853488000</v>
       </c>
       <c r="H109" t="n">
-        <v>2968.770104870396</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I109" t="n">
-        <v>5.050000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4956</v>
+        <v>7272</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2039200</v>
+        <v>17688500</v>
       </c>
       <c r="G110" t="n">
-        <v>3273303000</v>
+        <v>52513090000</v>
       </c>
       <c r="H110" t="n">
-        <v>1605.189780306002</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I110" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100PYKO.zip</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>8057</v>
+        <v>4956</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>787800</v>
+        <v>2039200</v>
       </c>
       <c r="G111" t="n">
-        <v>2754799000</v>
+        <v>3273303000</v>
       </c>
       <c r="H111" t="n">
-        <v>3496.825336379792</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="I111" t="n">
-        <v>7.56</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PVDC.zip</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3391</v>
+        <v>8057</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4557,27 +4557,27 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2617759</v>
+        <v>787800</v>
       </c>
       <c r="G112" t="n">
-        <v>21628867000</v>
+        <v>2754799000</v>
       </c>
       <c r="H112" t="n">
-        <v>8262.359904024779</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="I112" t="n">
-        <v>5.29</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S100PH6I.zip</t>
+          <t>S100PV98.zip</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4586,60 +4586,97 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6707</v>
+        <v>3391</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1699900</v>
+        <v>2617759</v>
       </c>
       <c r="G113" t="n">
-        <v>9313663000</v>
+        <v>21628867000</v>
       </c>
       <c r="H113" t="n">
-        <v>5478.947585152067</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="I113" t="n">
-        <v>6.77</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>S100PH6I.zip</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>6707</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1699900</v>
+      </c>
+      <c r="G114" t="n">
+        <v>9313663000</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5478.947585152067</v>
+      </c>
+      <c r="I114" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
           <t>S100PA7Q.zip</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D115" t="n">
         <v>9842</v>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="F115" t="n">
         <v>1974900</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G115" t="n">
         <v>2942498000</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H115" t="n">
         <v>1489.94784546053</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I115" t="n">
         <v>4.77</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,12 +557,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -594,12 +594,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -668,86 +668,86 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WCIP.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6952</v>
+        <v>5331</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12332900</v>
+        <v>1481600</v>
       </c>
       <c r="G7" t="n">
-        <v>14653495000</v>
+        <v>5294365000</v>
       </c>
       <c r="H7" t="n">
-        <v>1188.162962482466</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="I7" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6145</v>
+        <v>6952</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>12332900</v>
       </c>
       <c r="G8" t="n">
-        <v>171000</v>
+        <v>14653495000</v>
       </c>
       <c r="H8" t="n">
-        <v>1710</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -756,21 +756,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6908</v>
+        <v>6145</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>992000</v>
+        <v>171000</v>
       </c>
       <c r="H9" t="n">
-        <v>2480</v>
+        <v>1710</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -779,256 +779,256 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100WACZ.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1878</v>
+        <v>8715</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3475000</v>
+        <v>3810400</v>
       </c>
       <c r="G10" t="n">
-        <v>47745269000</v>
+        <v>2500615000</v>
       </c>
       <c r="H10" t="n">
-        <v>13739.64575539568</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="I10" t="n">
-        <v>5.04</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100W5LT.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3328</v>
+        <v>8585</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8986800</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>7174886000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>798.3805136422309</v>
+      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3106</v>
+        <v>6908</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>900156</v>
+        <v>400</v>
       </c>
       <c r="G12" t="n">
-        <v>4095263000</v>
+        <v>992000</v>
       </c>
       <c r="H12" t="n">
-        <v>4549.503641591014</v>
+        <v>2480</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VV1I.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9302</v>
+        <v>8923</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3799000</v>
+        <v>2434800</v>
       </c>
       <c r="G13" t="n">
-        <v>5671170000</v>
+        <v>4266809000</v>
       </c>
       <c r="H13" t="n">
-        <v>1492.806001579363</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="I13" t="n">
-        <v>5.07</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VUUK.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9684</v>
+        <v>9069</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6704059</v>
+        <v>8793900</v>
       </c>
       <c r="G14" t="n">
-        <v>42054369000</v>
+        <v>13684104000</v>
       </c>
       <c r="H14" t="n">
-        <v>6272.971195510064</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="I14" t="n">
-        <v>5.47</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4619</v>
+        <v>1878</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>3475000</v>
       </c>
       <c r="G15" t="n">
-        <v>119000</v>
+        <v>47745269000</v>
       </c>
       <c r="H15" t="n">
-        <v>1190</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6332</v>
+        <v>3328</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>141000</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>0</v>
       </c>
@@ -1036,49 +1036,49 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VQJZ.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4849</v>
+        <v>3076</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2946942</v>
+        <v>2841700</v>
       </c>
       <c r="G17" t="n">
-        <v>5148132000</v>
+        <v>5705436000</v>
       </c>
       <c r="H17" t="n">
-        <v>1746.940387696806</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="I17" t="n">
-        <v>5.93</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1087,146 +1087,146 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6927</v>
+        <v>3106</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1142700</v>
+        <v>900156</v>
       </c>
       <c r="G18" t="n">
-        <v>1023871000</v>
+        <v>4095263000</v>
       </c>
       <c r="H18" t="n">
-        <v>896.0103264198827</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I18" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4676</v>
+        <v>9302</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>3799000</v>
       </c>
       <c r="G19" t="n">
-        <v>242000</v>
+        <v>5671170000</v>
       </c>
       <c r="H19" t="n">
-        <v>2420</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1776</v>
+        <v>9684</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>126500</v>
+        <v>6704059</v>
       </c>
       <c r="G20" t="n">
-        <v>153399000</v>
+        <v>42054369000</v>
       </c>
       <c r="H20" t="n">
-        <v>1212.640316205534</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I20" t="n">
-        <v>1.36</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3963</v>
+        <v>4619</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1507900</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>635874000</v>
+        <v>119000</v>
       </c>
       <c r="H21" t="n">
-        <v>421.6950726175476</v>
+        <v>1190</v>
       </c>
       <c r="I21" t="n">
-        <v>5.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1235,21 +1235,21 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6923</v>
+        <v>6332</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>256000</v>
+        <v>141000</v>
       </c>
       <c r="H22" t="n">
-        <v>2560</v>
+        <v>1410</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1258,49 +1258,49 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6890</v>
+        <v>4849</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>30000</v>
+        <v>2946942</v>
       </c>
       <c r="G23" t="n">
-        <v>71610000</v>
+        <v>5148132000</v>
       </c>
       <c r="H23" t="n">
-        <v>2387</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1309,183 +1309,183 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4512</v>
+        <v>6927</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2137400</v>
+        <v>1142700</v>
       </c>
       <c r="G24" t="n">
-        <v>620573000</v>
+        <v>1023871000</v>
       </c>
       <c r="H24" t="n">
-        <v>290.3401328717133</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I24" t="n">
-        <v>6.140000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9006</v>
+        <v>4676</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>34824000</v>
+        <v>242000</v>
       </c>
       <c r="H25" t="n">
-        <v>1160.8</v>
+        <v>2420</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9987</v>
+        <v>1776</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3888200</v>
+        <v>126500</v>
       </c>
       <c r="G26" t="n">
-        <v>16086019000</v>
+        <v>153399000</v>
       </c>
       <c r="H26" t="n">
-        <v>4137.137750115735</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100V7YO.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4626</v>
+        <v>3963</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4670190</v>
+        <v>1507900</v>
       </c>
       <c r="G27" t="n">
-        <v>16652257000</v>
+        <v>635874000</v>
       </c>
       <c r="H27" t="n">
-        <v>3565.648720929983</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7732</v>
+        <v>6923</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7995900</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>16678425000</v>
+        <v>256000</v>
       </c>
       <c r="H28" t="n">
-        <v>2085.872134468915</v>
+        <v>2560</v>
       </c>
       <c r="I28" t="n">
-        <v>7.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1494,183 +1494,183 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3861</v>
+        <v>6890</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="G29" t="n">
-        <v>59000</v>
+        <v>71610000</v>
       </c>
       <c r="H29" t="n">
-        <v>590</v>
+        <v>2387</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100VCMT.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5715</v>
+        <v>3132</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>8970900</v>
       </c>
       <c r="G30" t="n">
-        <v>160000</v>
+        <v>10240398000</v>
       </c>
       <c r="H30" t="n">
-        <v>1600</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100UYE4.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3978</v>
+        <v>4512</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2891700</v>
+        <v>2137400</v>
       </c>
       <c r="G31" t="n">
-        <v>3425686000</v>
+        <v>620573000</v>
       </c>
       <c r="H31" t="n">
-        <v>1184.661617733513</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I31" t="n">
-        <v>7.12</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100UWW1.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4452</v>
+        <v>9006</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>24347342</v>
+        <v>30000</v>
       </c>
       <c r="G32" t="n">
-        <v>148917027000</v>
+        <v>34824000</v>
       </c>
       <c r="H32" t="n">
-        <v>6116.356643776557</v>
+        <v>1160.8</v>
       </c>
       <c r="I32" t="n">
-        <v>5.23</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9257</v>
+        <v>9987</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>3888200</v>
       </c>
       <c r="G33" t="n">
-        <v>57000</v>
+        <v>16086019000</v>
       </c>
       <c r="H33" t="n">
-        <v>570</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100UORL.zip</t>
+          <t>S100V7YO.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1679,35 +1679,35 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4385</v>
+        <v>4626</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8815360</v>
+        <v>4670190</v>
       </c>
       <c r="G34" t="n">
-        <v>17684138000</v>
+        <v>16652257000</v>
       </c>
       <c r="H34" t="n">
-        <v>2006.059650428343</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="I34" t="n">
-        <v>5.37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100UMI2.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1716,72 +1716,72 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7984</v>
+        <v>7732</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6096500</v>
+        <v>7995900</v>
       </c>
       <c r="G35" t="n">
-        <v>13153972000</v>
+        <v>16678425000</v>
       </c>
       <c r="H35" t="n">
-        <v>2157.626835069302</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I35" t="n">
-        <v>5.02</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100UMJC.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1973</v>
+        <v>3861</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>8973383</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>24947403000</v>
+        <v>59000</v>
       </c>
       <c r="H36" t="n">
-        <v>2780.155823060266</v>
+        <v>590</v>
       </c>
       <c r="I36" t="n">
-        <v>6.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1790,183 +1790,183 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6908</v>
+        <v>5715</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>502000</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>1257178000</v>
+        <v>160000</v>
       </c>
       <c r="H37" t="n">
-        <v>2504.338645418327</v>
+        <v>1600</v>
       </c>
       <c r="I37" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5482</v>
+        <v>3978</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>433300</v>
+        <v>2891700</v>
       </c>
       <c r="G38" t="n">
-        <v>1367192000</v>
+        <v>3425686000</v>
       </c>
       <c r="H38" t="n">
-        <v>3155.301177013616</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I38" t="n">
-        <v>2.18</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8141</v>
+        <v>4452</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>24347342</v>
       </c>
       <c r="G39" t="n">
-        <v>93000</v>
+        <v>148917027000</v>
       </c>
       <c r="H39" t="n">
-        <v>930</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4272</v>
+        <v>9257</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>26855100</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>29860350000</v>
+        <v>57000</v>
       </c>
       <c r="H40" t="n">
-        <v>1111.90611839092</v>
+        <v>570</v>
       </c>
       <c r="I40" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UMDQ.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6145</v>
+        <v>9531</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>19554300</v>
       </c>
       <c r="G41" t="n">
-        <v>171000</v>
+        <v>64960321000</v>
       </c>
       <c r="H41" t="n">
-        <v>1710</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100UBH9.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1975,35 +1975,35 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3569</v>
+        <v>4385</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4271704</v>
+        <v>8815360</v>
       </c>
       <c r="G42" t="n">
-        <v>5808044000</v>
+        <v>17684138000</v>
       </c>
       <c r="H42" t="n">
-        <v>1359.655069733296</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I42" t="n">
-        <v>6.279999999999999</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2012,146 +2012,146 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4205</v>
+        <v>7984</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>14426600</v>
+        <v>6096500</v>
       </c>
       <c r="G43" t="n">
-        <v>24829312000</v>
+        <v>13153972000</v>
       </c>
       <c r="H43" t="n">
-        <v>1721.078563209627</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I43" t="n">
-        <v>6.29</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2327</v>
+        <v>1973</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>9154320</v>
+        <v>8973383</v>
       </c>
       <c r="G44" t="n">
-        <v>23450671000</v>
+        <v>24947403000</v>
       </c>
       <c r="H44" t="n">
-        <v>2561.705402476645</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3989</v>
+        <v>6908</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1206000</v>
+        <v>502000</v>
       </c>
       <c r="G45" t="n">
-        <v>787604000</v>
+        <v>1257178000</v>
       </c>
       <c r="H45" t="n">
-        <v>653.0713101160862</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I45" t="n">
-        <v>5.2</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100UIC4.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6908</v>
+        <v>3765</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>4552900</v>
       </c>
       <c r="G46" t="n">
-        <v>288000</v>
+        <v>13383536000</v>
       </c>
       <c r="H46" t="n">
-        <v>2880</v>
+        <v>2939.562915943684</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2160,442 +2160,442 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5988</v>
+        <v>5482</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>527300</v>
+        <v>433300</v>
       </c>
       <c r="G47" t="n">
-        <v>1212090000</v>
+        <v>1367192000</v>
       </c>
       <c r="H47" t="n">
-        <v>2298.672482457804</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I47" t="n">
-        <v>1.42</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3529</v>
+        <v>4272</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>998000</v>
+        <v>26855100</v>
       </c>
       <c r="G48" t="n">
-        <v>667598000</v>
+        <v>29860350000</v>
       </c>
       <c r="H48" t="n">
-        <v>668.9358717434869</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I48" t="n">
-        <v>5.76</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7305</v>
+        <v>8141</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>309800</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>1321438000</v>
+        <v>93000</v>
       </c>
       <c r="H49" t="n">
-        <v>4265.455132343447</v>
+        <v>930</v>
       </c>
       <c r="I49" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2168</v>
+        <v>6145</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2094200</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>4445105000</v>
+        <v>171000</v>
       </c>
       <c r="H50" t="n">
-        <v>2122.579027791042</v>
+        <v>1710</v>
       </c>
       <c r="I50" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100UBH9.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5541</v>
+        <v>3569</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>4271704</v>
       </c>
       <c r="G51" t="n">
-        <v>127000</v>
+        <v>5808044000</v>
       </c>
       <c r="H51" t="n">
-        <v>1270</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8803</v>
+        <v>4205</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>14426600</v>
       </c>
       <c r="G52" t="n">
-        <v>361000</v>
+        <v>24829312000</v>
       </c>
       <c r="H52" t="n">
-        <v>3610</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100U9FC.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4967</v>
+        <v>6516</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4062075</v>
+        <v>679500</v>
       </c>
       <c r="G53" t="n">
-        <v>8729143000</v>
+        <v>4792335000</v>
       </c>
       <c r="H53" t="n">
-        <v>2148.936934940886</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="I53" t="n">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4967</v>
+        <v>2327</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4062075</v>
+        <v>9154320</v>
       </c>
       <c r="G54" t="n">
-        <v>20578848000</v>
+        <v>23450671000</v>
       </c>
       <c r="H54" t="n">
-        <v>5066.092575838703</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I54" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8129</v>
+        <v>3989</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7258230</v>
+        <v>1206000</v>
       </c>
       <c r="G55" t="n">
-        <v>24720910000</v>
+        <v>787604000</v>
       </c>
       <c r="H55" t="n">
-        <v>3405.914389596362</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I55" t="n">
-        <v>9.460000000000001</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3666</v>
+        <v>6908</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1053200</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>663809000</v>
+        <v>288000</v>
       </c>
       <c r="H56" t="n">
-        <v>630.278199772123</v>
+        <v>2880</v>
       </c>
       <c r="I56" t="n">
-        <v>5.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4347</v>
+        <v>5988</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>614893</v>
+        <v>527300</v>
       </c>
       <c r="G57" t="n">
-        <v>940560000</v>
+        <v>1212090000</v>
       </c>
       <c r="H57" t="n">
-        <v>1529.631984751819</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I57" t="n">
-        <v>8.200000000000001</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8129</v>
+        <v>3529</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3886330</v>
+        <v>998000</v>
       </c>
       <c r="G58" t="n">
-        <v>10549885000</v>
+        <v>667598000</v>
       </c>
       <c r="H58" t="n">
-        <v>2714.613787300615</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I58" t="n">
-        <v>5.06</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2604,479 +2604,479 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8929</v>
+        <v>7305</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1260812</v>
+        <v>309800</v>
       </c>
       <c r="G59" t="n">
-        <v>1699255000</v>
+        <v>1321438000</v>
       </c>
       <c r="H59" t="n">
-        <v>1347.74653160027</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I59" t="n">
-        <v>5.140000000000001</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7278</v>
+        <v>2168</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>115400</v>
+        <v>2094200</v>
       </c>
       <c r="G60" t="n">
-        <v>302115000</v>
+        <v>4445105000</v>
       </c>
       <c r="H60" t="n">
-        <v>2617.980935875217</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I60" t="n">
-        <v>0.24</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>4042</v>
+        <v>5541</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>16459200</v>
+        <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>33451116000</v>
+        <v>127000</v>
       </c>
       <c r="H61" t="n">
-        <v>2032.365850102071</v>
+        <v>1270</v>
       </c>
       <c r="I61" t="n">
-        <v>5.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3591</v>
+        <v>8803</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2846091</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>6888596000</v>
+        <v>361000</v>
       </c>
       <c r="H62" t="n">
-        <v>2420.370957920882</v>
+        <v>3610</v>
       </c>
       <c r="I62" t="n">
-        <v>5.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4521</v>
+        <v>4967</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>4062075</v>
       </c>
       <c r="G63" t="n">
-        <v>353000</v>
+        <v>20578848000</v>
       </c>
       <c r="H63" t="n">
-        <v>3530</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4347</v>
+        <v>4967</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>400493</v>
+        <v>4062075</v>
       </c>
       <c r="G64" t="n">
-        <v>580713000</v>
+        <v>8729143000</v>
       </c>
       <c r="H64" t="n">
-        <v>1449.995380693296</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I64" t="n">
-        <v>5.06</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100U325.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>9024</v>
+        <v>9882</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>16207437</v>
+        <v>2505000</v>
       </c>
       <c r="G65" t="n">
-        <v>27823532000</v>
+        <v>5292086000</v>
       </c>
       <c r="H65" t="n">
-        <v>1716.713876475349</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="I65" t="n">
-        <v>5.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1518</v>
+        <v>8129</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>7258230</v>
       </c>
       <c r="G66" t="n">
-        <v>292000</v>
+        <v>24720910000</v>
       </c>
       <c r="H66" t="n">
-        <v>2920</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100U2CM.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>7731</v>
+        <v>2206</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>17639800</v>
+        <v>3462600</v>
       </c>
       <c r="G67" t="n">
-        <v>26675255000</v>
+        <v>14385811000</v>
       </c>
       <c r="H67" t="n">
-        <v>1512.21980974841</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="I67" t="n">
-        <v>5.02</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4536</v>
+        <v>3666</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>18290500</v>
+        <v>1053200</v>
       </c>
       <c r="G68" t="n">
-        <v>24591924000</v>
+        <v>663809000</v>
       </c>
       <c r="H68" t="n">
-        <v>1344.518957928979</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I68" t="n">
-        <v>5.02</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4185</v>
+        <v>4347</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>614893</v>
       </c>
       <c r="G69" t="n">
-        <v>405000</v>
+        <v>940560000</v>
       </c>
       <c r="H69" t="n">
-        <v>4050</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>4549</v>
+        <v>8129</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2006900</v>
+        <v>3886330</v>
       </c>
       <c r="G70" t="n">
-        <v>3367745000</v>
+        <v>10549885000</v>
       </c>
       <c r="H70" t="n">
-        <v>1678.083113259255</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I70" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100SZYE.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>9627</v>
+        <v>8929</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3401100</v>
+        <v>1260812</v>
       </c>
       <c r="G71" t="n">
-        <v>9648726000</v>
+        <v>1699255000</v>
       </c>
       <c r="H71" t="n">
-        <v>2836.942753814942</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I71" t="n">
-        <v>9.6</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3085,109 +3085,109 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8304</v>
+        <v>7278</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>115400</v>
       </c>
       <c r="G72" t="n">
-        <v>219000</v>
+        <v>302115000</v>
       </c>
       <c r="H72" t="n">
-        <v>2190</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3328</v>
+        <v>4042</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>845300</v>
+        <v>16459200</v>
       </c>
       <c r="G73" t="n">
-        <v>1219326000</v>
+        <v>33451116000</v>
       </c>
       <c r="H73" t="n">
-        <v>1442.477227019993</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I73" t="n">
-        <v>6.54</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3328</v>
+        <v>3591</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>675500</v>
+        <v>2846091</v>
       </c>
       <c r="G74" t="n">
-        <v>976503000</v>
+        <v>6888596000</v>
       </c>
       <c r="H74" t="n">
-        <v>1445.60029607698</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I74" t="n">
-        <v>5.220000000000001</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3196,21 +3196,21 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5541</v>
+        <v>4521</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F75" t="n">
         <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>117000</v>
+        <v>353000</v>
       </c>
       <c r="H75" t="n">
-        <v>1170</v>
+        <v>3530</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3219,600 +3219,604 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100SN7U.zip</t>
+          <t>S100TJBE.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7315</v>
+        <v>8923</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>6994900</v>
+        <v>2445600</v>
       </c>
       <c r="G76" t="n">
-        <v>5874641000</v>
+        <v>3856031000</v>
       </c>
       <c r="H76" t="n">
-        <v>839.8463166020958</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="I76" t="n">
-        <v>14.23</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100SLMH.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4837</v>
+        <v>4347</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5428600</v>
+        <v>400493</v>
       </c>
       <c r="G77" t="n">
-        <v>4378021000</v>
+        <v>580713000</v>
       </c>
       <c r="H77" t="n">
-        <v>806.4733080352208</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I77" t="n">
-        <v>9.74</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4293</v>
+        <v>9024</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>20896886</v>
+        <v>16207437</v>
       </c>
       <c r="G78" t="n">
-        <v>9376038000</v>
+        <v>27823532000</v>
       </c>
       <c r="H78" t="n">
-        <v>448.6811097117532</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I78" t="n">
-        <v>9.9</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4631</v>
+        <v>1518</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6563759</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>16844475000</v>
+        <v>292000</v>
       </c>
       <c r="H79" t="n">
-        <v>2566.284807227078</v>
+        <v>2920</v>
       </c>
       <c r="I79" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100SDCB.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6232</v>
+        <v>7731</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1499000</v>
+        <v>17639800</v>
       </c>
       <c r="G80" t="n">
-        <v>1369002000</v>
+        <v>26675255000</v>
       </c>
       <c r="H80" t="n">
-        <v>913.2768512341561</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I80" t="n">
-        <v>10.47</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4987</v>
+        <v>4536</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1543800</v>
+        <v>18290500</v>
       </c>
       <c r="G81" t="n">
-        <v>874286000</v>
+        <v>24591924000</v>
       </c>
       <c r="H81" t="n">
-        <v>566.3207669387226</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I81" t="n">
-        <v>5.779999999999999</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100S4PN.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4739</v>
+        <v>4185</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>15400600</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>66216726000</v>
+        <v>405000</v>
       </c>
       <c r="H82" t="n">
-        <v>4299.619884939548</v>
+        <v>4050</v>
       </c>
       <c r="I82" t="n">
-        <v>6.419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2501</v>
+        <v>4549</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4010500</v>
+        <v>2006900</v>
       </c>
       <c r="G83" t="n">
-        <v>10817766000</v>
+        <v>3367745000</v>
       </c>
       <c r="H83" t="n">
-        <v>2697.360927565142</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I83" t="n">
-        <v>5.09</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4023</v>
+        <v>9627</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>3401100</v>
       </c>
       <c r="G84" t="n">
-        <v>796000</v>
+        <v>9648726000</v>
       </c>
       <c r="H84" t="n">
-        <v>7960</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5844</v>
+        <v>8304</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>24949147000</v>
+        <v>219000</v>
       </c>
       <c r="H85" t="n">
-        <v>4991.027246539169</v>
+        <v>2190</v>
       </c>
       <c r="I85" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>8303</v>
+        <v>3328</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>20000000</v>
+        <v>845300</v>
       </c>
       <c r="G86" t="n">
-        <v>56014500000</v>
+        <v>1219326000</v>
       </c>
       <c r="H86" t="n">
-        <v>2800.725</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I86" t="n">
-        <v>9.75</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2812</v>
+        <v>3328</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+        <v>675500</v>
+      </c>
+      <c r="G87" t="n">
+        <v>976503000</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1445.60029607698</v>
+      </c>
       <c r="I87" t="n">
-        <v>9.779999999999999</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100ST3I.zip</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>9072</v>
+        <v>8818</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>8377400</v>
+        <v>2505000</v>
       </c>
       <c r="G88" t="n">
-        <v>13394541000</v>
+        <v>3361654000</v>
       </c>
       <c r="H88" t="n">
-        <v>1598.889989734285</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="I88" t="n">
-        <v>12.74</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S100RSA5.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5194</v>
+        <v>5541</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1068798</v>
+        <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>997342000</v>
+        <v>117000</v>
       </c>
       <c r="H89" t="n">
-        <v>933.1435874692879</v>
+        <v>1170</v>
       </c>
       <c r="I89" t="n">
-        <v>9.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>8140</v>
+        <v>7315</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1322800</v>
+        <v>6994900</v>
       </c>
       <c r="G90" t="n">
-        <v>4536170000</v>
+        <v>5874641000</v>
       </c>
       <c r="H90" t="n">
-        <v>3429.218324765649</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I90" t="n">
-        <v>5.29</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1878</v>
+        <v>4837</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3452100</v>
+        <v>5428600</v>
       </c>
       <c r="G91" t="n">
-        <v>44793976000</v>
+        <v>4378021000</v>
       </c>
       <c r="H91" t="n">
-        <v>12975.86280814577</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I91" t="n">
-        <v>5.01</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3821,35 +3825,35 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>7157</v>
+        <v>4293</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4536300</v>
+        <v>20896886</v>
       </c>
       <c r="G92" t="n">
-        <v>4025006000</v>
+        <v>9376038000</v>
       </c>
       <c r="H92" t="n">
-        <v>887.288318673809</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I92" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3858,68 +3862,72 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1861</v>
+        <v>4631</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3102784</v>
+        <v>6563759</v>
       </c>
       <c r="G93" t="n">
-        <v>8614573000</v>
+        <v>16844475000</v>
       </c>
       <c r="H93" t="n">
-        <v>2776.401128792723</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I93" t="n">
-        <v>7.07</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100SHYB.zip</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>7350</v>
+        <v>5449</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+        <v>2114100</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3695597000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1748.071046781136</v>
+      </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S100QRVC.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3928,755 +3936,1672 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3549</v>
+        <v>6232</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1735200</v>
+        <v>1499000</v>
       </c>
       <c r="G95" t="n">
-        <v>11532479000</v>
+        <v>1369002000</v>
       </c>
       <c r="H95" t="n">
-        <v>6646.195827570309</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I95" t="n">
-        <v>5.5</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100SB0S.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6770</v>
+        <v>6237</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>11259700</v>
+        <v>1129500</v>
       </c>
       <c r="G96" t="n">
-        <v>14161429000</v>
+        <v>1537738000</v>
       </c>
       <c r="H96" t="n">
-        <v>1257.709264012363</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="I96" t="n">
-        <v>5.13</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3391</v>
+        <v>4987</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>6354522</v>
+        <v>1543800</v>
       </c>
       <c r="G97" t="n">
-        <v>28876223000</v>
+        <v>874286000</v>
       </c>
       <c r="H97" t="n">
-        <v>4544.200649553184</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I97" t="n">
-        <v>12.84</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1951</v>
+        <v>4739</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5561200</v>
+        <v>15400600</v>
       </c>
       <c r="G98" t="n">
-        <v>12623472000</v>
+        <v>66216726000</v>
       </c>
       <c r="H98" t="n">
-        <v>2269.918722577861</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I98" t="n">
-        <v>5.06</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3085</v>
+        <v>2501</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1756300</v>
+        <v>4010500</v>
       </c>
       <c r="G99" t="n">
-        <v>4694343000</v>
+        <v>10817766000</v>
       </c>
       <c r="H99" t="n">
-        <v>2672.859420372374</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I99" t="n">
-        <v>5.31</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>9842</v>
+        <v>4023</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2082200</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>3059101000</v>
+        <v>796000</v>
       </c>
       <c r="H100" t="n">
-        <v>1469.167707232735</v>
+        <v>7960</v>
       </c>
       <c r="I100" t="n">
-        <v>5.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S100QI52.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9672</v>
+        <v>5844</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2410900</v>
+        <v>4998800</v>
       </c>
       <c r="G101" t="n">
-        <v>9382590000</v>
+        <v>24949147000</v>
       </c>
       <c r="H101" t="n">
-        <v>3891.73752540545</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I101" t="n">
-        <v>8.380000000000001</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100RYRP.zip</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>3558</v>
+        <v>5947</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1214200</v>
+        <v>7446200</v>
       </c>
       <c r="G102" t="n">
-        <v>1538785000</v>
+        <v>21182239000</v>
       </c>
       <c r="H102" t="n">
-        <v>1267.324164058639</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="I102" t="n">
-        <v>10.57</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100RY2V.zip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2329</v>
+        <v>5186</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
+        <v>1536900</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4758738000</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3096.322467304314</v>
+      </c>
       <c r="I103" t="n">
-        <v>9.550000000000001</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2329</v>
+        <v>8303</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I104" t="n">
-        <v>9.550000000000001</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4324</v>
+        <v>2812</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G105" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H105" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>5.050000000000001</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100RU33.zip</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3608</v>
+        <v>5451</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4569000</v>
+        <v>1752800</v>
       </c>
       <c r="G106" t="n">
-        <v>2005111000</v>
+        <v>5669831000</v>
       </c>
       <c r="H106" t="n">
-        <v>438.851170934559</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="I106" t="n">
-        <v>5.07</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>6804</v>
+        <v>9072</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3315900</v>
+        <v>8377400</v>
       </c>
       <c r="G107" t="n">
-        <v>4322098000</v>
+        <v>13394541000</v>
       </c>
       <c r="H107" t="n">
-        <v>1303.446424801713</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I107" t="n">
-        <v>5.26</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100RSA5.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6236</v>
+        <v>5194</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>911500</v>
+        <v>1068798</v>
       </c>
       <c r="G108" t="n">
-        <v>1306557000</v>
+        <v>997342000</v>
       </c>
       <c r="H108" t="n">
-        <v>1433.414152495886</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="I108" t="n">
-        <v>19.45</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100RIEU.zip</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>6770</v>
+        <v>8871</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2344200</v>
+        <v>1807700</v>
       </c>
       <c r="G109" t="n">
-        <v>2853488000</v>
+        <v>3235548000</v>
       </c>
       <c r="H109" t="n">
-        <v>1217.254500469243</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="I109" t="n">
-        <v>1.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100RGLG.zip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7272</v>
+        <v>5929</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>17688500</v>
+        <v>11571500</v>
       </c>
       <c r="G110" t="n">
-        <v>52513090000</v>
+        <v>15114770000</v>
       </c>
       <c r="H110" t="n">
-        <v>2968.770104870396</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="I110" t="n">
-        <v>5.050000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>4956</v>
+        <v>8140</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2039200</v>
+        <v>1322800</v>
       </c>
       <c r="G111" t="n">
-        <v>3273303000</v>
+        <v>4536170000</v>
       </c>
       <c r="H111" t="n">
-        <v>1605.189780306002</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I111" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>8057</v>
+        <v>1878</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>787800</v>
+        <v>3452100</v>
       </c>
       <c r="G112" t="n">
-        <v>2754799000</v>
+        <v>44793976000</v>
       </c>
       <c r="H112" t="n">
-        <v>3496.825336379792</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="I112" t="n">
-        <v>7.56</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100QVRX.zip</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3391</v>
+        <v>1882</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2617759</v>
+        <v>533500</v>
       </c>
       <c r="G113" t="n">
-        <v>21628867000</v>
+        <v>2009924000</v>
       </c>
       <c r="H113" t="n">
-        <v>8262.359904024779</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="I113" t="n">
-        <v>5.29</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S100PH6I.zip</t>
+          <t>S100QV9B.zip</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>6707</v>
+        <v>3593</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1699900</v>
+        <v>1637060</v>
       </c>
       <c r="G114" t="n">
-        <v>9313663000</v>
+        <v>5502657000</v>
       </c>
       <c r="H114" t="n">
-        <v>5478.947585152067</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="I114" t="n">
-        <v>6.77</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>S100QUDZ.zip</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1861</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>3102784</v>
+      </c>
+      <c r="G115" t="n">
+        <v>8614573000</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2776.401128792723</v>
+      </c>
+      <c r="I115" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>S100QU54.zip</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>7157</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>4536300</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4025006000</v>
+      </c>
+      <c r="H116" t="n">
+        <v>887.288318673809</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>S100QSK8.zip</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>7350</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>S100QRVC.zip</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>3549</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2023-05-15</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1735200</v>
+      </c>
+      <c r="G118" t="n">
+        <v>11532479000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>6646.195827570309</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>S100QRUW.zip</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>3391</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>6354522</v>
+      </c>
+      <c r="G119" t="n">
+        <v>28876223000</v>
+      </c>
+      <c r="H119" t="n">
+        <v>4544.200649553184</v>
+      </c>
+      <c r="I119" t="n">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>S100QP55.zip</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>6770</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>11259700</v>
+      </c>
+      <c r="G120" t="n">
+        <v>14161429000</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1257.709264012363</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>S100QNRY.zip</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>5561200</v>
+      </c>
+      <c r="G121" t="n">
+        <v>12623472000</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2269.918722577861</v>
+      </c>
+      <c r="I121" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>S100QNNV.zip</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>3085</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1756300</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4694343000</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2672.859420372374</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>S100QJNN.zip</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>9842</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>2082200</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3059101000</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1469.167707232735</v>
+      </c>
+      <c r="I123" t="n">
+        <v>5.029999999999999</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>S100QI52.zip</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>9672</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>2410900</v>
+      </c>
+      <c r="G124" t="n">
+        <v>9382590000</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3891.73752540545</v>
+      </c>
+      <c r="I124" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>S100QGUZ.zip</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>3558</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>1214200</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1267.324164058639</v>
+      </c>
+      <c r="I125" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>S100QF8K.zip</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>4463000</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>S100QF0T.zip</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>4463000</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>S100QDGW.zip</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>4324</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>13655200</v>
+      </c>
+      <c r="G128" t="n">
+        <v>56753467000</v>
+      </c>
+      <c r="H128" t="n">
+        <v>4156.179843576074</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5.050000000000001</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>S100QBB7.zip</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>3608</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>4569000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2005111000</v>
+      </c>
+      <c r="H129" t="n">
+        <v>438.851170934559</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>S100Q8UN.zip</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>6804</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>3315900</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4322098000</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1303.446424801713</v>
+      </c>
+      <c r="I130" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>S100Q1O2.zip</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>6236</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>911500</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1306557000</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1433.414152495886</v>
+      </c>
+      <c r="I131" t="n">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>S100Q1FN.zip</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>6770</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>2344200</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2853488000</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1217.254500469243</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>S100PZAN.zip</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>7272</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>17688500</v>
+      </c>
+      <c r="G133" t="n">
+        <v>52513090000</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2968.770104870396</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5.050000000000001</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>S100PYKO.zip</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4956</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>2039200</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3273303000</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1605.189780306002</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>S100PVDC.zip</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>8057</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>787800</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2754799000</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3496.825336379792</v>
+      </c>
+      <c r="I135" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>S100PV98.zip</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>3391</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>2617759</v>
+      </c>
+      <c r="G136" t="n">
+        <v>21628867000</v>
+      </c>
+      <c r="H136" t="n">
+        <v>8262.359904024779</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>S100PV61.zip</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3132</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2022-12-15</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>4697500</v>
+      </c>
+      <c r="G137" t="n">
+        <v>8653324000</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1842.11261309207</v>
+      </c>
+      <c r="I137" t="n">
+        <v>7.539999999999999</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>S100PNUO.zip</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>株式会社ストラテジックキャピタル</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>3205</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2022-11-17</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>2552200</v>
+      </c>
+      <c r="G138" t="n">
+        <v>492702000</v>
+      </c>
+      <c r="H138" t="n">
+        <v>193.0499177180472</v>
+      </c>
+      <c r="I138" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>S100PH6I.zip</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>6707</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1699900</v>
+      </c>
+      <c r="G139" t="n">
+        <v>9313663000</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5478.947585152067</v>
+      </c>
+      <c r="I139" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
           <t>S100PA7Q.zip</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D140" t="n">
         <v>9842</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="F115" t="n">
+      <c r="F140" t="n">
         <v>1974900</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G140" t="n">
         <v>2942498000</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H140" t="n">
         <v>1489.94784546053</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I140" t="n">
         <v>4.77</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100WQ4O.zip</t>
+          <t>S100WQFH.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,109 +497,109 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8233</v>
+        <v>4917</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>261400</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>287906000</v>
+        <v>204000</v>
       </c>
       <c r="H2" t="n">
-        <v>1101.400153022188</v>
+        <v>2040</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100WO9C.zip</t>
+          <t>S100WQ4O.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2229</v>
+        <v>8233</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8012900</v>
+        <v>261400</v>
       </c>
       <c r="G3" t="n">
-        <v>23390757000</v>
+        <v>287906000</v>
       </c>
       <c r="H3" t="n">
-        <v>2919.137515755844</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="I3" t="n">
-        <v>5.98</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5983</v>
+        <v>2229</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>44800</v>
+        <v>8012900</v>
       </c>
       <c r="G4" t="n">
-        <v>315399000</v>
+        <v>23390757000</v>
       </c>
       <c r="H4" t="n">
-        <v>7040.15625</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I4" t="n">
-        <v>4.07</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -631,308 +631,308 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WKF3.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6104</v>
+        <v>5983</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1297500</v>
+        <v>44800</v>
       </c>
       <c r="G6" t="n">
-        <v>4476090000</v>
+        <v>315399000</v>
       </c>
       <c r="H6" t="n">
-        <v>3449.780346820809</v>
+        <v>7040.15625</v>
       </c>
       <c r="I6" t="n">
-        <v>5.23</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WCIP.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5331</v>
+        <v>6104</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1481600</v>
+        <v>1297500</v>
       </c>
       <c r="G7" t="n">
-        <v>5294365000</v>
+        <v>4476090000</v>
       </c>
       <c r="H7" t="n">
-        <v>3573.410502159827</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WCIP.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6952</v>
+        <v>5331</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12332900</v>
+        <v>1481600</v>
       </c>
       <c r="G8" t="n">
-        <v>14653495000</v>
+        <v>5294365000</v>
       </c>
       <c r="H8" t="n">
-        <v>1188.162962482466</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="I8" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6145</v>
+        <v>6952</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>12332900</v>
       </c>
       <c r="G9" t="n">
-        <v>171000</v>
+        <v>14653495000</v>
       </c>
       <c r="H9" t="n">
-        <v>1710</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100WACZ.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8715</v>
+        <v>6145</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3810400</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>2500615000</v>
+        <v>171000</v>
       </c>
       <c r="H10" t="n">
-        <v>656.2604975855553</v>
+        <v>1710</v>
       </c>
       <c r="I10" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100W5LT.zip</t>
+          <t>S100WACZ.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8585</v>
+        <v>8715</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8986800</v>
+        <v>3810400</v>
       </c>
       <c r="G11" t="n">
-        <v>7174886000</v>
+        <v>2500615000</v>
       </c>
       <c r="H11" t="n">
-        <v>798.3805136422309</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="I11" t="n">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100W5LT.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6908</v>
+        <v>8585</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>400</v>
+        <v>8986800</v>
       </c>
       <c r="G12" t="n">
-        <v>992000</v>
+        <v>7174886000</v>
       </c>
       <c r="H12" t="n">
-        <v>2480</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100VV1I.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8923</v>
+        <v>6908</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2434800</v>
+        <v>400</v>
       </c>
       <c r="G13" t="n">
-        <v>4266809000</v>
+        <v>992000</v>
       </c>
       <c r="H13" t="n">
-        <v>1752.426893379333</v>
+        <v>2480</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100VUUK.zip</t>
+          <t>S100VV1I.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -941,170 +941,170 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9069</v>
+        <v>8923</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8793900</v>
+        <v>2434800</v>
       </c>
       <c r="G14" t="n">
-        <v>13684104000</v>
+        <v>4266809000</v>
       </c>
       <c r="H14" t="n">
-        <v>1556.090471804319</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="I14" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100VUUK.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1878</v>
+        <v>9069</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3475000</v>
+        <v>8793900</v>
       </c>
       <c r="G15" t="n">
-        <v>47745269000</v>
+        <v>13684104000</v>
       </c>
       <c r="H15" t="n">
-        <v>13739.64575539568</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="I15" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100VQJZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3076</v>
+        <v>3328</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2841700</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5705436000</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2007.754513143541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VQJZ.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3106</v>
+        <v>3076</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>900156</v>
+        <v>2841700</v>
       </c>
       <c r="G18" t="n">
-        <v>4095263000</v>
+        <v>5705436000</v>
       </c>
       <c r="H18" t="n">
-        <v>4549.503641591014</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="19">
@@ -1147,86 +1147,86 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9684</v>
+        <v>3106</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6704059</v>
+        <v>900156</v>
       </c>
       <c r="G20" t="n">
-        <v>42054369000</v>
+        <v>4095263000</v>
       </c>
       <c r="H20" t="n">
-        <v>6272.971195510064</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I20" t="n">
-        <v>5.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G21" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H21" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1235,21 +1235,21 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H22" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1258,58 +1258,58 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4849</v>
+        <v>6332</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2946942</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>5148132000</v>
+        <v>141000</v>
       </c>
       <c r="H23" t="n">
-        <v>1746.940387696806</v>
+        <v>1410</v>
       </c>
       <c r="I23" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6927</v>
+        <v>4849</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1317,175 +1317,175 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1142700</v>
+        <v>2946942</v>
       </c>
       <c r="G24" t="n">
-        <v>1023871000</v>
+        <v>5148132000</v>
       </c>
       <c r="H24" t="n">
-        <v>896.0103264198827</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I24" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4676</v>
+        <v>6927</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G25" t="n">
-        <v>242000</v>
+        <v>1023871000</v>
       </c>
       <c r="H25" t="n">
-        <v>2420</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H26" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I26" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G27" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H27" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I27" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G28" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H28" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1494,172 +1494,172 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H29" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I29" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100VCMT.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3132</v>
+        <v>6890</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8970900</v>
+        <v>30000</v>
       </c>
       <c r="G30" t="n">
-        <v>10240398000</v>
+        <v>71610000</v>
       </c>
       <c r="H30" t="n">
-        <v>1141.512891683109</v>
+        <v>2387</v>
       </c>
       <c r="I30" t="n">
-        <v>5.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VCMT.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4512</v>
+        <v>3132</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2137400</v>
+        <v>8970900</v>
       </c>
       <c r="G31" t="n">
-        <v>620573000</v>
+        <v>10240398000</v>
       </c>
       <c r="H31" t="n">
-        <v>290.3401328717133</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="I31" t="n">
-        <v>6.140000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G32" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H32" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9987</v>
+        <v>9006</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3888200</v>
+        <v>30000</v>
       </c>
       <c r="G33" t="n">
-        <v>16086019000</v>
+        <v>34824000</v>
       </c>
       <c r="H33" t="n">
-        <v>4137.137750115735</v>
+        <v>1160.8</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34">
@@ -1702,86 +1702,86 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7732</v>
+        <v>9987</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>7995900</v>
+        <v>3888200</v>
       </c>
       <c r="G35" t="n">
-        <v>16678425000</v>
+        <v>16086019000</v>
       </c>
       <c r="H35" t="n">
-        <v>2085.872134468915</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I35" t="n">
-        <v>7.380000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3861</v>
+        <v>7732</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>7995900</v>
       </c>
       <c r="G36" t="n">
-        <v>59000</v>
+        <v>16678425000</v>
       </c>
       <c r="H36" t="n">
-        <v>590</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1790,21 +1790,21 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5715</v>
+        <v>3861</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>160000</v>
+        <v>59000</v>
       </c>
       <c r="H37" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1813,49 +1813,49 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100UYE4.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3978</v>
+        <v>5715</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2891700</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>3425686000</v>
+        <v>160000</v>
       </c>
       <c r="H38" t="n">
-        <v>1184.661617733513</v>
+        <v>1600</v>
       </c>
       <c r="I38" t="n">
-        <v>7.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100UWW1.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1864,146 +1864,146 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4452</v>
+        <v>3978</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>24347342</v>
+        <v>2891700</v>
       </c>
       <c r="G39" t="n">
-        <v>148917027000</v>
+        <v>3425686000</v>
       </c>
       <c r="H39" t="n">
-        <v>6116.356643776557</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I39" t="n">
-        <v>5.23</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9257</v>
+        <v>4452</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>24347342</v>
       </c>
       <c r="G40" t="n">
-        <v>57000</v>
+        <v>148917027000</v>
       </c>
       <c r="H40" t="n">
-        <v>570</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100UMDQ.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9531</v>
+        <v>9257</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>19554300</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>64960321000</v>
+        <v>57000</v>
       </c>
       <c r="H41" t="n">
-        <v>3322.047887165483</v>
+        <v>570</v>
       </c>
       <c r="I41" t="n">
-        <v>5.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100UORL.zip</t>
+          <t>S100UMDQ.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4385</v>
+        <v>9531</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>8815360</v>
+        <v>19554300</v>
       </c>
       <c r="G42" t="n">
-        <v>17684138000</v>
+        <v>64960321000</v>
       </c>
       <c r="H42" t="n">
-        <v>2006.059650428343</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="I42" t="n">
-        <v>5.37</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100UMI2.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2012,35 +2012,35 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7984</v>
+        <v>4385</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6096500</v>
+        <v>8815360</v>
       </c>
       <c r="G43" t="n">
-        <v>13153972000</v>
+        <v>17684138000</v>
       </c>
       <c r="H43" t="n">
-        <v>2157.626835069302</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I43" t="n">
-        <v>5.02</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100UMJC.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2049,192 +2049,192 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1973</v>
+        <v>7984</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>8973383</v>
+        <v>6096500</v>
       </c>
       <c r="G44" t="n">
-        <v>24947403000</v>
+        <v>13153972000</v>
       </c>
       <c r="H44" t="n">
-        <v>2780.155823060266</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I44" t="n">
-        <v>6.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6908</v>
+        <v>1973</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>502000</v>
+        <v>8973383</v>
       </c>
       <c r="G45" t="n">
-        <v>1257178000</v>
+        <v>24947403000</v>
       </c>
       <c r="H45" t="n">
-        <v>2504.338645418327</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I45" t="n">
-        <v>2.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100UIC4.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3765</v>
+        <v>6908</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4552900</v>
+        <v>502000</v>
       </c>
       <c r="G46" t="n">
-        <v>13383536000</v>
+        <v>1257178000</v>
       </c>
       <c r="H46" t="n">
-        <v>2939.562915943684</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I46" t="n">
-        <v>5.47</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UIC4.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5482</v>
+        <v>3765</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>433300</v>
+        <v>4552900</v>
       </c>
       <c r="G47" t="n">
-        <v>1367192000</v>
+        <v>13383536000</v>
       </c>
       <c r="H47" t="n">
-        <v>3155.301177013616</v>
+        <v>2939.562915943684</v>
       </c>
       <c r="I47" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4272</v>
+        <v>5482</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>26855100</v>
+        <v>433300</v>
       </c>
       <c r="G48" t="n">
-        <v>29860350000</v>
+        <v>1367192000</v>
       </c>
       <c r="H48" t="n">
-        <v>1111.90611839092</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I48" t="n">
-        <v>15.75</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8141</v>
+        <v>4272</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2242,27 +2242,27 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G49" t="n">
-        <v>93000</v>
+        <v>29860350000</v>
       </c>
       <c r="H49" t="n">
-        <v>930</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2271,21 +2271,21 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6145</v>
+        <v>8141</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F50" t="n">
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>171000</v>
+        <v>93000</v>
       </c>
       <c r="H50" t="n">
-        <v>1710</v>
+        <v>930</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2294,44 +2294,44 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100UBH9.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3569</v>
+        <v>6145</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4271704</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>5808044000</v>
+        <v>171000</v>
       </c>
       <c r="H51" t="n">
-        <v>1359.655069733296</v>
+        <v>1710</v>
       </c>
       <c r="I51" t="n">
-        <v>6.279999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UBH9.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4205</v>
+        <v>3569</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2353,175 +2353,175 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>14426600</v>
+        <v>4271704</v>
       </c>
       <c r="G52" t="n">
-        <v>24829312000</v>
+        <v>5808044000</v>
       </c>
       <c r="H52" t="n">
-        <v>1721.078563209627</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="I52" t="n">
-        <v>6.29</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100U9FC.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6516</v>
+        <v>4205</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>679500</v>
+        <v>14426600</v>
       </c>
       <c r="G53" t="n">
-        <v>4792335000</v>
+        <v>24829312000</v>
       </c>
       <c r="H53" t="n">
-        <v>7052.737306843267</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I53" t="n">
-        <v>5.24</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100U9FC.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2327</v>
+        <v>6516</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>9154320</v>
+        <v>679500</v>
       </c>
       <c r="G54" t="n">
-        <v>23450671000</v>
+        <v>4792335000</v>
       </c>
       <c r="H54" t="n">
-        <v>2561.705402476645</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3989</v>
+        <v>2327</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1206000</v>
+        <v>9154320</v>
       </c>
       <c r="G55" t="n">
-        <v>787604000</v>
+        <v>23450671000</v>
       </c>
       <c r="H55" t="n">
-        <v>653.0713101160862</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I55" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6908</v>
+        <v>3989</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>1206000</v>
       </c>
       <c r="G56" t="n">
-        <v>288000</v>
+        <v>787604000</v>
       </c>
       <c r="H56" t="n">
-        <v>2880</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2530,72 +2530,72 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5988</v>
+        <v>6908</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>527300</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>1212090000</v>
+        <v>288000</v>
       </c>
       <c r="H57" t="n">
-        <v>2298.672482457804</v>
+        <v>2880</v>
       </c>
       <c r="I57" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3529</v>
+        <v>5988</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>998000</v>
+        <v>527300</v>
       </c>
       <c r="G58" t="n">
-        <v>667598000</v>
+        <v>1212090000</v>
       </c>
       <c r="H58" t="n">
-        <v>668.9358717434869</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I58" t="n">
-        <v>5.76</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2604,81 +2604,81 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>7305</v>
+        <v>3529</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>309800</v>
+        <v>998000</v>
       </c>
       <c r="G59" t="n">
-        <v>1321438000</v>
+        <v>667598000</v>
       </c>
       <c r="H59" t="n">
-        <v>4265.455132343447</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I59" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2168</v>
+        <v>7305</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2094200</v>
+        <v>309800</v>
       </c>
       <c r="G60" t="n">
-        <v>4445105000</v>
+        <v>1321438000</v>
       </c>
       <c r="H60" t="n">
-        <v>2122.579027791042</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I60" t="n">
-        <v>5.02</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5541</v>
+        <v>2168</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2686,27 +2686,27 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>2094200</v>
       </c>
       <c r="G61" t="n">
-        <v>127000</v>
+        <v>4445105000</v>
       </c>
       <c r="H61" t="n">
-        <v>1270</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2715,21 +2715,21 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8803</v>
+        <v>5541</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F62" t="n">
         <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>361000</v>
+        <v>127000</v>
       </c>
       <c r="H62" t="n">
-        <v>3610</v>
+        <v>1270</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2738,21 +2738,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4967</v>
+        <v>8803</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2760,27 +2760,27 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>20578848000</v>
+        <v>361000</v>
       </c>
       <c r="H63" t="n">
-        <v>5066.092575838703</v>
+        <v>3610</v>
       </c>
       <c r="I63" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2800,10 +2800,10 @@
         <v>4062075</v>
       </c>
       <c r="G64" t="n">
-        <v>8729143000</v>
+        <v>20578848000</v>
       </c>
       <c r="H64" t="n">
-        <v>2148.936934940886</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I64" t="n">
         <v>5.2</v>
@@ -2812,160 +2812,160 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100U325.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>9882</v>
+        <v>4967</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2505000</v>
+        <v>4062075</v>
       </c>
       <c r="G65" t="n">
-        <v>5292086000</v>
+        <v>8729143000</v>
       </c>
       <c r="H65" t="n">
-        <v>2112.609181636727</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I65" t="n">
-        <v>5.02</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U325.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8129</v>
+        <v>9882</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>7258230</v>
+        <v>2505000</v>
       </c>
       <c r="G66" t="n">
-        <v>24720910000</v>
+        <v>5292086000</v>
       </c>
       <c r="H66" t="n">
-        <v>3405.914389596362</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="I66" t="n">
-        <v>9.460000000000001</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100U2CM.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2206</v>
+        <v>8129</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3462600</v>
+        <v>7258230</v>
       </c>
       <c r="G67" t="n">
-        <v>14385811000</v>
+        <v>24720910000</v>
       </c>
       <c r="H67" t="n">
-        <v>4154.626869982095</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I67" t="n">
-        <v>5.06</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U2CM.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3666</v>
+        <v>2206</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1053200</v>
+        <v>3462600</v>
       </c>
       <c r="G68" t="n">
-        <v>663809000</v>
+        <v>14385811000</v>
       </c>
       <c r="H68" t="n">
-        <v>630.278199772123</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="I68" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2974,192 +2974,192 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4347</v>
+        <v>3666</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>614893</v>
+        <v>1053200</v>
       </c>
       <c r="G69" t="n">
-        <v>940560000</v>
+        <v>663809000</v>
       </c>
       <c r="H69" t="n">
-        <v>1529.631984751819</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I69" t="n">
-        <v>8.200000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8129</v>
+        <v>4347</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3886330</v>
+        <v>614893</v>
       </c>
       <c r="G70" t="n">
-        <v>10549885000</v>
+        <v>940560000</v>
       </c>
       <c r="H70" t="n">
-        <v>2714.613787300615</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I70" t="n">
-        <v>5.06</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8929</v>
+        <v>8129</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1260812</v>
+        <v>3886330</v>
       </c>
       <c r="G71" t="n">
-        <v>1699255000</v>
+        <v>10549885000</v>
       </c>
       <c r="H71" t="n">
-        <v>1347.74653160027</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I71" t="n">
-        <v>5.140000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7278</v>
+        <v>8929</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>115400</v>
+        <v>1260812</v>
       </c>
       <c r="G72" t="n">
-        <v>302115000</v>
+        <v>1699255000</v>
       </c>
       <c r="H72" t="n">
-        <v>2617.980935875217</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I72" t="n">
-        <v>0.24</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4042</v>
+        <v>7278</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>16459200</v>
+        <v>115400</v>
       </c>
       <c r="G73" t="n">
-        <v>33451116000</v>
+        <v>302115000</v>
       </c>
       <c r="H73" t="n">
-        <v>2032.365850102071</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I73" t="n">
-        <v>5.06</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3591</v>
+        <v>4042</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3167,249 +3167,249 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2846091</v>
+        <v>16459200</v>
       </c>
       <c r="G74" t="n">
-        <v>6888596000</v>
+        <v>33451116000</v>
       </c>
       <c r="H74" t="n">
-        <v>2420.370957920882</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I74" t="n">
-        <v>5.13</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4521</v>
+        <v>3591</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>2846091</v>
       </c>
       <c r="G75" t="n">
-        <v>353000</v>
+        <v>6888596000</v>
       </c>
       <c r="H75" t="n">
-        <v>3530</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100TJBE.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>8923</v>
+        <v>4521</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2445600</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>3856031000</v>
+        <v>353000</v>
       </c>
       <c r="H76" t="n">
-        <v>1576.721867844292</v>
+        <v>3530</v>
       </c>
       <c r="I76" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TJBE.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4347</v>
+        <v>8923</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>400493</v>
+        <v>2445600</v>
       </c>
       <c r="G77" t="n">
-        <v>580713000</v>
+        <v>3856031000</v>
       </c>
       <c r="H77" t="n">
-        <v>1449.995380693296</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="I77" t="n">
-        <v>5.06</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>9024</v>
+        <v>4347</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>16207437</v>
+        <v>400493</v>
       </c>
       <c r="G78" t="n">
-        <v>27823532000</v>
+        <v>580713000</v>
       </c>
       <c r="H78" t="n">
-        <v>1716.713876475349</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I78" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1518</v>
+        <v>9024</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>16207437</v>
       </c>
       <c r="G79" t="n">
-        <v>292000</v>
+        <v>27823532000</v>
       </c>
       <c r="H79" t="n">
-        <v>2920</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7731</v>
+        <v>1518</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>26675255000</v>
+        <v>292000</v>
       </c>
       <c r="H80" t="n">
-        <v>1512.21980974841</v>
+        <v>2920</v>
       </c>
       <c r="I80" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3418,21 +3418,21 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4536</v>
+        <v>7731</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>18290500</v>
+        <v>17639800</v>
       </c>
       <c r="G81" t="n">
-        <v>24591924000</v>
+        <v>26675255000</v>
       </c>
       <c r="H81" t="n">
-        <v>1344.518957928979</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I81" t="n">
         <v>5.02</v>
@@ -3441,197 +3441,197 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4185</v>
+        <v>4536</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>18290500</v>
       </c>
       <c r="G82" t="n">
-        <v>405000</v>
+        <v>24591924000</v>
       </c>
       <c r="H82" t="n">
-        <v>4050</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4549</v>
+        <v>4185</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2006900</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>3367745000</v>
+        <v>405000</v>
       </c>
       <c r="H83" t="n">
-        <v>1678.083113259255</v>
+        <v>4050</v>
       </c>
       <c r="I83" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100SZYE.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>9627</v>
+        <v>4549</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3401100</v>
+        <v>2006900</v>
       </c>
       <c r="G84" t="n">
-        <v>9648726000</v>
+        <v>3367745000</v>
       </c>
       <c r="H84" t="n">
-        <v>2836.942753814942</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I84" t="n">
-        <v>9.6</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8304</v>
+        <v>9627</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>3401100</v>
       </c>
       <c r="G85" t="n">
-        <v>219000</v>
+        <v>9648726000</v>
       </c>
       <c r="H85" t="n">
-        <v>2190</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3328</v>
+        <v>8304</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>845300</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>1219326000</v>
+        <v>219000</v>
       </c>
       <c r="H86" t="n">
-        <v>1442.477227019993</v>
+        <v>2190</v>
       </c>
       <c r="I86" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3644,142 +3644,142 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>675500</v>
+        <v>845300</v>
       </c>
       <c r="G87" t="n">
-        <v>976503000</v>
+        <v>1219326000</v>
       </c>
       <c r="H87" t="n">
-        <v>1445.60029607698</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I87" t="n">
-        <v>5.220000000000001</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S100ST3I.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>8818</v>
+        <v>3328</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2505000</v>
+        <v>675500</v>
       </c>
       <c r="G88" t="n">
-        <v>3361654000</v>
+        <v>976503000</v>
       </c>
       <c r="H88" t="n">
-        <v>1341.977644710579</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I88" t="n">
-        <v>5.09</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100ST3I.zip</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5541</v>
+        <v>8818</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>2505000</v>
       </c>
       <c r="G89" t="n">
-        <v>117000</v>
+        <v>3361654000</v>
       </c>
       <c r="H89" t="n">
-        <v>1170</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100SN7U.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>7315</v>
+        <v>5541</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>6994900</v>
+        <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>5874641000</v>
+        <v>117000</v>
       </c>
       <c r="H90" t="n">
-        <v>839.8463166020958</v>
+        <v>1170</v>
       </c>
       <c r="I90" t="n">
-        <v>14.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S100SLMH.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3788,35 +3788,35 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4837</v>
+        <v>7315</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5428600</v>
+        <v>6994900</v>
       </c>
       <c r="G91" t="n">
-        <v>4378021000</v>
+        <v>5874641000</v>
       </c>
       <c r="H91" t="n">
-        <v>806.4733080352208</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I91" t="n">
-        <v>9.74</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3825,30 +3825,30 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4293</v>
+        <v>4837</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>20896886</v>
+        <v>5428600</v>
       </c>
       <c r="G92" t="n">
-        <v>9376038000</v>
+        <v>4378021000</v>
       </c>
       <c r="H92" t="n">
-        <v>448.6811097117532</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I92" t="n">
-        <v>9.9</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4631</v>
+        <v>4293</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3870,355 +3870,355 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>6563759</v>
+        <v>20896886</v>
       </c>
       <c r="G93" t="n">
-        <v>16844475000</v>
+        <v>9376038000</v>
       </c>
       <c r="H93" t="n">
-        <v>2566.284807227078</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I93" t="n">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S100SHYB.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5449</v>
+        <v>4631</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2114100</v>
+        <v>6563759</v>
       </c>
       <c r="G94" t="n">
-        <v>3695597000</v>
+        <v>16844475000</v>
       </c>
       <c r="H94" t="n">
-        <v>1748.071046781136</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I94" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S100SDCB.zip</t>
+          <t>S100SHYB.zip</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6232</v>
+        <v>5449</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1499000</v>
+        <v>2114100</v>
       </c>
       <c r="G95" t="n">
-        <v>1369002000</v>
+        <v>3695597000</v>
       </c>
       <c r="H95" t="n">
-        <v>913.2768512341561</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="I95" t="n">
-        <v>10.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100SB0S.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6237</v>
+        <v>6232</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1129500</v>
+        <v>1499000</v>
       </c>
       <c r="G96" t="n">
-        <v>1537738000</v>
+        <v>1369002000</v>
       </c>
       <c r="H96" t="n">
-        <v>1361.432492253209</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I96" t="n">
-        <v>5.02</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SB0S.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4987</v>
+        <v>6237</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1543800</v>
+        <v>1129500</v>
       </c>
       <c r="G97" t="n">
-        <v>874286000</v>
+        <v>1537738000</v>
       </c>
       <c r="H97" t="n">
-        <v>566.3207669387226</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="I97" t="n">
-        <v>5.779999999999999</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S100S4PN.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4739</v>
+        <v>4987</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>15400600</v>
+        <v>1543800</v>
       </c>
       <c r="G98" t="n">
-        <v>66216726000</v>
+        <v>874286000</v>
       </c>
       <c r="H98" t="n">
-        <v>4299.619884939548</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I98" t="n">
-        <v>6.419999999999999</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2501</v>
+        <v>4739</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4010500</v>
+        <v>15400600</v>
       </c>
       <c r="G99" t="n">
-        <v>10817766000</v>
+        <v>66216726000</v>
       </c>
       <c r="H99" t="n">
-        <v>2697.360927565142</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I99" t="n">
-        <v>5.09</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4023</v>
+        <v>2501</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>4010500</v>
       </c>
       <c r="G100" t="n">
-        <v>796000</v>
+        <v>10817766000</v>
       </c>
       <c r="H100" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5844</v>
+        <v>4023</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>24949147000</v>
+        <v>796000</v>
       </c>
       <c r="H101" t="n">
-        <v>4991.027246539169</v>
+        <v>7960</v>
       </c>
       <c r="I101" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S100RYRP.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5947</v>
+        <v>5844</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>7446200</v>
+        <v>4998800</v>
       </c>
       <c r="G102" t="n">
-        <v>21182239000</v>
+        <v>24949147000</v>
       </c>
       <c r="H102" t="n">
-        <v>2844.704547285864</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I102" t="n">
-        <v>4.96</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S100RY2V.zip</t>
+          <t>S100RYRP.zip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5186</v>
+        <v>5947</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4240,467 +4240,467 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1536900</v>
+        <v>7446200</v>
       </c>
       <c r="G103" t="n">
-        <v>4758738000</v>
+        <v>21182239000</v>
       </c>
       <c r="H103" t="n">
-        <v>3096.322467304314</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="I103" t="n">
-        <v>5.08</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RY2V.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>8303</v>
+        <v>5186</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>20000000</v>
+        <v>1536900</v>
       </c>
       <c r="G104" t="n">
-        <v>56014500000</v>
+        <v>4758738000</v>
       </c>
       <c r="H104" t="n">
-        <v>2800.725</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="I104" t="n">
-        <v>9.75</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2812</v>
+        <v>8303</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I105" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S100RU33.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5451</v>
+        <v>2812</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1752800</v>
-      </c>
-      <c r="G106" t="n">
-        <v>5669831000</v>
-      </c>
-      <c r="H106" t="n">
-        <v>3234.727863989046</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>5.029999999999999</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RU33.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>9072</v>
+        <v>5451</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>8377400</v>
+        <v>1752800</v>
       </c>
       <c r="G107" t="n">
-        <v>13394541000</v>
+        <v>5669831000</v>
       </c>
       <c r="H107" t="n">
-        <v>1598.889989734285</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="I107" t="n">
-        <v>12.74</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100RSA5.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5194</v>
+        <v>9072</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1068798</v>
+        <v>8377400</v>
       </c>
       <c r="G108" t="n">
-        <v>997342000</v>
+        <v>13394541000</v>
       </c>
       <c r="H108" t="n">
-        <v>933.1435874692879</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I108" t="n">
-        <v>9.77</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100RIEU.zip</t>
+          <t>S100RSA5.zip</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>8871</v>
+        <v>5194</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1807700</v>
+        <v>1068798</v>
       </c>
       <c r="G109" t="n">
-        <v>3235548000</v>
+        <v>997342000</v>
       </c>
       <c r="H109" t="n">
-        <v>1789.870000553189</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="I109" t="n">
-        <v>5.050000000000001</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S100RGLG.zip</t>
+          <t>S100RIEU.zip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5929</v>
+        <v>8871</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>11571500</v>
+        <v>1807700</v>
       </c>
       <c r="G110" t="n">
-        <v>15114770000</v>
+        <v>3235548000</v>
       </c>
       <c r="H110" t="n">
-        <v>1306.206628354146</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="I110" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RGLG.zip</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>8140</v>
+        <v>5929</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1322800</v>
+        <v>11571500</v>
       </c>
       <c r="G111" t="n">
-        <v>4536170000</v>
+        <v>15114770000</v>
       </c>
       <c r="H111" t="n">
-        <v>3429.218324765649</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="I111" t="n">
-        <v>5.29</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1878</v>
+        <v>8140</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3452100</v>
+        <v>1322800</v>
       </c>
       <c r="G112" t="n">
-        <v>44793976000</v>
+        <v>4536170000</v>
       </c>
       <c r="H112" t="n">
-        <v>12975.86280814577</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I112" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S100QVRX.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>533500</v>
+        <v>3452100</v>
       </c>
       <c r="G113" t="n">
-        <v>2009924000</v>
+        <v>44793976000</v>
       </c>
       <c r="H113" t="n">
-        <v>3767.430178069353</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="I113" t="n">
-        <v>5.11</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S100QV9B.zip</t>
+          <t>S100QVRX.zip</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3593</v>
+        <v>1882</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1637060</v>
+        <v>533500</v>
       </c>
       <c r="G114" t="n">
-        <v>5502657000</v>
+        <v>2009924000</v>
       </c>
       <c r="H114" t="n">
-        <v>3361.304411567078</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="I114" t="n">
-        <v>6.48</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QV9B.zip</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1861</v>
+        <v>3593</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3102784</v>
+        <v>1637060</v>
       </c>
       <c r="G115" t="n">
-        <v>8614573000</v>
+        <v>5502657000</v>
       </c>
       <c r="H115" t="n">
-        <v>2776.401128792723</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="I115" t="n">
-        <v>7.07</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4709,7 +4709,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>7157</v>
+        <v>1861</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4717,97 +4717,97 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4536300</v>
+        <v>3102784</v>
       </c>
       <c r="G116" t="n">
-        <v>4025006000</v>
+        <v>8614573000</v>
       </c>
       <c r="H116" t="n">
-        <v>887.288318673809</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="I116" t="n">
-        <v>6.5</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7350</v>
+        <v>7157</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+        <v>4536300</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4025006000</v>
+      </c>
+      <c r="H117" t="n">
+        <v>887.288318673809</v>
+      </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S100QRVC.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3549</v>
+        <v>7350</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1735200</v>
-      </c>
-      <c r="G118" t="n">
-        <v>11532479000</v>
-      </c>
-      <c r="H118" t="n">
-        <v>6646.195827570309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100QRVC.zip</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4816,44 +4816,44 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3391</v>
+        <v>3549</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6354522</v>
+        <v>1735200</v>
       </c>
       <c r="G119" t="n">
-        <v>28876223000</v>
+        <v>11532479000</v>
       </c>
       <c r="H119" t="n">
-        <v>4544.200649553184</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="I119" t="n">
-        <v>12.84</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QRUW.zip</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>6770</v>
+        <v>3391</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4861,101 +4861,101 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>11259700</v>
+        <v>6354522</v>
       </c>
       <c r="G120" t="n">
-        <v>14161429000</v>
+        <v>28876223000</v>
       </c>
       <c r="H120" t="n">
-        <v>1257.709264012363</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="I120" t="n">
-        <v>5.13</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1951</v>
+        <v>6770</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>5561200</v>
+        <v>11259700</v>
       </c>
       <c r="G121" t="n">
-        <v>12623472000</v>
+        <v>14161429000</v>
       </c>
       <c r="H121" t="n">
-        <v>2269.918722577861</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I121" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3085</v>
+        <v>1951</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1756300</v>
+        <v>5561200</v>
       </c>
       <c r="G122" t="n">
-        <v>4694343000</v>
+        <v>12623472000</v>
       </c>
       <c r="H122" t="n">
-        <v>2672.859420372374</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I122" t="n">
-        <v>5.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4964,142 +4964,146 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>9842</v>
+        <v>3085</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2082200</v>
+        <v>1756300</v>
       </c>
       <c r="G123" t="n">
-        <v>3059101000</v>
+        <v>4694343000</v>
       </c>
       <c r="H123" t="n">
-        <v>1469.167707232735</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I123" t="n">
-        <v>5.029999999999999</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S100QI52.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>9672</v>
+        <v>9842</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2410900</v>
+        <v>2082200</v>
       </c>
       <c r="G124" t="n">
-        <v>9382590000</v>
+        <v>3059101000</v>
       </c>
       <c r="H124" t="n">
-        <v>3891.73752540545</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="I124" t="n">
-        <v>8.380000000000001</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QI52.zip</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3558</v>
+        <v>9672</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1214200</v>
+        <v>2410900</v>
       </c>
       <c r="G125" t="n">
-        <v>1538785000</v>
+        <v>9382590000</v>
       </c>
       <c r="H125" t="n">
-        <v>1267.324164058639</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="I125" t="n">
-        <v>10.57</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2329</v>
+        <v>3558</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+        <v>1214200</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1267.324164058639</v>
+      </c>
       <c r="I126" t="n">
-        <v>9.550000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QF8K.zip</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5127,303 +5131,299 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4324</v>
+        <v>2329</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G128" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H128" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>5.050000000000001</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3608</v>
+        <v>4324</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4569000</v>
+        <v>13655200</v>
       </c>
       <c r="G129" t="n">
-        <v>2005111000</v>
+        <v>56753467000</v>
       </c>
       <c r="H129" t="n">
-        <v>438.851170934559</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I129" t="n">
-        <v>5.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>6804</v>
+        <v>3608</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>3315900</v>
+        <v>4569000</v>
       </c>
       <c r="G130" t="n">
-        <v>4322098000</v>
+        <v>2005111000</v>
       </c>
       <c r="H130" t="n">
-        <v>1303.446424801713</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I130" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>6236</v>
+        <v>6804</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>911500</v>
+        <v>3315900</v>
       </c>
       <c r="G131" t="n">
-        <v>1306557000</v>
+        <v>4322098000</v>
       </c>
       <c r="H131" t="n">
-        <v>1433.414152495886</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I131" t="n">
-        <v>19.45</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>6770</v>
+        <v>6236</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2344200</v>
+        <v>911500</v>
       </c>
       <c r="G132" t="n">
-        <v>2853488000</v>
+        <v>1306557000</v>
       </c>
       <c r="H132" t="n">
-        <v>1217.254500469243</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I132" t="n">
-        <v>1.07</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>7272</v>
+        <v>6770</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>17688500</v>
+        <v>2344200</v>
       </c>
       <c r="G133" t="n">
-        <v>52513090000</v>
+        <v>2853488000</v>
       </c>
       <c r="H133" t="n">
-        <v>2968.770104870396</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I133" t="n">
-        <v>5.050000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4956</v>
+        <v>7272</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2039200</v>
+        <v>17688500</v>
       </c>
       <c r="G134" t="n">
-        <v>3273303000</v>
+        <v>52513090000</v>
       </c>
       <c r="H134" t="n">
-        <v>1605.189780306002</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I134" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100PYKO.zip</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>8057</v>
+        <v>4956</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>787800</v>
+        <v>2039200</v>
       </c>
       <c r="G135" t="n">
-        <v>2754799000</v>
+        <v>3273303000</v>
       </c>
       <c r="H135" t="n">
-        <v>3496.825336379792</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="I135" t="n">
-        <v>7.56</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PVDC.zip</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3391</v>
+        <v>8057</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5445,124 +5445,124 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2617759</v>
+        <v>787800</v>
       </c>
       <c r="G136" t="n">
-        <v>21628867000</v>
+        <v>2754799000</v>
       </c>
       <c r="H136" t="n">
-        <v>8262.359904024779</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="I136" t="n">
-        <v>5.29</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S100PV61.zip</t>
+          <t>S100PV98.zip</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3132</v>
+        <v>3391</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4697500</v>
+        <v>2617759</v>
       </c>
       <c r="G137" t="n">
-        <v>8653324000</v>
+        <v>21628867000</v>
       </c>
       <c r="H137" t="n">
-        <v>1842.11261309207</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="I137" t="n">
-        <v>7.539999999999999</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S100PNUO.zip</t>
+          <t>S100PV61.zip</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3205</v>
+        <v>3132</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2552200</v>
+        <v>4697500</v>
       </c>
       <c r="G138" t="n">
-        <v>492702000</v>
+        <v>8653324000</v>
       </c>
       <c r="H138" t="n">
-        <v>193.0499177180472</v>
+        <v>1842.11261309207</v>
       </c>
       <c r="I138" t="n">
-        <v>6.77</v>
+        <v>7.539999999999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S100PH6I.zip</t>
+          <t>S100PNUO.zip</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>6707</v>
+        <v>3205</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1699900</v>
+        <v>2552200</v>
       </c>
       <c r="G139" t="n">
-        <v>9313663000</v>
+        <v>492702000</v>
       </c>
       <c r="H139" t="n">
-        <v>5478.947585152067</v>
+        <v>193.0499177180472</v>
       </c>
       <c r="I139" t="n">
         <v>6.77</v>
@@ -5571,37 +5571,74 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>S100PH6I.zip</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>6707</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1699900</v>
+      </c>
+      <c r="G140" t="n">
+        <v>9313663000</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5478.947585152067</v>
+      </c>
+      <c r="I140" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
           <t>S100PA7Q.zip</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D141" t="n">
         <v>9842</v>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="F140" t="n">
+      <c r="F141" t="n">
         <v>1974900</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G141" t="n">
         <v>2942498000</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H141" t="n">
         <v>1489.94784546053</v>
       </c>
-      <c r="I140" t="n">
+      <c r="I141" t="n">
         <v>4.77</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -594,12 +594,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -631,12 +631,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1110,21 +1110,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9302</v>
+        <v>3106</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1132,36 +1132,36 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3799000</v>
+        <v>900156</v>
       </c>
       <c r="G19" t="n">
-        <v>5671170000</v>
+        <v>4095263000</v>
       </c>
       <c r="H19" t="n">
-        <v>1492.806001579363</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I19" t="n">
-        <v>5.07</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3106</v>
+        <v>9302</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>900156</v>
+        <v>3799000</v>
       </c>
       <c r="G20" t="n">
-        <v>4095263000</v>
+        <v>5671170000</v>
       </c>
       <c r="H20" t="n">
-        <v>4549.503641591014</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="21">
@@ -1295,21 +1295,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4849</v>
+        <v>6927</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1317,36 +1317,36 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2946942</v>
+        <v>1142700</v>
       </c>
       <c r="G24" t="n">
-        <v>5148132000</v>
+        <v>1023871000</v>
       </c>
       <c r="H24" t="n">
-        <v>1746.940387696806</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I24" t="n">
-        <v>5.93</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6927</v>
+        <v>4849</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1354,16 +1354,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1142700</v>
+        <v>2946942</v>
       </c>
       <c r="G25" t="n">
-        <v>1023871000</v>
+        <v>5148132000</v>
       </c>
       <c r="H25" t="n">
-        <v>896.0103264198827</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I25" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="26">
@@ -2220,21 +2220,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4272</v>
+        <v>8141</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2242,36 +2242,36 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>26855100</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>29860350000</v>
+        <v>93000</v>
       </c>
       <c r="H49" t="n">
-        <v>1111.90611839092</v>
+        <v>930</v>
       </c>
       <c r="I49" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8141</v>
+        <v>4272</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2279,16 +2279,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G50" t="n">
-        <v>93000</v>
+        <v>29860350000</v>
       </c>
       <c r="H50" t="n">
-        <v>930</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="51">
@@ -2331,7 +2331,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100UBH9.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3569</v>
+        <v>4205</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2353,22 +2353,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4271704</v>
+        <v>14426600</v>
       </c>
       <c r="G52" t="n">
-        <v>5808044000</v>
+        <v>24829312000</v>
       </c>
       <c r="H52" t="n">
-        <v>1359.655069733296</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I52" t="n">
-        <v>6.279999999999999</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UBH9.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4205</v>
+        <v>3569</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2390,16 +2390,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>14426600</v>
+        <v>4271704</v>
       </c>
       <c r="G53" t="n">
-        <v>24829312000</v>
+        <v>5808044000</v>
       </c>
       <c r="H53" t="n">
-        <v>1721.078563209627</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="I53" t="n">
-        <v>6.29</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -2738,21 +2738,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>8803</v>
+        <v>4967</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2760,36 +2760,36 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>4062075</v>
       </c>
       <c r="G63" t="n">
-        <v>361000</v>
+        <v>8729143000</v>
       </c>
       <c r="H63" t="n">
-        <v>3610</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4967</v>
+        <v>8803</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2797,27 +2797,27 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>20578848000</v>
+        <v>361000</v>
       </c>
       <c r="H64" t="n">
-        <v>5066.092575838703</v>
+        <v>3610</v>
       </c>
       <c r="I64" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2837,10 +2837,10 @@
         <v>4062075</v>
       </c>
       <c r="G65" t="n">
-        <v>8729143000</v>
+        <v>20578848000</v>
       </c>
       <c r="H65" t="n">
-        <v>2148.936934940886</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I65" t="n">
         <v>5.2</v>
@@ -3145,21 +3145,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4042</v>
+        <v>3591</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3167,36 +3167,36 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>16459200</v>
+        <v>2846091</v>
       </c>
       <c r="G74" t="n">
-        <v>33451116000</v>
+        <v>6888596000</v>
       </c>
       <c r="H74" t="n">
-        <v>2032.365850102071</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I74" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3591</v>
+        <v>4042</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2846091</v>
+        <v>16459200</v>
       </c>
       <c r="G75" t="n">
-        <v>6888596000</v>
+        <v>33451116000</v>
       </c>
       <c r="H75" t="n">
-        <v>2420.370957920882</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I75" t="n">
-        <v>5.13</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="76">
@@ -3848,7 +3848,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4293</v>
+        <v>4631</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3870,22 +3870,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20896886</v>
+        <v>6563759</v>
       </c>
       <c r="G93" t="n">
-        <v>9376038000</v>
+        <v>16844475000</v>
       </c>
       <c r="H93" t="n">
-        <v>448.6811097117532</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I93" t="n">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4631</v>
+        <v>4293</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>6563759</v>
+        <v>20896886</v>
       </c>
       <c r="G94" t="n">
-        <v>16844475000</v>
+        <v>9376038000</v>
       </c>
       <c r="H94" t="n">
-        <v>2566.284807227078</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I94" t="n">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="95">
@@ -4218,7 +4218,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S100RYRP.zip</t>
+          <t>S100RY2V.zip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5947</v>
+        <v>5186</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4240,22 +4240,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7446200</v>
+        <v>1536900</v>
       </c>
       <c r="G103" t="n">
-        <v>21182239000</v>
+        <v>4758738000</v>
       </c>
       <c r="H103" t="n">
-        <v>2844.704547285864</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="I103" t="n">
-        <v>4.96</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100RY2V.zip</t>
+          <t>S100RYRP.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4269,7 +4269,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5186</v>
+        <v>5947</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4277,16 +4277,16 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1536900</v>
+        <v>7446200</v>
       </c>
       <c r="G104" t="n">
-        <v>4758738000</v>
+        <v>21182239000</v>
       </c>
       <c r="H104" t="n">
-        <v>3096.322467304314</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="I104" t="n">
-        <v>5.08</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="105">
@@ -4695,12 +4695,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4709,7 +4709,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1861</v>
+        <v>7157</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4717,27 +4717,27 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3102784</v>
+        <v>4536300</v>
       </c>
       <c r="G116" t="n">
-        <v>8614573000</v>
+        <v>4025006000</v>
       </c>
       <c r="H116" t="n">
-        <v>2776.401128792723</v>
+        <v>887.288318673809</v>
       </c>
       <c r="I116" t="n">
-        <v>7.07</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7157</v>
+        <v>1861</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4754,16 +4754,16 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4536300</v>
+        <v>3102784</v>
       </c>
       <c r="G117" t="n">
-        <v>4025006000</v>
+        <v>8614573000</v>
       </c>
       <c r="H117" t="n">
-        <v>887.288318673809</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="I117" t="n">
-        <v>6.5</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="118">
@@ -4839,21 +4839,21 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3391</v>
+        <v>6770</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4861,36 +4861,36 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>6354522</v>
+        <v>11259700</v>
       </c>
       <c r="G120" t="n">
-        <v>28876223000</v>
+        <v>14161429000</v>
       </c>
       <c r="H120" t="n">
-        <v>4544.200649553184</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I120" t="n">
-        <v>12.84</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QRUW.zip</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>6770</v>
+        <v>3391</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>11259700</v>
+        <v>6354522</v>
       </c>
       <c r="G121" t="n">
-        <v>14161429000</v>
+        <v>28876223000</v>
       </c>
       <c r="H121" t="n">
-        <v>1257.709264012363</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="I121" t="n">
-        <v>5.13</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="122">

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100WQFH.zip</t>
+          <t>S100WSIC.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,21 +497,21 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4917</v>
+        <v>6875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>204000</v>
+        <v>487000</v>
       </c>
       <c r="H2" t="n">
-        <v>2040</v>
+        <v>4870</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -520,12 +520,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100WQ4O.zip</t>
+          <t>S100WQFH.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,109 +534,109 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8233</v>
+        <v>4917</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>261400</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>287906000</v>
+        <v>204000</v>
       </c>
       <c r="H3" t="n">
-        <v>1101.400153022188</v>
+        <v>2040</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100WO9C.zip</t>
+          <t>S100WQ4O.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2229</v>
+        <v>8233</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8012900</v>
+        <v>261400</v>
       </c>
       <c r="G4" t="n">
-        <v>23390757000</v>
+        <v>287906000</v>
       </c>
       <c r="H4" t="n">
-        <v>2919.137515755844</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="I4" t="n">
-        <v>5.98</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5983</v>
+        <v>2229</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>44800</v>
+        <v>8012900</v>
       </c>
       <c r="G5" t="n">
-        <v>315399000</v>
+        <v>23390757000</v>
       </c>
       <c r="H5" t="n">
-        <v>7040.15625</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I5" t="n">
-        <v>4.07</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,308 +668,308 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WKF3.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6104</v>
+        <v>5983</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1297500</v>
+        <v>44800</v>
       </c>
       <c r="G7" t="n">
-        <v>4476090000</v>
+        <v>315399000</v>
       </c>
       <c r="H7" t="n">
-        <v>3449.780346820809</v>
+        <v>7040.15625</v>
       </c>
       <c r="I7" t="n">
-        <v>5.23</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100WCIP.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5331</v>
+        <v>6104</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1481600</v>
+        <v>1297500</v>
       </c>
       <c r="G8" t="n">
-        <v>5294365000</v>
+        <v>4476090000</v>
       </c>
       <c r="H8" t="n">
-        <v>3573.410502159827</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WCIP.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6952</v>
+        <v>5331</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12332900</v>
+        <v>1481600</v>
       </c>
       <c r="G9" t="n">
-        <v>14653495000</v>
+        <v>5294365000</v>
       </c>
       <c r="H9" t="n">
-        <v>1188.162962482466</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="I9" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6145</v>
+        <v>6952</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>12332900</v>
       </c>
       <c r="G10" t="n">
-        <v>171000</v>
+        <v>14653495000</v>
       </c>
       <c r="H10" t="n">
-        <v>1710</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100WACZ.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8715</v>
+        <v>6145</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3810400</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>2500615000</v>
+        <v>171000</v>
       </c>
       <c r="H11" t="n">
-        <v>656.2604975855553</v>
+        <v>1710</v>
       </c>
       <c r="I11" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100W5LT.zip</t>
+          <t>S100WACZ.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8585</v>
+        <v>8715</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8986800</v>
+        <v>3810400</v>
       </c>
       <c r="G12" t="n">
-        <v>7174886000</v>
+        <v>2500615000</v>
       </c>
       <c r="H12" t="n">
-        <v>798.3805136422309</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="I12" t="n">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100W5LT.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6908</v>
+        <v>8585</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>400</v>
+        <v>8986800</v>
       </c>
       <c r="G13" t="n">
-        <v>992000</v>
+        <v>7174886000</v>
       </c>
       <c r="H13" t="n">
-        <v>2480</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100VV1I.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8923</v>
+        <v>6908</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2434800</v>
+        <v>400</v>
       </c>
       <c r="G14" t="n">
-        <v>4266809000</v>
+        <v>992000</v>
       </c>
       <c r="H14" t="n">
-        <v>1752.426893379333</v>
+        <v>2480</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100VUUK.zip</t>
+          <t>S100VV1I.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -978,170 +978,170 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9069</v>
+        <v>8923</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8793900</v>
+        <v>2434800</v>
       </c>
       <c r="G15" t="n">
-        <v>13684104000</v>
+        <v>4266809000</v>
       </c>
       <c r="H15" t="n">
-        <v>1556.090471804319</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="I15" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100VUUK.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1878</v>
+        <v>9069</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3475000</v>
+        <v>8793900</v>
       </c>
       <c r="G16" t="n">
-        <v>47745269000</v>
+        <v>13684104000</v>
       </c>
       <c r="H16" t="n">
-        <v>13739.64575539568</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="I16" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100VQJZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3076</v>
+        <v>3328</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2841700</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>5705436000</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2007.754513143541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VQJZ.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3106</v>
+        <v>3076</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>900156</v>
+        <v>2841700</v>
       </c>
       <c r="G19" t="n">
-        <v>4095263000</v>
+        <v>5705436000</v>
       </c>
       <c r="H19" t="n">
-        <v>4549.503641591014</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="20">
@@ -1184,86 +1184,86 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9684</v>
+        <v>3106</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6704059</v>
+        <v>900156</v>
       </c>
       <c r="G21" t="n">
-        <v>42054369000</v>
+        <v>4095263000</v>
       </c>
       <c r="H21" t="n">
-        <v>6272.971195510064</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I21" t="n">
-        <v>5.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G22" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H22" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1272,21 +1272,21 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H23" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1295,38 +1295,38 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6927</v>
+        <v>6332</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1142700</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>1023871000</v>
+        <v>141000</v>
       </c>
       <c r="H24" t="n">
-        <v>896.0103264198827</v>
+        <v>1410</v>
       </c>
       <c r="I24" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1369,160 +1369,160 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4676</v>
+        <v>6927</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G26" t="n">
-        <v>242000</v>
+        <v>1023871000</v>
       </c>
       <c r="H26" t="n">
-        <v>2420</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H27" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I27" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G28" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H28" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I28" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G29" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H29" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1531,192 +1531,192 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H30" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100VCMT.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3132</v>
+        <v>6890</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>8970900</v>
+        <v>30000</v>
       </c>
       <c r="G31" t="n">
-        <v>10240398000</v>
+        <v>71610000</v>
       </c>
       <c r="H31" t="n">
-        <v>1141.512891683109</v>
+        <v>2387</v>
       </c>
       <c r="I31" t="n">
-        <v>5.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VCMT.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4512</v>
+        <v>3132</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2137400</v>
+        <v>8970900</v>
       </c>
       <c r="G32" t="n">
-        <v>620573000</v>
+        <v>10240398000</v>
       </c>
       <c r="H32" t="n">
-        <v>290.3401328717133</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="I32" t="n">
-        <v>6.140000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G33" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H33" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100V7YO.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4626</v>
+        <v>9006</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4670190</v>
+        <v>30000</v>
       </c>
       <c r="G34" t="n">
-        <v>16652257000</v>
+        <v>34824000</v>
       </c>
       <c r="H34" t="n">
-        <v>3565.648720929983</v>
+        <v>1160.8</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100V7YO.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9987</v>
+        <v>4626</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1724,101 +1724,101 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3888200</v>
+        <v>4670190</v>
       </c>
       <c r="G35" t="n">
-        <v>16086019000</v>
+        <v>16652257000</v>
       </c>
       <c r="H35" t="n">
-        <v>4137.137750115735</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7732</v>
+        <v>9987</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7995900</v>
+        <v>3888200</v>
       </c>
       <c r="G36" t="n">
-        <v>16678425000</v>
+        <v>16086019000</v>
       </c>
       <c r="H36" t="n">
-        <v>2085.872134468915</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I36" t="n">
-        <v>7.380000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3861</v>
+        <v>7732</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>7995900</v>
       </c>
       <c r="G37" t="n">
-        <v>59000</v>
+        <v>16678425000</v>
       </c>
       <c r="H37" t="n">
-        <v>590</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1827,21 +1827,21 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5715</v>
+        <v>3861</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>160000</v>
+        <v>59000</v>
       </c>
       <c r="H38" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1850,49 +1850,49 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100UYE4.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3978</v>
+        <v>5715</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2891700</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>3425686000</v>
+        <v>160000</v>
       </c>
       <c r="H39" t="n">
-        <v>1184.661617733513</v>
+        <v>1600</v>
       </c>
       <c r="I39" t="n">
-        <v>7.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100UWW1.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1901,146 +1901,146 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4452</v>
+        <v>3978</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>24347342</v>
+        <v>2891700</v>
       </c>
       <c r="G40" t="n">
-        <v>148917027000</v>
+        <v>3425686000</v>
       </c>
       <c r="H40" t="n">
-        <v>6116.356643776557</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I40" t="n">
-        <v>5.23</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9257</v>
+        <v>4452</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>24347342</v>
       </c>
       <c r="G41" t="n">
-        <v>57000</v>
+        <v>148917027000</v>
       </c>
       <c r="H41" t="n">
-        <v>570</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100UMDQ.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9531</v>
+        <v>9257</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>19554300</v>
+        <v>100</v>
       </c>
       <c r="G42" t="n">
-        <v>64960321000</v>
+        <v>57000</v>
       </c>
       <c r="H42" t="n">
-        <v>3322.047887165483</v>
+        <v>570</v>
       </c>
       <c r="I42" t="n">
-        <v>5.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100UORL.zip</t>
+          <t>S100UMDQ.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4385</v>
+        <v>9531</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>8815360</v>
+        <v>19554300</v>
       </c>
       <c r="G43" t="n">
-        <v>17684138000</v>
+        <v>64960321000</v>
       </c>
       <c r="H43" t="n">
-        <v>2006.059650428343</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="I43" t="n">
-        <v>5.37</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100UMI2.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2049,35 +2049,35 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7984</v>
+        <v>4385</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6096500</v>
+        <v>8815360</v>
       </c>
       <c r="G44" t="n">
-        <v>13153972000</v>
+        <v>17684138000</v>
       </c>
       <c r="H44" t="n">
-        <v>2157.626835069302</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I44" t="n">
-        <v>5.02</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100UMJC.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2086,146 +2086,146 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1973</v>
+        <v>7984</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>8973383</v>
+        <v>6096500</v>
       </c>
       <c r="G45" t="n">
-        <v>24947403000</v>
+        <v>13153972000</v>
       </c>
       <c r="H45" t="n">
-        <v>2780.155823060266</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I45" t="n">
-        <v>6.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6908</v>
+        <v>1973</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>502000</v>
+        <v>8973383</v>
       </c>
       <c r="G46" t="n">
-        <v>1257178000</v>
+        <v>24947403000</v>
       </c>
       <c r="H46" t="n">
-        <v>2504.338645418327</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I46" t="n">
-        <v>2.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100UIC4.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3765</v>
+        <v>6908</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4552900</v>
+        <v>502000</v>
       </c>
       <c r="G47" t="n">
-        <v>13383536000</v>
+        <v>1257178000</v>
       </c>
       <c r="H47" t="n">
-        <v>2939.562915943684</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I47" t="n">
-        <v>5.47</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UIC4.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5482</v>
+        <v>3765</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>433300</v>
+        <v>4552900</v>
       </c>
       <c r="G48" t="n">
-        <v>1367192000</v>
+        <v>13383536000</v>
       </c>
       <c r="H48" t="n">
-        <v>3155.301177013616</v>
+        <v>2939.562915943684</v>
       </c>
       <c r="I48" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2234,44 +2234,44 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8141</v>
+        <v>5482</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>433300</v>
       </c>
       <c r="G49" t="n">
-        <v>93000</v>
+        <v>1367192000</v>
       </c>
       <c r="H49" t="n">
-        <v>930</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4272</v>
+        <v>8141</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2279,96 +2279,96 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>26855100</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>29860350000</v>
+        <v>93000</v>
       </c>
       <c r="H50" t="n">
-        <v>1111.90611839092</v>
+        <v>930</v>
       </c>
       <c r="I50" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6145</v>
+        <v>4272</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G51" t="n">
-        <v>171000</v>
+        <v>29860350000</v>
       </c>
       <c r="H51" t="n">
-        <v>1710</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4205</v>
+        <v>6145</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>14426600</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>24829312000</v>
+        <v>171000</v>
       </c>
       <c r="H52" t="n">
-        <v>1721.078563209627</v>
+        <v>1710</v>
       </c>
       <c r="I52" t="n">
-        <v>6.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100UBH9.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3569</v>
+        <v>4205</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2390,175 +2390,175 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4271704</v>
+        <v>14426600</v>
       </c>
       <c r="G53" t="n">
-        <v>5808044000</v>
+        <v>24829312000</v>
       </c>
       <c r="H53" t="n">
-        <v>1359.655069733296</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I53" t="n">
-        <v>6.279999999999999</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100U9FC.zip</t>
+          <t>S100UBH9.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6516</v>
+        <v>3569</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>679500</v>
+        <v>4271704</v>
       </c>
       <c r="G54" t="n">
-        <v>4792335000</v>
+        <v>5808044000</v>
       </c>
       <c r="H54" t="n">
-        <v>7052.737306843267</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="I54" t="n">
-        <v>5.24</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100U9FC.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2327</v>
+        <v>6516</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>9154320</v>
+        <v>679500</v>
       </c>
       <c r="G55" t="n">
-        <v>23450671000</v>
+        <v>4792335000</v>
       </c>
       <c r="H55" t="n">
-        <v>2561.705402476645</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3989</v>
+        <v>2327</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1206000</v>
+        <v>9154320</v>
       </c>
       <c r="G56" t="n">
-        <v>787604000</v>
+        <v>23450671000</v>
       </c>
       <c r="H56" t="n">
-        <v>653.0713101160862</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I56" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6908</v>
+        <v>3989</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>1206000</v>
       </c>
       <c r="G57" t="n">
-        <v>288000</v>
+        <v>787604000</v>
       </c>
       <c r="H57" t="n">
-        <v>2880</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2567,72 +2567,72 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>5988</v>
+        <v>6908</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>527300</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>1212090000</v>
+        <v>288000</v>
       </c>
       <c r="H58" t="n">
-        <v>2298.672482457804</v>
+        <v>2880</v>
       </c>
       <c r="I58" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3529</v>
+        <v>5988</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>998000</v>
+        <v>527300</v>
       </c>
       <c r="G59" t="n">
-        <v>667598000</v>
+        <v>1212090000</v>
       </c>
       <c r="H59" t="n">
-        <v>668.9358717434869</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I59" t="n">
-        <v>5.76</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2641,81 +2641,81 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7305</v>
+        <v>3529</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>309800</v>
+        <v>998000</v>
       </c>
       <c r="G60" t="n">
-        <v>1321438000</v>
+        <v>667598000</v>
       </c>
       <c r="H60" t="n">
-        <v>4265.455132343447</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I60" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2168</v>
+        <v>7305</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2094200</v>
+        <v>309800</v>
       </c>
       <c r="G61" t="n">
-        <v>4445105000</v>
+        <v>1321438000</v>
       </c>
       <c r="H61" t="n">
-        <v>2122.579027791042</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I61" t="n">
-        <v>5.02</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5541</v>
+        <v>2168</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2723,73 +2723,73 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>2094200</v>
       </c>
       <c r="G62" t="n">
-        <v>127000</v>
+        <v>4445105000</v>
       </c>
       <c r="H62" t="n">
-        <v>1270</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4967</v>
+        <v>5541</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>8729143000</v>
+        <v>127000</v>
       </c>
       <c r="H63" t="n">
-        <v>2148.936934940886</v>
+        <v>1270</v>
       </c>
       <c r="I63" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8803</v>
+        <v>4967</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>4062075</v>
       </c>
       <c r="G64" t="n">
-        <v>361000</v>
+        <v>8729143000</v>
       </c>
       <c r="H64" t="n">
-        <v>3610</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="65">
@@ -2849,160 +2849,160 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100U325.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>9882</v>
+        <v>8803</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2505000</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>5292086000</v>
+        <v>361000</v>
       </c>
       <c r="H66" t="n">
-        <v>2112.609181636727</v>
+        <v>3610</v>
       </c>
       <c r="I66" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U325.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>8129</v>
+        <v>9882</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>7258230</v>
+        <v>2505000</v>
       </c>
       <c r="G67" t="n">
-        <v>24720910000</v>
+        <v>5292086000</v>
       </c>
       <c r="H67" t="n">
-        <v>3405.914389596362</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="I67" t="n">
-        <v>9.460000000000001</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100U2CM.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2206</v>
+        <v>8129</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3462600</v>
+        <v>7258230</v>
       </c>
       <c r="G68" t="n">
-        <v>14385811000</v>
+        <v>24720910000</v>
       </c>
       <c r="H68" t="n">
-        <v>4154.626869982095</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I68" t="n">
-        <v>5.06</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U2CM.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3666</v>
+        <v>2206</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1053200</v>
+        <v>3462600</v>
       </c>
       <c r="G69" t="n">
-        <v>663809000</v>
+        <v>14385811000</v>
       </c>
       <c r="H69" t="n">
-        <v>630.278199772123</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="I69" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3011,172 +3011,172 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>4347</v>
+        <v>3666</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>614893</v>
+        <v>1053200</v>
       </c>
       <c r="G70" t="n">
-        <v>940560000</v>
+        <v>663809000</v>
       </c>
       <c r="H70" t="n">
-        <v>1529.631984751819</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I70" t="n">
-        <v>8.200000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8129</v>
+        <v>4347</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3886330</v>
+        <v>614893</v>
       </c>
       <c r="G71" t="n">
-        <v>10549885000</v>
+        <v>940560000</v>
       </c>
       <c r="H71" t="n">
-        <v>2714.613787300615</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I71" t="n">
-        <v>5.06</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8929</v>
+        <v>8129</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1260812</v>
+        <v>3886330</v>
       </c>
       <c r="G72" t="n">
-        <v>1699255000</v>
+        <v>10549885000</v>
       </c>
       <c r="H72" t="n">
-        <v>1347.74653160027</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I72" t="n">
-        <v>5.140000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>7278</v>
+        <v>8929</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>115400</v>
+        <v>1260812</v>
       </c>
       <c r="G73" t="n">
-        <v>302115000</v>
+        <v>1699255000</v>
       </c>
       <c r="H73" t="n">
-        <v>2617.980935875217</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I73" t="n">
-        <v>0.24</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3591</v>
+        <v>7278</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2846091</v>
+        <v>115400</v>
       </c>
       <c r="G74" t="n">
-        <v>6888596000</v>
+        <v>302115000</v>
       </c>
       <c r="H74" t="n">
-        <v>2420.370957920882</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I74" t="n">
-        <v>5.13</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="75">
@@ -3219,234 +3219,234 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4521</v>
+        <v>3591</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>2846091</v>
       </c>
       <c r="G76" t="n">
-        <v>353000</v>
+        <v>6888596000</v>
       </c>
       <c r="H76" t="n">
-        <v>3530</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100TJBE.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>8923</v>
+        <v>4521</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2445600</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>3856031000</v>
+        <v>353000</v>
       </c>
       <c r="H77" t="n">
-        <v>1576.721867844292</v>
+        <v>3530</v>
       </c>
       <c r="I77" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TJBE.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4347</v>
+        <v>8923</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>400493</v>
+        <v>2445600</v>
       </c>
       <c r="G78" t="n">
-        <v>580713000</v>
+        <v>3856031000</v>
       </c>
       <c r="H78" t="n">
-        <v>1449.995380693296</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="I78" t="n">
-        <v>5.06</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>9024</v>
+        <v>4347</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>16207437</v>
+        <v>400493</v>
       </c>
       <c r="G79" t="n">
-        <v>27823532000</v>
+        <v>580713000</v>
       </c>
       <c r="H79" t="n">
-        <v>1716.713876475349</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I79" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1518</v>
+        <v>9024</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>16207437</v>
       </c>
       <c r="G80" t="n">
-        <v>292000</v>
+        <v>27823532000</v>
       </c>
       <c r="H80" t="n">
-        <v>2920</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>7731</v>
+        <v>1518</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>26675255000</v>
+        <v>292000</v>
       </c>
       <c r="H81" t="n">
-        <v>1512.21980974841</v>
+        <v>2920</v>
       </c>
       <c r="I81" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3455,21 +3455,21 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4536</v>
+        <v>7731</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>18290500</v>
+        <v>17639800</v>
       </c>
       <c r="G82" t="n">
-        <v>24591924000</v>
+        <v>26675255000</v>
       </c>
       <c r="H82" t="n">
-        <v>1344.518957928979</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I82" t="n">
         <v>5.02</v>
@@ -3478,197 +3478,197 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4185</v>
+        <v>4536</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>18290500</v>
       </c>
       <c r="G83" t="n">
-        <v>405000</v>
+        <v>24591924000</v>
       </c>
       <c r="H83" t="n">
-        <v>4050</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4549</v>
+        <v>4185</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2006900</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>3367745000</v>
+        <v>405000</v>
       </c>
       <c r="H84" t="n">
-        <v>1678.083113259255</v>
+        <v>4050</v>
       </c>
       <c r="I84" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S100SZYE.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9627</v>
+        <v>4549</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3401100</v>
+        <v>2006900</v>
       </c>
       <c r="G85" t="n">
-        <v>9648726000</v>
+        <v>3367745000</v>
       </c>
       <c r="H85" t="n">
-        <v>2836.942753814942</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I85" t="n">
-        <v>9.6</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>8304</v>
+        <v>9627</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>3401100</v>
       </c>
       <c r="G86" t="n">
-        <v>219000</v>
+        <v>9648726000</v>
       </c>
       <c r="H86" t="n">
-        <v>2190</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3328</v>
+        <v>8304</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>845300</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>1219326000</v>
+        <v>219000</v>
       </c>
       <c r="H87" t="n">
-        <v>1442.477227019993</v>
+        <v>2190</v>
       </c>
       <c r="I87" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3681,142 +3681,142 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>675500</v>
+        <v>845300</v>
       </c>
       <c r="G88" t="n">
-        <v>976503000</v>
+        <v>1219326000</v>
       </c>
       <c r="H88" t="n">
-        <v>1445.60029607698</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I88" t="n">
-        <v>5.220000000000001</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S100ST3I.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>8818</v>
+        <v>3328</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2505000</v>
+        <v>675500</v>
       </c>
       <c r="G89" t="n">
-        <v>3361654000</v>
+        <v>976503000</v>
       </c>
       <c r="H89" t="n">
-        <v>1341.977644710579</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I89" t="n">
-        <v>5.09</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100ST3I.zip</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>5541</v>
+        <v>8818</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>100</v>
+        <v>2505000</v>
       </c>
       <c r="G90" t="n">
-        <v>117000</v>
+        <v>3361654000</v>
       </c>
       <c r="H90" t="n">
-        <v>1170</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S100SN7U.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7315</v>
+        <v>5541</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6994900</v>
+        <v>100</v>
       </c>
       <c r="G91" t="n">
-        <v>5874641000</v>
+        <v>117000</v>
       </c>
       <c r="H91" t="n">
-        <v>839.8463166020958</v>
+        <v>1170</v>
       </c>
       <c r="I91" t="n">
-        <v>14.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100SLMH.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3825,35 +3825,35 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4837</v>
+        <v>7315</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5428600</v>
+        <v>6994900</v>
       </c>
       <c r="G92" t="n">
-        <v>4378021000</v>
+        <v>5874641000</v>
       </c>
       <c r="H92" t="n">
-        <v>806.4733080352208</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I92" t="n">
-        <v>9.74</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3862,24 +3862,24 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4631</v>
+        <v>4837</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>6563759</v>
+        <v>5428600</v>
       </c>
       <c r="G93" t="n">
-        <v>16844475000</v>
+        <v>4378021000</v>
       </c>
       <c r="H93" t="n">
-        <v>2566.284807227078</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I93" t="n">
-        <v>6.9</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="94">
@@ -3922,340 +3922,340 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S100SHYB.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5449</v>
+        <v>4631</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2114100</v>
+        <v>6563759</v>
       </c>
       <c r="G95" t="n">
-        <v>3695597000</v>
+        <v>16844475000</v>
       </c>
       <c r="H95" t="n">
-        <v>1748.071046781136</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100SDCB.zip</t>
+          <t>S100SHYB.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6232</v>
+        <v>5449</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1499000</v>
+        <v>2114100</v>
       </c>
       <c r="G96" t="n">
-        <v>1369002000</v>
+        <v>3695597000</v>
       </c>
       <c r="H96" t="n">
-        <v>913.2768512341561</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="I96" t="n">
-        <v>10.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100SB0S.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6237</v>
+        <v>6232</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1129500</v>
+        <v>1499000</v>
       </c>
       <c r="G97" t="n">
-        <v>1537738000</v>
+        <v>1369002000</v>
       </c>
       <c r="H97" t="n">
-        <v>1361.432492253209</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I97" t="n">
-        <v>5.02</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SB0S.zip</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4987</v>
+        <v>6237</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1543800</v>
+        <v>1129500</v>
       </c>
       <c r="G98" t="n">
-        <v>874286000</v>
+        <v>1537738000</v>
       </c>
       <c r="H98" t="n">
-        <v>566.3207669387226</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="I98" t="n">
-        <v>5.779999999999999</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S100S4PN.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4739</v>
+        <v>4987</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>15400600</v>
+        <v>1543800</v>
       </c>
       <c r="G99" t="n">
-        <v>66216726000</v>
+        <v>874286000</v>
       </c>
       <c r="H99" t="n">
-        <v>4299.619884939548</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I99" t="n">
-        <v>6.419999999999999</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2501</v>
+        <v>4739</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4010500</v>
+        <v>15400600</v>
       </c>
       <c r="G100" t="n">
-        <v>10817766000</v>
+        <v>66216726000</v>
       </c>
       <c r="H100" t="n">
-        <v>2697.360927565142</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I100" t="n">
-        <v>5.09</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4023</v>
+        <v>2501</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>100</v>
+        <v>4010500</v>
       </c>
       <c r="G101" t="n">
-        <v>796000</v>
+        <v>10817766000</v>
       </c>
       <c r="H101" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5844</v>
+        <v>4023</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>24949147000</v>
+        <v>796000</v>
       </c>
       <c r="H102" t="n">
-        <v>4991.027246539169</v>
+        <v>7960</v>
       </c>
       <c r="I102" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S100RY2V.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5186</v>
+        <v>5844</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1536900</v>
+        <v>4998800</v>
       </c>
       <c r="G103" t="n">
-        <v>4758738000</v>
+        <v>24949147000</v>
       </c>
       <c r="H103" t="n">
-        <v>3096.322467304314</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I103" t="n">
-        <v>5.08</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100RYRP.zip</t>
+          <t>S100RY2V.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4269,7 +4269,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5947</v>
+        <v>5186</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4277,467 +4277,467 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>7446200</v>
+        <v>1536900</v>
       </c>
       <c r="G104" t="n">
-        <v>21182239000</v>
+        <v>4758738000</v>
       </c>
       <c r="H104" t="n">
-        <v>2844.704547285864</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="I104" t="n">
-        <v>4.96</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RYRP.zip</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>8303</v>
+        <v>5947</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>20000000</v>
+        <v>7446200</v>
       </c>
       <c r="G105" t="n">
-        <v>56014500000</v>
+        <v>21182239000</v>
       </c>
       <c r="H105" t="n">
-        <v>2800.725</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="I105" t="n">
-        <v>9.75</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2812</v>
+        <v>8303</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I106" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100RU33.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5451</v>
+        <v>2812</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1752800</v>
-      </c>
-      <c r="G107" t="n">
-        <v>5669831000</v>
-      </c>
-      <c r="H107" t="n">
-        <v>3234.727863989046</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>5.029999999999999</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RU33.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>9072</v>
+        <v>5451</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>8377400</v>
+        <v>1752800</v>
       </c>
       <c r="G108" t="n">
-        <v>13394541000</v>
+        <v>5669831000</v>
       </c>
       <c r="H108" t="n">
-        <v>1598.889989734285</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="I108" t="n">
-        <v>12.74</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100RSA5.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5194</v>
+        <v>9072</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1068798</v>
+        <v>8377400</v>
       </c>
       <c r="G109" t="n">
-        <v>997342000</v>
+        <v>13394541000</v>
       </c>
       <c r="H109" t="n">
-        <v>933.1435874692879</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I109" t="n">
-        <v>9.77</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S100RIEU.zip</t>
+          <t>S100RSA5.zip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>8871</v>
+        <v>5194</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1807700</v>
+        <v>1068798</v>
       </c>
       <c r="G110" t="n">
-        <v>3235548000</v>
+        <v>997342000</v>
       </c>
       <c r="H110" t="n">
-        <v>1789.870000553189</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="I110" t="n">
-        <v>5.050000000000001</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S100RGLG.zip</t>
+          <t>S100RIEU.zip</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5929</v>
+        <v>8871</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>11571500</v>
+        <v>1807700</v>
       </c>
       <c r="G111" t="n">
-        <v>15114770000</v>
+        <v>3235548000</v>
       </c>
       <c r="H111" t="n">
-        <v>1306.206628354146</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="I111" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RGLG.zip</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>8140</v>
+        <v>5929</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1322800</v>
+        <v>11571500</v>
       </c>
       <c r="G112" t="n">
-        <v>4536170000</v>
+        <v>15114770000</v>
       </c>
       <c r="H112" t="n">
-        <v>3429.218324765649</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="I112" t="n">
-        <v>5.29</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1878</v>
+        <v>8140</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3452100</v>
+        <v>1322800</v>
       </c>
       <c r="G113" t="n">
-        <v>44793976000</v>
+        <v>4536170000</v>
       </c>
       <c r="H113" t="n">
-        <v>12975.86280814577</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I113" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S100QVRX.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>533500</v>
+        <v>3452100</v>
       </c>
       <c r="G114" t="n">
-        <v>2009924000</v>
+        <v>44793976000</v>
       </c>
       <c r="H114" t="n">
-        <v>3767.430178069353</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="I114" t="n">
-        <v>5.11</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S100QV9B.zip</t>
+          <t>S100QVRX.zip</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3593</v>
+        <v>1882</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1637060</v>
+        <v>533500</v>
       </c>
       <c r="G115" t="n">
-        <v>5502657000</v>
+        <v>2009924000</v>
       </c>
       <c r="H115" t="n">
-        <v>3361.304411567078</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="I115" t="n">
-        <v>6.48</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QV9B.zip</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>7157</v>
+        <v>3593</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4536300</v>
+        <v>1637060</v>
       </c>
       <c r="G116" t="n">
-        <v>4025006000</v>
+        <v>5502657000</v>
       </c>
       <c r="H116" t="n">
-        <v>887.288318673809</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="I116" t="n">
-        <v>6.5</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1861</v>
+        <v>7157</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4754,143 +4754,143 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3102784</v>
+        <v>4536300</v>
       </c>
       <c r="G117" t="n">
-        <v>8614573000</v>
+        <v>4025006000</v>
       </c>
       <c r="H117" t="n">
-        <v>2776.401128792723</v>
+        <v>887.288318673809</v>
       </c>
       <c r="I117" t="n">
-        <v>7.07</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>7350</v>
+        <v>1861</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+        <v>3102784</v>
+      </c>
+      <c r="G118" t="n">
+        <v>8614573000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2776.401128792723</v>
+      </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>S100QRVC.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3549</v>
+        <v>7350</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1735200</v>
-      </c>
-      <c r="G119" t="n">
-        <v>11532479000</v>
-      </c>
-      <c r="H119" t="n">
-        <v>6646.195827570309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QRVC.zip</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>6770</v>
+        <v>3549</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>11259700</v>
+        <v>1735200</v>
       </c>
       <c r="G120" t="n">
-        <v>14161429000</v>
+        <v>11532479000</v>
       </c>
       <c r="H120" t="n">
-        <v>1257.709264012363</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="I120" t="n">
-        <v>5.13</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3391</v>
+        <v>6770</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4898,101 +4898,101 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6354522</v>
+        <v>11259700</v>
       </c>
       <c r="G121" t="n">
-        <v>28876223000</v>
+        <v>14161429000</v>
       </c>
       <c r="H121" t="n">
-        <v>4544.200649553184</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I121" t="n">
-        <v>12.84</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QRUW.zip</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1951</v>
+        <v>3391</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>5561200</v>
+        <v>6354522</v>
       </c>
       <c r="G122" t="n">
-        <v>12623472000</v>
+        <v>28876223000</v>
       </c>
       <c r="H122" t="n">
-        <v>2269.918722577861</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="I122" t="n">
-        <v>5.06</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3085</v>
+        <v>1951</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1756300</v>
+        <v>5561200</v>
       </c>
       <c r="G123" t="n">
-        <v>4694343000</v>
+        <v>12623472000</v>
       </c>
       <c r="H123" t="n">
-        <v>2672.859420372374</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I123" t="n">
-        <v>5.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5001,142 +5001,146 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>9842</v>
+        <v>3085</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2082200</v>
+        <v>1756300</v>
       </c>
       <c r="G124" t="n">
-        <v>3059101000</v>
+        <v>4694343000</v>
       </c>
       <c r="H124" t="n">
-        <v>1469.167707232735</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I124" t="n">
-        <v>5.029999999999999</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S100QI52.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>9672</v>
+        <v>9842</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2410900</v>
+        <v>2082200</v>
       </c>
       <c r="G125" t="n">
-        <v>9382590000</v>
+        <v>3059101000</v>
       </c>
       <c r="H125" t="n">
-        <v>3891.73752540545</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="I125" t="n">
-        <v>8.380000000000001</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QI52.zip</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3558</v>
+        <v>9672</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1214200</v>
+        <v>2410900</v>
       </c>
       <c r="G126" t="n">
-        <v>1538785000</v>
+        <v>9382590000</v>
       </c>
       <c r="H126" t="n">
-        <v>1267.324164058639</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="I126" t="n">
-        <v>10.57</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2329</v>
+        <v>3558</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
+        <v>1214200</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1267.324164058639</v>
+      </c>
       <c r="I127" t="n">
-        <v>9.550000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QF8K.zip</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5164,303 +5168,299 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>4324</v>
+        <v>2329</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G129" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H129" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>5.050000000000001</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3608</v>
+        <v>4324</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4569000</v>
+        <v>13655200</v>
       </c>
       <c r="G130" t="n">
-        <v>2005111000</v>
+        <v>56753467000</v>
       </c>
       <c r="H130" t="n">
-        <v>438.851170934559</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I130" t="n">
-        <v>5.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>6804</v>
+        <v>3608</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3315900</v>
+        <v>4569000</v>
       </c>
       <c r="G131" t="n">
-        <v>4322098000</v>
+        <v>2005111000</v>
       </c>
       <c r="H131" t="n">
-        <v>1303.446424801713</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I131" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>6236</v>
+        <v>6804</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>911500</v>
+        <v>3315900</v>
       </c>
       <c r="G132" t="n">
-        <v>1306557000</v>
+        <v>4322098000</v>
       </c>
       <c r="H132" t="n">
-        <v>1433.414152495886</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I132" t="n">
-        <v>19.45</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6770</v>
+        <v>6236</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2344200</v>
+        <v>911500</v>
       </c>
       <c r="G133" t="n">
-        <v>2853488000</v>
+        <v>1306557000</v>
       </c>
       <c r="H133" t="n">
-        <v>1217.254500469243</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I133" t="n">
-        <v>1.07</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>7272</v>
+        <v>6770</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>17688500</v>
+        <v>2344200</v>
       </c>
       <c r="G134" t="n">
-        <v>52513090000</v>
+        <v>2853488000</v>
       </c>
       <c r="H134" t="n">
-        <v>2968.770104870396</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I134" t="n">
-        <v>5.050000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>4956</v>
+        <v>7272</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2039200</v>
+        <v>17688500</v>
       </c>
       <c r="G135" t="n">
-        <v>3273303000</v>
+        <v>52513090000</v>
       </c>
       <c r="H135" t="n">
-        <v>1605.189780306002</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I135" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100PYKO.zip</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>8057</v>
+        <v>4956</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>787800</v>
+        <v>2039200</v>
       </c>
       <c r="G136" t="n">
-        <v>2754799000</v>
+        <v>3273303000</v>
       </c>
       <c r="H136" t="n">
-        <v>3496.825336379792</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="I136" t="n">
-        <v>7.56</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PVDC.zip</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3391</v>
+        <v>8057</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5482,124 +5482,124 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2617759</v>
+        <v>787800</v>
       </c>
       <c r="G137" t="n">
-        <v>21628867000</v>
+        <v>2754799000</v>
       </c>
       <c r="H137" t="n">
-        <v>8262.359904024779</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="I137" t="n">
-        <v>5.29</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S100PV61.zip</t>
+          <t>S100PV98.zip</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3132</v>
+        <v>3391</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4697500</v>
+        <v>2617759</v>
       </c>
       <c r="G138" t="n">
-        <v>8653324000</v>
+        <v>21628867000</v>
       </c>
       <c r="H138" t="n">
-        <v>1842.11261309207</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="I138" t="n">
-        <v>7.539999999999999</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S100PNUO.zip</t>
+          <t>S100PV61.zip</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3205</v>
+        <v>3132</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2552200</v>
+        <v>4697500</v>
       </c>
       <c r="G139" t="n">
-        <v>492702000</v>
+        <v>8653324000</v>
       </c>
       <c r="H139" t="n">
-        <v>193.0499177180472</v>
+        <v>1842.11261309207</v>
       </c>
       <c r="I139" t="n">
-        <v>6.77</v>
+        <v>7.539999999999999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>S100PH6I.zip</t>
+          <t>S100PNUO.zip</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>6707</v>
+        <v>3205</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1699900</v>
+        <v>2552200</v>
       </c>
       <c r="G140" t="n">
-        <v>9313663000</v>
+        <v>492702000</v>
       </c>
       <c r="H140" t="n">
-        <v>5478.947585152067</v>
+        <v>193.0499177180472</v>
       </c>
       <c r="I140" t="n">
         <v>6.77</v>
@@ -5608,37 +5608,74 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>S100PH6I.zip</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>6707</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1699900</v>
+      </c>
+      <c r="G141" t="n">
+        <v>9313663000</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5478.947585152067</v>
+      </c>
+      <c r="I141" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>S100PA7Q.zip</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D142" t="n">
         <v>9842</v>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="F141" t="n">
+      <c r="F142" t="n">
         <v>1974900</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G142" t="n">
         <v>2942498000</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H142" t="n">
         <v>1489.94784546053</v>
       </c>
-      <c r="I141" t="n">
+      <c r="I142" t="n">
         <v>4.77</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5642,43 +5642,6 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>S100PA7Q.zip</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>jplvh010000-lvh-001_E35393-000_2022-09-27_01_2022-10-04.csv</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>9842</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2022-09-27</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>1974900</v>
-      </c>
-      <c r="G142" t="n">
-        <v>2942498000</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1489.94784546053</v>
-      </c>
-      <c r="I142" t="n">
-        <v>4.77</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -631,12 +631,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1332,21 +1332,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4849</v>
+        <v>6927</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1354,36 +1354,36 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2946942</v>
+        <v>1142700</v>
       </c>
       <c r="G25" t="n">
-        <v>5148132000</v>
+        <v>1023871000</v>
       </c>
       <c r="H25" t="n">
-        <v>1746.940387696806</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I25" t="n">
-        <v>5.93</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6927</v>
+        <v>4849</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1391,16 +1391,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1142700</v>
+        <v>2946942</v>
       </c>
       <c r="G26" t="n">
-        <v>1023871000</v>
+        <v>5148132000</v>
       </c>
       <c r="H26" t="n">
-        <v>896.0103264198827</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I26" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="27">
@@ -2775,12 +2775,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2800,10 +2800,10 @@
         <v>4062075</v>
       </c>
       <c r="G64" t="n">
-        <v>8729143000</v>
+        <v>20578848000</v>
       </c>
       <c r="H64" t="n">
-        <v>2148.936934940886</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I64" t="n">
         <v>5.2</v>
@@ -2812,21 +2812,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4967</v>
+        <v>8803</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2834,36 +2834,36 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>20578848000</v>
+        <v>361000</v>
       </c>
       <c r="H65" t="n">
-        <v>5066.092575838703</v>
+        <v>3610</v>
       </c>
       <c r="I65" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8803</v>
+        <v>4967</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2871,16 +2871,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>4062075</v>
       </c>
       <c r="G66" t="n">
-        <v>361000</v>
+        <v>8729143000</v>
       </c>
       <c r="H66" t="n">
-        <v>3610</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="67">
@@ -4732,12 +4732,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7157</v>
+        <v>1861</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4754,27 +4754,27 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4536300</v>
+        <v>3102784</v>
       </c>
       <c r="G117" t="n">
-        <v>4025006000</v>
+        <v>8614573000</v>
       </c>
       <c r="H117" t="n">
-        <v>887.288318673809</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="I117" t="n">
-        <v>6.5</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1861</v>
+        <v>7157</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4791,16 +4791,16 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3102784</v>
+        <v>4536300</v>
       </c>
       <c r="G118" t="n">
-        <v>8614573000</v>
+        <v>4025006000</v>
       </c>
       <c r="H118" t="n">
-        <v>2776.401128792723</v>
+        <v>887.288318673809</v>
       </c>
       <c r="I118" t="n">
-        <v>7.07</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="119">
@@ -5135,12 +5135,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5168,12 +5168,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QF8K.zip</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5460,7 +5460,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100PV98.zip</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>8057</v>
+        <v>3391</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5482,22 +5482,22 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>787800</v>
+        <v>2617759</v>
       </c>
       <c r="G137" t="n">
-        <v>2754799000</v>
+        <v>21628867000</v>
       </c>
       <c r="H137" t="n">
-        <v>3496.825336379792</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="I137" t="n">
-        <v>7.56</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PVDC.zip</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5511,7 +5511,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3391</v>
+        <v>8057</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2617759</v>
+        <v>787800</v>
       </c>
       <c r="G138" t="n">
-        <v>21628867000</v>
+        <v>2754799000</v>
       </c>
       <c r="H138" t="n">
-        <v>8262.359904024779</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="I138" t="n">
-        <v>5.29</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="139">

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -631,12 +631,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1332,21 +1332,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6927</v>
+        <v>4849</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1354,36 +1354,36 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1142700</v>
+        <v>2946942</v>
       </c>
       <c r="G25" t="n">
-        <v>1023871000</v>
+        <v>5148132000</v>
       </c>
       <c r="H25" t="n">
-        <v>896.0103264198827</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I25" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4849</v>
+        <v>6927</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1391,16 +1391,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2946942</v>
+        <v>1142700</v>
       </c>
       <c r="G26" t="n">
-        <v>5148132000</v>
+        <v>1023871000</v>
       </c>
       <c r="H26" t="n">
-        <v>1746.940387696806</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I26" t="n">
-        <v>5.93</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="27">
@@ -2775,12 +2775,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2800,10 +2800,10 @@
         <v>4062075</v>
       </c>
       <c r="G64" t="n">
-        <v>20578848000</v>
+        <v>8729143000</v>
       </c>
       <c r="H64" t="n">
-        <v>5066.092575838703</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I64" t="n">
         <v>5.2</v>
@@ -2812,21 +2812,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>8803</v>
+        <v>4967</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2834,36 +2834,36 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>4062075</v>
       </c>
       <c r="G65" t="n">
-        <v>361000</v>
+        <v>20578848000</v>
       </c>
       <c r="H65" t="n">
-        <v>3610</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4967</v>
+        <v>8803</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2871,16 +2871,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>8729143000</v>
+        <v>361000</v>
       </c>
       <c r="H66" t="n">
-        <v>2148.936934940886</v>
+        <v>3610</v>
       </c>
       <c r="I66" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4732,12 +4732,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1861</v>
+        <v>7157</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4754,27 +4754,27 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3102784</v>
+        <v>4536300</v>
       </c>
       <c r="G117" t="n">
-        <v>8614573000</v>
+        <v>4025006000</v>
       </c>
       <c r="H117" t="n">
-        <v>2776.401128792723</v>
+        <v>887.288318673809</v>
       </c>
       <c r="I117" t="n">
-        <v>7.07</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>7157</v>
+        <v>1861</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4791,16 +4791,16 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4536300</v>
+        <v>3102784</v>
       </c>
       <c r="G118" t="n">
-        <v>4025006000</v>
+        <v>8614573000</v>
       </c>
       <c r="H118" t="n">
-        <v>887.288318673809</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="I118" t="n">
-        <v>6.5</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="119">
@@ -5135,12 +5135,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QF8K.zip</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5168,12 +5168,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5460,7 +5460,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PVDC.zip</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3391</v>
+        <v>8057</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5482,22 +5482,22 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2617759</v>
+        <v>787800</v>
       </c>
       <c r="G137" t="n">
-        <v>21628867000</v>
+        <v>2754799000</v>
       </c>
       <c r="H137" t="n">
-        <v>8262.359904024779</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="I137" t="n">
-        <v>5.29</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100PV98.zip</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5511,7 +5511,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8057</v>
+        <v>3391</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>787800</v>
+        <v>2617759</v>
       </c>
       <c r="G138" t="n">
-        <v>2754799000</v>
+        <v>21628867000</v>
       </c>
       <c r="H138" t="n">
-        <v>3496.825336379792</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="I138" t="n">
-        <v>7.56</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="139">

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100WSIC.zip</t>
+          <t>S100WWOW.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,21 +497,21 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6875</v>
+        <v>2432</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>487000</v>
+        <v>226000</v>
       </c>
       <c r="H2" t="n">
-        <v>4870</v>
+        <v>2260</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -520,12 +520,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100WQFH.zip</t>
+          <t>S100WSIC.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,21 +534,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4917</v>
+        <v>6875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>204000</v>
+        <v>487000</v>
       </c>
       <c r="H3" t="n">
-        <v>2040</v>
+        <v>4870</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -557,12 +557,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100WQ4O.zip</t>
+          <t>S100WQFH.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,98 +571,98 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8233</v>
+        <v>4917</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>261400</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>287906000</v>
+        <v>204000</v>
       </c>
       <c r="H4" t="n">
-        <v>1101.400153022188</v>
+        <v>2040</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100WO9C.zip</t>
+          <t>S100WQ4O.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2229</v>
+        <v>8233</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8012900</v>
+        <v>261400</v>
       </c>
       <c r="G5" t="n">
-        <v>23390757000</v>
+        <v>287906000</v>
       </c>
       <c r="H5" t="n">
-        <v>2919.137515755844</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5983</v>
+        <v>2229</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>44800</v>
+        <v>8012900</v>
       </c>
       <c r="G6" t="n">
-        <v>315399000</v>
+        <v>23390757000</v>
       </c>
       <c r="H6" t="n">
-        <v>7040.15625</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I6" t="n">
-        <v>4.07</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="7">
@@ -705,308 +705,308 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100WKF3.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6104</v>
+        <v>5983</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1297500</v>
+        <v>44800</v>
       </c>
       <c r="G8" t="n">
-        <v>4476090000</v>
+        <v>315399000</v>
       </c>
       <c r="H8" t="n">
-        <v>3449.780346820809</v>
+        <v>7040.15625</v>
       </c>
       <c r="I8" t="n">
-        <v>5.23</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100WCIP.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5331</v>
+        <v>6104</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1481600</v>
+        <v>1297500</v>
       </c>
       <c r="G9" t="n">
-        <v>5294365000</v>
+        <v>4476090000</v>
       </c>
       <c r="H9" t="n">
-        <v>3573.410502159827</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WCIP.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6952</v>
+        <v>5331</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>12332900</v>
+        <v>1481600</v>
       </c>
       <c r="G10" t="n">
-        <v>14653495000</v>
+        <v>5294365000</v>
       </c>
       <c r="H10" t="n">
-        <v>1188.162962482466</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="I10" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6145</v>
+        <v>6952</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>12332900</v>
       </c>
       <c r="G11" t="n">
-        <v>171000</v>
+        <v>14653495000</v>
       </c>
       <c r="H11" t="n">
-        <v>1710</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100WACZ.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8715</v>
+        <v>6145</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3810400</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>2500615000</v>
+        <v>171000</v>
       </c>
       <c r="H12" t="n">
-        <v>656.2604975855553</v>
+        <v>1710</v>
       </c>
       <c r="I12" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100W5LT.zip</t>
+          <t>S100WACZ.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8585</v>
+        <v>8715</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8986800</v>
+        <v>3810400</v>
       </c>
       <c r="G13" t="n">
-        <v>7174886000</v>
+        <v>2500615000</v>
       </c>
       <c r="H13" t="n">
-        <v>798.3805136422309</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="I13" t="n">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100W5LT.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6908</v>
+        <v>8585</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>400</v>
+        <v>8986800</v>
       </c>
       <c r="G14" t="n">
-        <v>992000</v>
+        <v>7174886000</v>
       </c>
       <c r="H14" t="n">
-        <v>2480</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100VV1I.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8923</v>
+        <v>6908</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2434800</v>
+        <v>400</v>
       </c>
       <c r="G15" t="n">
-        <v>4266809000</v>
+        <v>992000</v>
       </c>
       <c r="H15" t="n">
-        <v>1752.426893379333</v>
+        <v>2480</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100VUUK.zip</t>
+          <t>S100VV1I.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1015,170 +1015,170 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9069</v>
+        <v>8923</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8793900</v>
+        <v>2434800</v>
       </c>
       <c r="G16" t="n">
-        <v>13684104000</v>
+        <v>4266809000</v>
       </c>
       <c r="H16" t="n">
-        <v>1556.090471804319</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="I16" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100VUUK.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1878</v>
+        <v>9069</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3475000</v>
+        <v>8793900</v>
       </c>
       <c r="G17" t="n">
-        <v>47745269000</v>
+        <v>13684104000</v>
       </c>
       <c r="H17" t="n">
-        <v>13739.64575539568</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="I17" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100VQJZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3076</v>
+        <v>3328</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2841700</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>5705436000</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2007.754513143541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VQJZ.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9302</v>
+        <v>3076</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3799000</v>
+        <v>2841700</v>
       </c>
       <c r="G20" t="n">
-        <v>5671170000</v>
+        <v>5705436000</v>
       </c>
       <c r="H20" t="n">
-        <v>1492.806001579363</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="I20" t="n">
-        <v>5.07</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="21">
@@ -1221,12 +1221,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1235,72 +1235,72 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9684</v>
+        <v>9302</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6704059</v>
+        <v>3799000</v>
       </c>
       <c r="G22" t="n">
-        <v>42054369000</v>
+        <v>5671170000</v>
       </c>
       <c r="H22" t="n">
-        <v>6272.971195510064</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I22" t="n">
-        <v>5.47</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G23" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H23" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1309,21 +1309,21 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H24" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1332,58 +1332,58 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4849</v>
+        <v>6332</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2946942</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>5148132000</v>
+        <v>141000</v>
       </c>
       <c r="H25" t="n">
-        <v>1746.940387696806</v>
+        <v>1410</v>
       </c>
       <c r="I25" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6927</v>
+        <v>4849</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1391,175 +1391,175 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1142700</v>
+        <v>2946942</v>
       </c>
       <c r="G26" t="n">
-        <v>1023871000</v>
+        <v>5148132000</v>
       </c>
       <c r="H26" t="n">
-        <v>896.0103264198827</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I26" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4676</v>
+        <v>6927</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G27" t="n">
-        <v>242000</v>
+        <v>1023871000</v>
       </c>
       <c r="H27" t="n">
-        <v>2420</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H28" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I28" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G29" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H29" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I29" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G30" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H30" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1568,172 +1568,172 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H31" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I31" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100VCMT.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3132</v>
+        <v>6890</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8970900</v>
+        <v>30000</v>
       </c>
       <c r="G32" t="n">
-        <v>10240398000</v>
+        <v>71610000</v>
       </c>
       <c r="H32" t="n">
-        <v>1141.512891683109</v>
+        <v>2387</v>
       </c>
       <c r="I32" t="n">
-        <v>5.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VCMT.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4512</v>
+        <v>3132</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2137400</v>
+        <v>8970900</v>
       </c>
       <c r="G33" t="n">
-        <v>620573000</v>
+        <v>10240398000</v>
       </c>
       <c r="H33" t="n">
-        <v>290.3401328717133</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="I33" t="n">
-        <v>6.140000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G34" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H34" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100V7YO.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4626</v>
+        <v>9006</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4670190</v>
+        <v>30000</v>
       </c>
       <c r="G35" t="n">
-        <v>16652257000</v>
+        <v>34824000</v>
       </c>
       <c r="H35" t="n">
-        <v>3565.648720929983</v>
+        <v>1160.8</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36">
@@ -1776,12 +1776,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100V7YO.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1790,72 +1790,72 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7732</v>
+        <v>4626</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7995900</v>
+        <v>4670190</v>
       </c>
       <c r="G37" t="n">
-        <v>16678425000</v>
+        <v>16652257000</v>
       </c>
       <c r="H37" t="n">
-        <v>2085.872134468915</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="I37" t="n">
-        <v>7.380000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3861</v>
+        <v>7732</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>7995900</v>
       </c>
       <c r="G38" t="n">
-        <v>59000</v>
+        <v>16678425000</v>
       </c>
       <c r="H38" t="n">
-        <v>590</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1864,21 +1864,21 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5715</v>
+        <v>3861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>160000</v>
+        <v>59000</v>
       </c>
       <c r="H39" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1887,49 +1887,49 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100UYE4.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3978</v>
+        <v>5715</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2891700</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>3425686000</v>
+        <v>160000</v>
       </c>
       <c r="H40" t="n">
-        <v>1184.661617733513</v>
+        <v>1600</v>
       </c>
       <c r="I40" t="n">
-        <v>7.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100UWW1.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1938,146 +1938,146 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4452</v>
+        <v>3978</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>24347342</v>
+        <v>2891700</v>
       </c>
       <c r="G41" t="n">
-        <v>148917027000</v>
+        <v>3425686000</v>
       </c>
       <c r="H41" t="n">
-        <v>6116.356643776557</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I41" t="n">
-        <v>5.23</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9257</v>
+        <v>4452</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>24347342</v>
       </c>
       <c r="G42" t="n">
-        <v>57000</v>
+        <v>148917027000</v>
       </c>
       <c r="H42" t="n">
-        <v>570</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100UMDQ.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9531</v>
+        <v>9257</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>19554300</v>
+        <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>64960321000</v>
+        <v>57000</v>
       </c>
       <c r="H43" t="n">
-        <v>3322.047887165483</v>
+        <v>570</v>
       </c>
       <c r="I43" t="n">
-        <v>5.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100UORL.zip</t>
+          <t>S100UMDQ.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4385</v>
+        <v>9531</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>8815360</v>
+        <v>19554300</v>
       </c>
       <c r="G44" t="n">
-        <v>17684138000</v>
+        <v>64960321000</v>
       </c>
       <c r="H44" t="n">
-        <v>2006.059650428343</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="I44" t="n">
-        <v>5.37</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100UMI2.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2086,35 +2086,35 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7984</v>
+        <v>4385</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6096500</v>
+        <v>8815360</v>
       </c>
       <c r="G45" t="n">
-        <v>13153972000</v>
+        <v>17684138000</v>
       </c>
       <c r="H45" t="n">
-        <v>2157.626835069302</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I45" t="n">
-        <v>5.02</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100UMJC.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2123,146 +2123,146 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1973</v>
+        <v>7984</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>8973383</v>
+        <v>6096500</v>
       </c>
       <c r="G46" t="n">
-        <v>24947403000</v>
+        <v>13153972000</v>
       </c>
       <c r="H46" t="n">
-        <v>2780.155823060266</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I46" t="n">
-        <v>6.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6908</v>
+        <v>1973</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>502000</v>
+        <v>8973383</v>
       </c>
       <c r="G47" t="n">
-        <v>1257178000</v>
+        <v>24947403000</v>
       </c>
       <c r="H47" t="n">
-        <v>2504.338645418327</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I47" t="n">
-        <v>2.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100UIC4.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3765</v>
+        <v>6908</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4552900</v>
+        <v>502000</v>
       </c>
       <c r="G48" t="n">
-        <v>13383536000</v>
+        <v>1257178000</v>
       </c>
       <c r="H48" t="n">
-        <v>2939.562915943684</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I48" t="n">
-        <v>5.47</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UIC4.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5482</v>
+        <v>3765</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>433300</v>
+        <v>4552900</v>
       </c>
       <c r="G49" t="n">
-        <v>1367192000</v>
+        <v>13383536000</v>
       </c>
       <c r="H49" t="n">
-        <v>3155.301177013616</v>
+        <v>2939.562915943684</v>
       </c>
       <c r="I49" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2271,44 +2271,44 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8141</v>
+        <v>5482</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>433300</v>
       </c>
       <c r="G50" t="n">
-        <v>93000</v>
+        <v>1367192000</v>
       </c>
       <c r="H50" t="n">
-        <v>930</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4272</v>
+        <v>8141</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2316,96 +2316,96 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>26855100</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>29860350000</v>
+        <v>93000</v>
       </c>
       <c r="H51" t="n">
-        <v>1111.90611839092</v>
+        <v>930</v>
       </c>
       <c r="I51" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6145</v>
+        <v>4272</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G52" t="n">
-        <v>171000</v>
+        <v>29860350000</v>
       </c>
       <c r="H52" t="n">
-        <v>1710</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4205</v>
+        <v>6145</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>14426600</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>24829312000</v>
+        <v>171000</v>
       </c>
       <c r="H53" t="n">
-        <v>1721.078563209627</v>
+        <v>1710</v>
       </c>
       <c r="I53" t="n">
-        <v>6.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100UBH9.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2419,7 +2419,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3569</v>
+        <v>4205</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2427,175 +2427,175 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4271704</v>
+        <v>14426600</v>
       </c>
       <c r="G54" t="n">
-        <v>5808044000</v>
+        <v>24829312000</v>
       </c>
       <c r="H54" t="n">
-        <v>1359.655069733296</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I54" t="n">
-        <v>6.279999999999999</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100U9FC.zip</t>
+          <t>S100UBH9.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6516</v>
+        <v>3569</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>679500</v>
+        <v>4271704</v>
       </c>
       <c r="G55" t="n">
-        <v>4792335000</v>
+        <v>5808044000</v>
       </c>
       <c r="H55" t="n">
-        <v>7052.737306843267</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="I55" t="n">
-        <v>5.24</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100U9FC.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2327</v>
+        <v>6516</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>9154320</v>
+        <v>679500</v>
       </c>
       <c r="G56" t="n">
-        <v>23450671000</v>
+        <v>4792335000</v>
       </c>
       <c r="H56" t="n">
-        <v>2561.705402476645</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3989</v>
+        <v>2327</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1206000</v>
+        <v>9154320</v>
       </c>
       <c r="G57" t="n">
-        <v>787604000</v>
+        <v>23450671000</v>
       </c>
       <c r="H57" t="n">
-        <v>653.0713101160862</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I57" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6908</v>
+        <v>3989</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>1206000</v>
       </c>
       <c r="G58" t="n">
-        <v>288000</v>
+        <v>787604000</v>
       </c>
       <c r="H58" t="n">
-        <v>2880</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2604,72 +2604,72 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5988</v>
+        <v>6908</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>527300</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>1212090000</v>
+        <v>288000</v>
       </c>
       <c r="H59" t="n">
-        <v>2298.672482457804</v>
+        <v>2880</v>
       </c>
       <c r="I59" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3529</v>
+        <v>5988</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>998000</v>
+        <v>527300</v>
       </c>
       <c r="G60" t="n">
-        <v>667598000</v>
+        <v>1212090000</v>
       </c>
       <c r="H60" t="n">
-        <v>668.9358717434869</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I60" t="n">
-        <v>5.76</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2678,61 +2678,61 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7305</v>
+        <v>3529</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>309800</v>
+        <v>998000</v>
       </c>
       <c r="G61" t="n">
-        <v>1321438000</v>
+        <v>667598000</v>
       </c>
       <c r="H61" t="n">
-        <v>4265.455132343447</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I61" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2168</v>
+        <v>7305</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2094200</v>
+        <v>309800</v>
       </c>
       <c r="G62" t="n">
-        <v>4445105000</v>
+        <v>1321438000</v>
       </c>
       <c r="H62" t="n">
-        <v>2122.579027791042</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I62" t="n">
-        <v>5.02</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="63">
@@ -2775,12 +2775,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2789,44 +2789,44 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4967</v>
+        <v>2168</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4062075</v>
+        <v>2094200</v>
       </c>
       <c r="G64" t="n">
-        <v>8729143000</v>
+        <v>4445105000</v>
       </c>
       <c r="H64" t="n">
-        <v>2148.936934940886</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I64" t="n">
-        <v>5.2</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4967</v>
+        <v>8803</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2834,36 +2834,36 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>20578848000</v>
+        <v>361000</v>
       </c>
       <c r="H65" t="n">
-        <v>5066.092575838703</v>
+        <v>3610</v>
       </c>
       <c r="I65" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8803</v>
+        <v>4967</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2871,175 +2871,175 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>4062075</v>
       </c>
       <c r="G66" t="n">
-        <v>361000</v>
+        <v>8729143000</v>
       </c>
       <c r="H66" t="n">
-        <v>3610</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100U325.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>9882</v>
+        <v>4967</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2505000</v>
+        <v>4062075</v>
       </c>
       <c r="G67" t="n">
-        <v>5292086000</v>
+        <v>20578848000</v>
       </c>
       <c r="H67" t="n">
-        <v>2112.609181636727</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I67" t="n">
-        <v>5.02</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U325.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>8129</v>
+        <v>9882</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>7258230</v>
+        <v>2505000</v>
       </c>
       <c r="G68" t="n">
-        <v>24720910000</v>
+        <v>5292086000</v>
       </c>
       <c r="H68" t="n">
-        <v>3405.914389596362</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="I68" t="n">
-        <v>9.460000000000001</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100U2CM.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2206</v>
+        <v>8129</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3462600</v>
+        <v>7258230</v>
       </c>
       <c r="G69" t="n">
-        <v>14385811000</v>
+        <v>24720910000</v>
       </c>
       <c r="H69" t="n">
-        <v>4154.626869982095</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I69" t="n">
-        <v>5.06</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U2CM.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3666</v>
+        <v>2206</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1053200</v>
+        <v>3462600</v>
       </c>
       <c r="G70" t="n">
-        <v>663809000</v>
+        <v>14385811000</v>
       </c>
       <c r="H70" t="n">
-        <v>630.278199772123</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="I70" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3048,172 +3048,172 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4347</v>
+        <v>3666</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>614893</v>
+        <v>1053200</v>
       </c>
       <c r="G71" t="n">
-        <v>940560000</v>
+        <v>663809000</v>
       </c>
       <c r="H71" t="n">
-        <v>1529.631984751819</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I71" t="n">
-        <v>8.200000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8129</v>
+        <v>4347</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3886330</v>
+        <v>614893</v>
       </c>
       <c r="G72" t="n">
-        <v>10549885000</v>
+        <v>940560000</v>
       </c>
       <c r="H72" t="n">
-        <v>2714.613787300615</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I72" t="n">
-        <v>5.06</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>8929</v>
+        <v>8129</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1260812</v>
+        <v>3886330</v>
       </c>
       <c r="G73" t="n">
-        <v>1699255000</v>
+        <v>10549885000</v>
       </c>
       <c r="H73" t="n">
-        <v>1347.74653160027</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I73" t="n">
-        <v>5.140000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>7278</v>
+        <v>8929</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>115400</v>
+        <v>1260812</v>
       </c>
       <c r="G74" t="n">
-        <v>302115000</v>
+        <v>1699255000</v>
       </c>
       <c r="H74" t="n">
-        <v>2617.980935875217</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I74" t="n">
-        <v>0.24</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4042</v>
+        <v>7278</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>16459200</v>
+        <v>115400</v>
       </c>
       <c r="G75" t="n">
-        <v>33451116000</v>
+        <v>302115000</v>
       </c>
       <c r="H75" t="n">
-        <v>2032.365850102071</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I75" t="n">
-        <v>5.06</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="76">
@@ -3256,234 +3256,234 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4521</v>
+        <v>4042</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>16459200</v>
       </c>
       <c r="G77" t="n">
-        <v>353000</v>
+        <v>33451116000</v>
       </c>
       <c r="H77" t="n">
-        <v>3530</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100TJBE.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8923</v>
+        <v>4521</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2445600</v>
+        <v>100</v>
       </c>
       <c r="G78" t="n">
-        <v>3856031000</v>
+        <v>353000</v>
       </c>
       <c r="H78" t="n">
-        <v>1576.721867844292</v>
+        <v>3530</v>
       </c>
       <c r="I78" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TJBE.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4347</v>
+        <v>8923</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>400493</v>
+        <v>2445600</v>
       </c>
       <c r="G79" t="n">
-        <v>580713000</v>
+        <v>3856031000</v>
       </c>
       <c r="H79" t="n">
-        <v>1449.995380693296</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="I79" t="n">
-        <v>5.06</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>9024</v>
+        <v>4347</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>16207437</v>
+        <v>400493</v>
       </c>
       <c r="G80" t="n">
-        <v>27823532000</v>
+        <v>580713000</v>
       </c>
       <c r="H80" t="n">
-        <v>1716.713876475349</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I80" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1518</v>
+        <v>9024</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>16207437</v>
       </c>
       <c r="G81" t="n">
-        <v>292000</v>
+        <v>27823532000</v>
       </c>
       <c r="H81" t="n">
-        <v>2920</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7731</v>
+        <v>1518</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>26675255000</v>
+        <v>292000</v>
       </c>
       <c r="H82" t="n">
-        <v>1512.21980974841</v>
+        <v>2920</v>
       </c>
       <c r="I82" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3492,21 +3492,21 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4536</v>
+        <v>7731</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>18290500</v>
+        <v>17639800</v>
       </c>
       <c r="G83" t="n">
-        <v>24591924000</v>
+        <v>26675255000</v>
       </c>
       <c r="H83" t="n">
-        <v>1344.518957928979</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I83" t="n">
         <v>5.02</v>
@@ -3515,197 +3515,197 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4185</v>
+        <v>4536</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>18290500</v>
       </c>
       <c r="G84" t="n">
-        <v>405000</v>
+        <v>24591924000</v>
       </c>
       <c r="H84" t="n">
-        <v>4050</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4549</v>
+        <v>4185</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2006900</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>3367745000</v>
+        <v>405000</v>
       </c>
       <c r="H85" t="n">
-        <v>1678.083113259255</v>
+        <v>4050</v>
       </c>
       <c r="I85" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S100SZYE.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>9627</v>
+        <v>4549</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3401100</v>
+        <v>2006900</v>
       </c>
       <c r="G86" t="n">
-        <v>9648726000</v>
+        <v>3367745000</v>
       </c>
       <c r="H86" t="n">
-        <v>2836.942753814942</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I86" t="n">
-        <v>9.6</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>8304</v>
+        <v>9627</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>3401100</v>
       </c>
       <c r="G87" t="n">
-        <v>219000</v>
+        <v>9648726000</v>
       </c>
       <c r="H87" t="n">
-        <v>2190</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3328</v>
+        <v>8304</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>845300</v>
+        <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>1219326000</v>
+        <v>219000</v>
       </c>
       <c r="H88" t="n">
-        <v>1442.477227019993</v>
+        <v>2190</v>
       </c>
       <c r="I88" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3718,142 +3718,142 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>675500</v>
+        <v>845300</v>
       </c>
       <c r="G89" t="n">
-        <v>976503000</v>
+        <v>1219326000</v>
       </c>
       <c r="H89" t="n">
-        <v>1445.60029607698</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I89" t="n">
-        <v>5.220000000000001</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100ST3I.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>8818</v>
+        <v>3328</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2505000</v>
+        <v>675500</v>
       </c>
       <c r="G90" t="n">
-        <v>3361654000</v>
+        <v>976503000</v>
       </c>
       <c r="H90" t="n">
-        <v>1341.977644710579</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I90" t="n">
-        <v>5.09</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100ST3I.zip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5541</v>
+        <v>8818</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>2505000</v>
       </c>
       <c r="G91" t="n">
-        <v>117000</v>
+        <v>3361654000</v>
       </c>
       <c r="H91" t="n">
-        <v>1170</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100SN7U.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>7315</v>
+        <v>5541</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>6994900</v>
+        <v>100</v>
       </c>
       <c r="G92" t="n">
-        <v>5874641000</v>
+        <v>117000</v>
       </c>
       <c r="H92" t="n">
-        <v>839.8463166020958</v>
+        <v>1170</v>
       </c>
       <c r="I92" t="n">
-        <v>14.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100SLMH.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3862,35 +3862,35 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4837</v>
+        <v>7315</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5428600</v>
+        <v>6994900</v>
       </c>
       <c r="G93" t="n">
-        <v>4378021000</v>
+        <v>5874641000</v>
       </c>
       <c r="H93" t="n">
-        <v>806.4733080352208</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I93" t="n">
-        <v>9.74</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3899,30 +3899,30 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4293</v>
+        <v>4837</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20896886</v>
+        <v>5428600</v>
       </c>
       <c r="G94" t="n">
-        <v>9376038000</v>
+        <v>4378021000</v>
       </c>
       <c r="H94" t="n">
-        <v>448.6811097117532</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I94" t="n">
-        <v>9.9</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4631</v>
+        <v>4293</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3944,355 +3944,355 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6563759</v>
+        <v>20896886</v>
       </c>
       <c r="G95" t="n">
-        <v>16844475000</v>
+        <v>9376038000</v>
       </c>
       <c r="H95" t="n">
-        <v>2566.284807227078</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I95" t="n">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100SHYB.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>5449</v>
+        <v>4631</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2114100</v>
+        <v>6563759</v>
       </c>
       <c r="G96" t="n">
-        <v>3695597000</v>
+        <v>16844475000</v>
       </c>
       <c r="H96" t="n">
-        <v>1748.071046781136</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100SDCB.zip</t>
+          <t>S100SHYB.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6232</v>
+        <v>5449</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1499000</v>
+        <v>2114100</v>
       </c>
       <c r="G97" t="n">
-        <v>1369002000</v>
+        <v>3695597000</v>
       </c>
       <c r="H97" t="n">
-        <v>913.2768512341561</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="I97" t="n">
-        <v>10.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S100SB0S.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>6237</v>
+        <v>6232</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1129500</v>
+        <v>1499000</v>
       </c>
       <c r="G98" t="n">
-        <v>1537738000</v>
+        <v>1369002000</v>
       </c>
       <c r="H98" t="n">
-        <v>1361.432492253209</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I98" t="n">
-        <v>5.02</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SB0S.zip</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4987</v>
+        <v>6237</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1543800</v>
+        <v>1129500</v>
       </c>
       <c r="G99" t="n">
-        <v>874286000</v>
+        <v>1537738000</v>
       </c>
       <c r="H99" t="n">
-        <v>566.3207669387226</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="I99" t="n">
-        <v>5.779999999999999</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100S4PN.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4739</v>
+        <v>4987</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>15400600</v>
+        <v>1543800</v>
       </c>
       <c r="G100" t="n">
-        <v>66216726000</v>
+        <v>874286000</v>
       </c>
       <c r="H100" t="n">
-        <v>4299.619884939548</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I100" t="n">
-        <v>6.419999999999999</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2501</v>
+        <v>4739</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4010500</v>
+        <v>15400600</v>
       </c>
       <c r="G101" t="n">
-        <v>10817766000</v>
+        <v>66216726000</v>
       </c>
       <c r="H101" t="n">
-        <v>2697.360927565142</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I101" t="n">
-        <v>5.09</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4023</v>
+        <v>2501</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>100</v>
+        <v>4010500</v>
       </c>
       <c r="G102" t="n">
-        <v>796000</v>
+        <v>10817766000</v>
       </c>
       <c r="H102" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5844</v>
+        <v>4023</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>24949147000</v>
+        <v>796000</v>
       </c>
       <c r="H103" t="n">
-        <v>4991.027246539169</v>
+        <v>7960</v>
       </c>
       <c r="I103" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100RY2V.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5186</v>
+        <v>5844</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1536900</v>
+        <v>4998800</v>
       </c>
       <c r="G104" t="n">
-        <v>4758738000</v>
+        <v>24949147000</v>
       </c>
       <c r="H104" t="n">
-        <v>3096.322467304314</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I104" t="n">
-        <v>5.08</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S100RYRP.zip</t>
+          <t>S100RY2V.zip</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5947</v>
+        <v>5186</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4314,467 +4314,467 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>7446200</v>
+        <v>1536900</v>
       </c>
       <c r="G105" t="n">
-        <v>21182239000</v>
+        <v>4758738000</v>
       </c>
       <c r="H105" t="n">
-        <v>2844.704547285864</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="I105" t="n">
-        <v>4.96</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RYRP.zip</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>8303</v>
+        <v>5947</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>20000000</v>
+        <v>7446200</v>
       </c>
       <c r="G106" t="n">
-        <v>56014500000</v>
+        <v>21182239000</v>
       </c>
       <c r="H106" t="n">
-        <v>2800.725</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="I106" t="n">
-        <v>9.75</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2812</v>
+        <v>8303</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I107" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100RU33.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5451</v>
+        <v>2812</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1752800</v>
-      </c>
-      <c r="G108" t="n">
-        <v>5669831000</v>
-      </c>
-      <c r="H108" t="n">
-        <v>3234.727863989046</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>5.029999999999999</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RU33.zip</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>9072</v>
+        <v>5451</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>8377400</v>
+        <v>1752800</v>
       </c>
       <c r="G109" t="n">
-        <v>13394541000</v>
+        <v>5669831000</v>
       </c>
       <c r="H109" t="n">
-        <v>1598.889989734285</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="I109" t="n">
-        <v>12.74</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S100RSA5.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5194</v>
+        <v>9072</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1068798</v>
+        <v>8377400</v>
       </c>
       <c r="G110" t="n">
-        <v>997342000</v>
+        <v>13394541000</v>
       </c>
       <c r="H110" t="n">
-        <v>933.1435874692879</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I110" t="n">
-        <v>9.77</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S100RIEU.zip</t>
+          <t>S100RSA5.zip</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>8871</v>
+        <v>5194</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1807700</v>
+        <v>1068798</v>
       </c>
       <c r="G111" t="n">
-        <v>3235548000</v>
+        <v>997342000</v>
       </c>
       <c r="H111" t="n">
-        <v>1789.870000553189</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="I111" t="n">
-        <v>5.050000000000001</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S100RGLG.zip</t>
+          <t>S100RIEU.zip</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>5929</v>
+        <v>8871</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>11571500</v>
+        <v>1807700</v>
       </c>
       <c r="G112" t="n">
-        <v>15114770000</v>
+        <v>3235548000</v>
       </c>
       <c r="H112" t="n">
-        <v>1306.206628354146</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="I112" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RGLG.zip</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>8140</v>
+        <v>5929</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1322800</v>
+        <v>11571500</v>
       </c>
       <c r="G113" t="n">
-        <v>4536170000</v>
+        <v>15114770000</v>
       </c>
       <c r="H113" t="n">
-        <v>3429.218324765649</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="I113" t="n">
-        <v>5.29</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1878</v>
+        <v>8140</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3452100</v>
+        <v>1322800</v>
       </c>
       <c r="G114" t="n">
-        <v>44793976000</v>
+        <v>4536170000</v>
       </c>
       <c r="H114" t="n">
-        <v>12975.86280814577</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I114" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S100QVRX.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>533500</v>
+        <v>3452100</v>
       </c>
       <c r="G115" t="n">
-        <v>2009924000</v>
+        <v>44793976000</v>
       </c>
       <c r="H115" t="n">
-        <v>3767.430178069353</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="I115" t="n">
-        <v>5.11</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S100QV9B.zip</t>
+          <t>S100QVRX.zip</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3593</v>
+        <v>1882</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1637060</v>
+        <v>533500</v>
       </c>
       <c r="G116" t="n">
-        <v>5502657000</v>
+        <v>2009924000</v>
       </c>
       <c r="H116" t="n">
-        <v>3361.304411567078</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="I116" t="n">
-        <v>6.48</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QV9B.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7157</v>
+        <v>3593</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4536300</v>
+        <v>1637060</v>
       </c>
       <c r="G117" t="n">
-        <v>4025006000</v>
+        <v>5502657000</v>
       </c>
       <c r="H117" t="n">
-        <v>887.288318673809</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="I117" t="n">
-        <v>6.5</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1861</v>
+        <v>7157</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4791,123 +4791,123 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3102784</v>
+        <v>4536300</v>
       </c>
       <c r="G118" t="n">
-        <v>8614573000</v>
+        <v>4025006000</v>
       </c>
       <c r="H118" t="n">
-        <v>2776.401128792723</v>
+        <v>887.288318673809</v>
       </c>
       <c r="I118" t="n">
-        <v>7.07</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>7350</v>
+        <v>1861</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
+        <v>3102784</v>
+      </c>
+      <c r="G119" t="n">
+        <v>8614573000</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2776.401128792723</v>
+      </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S100QRVC.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3549</v>
+        <v>7350</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1735200</v>
-      </c>
-      <c r="G120" t="n">
-        <v>11532479000</v>
-      </c>
-      <c r="H120" t="n">
-        <v>6646.195827570309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QRVC.zip</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>6770</v>
+        <v>3549</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>11259700</v>
+        <v>1735200</v>
       </c>
       <c r="G121" t="n">
-        <v>14161429000</v>
+        <v>11532479000</v>
       </c>
       <c r="H121" t="n">
-        <v>1257.709264012363</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="I121" t="n">
-        <v>5.13</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="122">
@@ -4950,86 +4950,86 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1951</v>
+        <v>6770</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>5561200</v>
+        <v>11259700</v>
       </c>
       <c r="G123" t="n">
-        <v>12623472000</v>
+        <v>14161429000</v>
       </c>
       <c r="H123" t="n">
-        <v>2269.918722577861</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I123" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3085</v>
+        <v>1951</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1756300</v>
+        <v>5561200</v>
       </c>
       <c r="G124" t="n">
-        <v>4694343000</v>
+        <v>12623472000</v>
       </c>
       <c r="H124" t="n">
-        <v>2672.859420372374</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I124" t="n">
-        <v>5.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5038,131 +5038,135 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>9842</v>
+        <v>3085</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2082200</v>
+        <v>1756300</v>
       </c>
       <c r="G125" t="n">
-        <v>3059101000</v>
+        <v>4694343000</v>
       </c>
       <c r="H125" t="n">
-        <v>1469.167707232735</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I125" t="n">
-        <v>5.029999999999999</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S100QI52.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9672</v>
+        <v>9842</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2410900</v>
+        <v>2082200</v>
       </c>
       <c r="G126" t="n">
-        <v>9382590000</v>
+        <v>3059101000</v>
       </c>
       <c r="H126" t="n">
-        <v>3891.73752540545</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="I126" t="n">
-        <v>8.380000000000001</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QI52.zip</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3558</v>
+        <v>9672</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1214200</v>
+        <v>2410900</v>
       </c>
       <c r="G127" t="n">
-        <v>1538785000</v>
+        <v>9382590000</v>
       </c>
       <c r="H127" t="n">
-        <v>1267.324164058639</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="I127" t="n">
-        <v>10.57</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2329</v>
+        <v>3558</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
+        <v>1214200</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1267.324164058639</v>
+      </c>
       <c r="I128" t="n">
-        <v>9.550000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="129">
@@ -5201,303 +5205,299 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QF8K.zip</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>4324</v>
+        <v>2329</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G130" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H130" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>5.050000000000001</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3608</v>
+        <v>4324</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4569000</v>
+        <v>13655200</v>
       </c>
       <c r="G131" t="n">
-        <v>2005111000</v>
+        <v>56753467000</v>
       </c>
       <c r="H131" t="n">
-        <v>438.851170934559</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I131" t="n">
-        <v>5.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>6804</v>
+        <v>3608</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3315900</v>
+        <v>4569000</v>
       </c>
       <c r="G132" t="n">
-        <v>4322098000</v>
+        <v>2005111000</v>
       </c>
       <c r="H132" t="n">
-        <v>1303.446424801713</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I132" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6236</v>
+        <v>6804</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>911500</v>
+        <v>3315900</v>
       </c>
       <c r="G133" t="n">
-        <v>1306557000</v>
+        <v>4322098000</v>
       </c>
       <c r="H133" t="n">
-        <v>1433.414152495886</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I133" t="n">
-        <v>19.45</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>6770</v>
+        <v>6236</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2344200</v>
+        <v>911500</v>
       </c>
       <c r="G134" t="n">
-        <v>2853488000</v>
+        <v>1306557000</v>
       </c>
       <c r="H134" t="n">
-        <v>1217.254500469243</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I134" t="n">
-        <v>1.07</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>7272</v>
+        <v>6770</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>17688500</v>
+        <v>2344200</v>
       </c>
       <c r="G135" t="n">
-        <v>52513090000</v>
+        <v>2853488000</v>
       </c>
       <c r="H135" t="n">
-        <v>2968.770104870396</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I135" t="n">
-        <v>5.050000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>4956</v>
+        <v>7272</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2039200</v>
+        <v>17688500</v>
       </c>
       <c r="G136" t="n">
-        <v>3273303000</v>
+        <v>52513090000</v>
       </c>
       <c r="H136" t="n">
-        <v>1605.189780306002</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I136" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100PYKO.zip</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>8057</v>
+        <v>4956</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>787800</v>
+        <v>2039200</v>
       </c>
       <c r="G137" t="n">
-        <v>2754799000</v>
+        <v>3273303000</v>
       </c>
       <c r="H137" t="n">
-        <v>3496.825336379792</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="I137" t="n">
-        <v>7.56</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PVDC.zip</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5511,7 +5511,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3391</v>
+        <v>8057</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5519,126 +5519,163 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2617759</v>
+        <v>787800</v>
       </c>
       <c r="G138" t="n">
-        <v>21628867000</v>
+        <v>2754799000</v>
       </c>
       <c r="H138" t="n">
-        <v>8262.359904024779</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="I138" t="n">
-        <v>5.29</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S100PV61.zip</t>
+          <t>S100PV98.zip</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3132</v>
+        <v>3391</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>4697500</v>
+        <v>2617759</v>
       </c>
       <c r="G139" t="n">
-        <v>8653324000</v>
+        <v>21628867000</v>
       </c>
       <c r="H139" t="n">
-        <v>1842.11261309207</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="I139" t="n">
-        <v>7.539999999999999</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>S100PNUO.zip</t>
+          <t>S100PV61.zip</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3205</v>
+        <v>3132</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2552200</v>
+        <v>4697500</v>
       </c>
       <c r="G140" t="n">
-        <v>492702000</v>
+        <v>8653324000</v>
       </c>
       <c r="H140" t="n">
-        <v>193.0499177180472</v>
+        <v>1842.11261309207</v>
       </c>
       <c r="I140" t="n">
-        <v>6.77</v>
+        <v>7.539999999999999</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>S100PNUO.zip</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>株式会社ストラテジックキャピタル</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>3205</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2022-11-17</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>2552200</v>
+      </c>
+      <c r="G141" t="n">
+        <v>492702000</v>
+      </c>
+      <c r="H141" t="n">
+        <v>193.0499177180472</v>
+      </c>
+      <c r="I141" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>S100PH6I.zip</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D142" t="n">
         <v>6707</v>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="F141" t="n">
+      <c r="F142" t="n">
         <v>1699900</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G142" t="n">
         <v>9313663000</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H142" t="n">
         <v>5478.947585152067</v>
       </c>
-      <c r="I141" t="n">
+      <c r="I142" t="n">
         <v>6.77</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100WWOW.zip</t>
+          <t>S100WWWV.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,21 +497,21 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2432</v>
+        <v>6890</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>226000</v>
+        <v>203000</v>
       </c>
       <c r="H2" t="n">
-        <v>2260</v>
+        <v>2030</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -520,12 +520,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100WSIC.zip</t>
+          <t>S100WWOW.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,21 +534,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6875</v>
+        <v>2432</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>487000</v>
+        <v>226000</v>
       </c>
       <c r="H3" t="n">
-        <v>4870</v>
+        <v>2260</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -557,12 +557,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100WQFH.zip</t>
+          <t>S100WSIC.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,21 +571,21 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4917</v>
+        <v>6875</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>204000</v>
+        <v>487000</v>
       </c>
       <c r="H4" t="n">
-        <v>2040</v>
+        <v>4870</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -594,12 +594,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100WQ4O.zip</t>
+          <t>S100WQFH.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,109 +608,109 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8233</v>
+        <v>4917</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>261400</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>287906000</v>
+        <v>204000</v>
       </c>
       <c r="H5" t="n">
-        <v>1101.400153022188</v>
+        <v>2040</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WO9C.zip</t>
+          <t>S100WQ4O.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2229</v>
+        <v>8233</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8012900</v>
+        <v>261400</v>
       </c>
       <c r="G6" t="n">
-        <v>23390757000</v>
+        <v>287906000</v>
       </c>
       <c r="H6" t="n">
-        <v>2919.137515755844</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="I6" t="n">
-        <v>5.98</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5983</v>
+        <v>2229</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>44800</v>
+        <v>8012900</v>
       </c>
       <c r="G7" t="n">
-        <v>315399000</v>
+        <v>23390757000</v>
       </c>
       <c r="H7" t="n">
-        <v>7040.15625</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I7" t="n">
-        <v>4.07</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -742,308 +742,308 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100WKF3.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6104</v>
+        <v>5983</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1297500</v>
+        <v>44800</v>
       </c>
       <c r="G9" t="n">
-        <v>4476090000</v>
+        <v>315399000</v>
       </c>
       <c r="H9" t="n">
-        <v>3449.780346820809</v>
+        <v>7040.15625</v>
       </c>
       <c r="I9" t="n">
-        <v>5.23</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100WCIP.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5331</v>
+        <v>6104</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1481600</v>
+        <v>1297500</v>
       </c>
       <c r="G10" t="n">
-        <v>5294365000</v>
+        <v>4476090000</v>
       </c>
       <c r="H10" t="n">
-        <v>3573.410502159827</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WCIP.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6952</v>
+        <v>5331</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12332900</v>
+        <v>1481600</v>
       </c>
       <c r="G11" t="n">
-        <v>14653495000</v>
+        <v>5294365000</v>
       </c>
       <c r="H11" t="n">
-        <v>1188.162962482466</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="I11" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6145</v>
+        <v>6952</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>12332900</v>
       </c>
       <c r="G12" t="n">
-        <v>171000</v>
+        <v>14653495000</v>
       </c>
       <c r="H12" t="n">
-        <v>1710</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100WACZ.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8715</v>
+        <v>6145</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3810400</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>2500615000</v>
+        <v>171000</v>
       </c>
       <c r="H13" t="n">
-        <v>656.2604975855553</v>
+        <v>1710</v>
       </c>
       <c r="I13" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100W5LT.zip</t>
+          <t>S100WACZ.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8585</v>
+        <v>8715</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8986800</v>
+        <v>3810400</v>
       </c>
       <c r="G14" t="n">
-        <v>7174886000</v>
+        <v>2500615000</v>
       </c>
       <c r="H14" t="n">
-        <v>798.3805136422309</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="I14" t="n">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100W5LT.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6908</v>
+        <v>8585</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>400</v>
+        <v>8986800</v>
       </c>
       <c r="G15" t="n">
-        <v>992000</v>
+        <v>7174886000</v>
       </c>
       <c r="H15" t="n">
-        <v>2480</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100VV1I.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8923</v>
+        <v>6908</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2434800</v>
+        <v>400</v>
       </c>
       <c r="G16" t="n">
-        <v>4266809000</v>
+        <v>992000</v>
       </c>
       <c r="H16" t="n">
-        <v>1752.426893379333</v>
+        <v>2480</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100VUUK.zip</t>
+          <t>S100VV1I.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1052,190 +1052,190 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9069</v>
+        <v>8923</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8793900</v>
+        <v>2434800</v>
       </c>
       <c r="G17" t="n">
-        <v>13684104000</v>
+        <v>4266809000</v>
       </c>
       <c r="H17" t="n">
-        <v>1556.090471804319</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="I17" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100VUUK.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1878</v>
+        <v>9069</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3475000</v>
+        <v>8793900</v>
       </c>
       <c r="G18" t="n">
-        <v>47745269000</v>
+        <v>13684104000</v>
       </c>
       <c r="H18" t="n">
-        <v>13739.64575539568</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="I18" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100VQJZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3076</v>
+        <v>3328</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2841700</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5705436000</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2007.754513143541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VQJZ.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3106</v>
+        <v>3076</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>900156</v>
+        <v>2841700</v>
       </c>
       <c r="G21" t="n">
-        <v>4095263000</v>
+        <v>5705436000</v>
       </c>
       <c r="H21" t="n">
-        <v>4549.503641591014</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9302</v>
+        <v>3106</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1243,27 +1243,27 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3799000</v>
+        <v>900156</v>
       </c>
       <c r="G22" t="n">
-        <v>5671170000</v>
+        <v>4095263000</v>
       </c>
       <c r="H22" t="n">
-        <v>1492.806001579363</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I22" t="n">
-        <v>5.07</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1272,72 +1272,72 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9684</v>
+        <v>9302</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6704059</v>
+        <v>3799000</v>
       </c>
       <c r="G23" t="n">
-        <v>42054369000</v>
+        <v>5671170000</v>
       </c>
       <c r="H23" t="n">
-        <v>6272.971195510064</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I23" t="n">
-        <v>5.47</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G24" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H24" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1346,21 +1346,21 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H25" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1369,38 +1369,38 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4849</v>
+        <v>6332</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2946942</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>5148132000</v>
+        <v>141000</v>
       </c>
       <c r="H26" t="n">
-        <v>1746.940387696806</v>
+        <v>1410</v>
       </c>
       <c r="I26" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1443,160 +1443,160 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4676</v>
+        <v>4849</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>2946942</v>
       </c>
       <c r="G28" t="n">
-        <v>242000</v>
+        <v>5148132000</v>
       </c>
       <c r="H28" t="n">
-        <v>2420</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H29" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I29" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G30" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H30" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I30" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G31" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H31" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1605,172 +1605,172 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H32" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100VCMT.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3132</v>
+        <v>6890</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8970900</v>
+        <v>30000</v>
       </c>
       <c r="G33" t="n">
-        <v>10240398000</v>
+        <v>71610000</v>
       </c>
       <c r="H33" t="n">
-        <v>1141.512891683109</v>
+        <v>2387</v>
       </c>
       <c r="I33" t="n">
-        <v>5.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VCMT.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4512</v>
+        <v>3132</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2137400</v>
+        <v>8970900</v>
       </c>
       <c r="G34" t="n">
-        <v>620573000</v>
+        <v>10240398000</v>
       </c>
       <c r="H34" t="n">
-        <v>290.3401328717133</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="I34" t="n">
-        <v>6.140000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G35" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H35" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9987</v>
+        <v>9006</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3888200</v>
+        <v>30000</v>
       </c>
       <c r="G36" t="n">
-        <v>16086019000</v>
+        <v>34824000</v>
       </c>
       <c r="H36" t="n">
-        <v>4137.137750115735</v>
+        <v>1160.8</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37">
@@ -1813,86 +1813,86 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7732</v>
+        <v>9987</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>7995900</v>
+        <v>3888200</v>
       </c>
       <c r="G38" t="n">
-        <v>16678425000</v>
+        <v>16086019000</v>
       </c>
       <c r="H38" t="n">
-        <v>2085.872134468915</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I38" t="n">
-        <v>7.380000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3861</v>
+        <v>7732</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>7995900</v>
       </c>
       <c r="G39" t="n">
-        <v>59000</v>
+        <v>16678425000</v>
       </c>
       <c r="H39" t="n">
-        <v>590</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1901,21 +1901,21 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5715</v>
+        <v>3861</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>160000</v>
+        <v>59000</v>
       </c>
       <c r="H40" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1924,49 +1924,49 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100UYE4.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3978</v>
+        <v>5715</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2891700</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>3425686000</v>
+        <v>160000</v>
       </c>
       <c r="H41" t="n">
-        <v>1184.661617733513</v>
+        <v>1600</v>
       </c>
       <c r="I41" t="n">
-        <v>7.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100UWW1.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1975,146 +1975,146 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4452</v>
+        <v>3978</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>24347342</v>
+        <v>2891700</v>
       </c>
       <c r="G42" t="n">
-        <v>148917027000</v>
+        <v>3425686000</v>
       </c>
       <c r="H42" t="n">
-        <v>6116.356643776557</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I42" t="n">
-        <v>5.23</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9257</v>
+        <v>4452</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>24347342</v>
       </c>
       <c r="G43" t="n">
-        <v>57000</v>
+        <v>148917027000</v>
       </c>
       <c r="H43" t="n">
-        <v>570</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100UMDQ.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9531</v>
+        <v>9257</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>19554300</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>64960321000</v>
+        <v>57000</v>
       </c>
       <c r="H44" t="n">
-        <v>3322.047887165483</v>
+        <v>570</v>
       </c>
       <c r="I44" t="n">
-        <v>5.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100UORL.zip</t>
+          <t>S100UMDQ.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4385</v>
+        <v>9531</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>8815360</v>
+        <v>19554300</v>
       </c>
       <c r="G45" t="n">
-        <v>17684138000</v>
+        <v>64960321000</v>
       </c>
       <c r="H45" t="n">
-        <v>2006.059650428343</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="I45" t="n">
-        <v>5.37</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100UMI2.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2123,35 +2123,35 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7984</v>
+        <v>4385</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6096500</v>
+        <v>8815360</v>
       </c>
       <c r="G46" t="n">
-        <v>13153972000</v>
+        <v>17684138000</v>
       </c>
       <c r="H46" t="n">
-        <v>2157.626835069302</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I46" t="n">
-        <v>5.02</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100UMJC.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2160,146 +2160,146 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1973</v>
+        <v>7984</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>8973383</v>
+        <v>6096500</v>
       </c>
       <c r="G47" t="n">
-        <v>24947403000</v>
+        <v>13153972000</v>
       </c>
       <c r="H47" t="n">
-        <v>2780.155823060266</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I47" t="n">
-        <v>6.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6908</v>
+        <v>1973</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>502000</v>
+        <v>8973383</v>
       </c>
       <c r="G48" t="n">
-        <v>1257178000</v>
+        <v>24947403000</v>
       </c>
       <c r="H48" t="n">
-        <v>2504.338645418327</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I48" t="n">
-        <v>2.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100UIC4.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3765</v>
+        <v>6908</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4552900</v>
+        <v>502000</v>
       </c>
       <c r="G49" t="n">
-        <v>13383536000</v>
+        <v>1257178000</v>
       </c>
       <c r="H49" t="n">
-        <v>2939.562915943684</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I49" t="n">
-        <v>5.47</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UIC4.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5482</v>
+        <v>3765</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>433300</v>
+        <v>4552900</v>
       </c>
       <c r="G50" t="n">
-        <v>1367192000</v>
+        <v>13383536000</v>
       </c>
       <c r="H50" t="n">
-        <v>3155.301177013616</v>
+        <v>2939.562915943684</v>
       </c>
       <c r="I50" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2308,44 +2308,44 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8141</v>
+        <v>5482</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>433300</v>
       </c>
       <c r="G51" t="n">
-        <v>93000</v>
+        <v>1367192000</v>
       </c>
       <c r="H51" t="n">
-        <v>930</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4272</v>
+        <v>8141</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2353,90 +2353,90 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>26855100</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>29860350000</v>
+        <v>93000</v>
       </c>
       <c r="H52" t="n">
-        <v>1111.90611839092</v>
+        <v>930</v>
       </c>
       <c r="I52" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6145</v>
+        <v>4272</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G53" t="n">
-        <v>171000</v>
+        <v>29860350000</v>
       </c>
       <c r="H53" t="n">
-        <v>1710</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4205</v>
+        <v>6145</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>14426600</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>24829312000</v>
+        <v>171000</v>
       </c>
       <c r="H54" t="n">
-        <v>1721.078563209627</v>
+        <v>1710</v>
       </c>
       <c r="I54" t="n">
-        <v>6.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2479,160 +2479,160 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100U9FC.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6516</v>
+        <v>4205</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>679500</v>
+        <v>14426600</v>
       </c>
       <c r="G56" t="n">
-        <v>4792335000</v>
+        <v>24829312000</v>
       </c>
       <c r="H56" t="n">
-        <v>7052.737306843267</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I56" t="n">
-        <v>5.24</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100U9FC.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2327</v>
+        <v>6516</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>9154320</v>
+        <v>679500</v>
       </c>
       <c r="G57" t="n">
-        <v>23450671000</v>
+        <v>4792335000</v>
       </c>
       <c r="H57" t="n">
-        <v>2561.705402476645</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3989</v>
+        <v>2327</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1206000</v>
+        <v>9154320</v>
       </c>
       <c r="G58" t="n">
-        <v>787604000</v>
+        <v>23450671000</v>
       </c>
       <c r="H58" t="n">
-        <v>653.0713101160862</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I58" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6908</v>
+        <v>3989</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>1206000</v>
       </c>
       <c r="G59" t="n">
-        <v>288000</v>
+        <v>787604000</v>
       </c>
       <c r="H59" t="n">
-        <v>2880</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2641,72 +2641,72 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5988</v>
+        <v>6908</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>527300</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>1212090000</v>
+        <v>288000</v>
       </c>
       <c r="H60" t="n">
-        <v>2298.672482457804</v>
+        <v>2880</v>
       </c>
       <c r="I60" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3529</v>
+        <v>5988</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>998000</v>
+        <v>527300</v>
       </c>
       <c r="G61" t="n">
-        <v>667598000</v>
+        <v>1212090000</v>
       </c>
       <c r="H61" t="n">
-        <v>668.9358717434869</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I61" t="n">
-        <v>5.76</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2715,81 +2715,81 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>7305</v>
+        <v>3529</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>309800</v>
+        <v>998000</v>
       </c>
       <c r="G62" t="n">
-        <v>1321438000</v>
+        <v>667598000</v>
       </c>
       <c r="H62" t="n">
-        <v>4265.455132343447</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I62" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5541</v>
+        <v>7305</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>309800</v>
       </c>
       <c r="G63" t="n">
-        <v>127000</v>
+        <v>1321438000</v>
       </c>
       <c r="H63" t="n">
-        <v>1270</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2168</v>
+        <v>5541</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2797,73 +2797,73 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2094200</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>4445105000</v>
+        <v>127000</v>
       </c>
       <c r="H64" t="n">
-        <v>2122.579027791042</v>
+        <v>1270</v>
       </c>
       <c r="I64" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>8803</v>
+        <v>2168</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>2094200</v>
       </c>
       <c r="G65" t="n">
-        <v>361000</v>
+        <v>4445105000</v>
       </c>
       <c r="H65" t="n">
-        <v>3610</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4967</v>
+        <v>8803</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2871,27 +2871,27 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>8729143000</v>
+        <v>361000</v>
       </c>
       <c r="H66" t="n">
-        <v>2148.936934940886</v>
+        <v>3610</v>
       </c>
       <c r="I66" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2911,10 +2911,10 @@
         <v>4062075</v>
       </c>
       <c r="G67" t="n">
-        <v>20578848000</v>
+        <v>8729143000</v>
       </c>
       <c r="H67" t="n">
-        <v>5066.092575838703</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I67" t="n">
         <v>5.2</v>
@@ -2923,160 +2923,160 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100U325.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9882</v>
+        <v>4967</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2505000</v>
+        <v>4062075</v>
       </c>
       <c r="G68" t="n">
-        <v>5292086000</v>
+        <v>20578848000</v>
       </c>
       <c r="H68" t="n">
-        <v>2112.609181636727</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I68" t="n">
-        <v>5.02</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U325.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>8129</v>
+        <v>9882</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>7258230</v>
+        <v>2505000</v>
       </c>
       <c r="G69" t="n">
-        <v>24720910000</v>
+        <v>5292086000</v>
       </c>
       <c r="H69" t="n">
-        <v>3405.914389596362</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="I69" t="n">
-        <v>9.460000000000001</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100U2CM.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2206</v>
+        <v>8129</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3462600</v>
+        <v>7258230</v>
       </c>
       <c r="G70" t="n">
-        <v>14385811000</v>
+        <v>24720910000</v>
       </c>
       <c r="H70" t="n">
-        <v>4154.626869982095</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I70" t="n">
-        <v>5.06</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U2CM.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3666</v>
+        <v>2206</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1053200</v>
+        <v>3462600</v>
       </c>
       <c r="G71" t="n">
-        <v>663809000</v>
+        <v>14385811000</v>
       </c>
       <c r="H71" t="n">
-        <v>630.278199772123</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="I71" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3085,192 +3085,192 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4347</v>
+        <v>3666</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>614893</v>
+        <v>1053200</v>
       </c>
       <c r="G72" t="n">
-        <v>940560000</v>
+        <v>663809000</v>
       </c>
       <c r="H72" t="n">
-        <v>1529.631984751819</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I72" t="n">
-        <v>8.200000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>8129</v>
+        <v>4347</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3886330</v>
+        <v>614893</v>
       </c>
       <c r="G73" t="n">
-        <v>10549885000</v>
+        <v>940560000</v>
       </c>
       <c r="H73" t="n">
-        <v>2714.613787300615</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I73" t="n">
-        <v>5.06</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8929</v>
+        <v>8129</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1260812</v>
+        <v>3886330</v>
       </c>
       <c r="G74" t="n">
-        <v>1699255000</v>
+        <v>10549885000</v>
       </c>
       <c r="H74" t="n">
-        <v>1347.74653160027</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I74" t="n">
-        <v>5.140000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>7278</v>
+        <v>8929</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>115400</v>
+        <v>1260812</v>
       </c>
       <c r="G75" t="n">
-        <v>302115000</v>
+        <v>1699255000</v>
       </c>
       <c r="H75" t="n">
-        <v>2617.980935875217</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I75" t="n">
-        <v>0.24</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3591</v>
+        <v>7278</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2846091</v>
+        <v>115400</v>
       </c>
       <c r="G76" t="n">
-        <v>6888596000</v>
+        <v>302115000</v>
       </c>
       <c r="H76" t="n">
-        <v>2420.370957920882</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I76" t="n">
-        <v>5.13</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4042</v>
+        <v>3591</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3278,249 +3278,249 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>16459200</v>
+        <v>2846091</v>
       </c>
       <c r="G77" t="n">
-        <v>33451116000</v>
+        <v>6888596000</v>
       </c>
       <c r="H77" t="n">
-        <v>2032.365850102071</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I77" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4521</v>
+        <v>4042</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>16459200</v>
       </c>
       <c r="G78" t="n">
-        <v>353000</v>
+        <v>33451116000</v>
       </c>
       <c r="H78" t="n">
-        <v>3530</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100TJBE.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8923</v>
+        <v>4521</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2445600</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>3856031000</v>
+        <v>353000</v>
       </c>
       <c r="H79" t="n">
-        <v>1576.721867844292</v>
+        <v>3530</v>
       </c>
       <c r="I79" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TJBE.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4347</v>
+        <v>8923</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>400493</v>
+        <v>2445600</v>
       </c>
       <c r="G80" t="n">
-        <v>580713000</v>
+        <v>3856031000</v>
       </c>
       <c r="H80" t="n">
-        <v>1449.995380693296</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="I80" t="n">
-        <v>5.06</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>9024</v>
+        <v>4347</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>16207437</v>
+        <v>400493</v>
       </c>
       <c r="G81" t="n">
-        <v>27823532000</v>
+        <v>580713000</v>
       </c>
       <c r="H81" t="n">
-        <v>1716.713876475349</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I81" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1518</v>
+        <v>9024</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>16207437</v>
       </c>
       <c r="G82" t="n">
-        <v>292000</v>
+        <v>27823532000</v>
       </c>
       <c r="H82" t="n">
-        <v>2920</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>7731</v>
+        <v>1518</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>26675255000</v>
+        <v>292000</v>
       </c>
       <c r="H83" t="n">
-        <v>1512.21980974841</v>
+        <v>2920</v>
       </c>
       <c r="I83" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3529,21 +3529,21 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4536</v>
+        <v>7731</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>18290500</v>
+        <v>17639800</v>
       </c>
       <c r="G84" t="n">
-        <v>24591924000</v>
+        <v>26675255000</v>
       </c>
       <c r="H84" t="n">
-        <v>1344.518957928979</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I84" t="n">
         <v>5.02</v>
@@ -3552,197 +3552,197 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4185</v>
+        <v>4536</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>18290500</v>
       </c>
       <c r="G85" t="n">
-        <v>405000</v>
+        <v>24591924000</v>
       </c>
       <c r="H85" t="n">
-        <v>4050</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4549</v>
+        <v>4185</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2006900</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>3367745000</v>
+        <v>405000</v>
       </c>
       <c r="H86" t="n">
-        <v>1678.083113259255</v>
+        <v>4050</v>
       </c>
       <c r="I86" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S100SZYE.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>9627</v>
+        <v>4549</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3401100</v>
+        <v>2006900</v>
       </c>
       <c r="G87" t="n">
-        <v>9648726000</v>
+        <v>3367745000</v>
       </c>
       <c r="H87" t="n">
-        <v>2836.942753814942</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I87" t="n">
-        <v>9.6</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>8304</v>
+        <v>9627</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>100</v>
+        <v>3401100</v>
       </c>
       <c r="G88" t="n">
-        <v>219000</v>
+        <v>9648726000</v>
       </c>
       <c r="H88" t="n">
-        <v>2190</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3328</v>
+        <v>8304</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>845300</v>
+        <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>1219326000</v>
+        <v>219000</v>
       </c>
       <c r="H89" t="n">
-        <v>1442.477227019993</v>
+        <v>2190</v>
       </c>
       <c r="I89" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3755,142 +3755,142 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>675500</v>
+        <v>845300</v>
       </c>
       <c r="G90" t="n">
-        <v>976503000</v>
+        <v>1219326000</v>
       </c>
       <c r="H90" t="n">
-        <v>1445.60029607698</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I90" t="n">
-        <v>5.220000000000001</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S100ST3I.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8818</v>
+        <v>3328</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2505000</v>
+        <v>675500</v>
       </c>
       <c r="G91" t="n">
-        <v>3361654000</v>
+        <v>976503000</v>
       </c>
       <c r="H91" t="n">
-        <v>1341.977644710579</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I91" t="n">
-        <v>5.09</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100ST3I.zip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5541</v>
+        <v>8818</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>2505000</v>
       </c>
       <c r="G92" t="n">
-        <v>117000</v>
+        <v>3361654000</v>
       </c>
       <c r="H92" t="n">
-        <v>1170</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100SN7U.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>7315</v>
+        <v>5541</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>6994900</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>5874641000</v>
+        <v>117000</v>
       </c>
       <c r="H93" t="n">
-        <v>839.8463166020958</v>
+        <v>1170</v>
       </c>
       <c r="I93" t="n">
-        <v>14.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S100SLMH.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3899,35 +3899,35 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4837</v>
+        <v>7315</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5428600</v>
+        <v>6994900</v>
       </c>
       <c r="G94" t="n">
-        <v>4378021000</v>
+        <v>5874641000</v>
       </c>
       <c r="H94" t="n">
-        <v>806.4733080352208</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I94" t="n">
-        <v>9.74</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3936,30 +3936,30 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4293</v>
+        <v>4837</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20896886</v>
+        <v>5428600</v>
       </c>
       <c r="G95" t="n">
-        <v>9376038000</v>
+        <v>4378021000</v>
       </c>
       <c r="H95" t="n">
-        <v>448.6811097117532</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I95" t="n">
-        <v>9.9</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4631</v>
+        <v>4293</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3981,355 +3981,355 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6563759</v>
+        <v>20896886</v>
       </c>
       <c r="G96" t="n">
-        <v>16844475000</v>
+        <v>9376038000</v>
       </c>
       <c r="H96" t="n">
-        <v>2566.284807227078</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I96" t="n">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100SHYB.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5449</v>
+        <v>4631</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2114100</v>
+        <v>6563759</v>
       </c>
       <c r="G97" t="n">
-        <v>3695597000</v>
+        <v>16844475000</v>
       </c>
       <c r="H97" t="n">
-        <v>1748.071046781136</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S100SDCB.zip</t>
+          <t>S100SHYB.zip</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>6232</v>
+        <v>5449</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1499000</v>
+        <v>2114100</v>
       </c>
       <c r="G98" t="n">
-        <v>1369002000</v>
+        <v>3695597000</v>
       </c>
       <c r="H98" t="n">
-        <v>913.2768512341561</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="I98" t="n">
-        <v>10.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S100SB0S.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>6237</v>
+        <v>6232</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1129500</v>
+        <v>1499000</v>
       </c>
       <c r="G99" t="n">
-        <v>1537738000</v>
+        <v>1369002000</v>
       </c>
       <c r="H99" t="n">
-        <v>1361.432492253209</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I99" t="n">
-        <v>5.02</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SB0S.zip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4987</v>
+        <v>6237</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1543800</v>
+        <v>1129500</v>
       </c>
       <c r="G100" t="n">
-        <v>874286000</v>
+        <v>1537738000</v>
       </c>
       <c r="H100" t="n">
-        <v>566.3207669387226</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="I100" t="n">
-        <v>5.779999999999999</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S100S4PN.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4739</v>
+        <v>4987</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>15400600</v>
+        <v>1543800</v>
       </c>
       <c r="G101" t="n">
-        <v>66216726000</v>
+        <v>874286000</v>
       </c>
       <c r="H101" t="n">
-        <v>4299.619884939548</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I101" t="n">
-        <v>6.419999999999999</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2501</v>
+        <v>4739</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4010500</v>
+        <v>15400600</v>
       </c>
       <c r="G102" t="n">
-        <v>10817766000</v>
+        <v>66216726000</v>
       </c>
       <c r="H102" t="n">
-        <v>2697.360927565142</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I102" t="n">
-        <v>5.09</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4023</v>
+        <v>2501</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>100</v>
+        <v>4010500</v>
       </c>
       <c r="G103" t="n">
-        <v>796000</v>
+        <v>10817766000</v>
       </c>
       <c r="H103" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5844</v>
+        <v>4023</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>24949147000</v>
+        <v>796000</v>
       </c>
       <c r="H104" t="n">
-        <v>4991.027246539169</v>
+        <v>7960</v>
       </c>
       <c r="I104" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S100RY2V.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5186</v>
+        <v>5844</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1536900</v>
+        <v>4998800</v>
       </c>
       <c r="G105" t="n">
-        <v>4758738000</v>
+        <v>24949147000</v>
       </c>
       <c r="H105" t="n">
-        <v>3096.322467304314</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I105" t="n">
-        <v>5.08</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S100RYRP.zip</t>
+          <t>S100RY2V.zip</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5947</v>
+        <v>5186</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4351,467 +4351,467 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>7446200</v>
+        <v>1536900</v>
       </c>
       <c r="G106" t="n">
-        <v>21182239000</v>
+        <v>4758738000</v>
       </c>
       <c r="H106" t="n">
-        <v>2844.704547285864</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="I106" t="n">
-        <v>4.96</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RYRP.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>8303</v>
+        <v>5947</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>20000000</v>
+        <v>7446200</v>
       </c>
       <c r="G107" t="n">
-        <v>56014500000</v>
+        <v>21182239000</v>
       </c>
       <c r="H107" t="n">
-        <v>2800.725</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="I107" t="n">
-        <v>9.75</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2812</v>
+        <v>8303</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I108" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100RU33.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5451</v>
+        <v>2812</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1752800</v>
-      </c>
-      <c r="G109" t="n">
-        <v>5669831000</v>
-      </c>
-      <c r="H109" t="n">
-        <v>3234.727863989046</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>5.029999999999999</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RU33.zip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>9072</v>
+        <v>5451</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>8377400</v>
+        <v>1752800</v>
       </c>
       <c r="G110" t="n">
-        <v>13394541000</v>
+        <v>5669831000</v>
       </c>
       <c r="H110" t="n">
-        <v>1598.889989734285</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="I110" t="n">
-        <v>12.74</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S100RSA5.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5194</v>
+        <v>9072</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1068798</v>
+        <v>8377400</v>
       </c>
       <c r="G111" t="n">
-        <v>997342000</v>
+        <v>13394541000</v>
       </c>
       <c r="H111" t="n">
-        <v>933.1435874692879</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I111" t="n">
-        <v>9.77</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S100RIEU.zip</t>
+          <t>S100RSA5.zip</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>8871</v>
+        <v>5194</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1807700</v>
+        <v>1068798</v>
       </c>
       <c r="G112" t="n">
-        <v>3235548000</v>
+        <v>997342000</v>
       </c>
       <c r="H112" t="n">
-        <v>1789.870000553189</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="I112" t="n">
-        <v>5.050000000000001</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S100RGLG.zip</t>
+          <t>S100RIEU.zip</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5929</v>
+        <v>8871</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>11571500</v>
+        <v>1807700</v>
       </c>
       <c r="G113" t="n">
-        <v>15114770000</v>
+        <v>3235548000</v>
       </c>
       <c r="H113" t="n">
-        <v>1306.206628354146</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="I113" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RGLG.zip</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>8140</v>
+        <v>5929</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1322800</v>
+        <v>11571500</v>
       </c>
       <c r="G114" t="n">
-        <v>4536170000</v>
+        <v>15114770000</v>
       </c>
       <c r="H114" t="n">
-        <v>3429.218324765649</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="I114" t="n">
-        <v>5.29</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1878</v>
+        <v>8140</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3452100</v>
+        <v>1322800</v>
       </c>
       <c r="G115" t="n">
-        <v>44793976000</v>
+        <v>4536170000</v>
       </c>
       <c r="H115" t="n">
-        <v>12975.86280814577</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I115" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S100QVRX.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>533500</v>
+        <v>3452100</v>
       </c>
       <c r="G116" t="n">
-        <v>2009924000</v>
+        <v>44793976000</v>
       </c>
       <c r="H116" t="n">
-        <v>3767.430178069353</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="I116" t="n">
-        <v>5.11</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100QV9B.zip</t>
+          <t>S100QVRX.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3593</v>
+        <v>1882</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1637060</v>
+        <v>533500</v>
       </c>
       <c r="G117" t="n">
-        <v>5502657000</v>
+        <v>2009924000</v>
       </c>
       <c r="H117" t="n">
-        <v>3361.304411567078</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="I117" t="n">
-        <v>6.48</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QV9B.zip</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>7157</v>
+        <v>3593</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4536300</v>
+        <v>1637060</v>
       </c>
       <c r="G118" t="n">
-        <v>4025006000</v>
+        <v>5502657000</v>
       </c>
       <c r="H118" t="n">
-        <v>887.288318673809</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="I118" t="n">
-        <v>6.5</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1861</v>
+        <v>7157</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4828,97 +4828,97 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3102784</v>
+        <v>4536300</v>
       </c>
       <c r="G119" t="n">
-        <v>8614573000</v>
+        <v>4025006000</v>
       </c>
       <c r="H119" t="n">
-        <v>2776.401128792723</v>
+        <v>887.288318673809</v>
       </c>
       <c r="I119" t="n">
-        <v>7.07</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>7350</v>
+        <v>1861</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
+        <v>3102784</v>
+      </c>
+      <c r="G120" t="n">
+        <v>8614573000</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2776.401128792723</v>
+      </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S100QRVC.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3549</v>
+        <v>7350</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1735200</v>
-      </c>
-      <c r="G121" t="n">
-        <v>11532479000</v>
-      </c>
-      <c r="H121" t="n">
-        <v>6646.195827570309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100QRVC.zip</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4927,24 +4927,24 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3391</v>
+        <v>3549</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>6354522</v>
+        <v>1735200</v>
       </c>
       <c r="G122" t="n">
-        <v>28876223000</v>
+        <v>11532479000</v>
       </c>
       <c r="H122" t="n">
-        <v>4544.200649553184</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="I122" t="n">
-        <v>12.84</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="123">
@@ -4987,86 +4987,86 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QRUW.zip</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1951</v>
+        <v>3391</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>5561200</v>
+        <v>6354522</v>
       </c>
       <c r="G124" t="n">
-        <v>12623472000</v>
+        <v>28876223000</v>
       </c>
       <c r="H124" t="n">
-        <v>2269.918722577861</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="I124" t="n">
-        <v>5.06</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3085</v>
+        <v>1951</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1756300</v>
+        <v>5561200</v>
       </c>
       <c r="G125" t="n">
-        <v>4694343000</v>
+        <v>12623472000</v>
       </c>
       <c r="H125" t="n">
-        <v>2672.859420372374</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I125" t="n">
-        <v>5.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5075,131 +5075,135 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>9842</v>
+        <v>3085</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2082200</v>
+        <v>1756300</v>
       </c>
       <c r="G126" t="n">
-        <v>3059101000</v>
+        <v>4694343000</v>
       </c>
       <c r="H126" t="n">
-        <v>1469.167707232735</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I126" t="n">
-        <v>5.029999999999999</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S100QI52.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>9672</v>
+        <v>9842</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2410900</v>
+        <v>2082200</v>
       </c>
       <c r="G127" t="n">
-        <v>9382590000</v>
+        <v>3059101000</v>
       </c>
       <c r="H127" t="n">
-        <v>3891.73752540545</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="I127" t="n">
-        <v>8.380000000000001</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QI52.zip</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3558</v>
+        <v>9672</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1214200</v>
+        <v>2410900</v>
       </c>
       <c r="G128" t="n">
-        <v>1538785000</v>
+        <v>9382590000</v>
       </c>
       <c r="H128" t="n">
-        <v>1267.324164058639</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="I128" t="n">
-        <v>10.57</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2329</v>
+        <v>3558</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
+        <v>1214200</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1267.324164058639</v>
+      </c>
       <c r="I129" t="n">
-        <v>9.550000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="130">
@@ -5238,303 +5242,299 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4324</v>
+        <v>2329</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G131" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H131" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>5.050000000000001</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3608</v>
+        <v>4324</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4569000</v>
+        <v>13655200</v>
       </c>
       <c r="G132" t="n">
-        <v>2005111000</v>
+        <v>56753467000</v>
       </c>
       <c r="H132" t="n">
-        <v>438.851170934559</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I132" t="n">
-        <v>5.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6804</v>
+        <v>3608</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>3315900</v>
+        <v>4569000</v>
       </c>
       <c r="G133" t="n">
-        <v>4322098000</v>
+        <v>2005111000</v>
       </c>
       <c r="H133" t="n">
-        <v>1303.446424801713</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I133" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>6236</v>
+        <v>6804</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>911500</v>
+        <v>3315900</v>
       </c>
       <c r="G134" t="n">
-        <v>1306557000</v>
+        <v>4322098000</v>
       </c>
       <c r="H134" t="n">
-        <v>1433.414152495886</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I134" t="n">
-        <v>19.45</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>6770</v>
+        <v>6236</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2344200</v>
+        <v>911500</v>
       </c>
       <c r="G135" t="n">
-        <v>2853488000</v>
+        <v>1306557000</v>
       </c>
       <c r="H135" t="n">
-        <v>1217.254500469243</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I135" t="n">
-        <v>1.07</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>7272</v>
+        <v>6770</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>17688500</v>
+        <v>2344200</v>
       </c>
       <c r="G136" t="n">
-        <v>52513090000</v>
+        <v>2853488000</v>
       </c>
       <c r="H136" t="n">
-        <v>2968.770104870396</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I136" t="n">
-        <v>5.050000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>4956</v>
+        <v>7272</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2039200</v>
+        <v>17688500</v>
       </c>
       <c r="G137" t="n">
-        <v>3273303000</v>
+        <v>52513090000</v>
       </c>
       <c r="H137" t="n">
-        <v>1605.189780306002</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I137" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100PYKO.zip</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>8057</v>
+        <v>4956</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>787800</v>
+        <v>2039200</v>
       </c>
       <c r="G138" t="n">
-        <v>2754799000</v>
+        <v>3273303000</v>
       </c>
       <c r="H138" t="n">
-        <v>3496.825336379792</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="I138" t="n">
-        <v>7.56</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PVDC.zip</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5548,7 +5548,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3391</v>
+        <v>8057</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5556,126 +5556,163 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2617759</v>
+        <v>787800</v>
       </c>
       <c r="G139" t="n">
-        <v>21628867000</v>
+        <v>2754799000</v>
       </c>
       <c r="H139" t="n">
-        <v>8262.359904024779</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="I139" t="n">
-        <v>5.29</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>S100PV61.zip</t>
+          <t>S100PV98.zip</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3132</v>
+        <v>3391</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4697500</v>
+        <v>2617759</v>
       </c>
       <c r="G140" t="n">
-        <v>8653324000</v>
+        <v>21628867000</v>
       </c>
       <c r="H140" t="n">
-        <v>1842.11261309207</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="I140" t="n">
-        <v>7.539999999999999</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>S100PNUO.zip</t>
+          <t>S100PV61.zip</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3205</v>
+        <v>3132</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2552200</v>
+        <v>4697500</v>
       </c>
       <c r="G141" t="n">
-        <v>492702000</v>
+        <v>8653324000</v>
       </c>
       <c r="H141" t="n">
-        <v>193.0499177180472</v>
+        <v>1842.11261309207</v>
       </c>
       <c r="I141" t="n">
-        <v>6.77</v>
+        <v>7.539999999999999</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>S100PNUO.zip</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>株式会社ストラテジックキャピタル</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>3205</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2022-11-17</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>2552200</v>
+      </c>
+      <c r="G142" t="n">
+        <v>492702000</v>
+      </c>
+      <c r="H142" t="n">
+        <v>193.0499177180472</v>
+      </c>
+      <c r="I142" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>S100PH6I.zip</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D143" t="n">
         <v>6707</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="F142" t="n">
+      <c r="F143" t="n">
         <v>1699900</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G143" t="n">
         <v>9313663000</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H143" t="n">
         <v>5478.947585152067</v>
       </c>
-      <c r="I142" t="n">
+      <c r="I143" t="n">
         <v>6.77</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,21 +1221,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3106</v>
+        <v>9302</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1243,36 +1243,36 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>900156</v>
+        <v>3799000</v>
       </c>
       <c r="G22" t="n">
-        <v>4095263000</v>
+        <v>5671170000</v>
       </c>
       <c r="H22" t="n">
-        <v>4549.503641591014</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9302</v>
+        <v>3106</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3799000</v>
+        <v>900156</v>
       </c>
       <c r="G23" t="n">
-        <v>5671170000</v>
+        <v>4095263000</v>
       </c>
       <c r="H23" t="n">
-        <v>1492.806001579363</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I23" t="n">
-        <v>5.07</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1406,21 +1406,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6927</v>
+        <v>4849</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1428,36 +1428,36 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1142700</v>
+        <v>2946942</v>
       </c>
       <c r="G27" t="n">
-        <v>1023871000</v>
+        <v>5148132000</v>
       </c>
       <c r="H27" t="n">
-        <v>896.0103264198827</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I27" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4849</v>
+        <v>6927</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1465,16 +1465,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2946942</v>
+        <v>1142700</v>
       </c>
       <c r="G28" t="n">
-        <v>5148132000</v>
+        <v>1023871000</v>
       </c>
       <c r="H28" t="n">
-        <v>1746.940387696806</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I28" t="n">
-        <v>5.93</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="29">
@@ -1776,21 +1776,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100V7YO.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4626</v>
+        <v>9987</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1798,36 +1798,36 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4670190</v>
+        <v>3888200</v>
       </c>
       <c r="G37" t="n">
-        <v>16652257000</v>
+        <v>16086019000</v>
       </c>
       <c r="H37" t="n">
-        <v>3565.648720929983</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100V7YO.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9987</v>
+        <v>4626</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3888200</v>
+        <v>4670190</v>
       </c>
       <c r="G38" t="n">
-        <v>16086019000</v>
+        <v>16652257000</v>
       </c>
       <c r="H38" t="n">
-        <v>4137.137750115735</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2775,21 +2775,21 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5541</v>
+        <v>2168</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2797,36 +2797,36 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>2094200</v>
       </c>
       <c r="G64" t="n">
-        <v>127000</v>
+        <v>4445105000</v>
       </c>
       <c r="H64" t="n">
-        <v>1270</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2168</v>
+        <v>5541</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2094200</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>4445105000</v>
+        <v>127000</v>
       </c>
       <c r="H65" t="n">
-        <v>2122.579027791042</v>
+        <v>1270</v>
       </c>
       <c r="I65" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2886,12 +2886,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2911,10 +2911,10 @@
         <v>4062075</v>
       </c>
       <c r="G67" t="n">
-        <v>8729143000</v>
+        <v>20578848000</v>
       </c>
       <c r="H67" t="n">
-        <v>2148.936934940886</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I67" t="n">
         <v>5.2</v>
@@ -2923,12 +2923,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2948,10 +2948,10 @@
         <v>4062075</v>
       </c>
       <c r="G68" t="n">
-        <v>20578848000</v>
+        <v>8729143000</v>
       </c>
       <c r="H68" t="n">
-        <v>5066.092575838703</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I68" t="n">
         <v>5.2</v>
@@ -3256,21 +3256,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3591</v>
+        <v>4042</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3278,36 +3278,36 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2846091</v>
+        <v>16459200</v>
       </c>
       <c r="G77" t="n">
-        <v>6888596000</v>
+        <v>33451116000</v>
       </c>
       <c r="H77" t="n">
-        <v>2420.370957920882</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I77" t="n">
-        <v>5.13</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4042</v>
+        <v>3591</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3315,16 +3315,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>16459200</v>
+        <v>2846091</v>
       </c>
       <c r="G78" t="n">
-        <v>33451116000</v>
+        <v>6888596000</v>
       </c>
       <c r="H78" t="n">
-        <v>2032.365850102071</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I78" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="79">
@@ -3959,7 +3959,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4293</v>
+        <v>4631</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>20896886</v>
+        <v>6563759</v>
       </c>
       <c r="G96" t="n">
-        <v>9376038000</v>
+        <v>16844475000</v>
       </c>
       <c r="H96" t="n">
-        <v>448.6811097117532</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I96" t="n">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4631</v>
+        <v>4293</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4018,16 +4018,16 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>6563759</v>
+        <v>20896886</v>
       </c>
       <c r="G97" t="n">
-        <v>16844475000</v>
+        <v>9376038000</v>
       </c>
       <c r="H97" t="n">
-        <v>2566.284807227078</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I97" t="n">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="98">
@@ -5679,43 +5679,6 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>S100PH6I.zip</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-11-02_01_2022-11-10.csv</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>6707</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2022-11-02</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>1699900</v>
-      </c>
-      <c r="G143" t="n">
-        <v>9313663000</v>
-      </c>
-      <c r="H143" t="n">
-        <v>5478.947585152067</v>
-      </c>
-      <c r="I143" t="n">
-        <v>6.77</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100WWWV.zip</t>
+          <t>S100X1A3.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-11-05_01_2025-11-12.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,21 +497,21 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6890</v>
+        <v>7940</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>203000</v>
+        <v>101000</v>
       </c>
       <c r="H2" t="n">
-        <v>2030</v>
+        <v>1010</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -520,12 +520,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100WWOW.zip</t>
+          <t>S100WWWV.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,21 +534,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2432</v>
+        <v>6890</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>226000</v>
+        <v>203000</v>
       </c>
       <c r="H3" t="n">
-        <v>2260</v>
+        <v>2030</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -557,12 +557,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100WSIC.zip</t>
+          <t>S100WWOW.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,21 +571,21 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6875</v>
+        <v>2432</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>487000</v>
+        <v>226000</v>
       </c>
       <c r="H4" t="n">
-        <v>4870</v>
+        <v>2260</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -594,12 +594,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100WQFH.zip</t>
+          <t>S100WSIC.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,21 +608,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4917</v>
+        <v>6875</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>204000</v>
+        <v>487000</v>
       </c>
       <c r="H5" t="n">
-        <v>2040</v>
+        <v>4870</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -631,12 +631,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WQ4O.zip</t>
+          <t>S100WQFH.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,109 +645,109 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8233</v>
+        <v>4917</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>261400</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>287906000</v>
+        <v>204000</v>
       </c>
       <c r="H6" t="n">
-        <v>1101.400153022188</v>
+        <v>2040</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WO9C.zip</t>
+          <t>S100WQ4O.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2229</v>
+        <v>8233</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8012900</v>
+        <v>261400</v>
       </c>
       <c r="G7" t="n">
-        <v>23390757000</v>
+        <v>287906000</v>
       </c>
       <c r="H7" t="n">
-        <v>2919.137515755844</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="I7" t="n">
-        <v>5.98</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5983</v>
+        <v>2229</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>44800</v>
+        <v>8012900</v>
       </c>
       <c r="G8" t="n">
-        <v>315399000</v>
+        <v>23390757000</v>
       </c>
       <c r="H8" t="n">
-        <v>7040.15625</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I8" t="n">
-        <v>4.07</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,308 +779,308 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100WKF3.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6104</v>
+        <v>5983</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1297500</v>
+        <v>44800</v>
       </c>
       <c r="G10" t="n">
-        <v>4476090000</v>
+        <v>315399000</v>
       </c>
       <c r="H10" t="n">
-        <v>3449.780346820809</v>
+        <v>7040.15625</v>
       </c>
       <c r="I10" t="n">
-        <v>5.23</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100WCIP.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5331</v>
+        <v>6104</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1481600</v>
+        <v>1297500</v>
       </c>
       <c r="G11" t="n">
-        <v>5294365000</v>
+        <v>4476090000</v>
       </c>
       <c r="H11" t="n">
-        <v>3573.410502159827</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WCIP.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6952</v>
+        <v>5331</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12332900</v>
+        <v>1481600</v>
       </c>
       <c r="G12" t="n">
-        <v>14653495000</v>
+        <v>5294365000</v>
       </c>
       <c r="H12" t="n">
-        <v>1188.162962482466</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="I12" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6145</v>
+        <v>6952</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>12332900</v>
       </c>
       <c r="G13" t="n">
-        <v>171000</v>
+        <v>14653495000</v>
       </c>
       <c r="H13" t="n">
-        <v>1710</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100WACZ.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8715</v>
+        <v>6145</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3810400</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>2500615000</v>
+        <v>171000</v>
       </c>
       <c r="H14" t="n">
-        <v>656.2604975855553</v>
+        <v>1710</v>
       </c>
       <c r="I14" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100W5LT.zip</t>
+          <t>S100WACZ.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8585</v>
+        <v>8715</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8986800</v>
+        <v>3810400</v>
       </c>
       <c r="G15" t="n">
-        <v>7174886000</v>
+        <v>2500615000</v>
       </c>
       <c r="H15" t="n">
-        <v>798.3805136422309</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="I15" t="n">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100W5LT.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6908</v>
+        <v>8585</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>400</v>
+        <v>8986800</v>
       </c>
       <c r="G16" t="n">
-        <v>992000</v>
+        <v>7174886000</v>
       </c>
       <c r="H16" t="n">
-        <v>2480</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100VV1I.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8923</v>
+        <v>6908</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2434800</v>
+        <v>400</v>
       </c>
       <c r="G17" t="n">
-        <v>4266809000</v>
+        <v>992000</v>
       </c>
       <c r="H17" t="n">
-        <v>1752.426893379333</v>
+        <v>2480</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100VUUK.zip</t>
+          <t>S100VV1I.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1089,190 +1089,190 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9069</v>
+        <v>8923</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8793900</v>
+        <v>2434800</v>
       </c>
       <c r="G18" t="n">
-        <v>13684104000</v>
+        <v>4266809000</v>
       </c>
       <c r="H18" t="n">
-        <v>1556.090471804319</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="I18" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100VUUK.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1878</v>
+        <v>9069</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3475000</v>
+        <v>8793900</v>
       </c>
       <c r="G19" t="n">
-        <v>47745269000</v>
+        <v>13684104000</v>
       </c>
       <c r="H19" t="n">
-        <v>13739.64575539568</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="I19" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100VQJZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3076</v>
+        <v>3328</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2841700</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>5705436000</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2007.754513143541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VQJZ.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9302</v>
+        <v>3076</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3799000</v>
+        <v>2841700</v>
       </c>
       <c r="G22" t="n">
-        <v>5671170000</v>
+        <v>5705436000</v>
       </c>
       <c r="H22" t="n">
-        <v>1492.806001579363</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="I22" t="n">
-        <v>5.07</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3106</v>
+        <v>9302</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1280,101 +1280,101 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>900156</v>
+        <v>3799000</v>
       </c>
       <c r="G23" t="n">
-        <v>4095263000</v>
+        <v>5671170000</v>
       </c>
       <c r="H23" t="n">
-        <v>4549.503641591014</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9684</v>
+        <v>3106</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6704059</v>
+        <v>900156</v>
       </c>
       <c r="G24" t="n">
-        <v>42054369000</v>
+        <v>4095263000</v>
       </c>
       <c r="H24" t="n">
-        <v>6272.971195510064</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I24" t="n">
-        <v>5.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G25" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H25" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1383,21 +1383,21 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H26" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1406,58 +1406,58 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4849</v>
+        <v>6332</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2946942</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>5148132000</v>
+        <v>141000</v>
       </c>
       <c r="H27" t="n">
-        <v>1746.940387696806</v>
+        <v>1410</v>
       </c>
       <c r="I27" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6927</v>
+        <v>4849</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1465,175 +1465,175 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1142700</v>
+        <v>2946942</v>
       </c>
       <c r="G28" t="n">
-        <v>1023871000</v>
+        <v>5148132000</v>
       </c>
       <c r="H28" t="n">
-        <v>896.0103264198827</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I28" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4676</v>
+        <v>6927</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G29" t="n">
-        <v>242000</v>
+        <v>1023871000</v>
       </c>
       <c r="H29" t="n">
-        <v>2420</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H30" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I30" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G31" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H31" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I31" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G32" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H32" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1642,192 +1642,192 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H33" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100VCMT.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3132</v>
+        <v>6890</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8970900</v>
+        <v>30000</v>
       </c>
       <c r="G34" t="n">
-        <v>10240398000</v>
+        <v>71610000</v>
       </c>
       <c r="H34" t="n">
-        <v>1141.512891683109</v>
+        <v>2387</v>
       </c>
       <c r="I34" t="n">
-        <v>5.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VCMT.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4512</v>
+        <v>3132</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2137400</v>
+        <v>8970900</v>
       </c>
       <c r="G35" t="n">
-        <v>620573000</v>
+        <v>10240398000</v>
       </c>
       <c r="H35" t="n">
-        <v>290.3401328717133</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="I35" t="n">
-        <v>6.140000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G36" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H36" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9987</v>
+        <v>9006</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3888200</v>
+        <v>30000</v>
       </c>
       <c r="G37" t="n">
-        <v>16086019000</v>
+        <v>34824000</v>
       </c>
       <c r="H37" t="n">
-        <v>4137.137750115735</v>
+        <v>1160.8</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100V7YO.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4626</v>
+        <v>9987</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1835,27 +1835,27 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4670190</v>
+        <v>3888200</v>
       </c>
       <c r="G38" t="n">
-        <v>16652257000</v>
+        <v>16086019000</v>
       </c>
       <c r="H38" t="n">
-        <v>3565.648720929983</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100V7YO.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1864,72 +1864,72 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7732</v>
+        <v>4626</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7995900</v>
+        <v>4670190</v>
       </c>
       <c r="G39" t="n">
-        <v>16678425000</v>
+        <v>16652257000</v>
       </c>
       <c r="H39" t="n">
-        <v>2085.872134468915</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="I39" t="n">
-        <v>7.380000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3861</v>
+        <v>7732</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>7995900</v>
       </c>
       <c r="G40" t="n">
-        <v>59000</v>
+        <v>16678425000</v>
       </c>
       <c r="H40" t="n">
-        <v>590</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1938,21 +1938,21 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5715</v>
+        <v>3861</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>160000</v>
+        <v>59000</v>
       </c>
       <c r="H41" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1961,49 +1961,49 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100UYE4.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3978</v>
+        <v>5715</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2891700</v>
+        <v>100</v>
       </c>
       <c r="G42" t="n">
-        <v>3425686000</v>
+        <v>160000</v>
       </c>
       <c r="H42" t="n">
-        <v>1184.661617733513</v>
+        <v>1600</v>
       </c>
       <c r="I42" t="n">
-        <v>7.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100UWW1.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2012,146 +2012,146 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4452</v>
+        <v>3978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>24347342</v>
+        <v>2891700</v>
       </c>
       <c r="G43" t="n">
-        <v>148917027000</v>
+        <v>3425686000</v>
       </c>
       <c r="H43" t="n">
-        <v>6116.356643776557</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I43" t="n">
-        <v>5.23</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9257</v>
+        <v>4452</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>24347342</v>
       </c>
       <c r="G44" t="n">
-        <v>57000</v>
+        <v>148917027000</v>
       </c>
       <c r="H44" t="n">
-        <v>570</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100UMDQ.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9531</v>
+        <v>9257</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>19554300</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>64960321000</v>
+        <v>57000</v>
       </c>
       <c r="H45" t="n">
-        <v>3322.047887165483</v>
+        <v>570</v>
       </c>
       <c r="I45" t="n">
-        <v>5.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100UORL.zip</t>
+          <t>S100UMDQ.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4385</v>
+        <v>9531</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>8815360</v>
+        <v>19554300</v>
       </c>
       <c r="G46" t="n">
-        <v>17684138000</v>
+        <v>64960321000</v>
       </c>
       <c r="H46" t="n">
-        <v>2006.059650428343</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="I46" t="n">
-        <v>5.37</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100UMI2.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2160,35 +2160,35 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7984</v>
+        <v>4385</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6096500</v>
+        <v>8815360</v>
       </c>
       <c r="G47" t="n">
-        <v>13153972000</v>
+        <v>17684138000</v>
       </c>
       <c r="H47" t="n">
-        <v>2157.626835069302</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I47" t="n">
-        <v>5.02</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100UMJC.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2197,146 +2197,146 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1973</v>
+        <v>7984</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>8973383</v>
+        <v>6096500</v>
       </c>
       <c r="G48" t="n">
-        <v>24947403000</v>
+        <v>13153972000</v>
       </c>
       <c r="H48" t="n">
-        <v>2780.155823060266</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I48" t="n">
-        <v>6.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6908</v>
+        <v>1973</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>502000</v>
+        <v>8973383</v>
       </c>
       <c r="G49" t="n">
-        <v>1257178000</v>
+        <v>24947403000</v>
       </c>
       <c r="H49" t="n">
-        <v>2504.338645418327</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I49" t="n">
-        <v>2.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100UIC4.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3765</v>
+        <v>6908</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4552900</v>
+        <v>502000</v>
       </c>
       <c r="G50" t="n">
-        <v>13383536000</v>
+        <v>1257178000</v>
       </c>
       <c r="H50" t="n">
-        <v>2939.562915943684</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I50" t="n">
-        <v>5.47</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UIC4.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5482</v>
+        <v>3765</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>433300</v>
+        <v>4552900</v>
       </c>
       <c r="G51" t="n">
-        <v>1367192000</v>
+        <v>13383536000</v>
       </c>
       <c r="H51" t="n">
-        <v>3155.301177013616</v>
+        <v>2939.562915943684</v>
       </c>
       <c r="I51" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2345,44 +2345,44 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8141</v>
+        <v>5482</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>433300</v>
       </c>
       <c r="G52" t="n">
-        <v>93000</v>
+        <v>1367192000</v>
       </c>
       <c r="H52" t="n">
-        <v>930</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4272</v>
+        <v>8141</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2390,96 +2390,96 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>26855100</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>29860350000</v>
+        <v>93000</v>
       </c>
       <c r="H53" t="n">
-        <v>1111.90611839092</v>
+        <v>930</v>
       </c>
       <c r="I53" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6145</v>
+        <v>4272</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G54" t="n">
-        <v>171000</v>
+        <v>29860350000</v>
       </c>
       <c r="H54" t="n">
-        <v>1710</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100UBH9.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3569</v>
+        <v>6145</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4271704</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>5808044000</v>
+        <v>171000</v>
       </c>
       <c r="H55" t="n">
-        <v>1359.655069733296</v>
+        <v>1710</v>
       </c>
       <c r="I55" t="n">
-        <v>6.279999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UBH9.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4205</v>
+        <v>3569</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2501,175 +2501,175 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>14426600</v>
+        <v>4271704</v>
       </c>
       <c r="G56" t="n">
-        <v>24829312000</v>
+        <v>5808044000</v>
       </c>
       <c r="H56" t="n">
-        <v>1721.078563209627</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="I56" t="n">
-        <v>6.29</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100U9FC.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6516</v>
+        <v>4205</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>679500</v>
+        <v>14426600</v>
       </c>
       <c r="G57" t="n">
-        <v>4792335000</v>
+        <v>24829312000</v>
       </c>
       <c r="H57" t="n">
-        <v>7052.737306843267</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I57" t="n">
-        <v>5.24</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100U9FC.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2327</v>
+        <v>6516</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>9154320</v>
+        <v>679500</v>
       </c>
       <c r="G58" t="n">
-        <v>23450671000</v>
+        <v>4792335000</v>
       </c>
       <c r="H58" t="n">
-        <v>2561.705402476645</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3989</v>
+        <v>2327</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1206000</v>
+        <v>9154320</v>
       </c>
       <c r="G59" t="n">
-        <v>787604000</v>
+        <v>23450671000</v>
       </c>
       <c r="H59" t="n">
-        <v>653.0713101160862</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I59" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6908</v>
+        <v>3989</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>1206000</v>
       </c>
       <c r="G60" t="n">
-        <v>288000</v>
+        <v>787604000</v>
       </c>
       <c r="H60" t="n">
-        <v>2880</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2678,72 +2678,72 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5988</v>
+        <v>6908</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>527300</v>
+        <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>1212090000</v>
+        <v>288000</v>
       </c>
       <c r="H61" t="n">
-        <v>2298.672482457804</v>
+        <v>2880</v>
       </c>
       <c r="I61" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3529</v>
+        <v>5988</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>998000</v>
+        <v>527300</v>
       </c>
       <c r="G62" t="n">
-        <v>667598000</v>
+        <v>1212090000</v>
       </c>
       <c r="H62" t="n">
-        <v>668.9358717434869</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I62" t="n">
-        <v>5.76</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2752,81 +2752,81 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7305</v>
+        <v>3529</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>309800</v>
+        <v>998000</v>
       </c>
       <c r="G63" t="n">
-        <v>1321438000</v>
+        <v>667598000</v>
       </c>
       <c r="H63" t="n">
-        <v>4265.455132343447</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I63" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2168</v>
+        <v>7305</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2094200</v>
+        <v>309800</v>
       </c>
       <c r="G64" t="n">
-        <v>4445105000</v>
+        <v>1321438000</v>
       </c>
       <c r="H64" t="n">
-        <v>2122.579027791042</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I64" t="n">
-        <v>5.02</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5541</v>
+        <v>2168</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2834,27 +2834,27 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>2094200</v>
       </c>
       <c r="G65" t="n">
-        <v>127000</v>
+        <v>4445105000</v>
       </c>
       <c r="H65" t="n">
-        <v>1270</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2863,21 +2863,21 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8803</v>
+        <v>5541</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F66" t="n">
         <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>361000</v>
+        <v>127000</v>
       </c>
       <c r="H66" t="n">
-        <v>3610</v>
+        <v>1270</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2886,21 +2886,21 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4967</v>
+        <v>8803</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2908,27 +2908,27 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>20578848000</v>
+        <v>361000</v>
       </c>
       <c r="H67" t="n">
-        <v>5066.092575838703</v>
+        <v>3610</v>
       </c>
       <c r="I67" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2948,10 +2948,10 @@
         <v>4062075</v>
       </c>
       <c r="G68" t="n">
-        <v>8729143000</v>
+        <v>20578848000</v>
       </c>
       <c r="H68" t="n">
-        <v>2148.936934940886</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I68" t="n">
         <v>5.2</v>
@@ -2960,160 +2960,160 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100U325.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>9882</v>
+        <v>4967</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2505000</v>
+        <v>4062075</v>
       </c>
       <c r="G69" t="n">
-        <v>5292086000</v>
+        <v>8729143000</v>
       </c>
       <c r="H69" t="n">
-        <v>2112.609181636727</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I69" t="n">
-        <v>5.02</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U325.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8129</v>
+        <v>9882</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>7258230</v>
+        <v>2505000</v>
       </c>
       <c r="G70" t="n">
-        <v>24720910000</v>
+        <v>5292086000</v>
       </c>
       <c r="H70" t="n">
-        <v>3405.914389596362</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="I70" t="n">
-        <v>9.460000000000001</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100U2CM.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2206</v>
+        <v>8129</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3462600</v>
+        <v>7258230</v>
       </c>
       <c r="G71" t="n">
-        <v>14385811000</v>
+        <v>24720910000</v>
       </c>
       <c r="H71" t="n">
-        <v>4154.626869982095</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I71" t="n">
-        <v>5.06</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U2CM.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3666</v>
+        <v>2206</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1053200</v>
+        <v>3462600</v>
       </c>
       <c r="G72" t="n">
-        <v>663809000</v>
+        <v>14385811000</v>
       </c>
       <c r="H72" t="n">
-        <v>630.278199772123</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="I72" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3122,192 +3122,192 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4347</v>
+        <v>3666</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>614893</v>
+        <v>1053200</v>
       </c>
       <c r="G73" t="n">
-        <v>940560000</v>
+        <v>663809000</v>
       </c>
       <c r="H73" t="n">
-        <v>1529.631984751819</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I73" t="n">
-        <v>8.200000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8129</v>
+        <v>4347</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3886330</v>
+        <v>614893</v>
       </c>
       <c r="G74" t="n">
-        <v>10549885000</v>
+        <v>940560000</v>
       </c>
       <c r="H74" t="n">
-        <v>2714.613787300615</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I74" t="n">
-        <v>5.06</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8929</v>
+        <v>8129</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1260812</v>
+        <v>3886330</v>
       </c>
       <c r="G75" t="n">
-        <v>1699255000</v>
+        <v>10549885000</v>
       </c>
       <c r="H75" t="n">
-        <v>1347.74653160027</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I75" t="n">
-        <v>5.140000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7278</v>
+        <v>8929</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>115400</v>
+        <v>1260812</v>
       </c>
       <c r="G76" t="n">
-        <v>302115000</v>
+        <v>1699255000</v>
       </c>
       <c r="H76" t="n">
-        <v>2617.980935875217</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I76" t="n">
-        <v>0.24</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4042</v>
+        <v>7278</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>16459200</v>
+        <v>115400</v>
       </c>
       <c r="G77" t="n">
-        <v>33451116000</v>
+        <v>302115000</v>
       </c>
       <c r="H77" t="n">
-        <v>2032.365850102071</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I77" t="n">
-        <v>5.06</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3591</v>
+        <v>4042</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3315,249 +3315,249 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2846091</v>
+        <v>16459200</v>
       </c>
       <c r="G78" t="n">
-        <v>6888596000</v>
+        <v>33451116000</v>
       </c>
       <c r="H78" t="n">
-        <v>2420.370957920882</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I78" t="n">
-        <v>5.13</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4521</v>
+        <v>3591</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>2846091</v>
       </c>
       <c r="G79" t="n">
-        <v>353000</v>
+        <v>6888596000</v>
       </c>
       <c r="H79" t="n">
-        <v>3530</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100TJBE.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>8923</v>
+        <v>4521</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2445600</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>3856031000</v>
+        <v>353000</v>
       </c>
       <c r="H80" t="n">
-        <v>1576.721867844292</v>
+        <v>3530</v>
       </c>
       <c r="I80" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TJBE.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4347</v>
+        <v>8923</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>400493</v>
+        <v>2445600</v>
       </c>
       <c r="G81" t="n">
-        <v>580713000</v>
+        <v>3856031000</v>
       </c>
       <c r="H81" t="n">
-        <v>1449.995380693296</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="I81" t="n">
-        <v>5.06</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>9024</v>
+        <v>4347</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>16207437</v>
+        <v>400493</v>
       </c>
       <c r="G82" t="n">
-        <v>27823532000</v>
+        <v>580713000</v>
       </c>
       <c r="H82" t="n">
-        <v>1716.713876475349</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I82" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1518</v>
+        <v>9024</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>16207437</v>
       </c>
       <c r="G83" t="n">
-        <v>292000</v>
+        <v>27823532000</v>
       </c>
       <c r="H83" t="n">
-        <v>2920</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>7731</v>
+        <v>1518</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>26675255000</v>
+        <v>292000</v>
       </c>
       <c r="H84" t="n">
-        <v>1512.21980974841</v>
+        <v>2920</v>
       </c>
       <c r="I84" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3566,21 +3566,21 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4536</v>
+        <v>7731</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>18290500</v>
+        <v>17639800</v>
       </c>
       <c r="G85" t="n">
-        <v>24591924000</v>
+        <v>26675255000</v>
       </c>
       <c r="H85" t="n">
-        <v>1344.518957928979</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I85" t="n">
         <v>5.02</v>
@@ -3589,197 +3589,197 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4185</v>
+        <v>4536</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>18290500</v>
       </c>
       <c r="G86" t="n">
-        <v>405000</v>
+        <v>24591924000</v>
       </c>
       <c r="H86" t="n">
-        <v>4050</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4549</v>
+        <v>4185</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2006900</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>3367745000</v>
+        <v>405000</v>
       </c>
       <c r="H87" t="n">
-        <v>1678.083113259255</v>
+        <v>4050</v>
       </c>
       <c r="I87" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S100SZYE.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>9627</v>
+        <v>4549</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3401100</v>
+        <v>2006900</v>
       </c>
       <c r="G88" t="n">
-        <v>9648726000</v>
+        <v>3367745000</v>
       </c>
       <c r="H88" t="n">
-        <v>2836.942753814942</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I88" t="n">
-        <v>9.6</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>8304</v>
+        <v>9627</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>3401100</v>
       </c>
       <c r="G89" t="n">
-        <v>219000</v>
+        <v>9648726000</v>
       </c>
       <c r="H89" t="n">
-        <v>2190</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3328</v>
+        <v>8304</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>845300</v>
+        <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>1219326000</v>
+        <v>219000</v>
       </c>
       <c r="H90" t="n">
-        <v>1442.477227019993</v>
+        <v>2190</v>
       </c>
       <c r="I90" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3792,142 +3792,142 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>675500</v>
+        <v>845300</v>
       </c>
       <c r="G91" t="n">
-        <v>976503000</v>
+        <v>1219326000</v>
       </c>
       <c r="H91" t="n">
-        <v>1445.60029607698</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I91" t="n">
-        <v>5.220000000000001</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100ST3I.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8818</v>
+        <v>3328</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2505000</v>
+        <v>675500</v>
       </c>
       <c r="G92" t="n">
-        <v>3361654000</v>
+        <v>976503000</v>
       </c>
       <c r="H92" t="n">
-        <v>1341.977644710579</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I92" t="n">
-        <v>5.09</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100ST3I.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>5541</v>
+        <v>8818</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>2505000</v>
       </c>
       <c r="G93" t="n">
-        <v>117000</v>
+        <v>3361654000</v>
       </c>
       <c r="H93" t="n">
-        <v>1170</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S100SN7U.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>7315</v>
+        <v>5541</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>6994900</v>
+        <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>5874641000</v>
+        <v>117000</v>
       </c>
       <c r="H94" t="n">
-        <v>839.8463166020958</v>
+        <v>1170</v>
       </c>
       <c r="I94" t="n">
-        <v>14.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S100SLMH.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3936,35 +3936,35 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4837</v>
+        <v>7315</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5428600</v>
+        <v>6994900</v>
       </c>
       <c r="G95" t="n">
-        <v>4378021000</v>
+        <v>5874641000</v>
       </c>
       <c r="H95" t="n">
-        <v>806.4733080352208</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I95" t="n">
-        <v>9.74</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3973,30 +3973,30 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4631</v>
+        <v>4837</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6563759</v>
+        <v>5428600</v>
       </c>
       <c r="G96" t="n">
-        <v>16844475000</v>
+        <v>4378021000</v>
       </c>
       <c r="H96" t="n">
-        <v>2566.284807227078</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I96" t="n">
-        <v>6.9</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4293</v>
+        <v>4631</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4018,355 +4018,355 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20896886</v>
+        <v>6563759</v>
       </c>
       <c r="G97" t="n">
-        <v>9376038000</v>
+        <v>16844475000</v>
       </c>
       <c r="H97" t="n">
-        <v>448.6811097117532</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I97" t="n">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S100SHYB.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5449</v>
+        <v>4293</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2114100</v>
+        <v>20896886</v>
       </c>
       <c r="G98" t="n">
-        <v>3695597000</v>
+        <v>9376038000</v>
       </c>
       <c r="H98" t="n">
-        <v>1748.071046781136</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I98" t="n">
-        <v>5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S100SDCB.zip</t>
+          <t>S100SHYB.zip</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>6232</v>
+        <v>5449</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1499000</v>
+        <v>2114100</v>
       </c>
       <c r="G99" t="n">
-        <v>1369002000</v>
+        <v>3695597000</v>
       </c>
       <c r="H99" t="n">
-        <v>913.2768512341561</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="I99" t="n">
-        <v>10.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100SB0S.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6237</v>
+        <v>6232</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1129500</v>
+        <v>1499000</v>
       </c>
       <c r="G100" t="n">
-        <v>1537738000</v>
+        <v>1369002000</v>
       </c>
       <c r="H100" t="n">
-        <v>1361.432492253209</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I100" t="n">
-        <v>5.02</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SB0S.zip</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4987</v>
+        <v>6237</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1543800</v>
+        <v>1129500</v>
       </c>
       <c r="G101" t="n">
-        <v>874286000</v>
+        <v>1537738000</v>
       </c>
       <c r="H101" t="n">
-        <v>566.3207669387226</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="I101" t="n">
-        <v>5.779999999999999</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S100S4PN.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4739</v>
+        <v>4987</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>15400600</v>
+        <v>1543800</v>
       </c>
       <c r="G102" t="n">
-        <v>66216726000</v>
+        <v>874286000</v>
       </c>
       <c r="H102" t="n">
-        <v>4299.619884939548</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I102" t="n">
-        <v>6.419999999999999</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2501</v>
+        <v>4739</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4010500</v>
+        <v>15400600</v>
       </c>
       <c r="G103" t="n">
-        <v>10817766000</v>
+        <v>66216726000</v>
       </c>
       <c r="H103" t="n">
-        <v>2697.360927565142</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I103" t="n">
-        <v>5.09</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4023</v>
+        <v>2501</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>4010500</v>
       </c>
       <c r="G104" t="n">
-        <v>796000</v>
+        <v>10817766000</v>
       </c>
       <c r="H104" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5844</v>
+        <v>4023</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>24949147000</v>
+        <v>796000</v>
       </c>
       <c r="H105" t="n">
-        <v>4991.027246539169</v>
+        <v>7960</v>
       </c>
       <c r="I105" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S100RY2V.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5186</v>
+        <v>5844</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1536900</v>
+        <v>4998800</v>
       </c>
       <c r="G106" t="n">
-        <v>4758738000</v>
+        <v>24949147000</v>
       </c>
       <c r="H106" t="n">
-        <v>3096.322467304314</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I106" t="n">
-        <v>5.08</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100RYRP.zip</t>
+          <t>S100RY2V.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4380,7 +4380,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5947</v>
+        <v>5186</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4388,467 +4388,467 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>7446200</v>
+        <v>1536900</v>
       </c>
       <c r="G107" t="n">
-        <v>21182239000</v>
+        <v>4758738000</v>
       </c>
       <c r="H107" t="n">
-        <v>2844.704547285864</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="I107" t="n">
-        <v>4.96</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RYRP.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>8303</v>
+        <v>5947</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>20000000</v>
+        <v>7446200</v>
       </c>
       <c r="G108" t="n">
-        <v>56014500000</v>
+        <v>21182239000</v>
       </c>
       <c r="H108" t="n">
-        <v>2800.725</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="I108" t="n">
-        <v>9.75</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2812</v>
+        <v>8303</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I109" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S100RU33.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5451</v>
+        <v>2812</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1752800</v>
-      </c>
-      <c r="G110" t="n">
-        <v>5669831000</v>
-      </c>
-      <c r="H110" t="n">
-        <v>3234.727863989046</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>5.029999999999999</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RU33.zip</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>9072</v>
+        <v>5451</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>8377400</v>
+        <v>1752800</v>
       </c>
       <c r="G111" t="n">
-        <v>13394541000</v>
+        <v>5669831000</v>
       </c>
       <c r="H111" t="n">
-        <v>1598.889989734285</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="I111" t="n">
-        <v>12.74</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S100RSA5.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>5194</v>
+        <v>9072</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1068798</v>
+        <v>8377400</v>
       </c>
       <c r="G112" t="n">
-        <v>997342000</v>
+        <v>13394541000</v>
       </c>
       <c r="H112" t="n">
-        <v>933.1435874692879</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I112" t="n">
-        <v>9.77</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S100RIEU.zip</t>
+          <t>S100RSA5.zip</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>8871</v>
+        <v>5194</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1807700</v>
+        <v>1068798</v>
       </c>
       <c r="G113" t="n">
-        <v>3235548000</v>
+        <v>997342000</v>
       </c>
       <c r="H113" t="n">
-        <v>1789.870000553189</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="I113" t="n">
-        <v>5.050000000000001</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S100RGLG.zip</t>
+          <t>S100RIEU.zip</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>5929</v>
+        <v>8871</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>11571500</v>
+        <v>1807700</v>
       </c>
       <c r="G114" t="n">
-        <v>15114770000</v>
+        <v>3235548000</v>
       </c>
       <c r="H114" t="n">
-        <v>1306.206628354146</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="I114" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RGLG.zip</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>8140</v>
+        <v>5929</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1322800</v>
+        <v>11571500</v>
       </c>
       <c r="G115" t="n">
-        <v>4536170000</v>
+        <v>15114770000</v>
       </c>
       <c r="H115" t="n">
-        <v>3429.218324765649</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="I115" t="n">
-        <v>5.29</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1878</v>
+        <v>8140</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3452100</v>
+        <v>1322800</v>
       </c>
       <c r="G116" t="n">
-        <v>44793976000</v>
+        <v>4536170000</v>
       </c>
       <c r="H116" t="n">
-        <v>12975.86280814577</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I116" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100QVRX.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>533500</v>
+        <v>3452100</v>
       </c>
       <c r="G117" t="n">
-        <v>2009924000</v>
+        <v>44793976000</v>
       </c>
       <c r="H117" t="n">
-        <v>3767.430178069353</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="I117" t="n">
-        <v>5.11</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S100QV9B.zip</t>
+          <t>S100QVRX.zip</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3593</v>
+        <v>1882</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1637060</v>
+        <v>533500</v>
       </c>
       <c r="G118" t="n">
-        <v>5502657000</v>
+        <v>2009924000</v>
       </c>
       <c r="H118" t="n">
-        <v>3361.304411567078</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="I118" t="n">
-        <v>6.48</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QV9B.zip</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>7157</v>
+        <v>3593</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4536300</v>
+        <v>1637060</v>
       </c>
       <c r="G119" t="n">
-        <v>4025006000</v>
+        <v>5502657000</v>
       </c>
       <c r="H119" t="n">
-        <v>887.288318673809</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="I119" t="n">
-        <v>6.5</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1861</v>
+        <v>7157</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4865,143 +4865,143 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3102784</v>
+        <v>4536300</v>
       </c>
       <c r="G120" t="n">
-        <v>8614573000</v>
+        <v>4025006000</v>
       </c>
       <c r="H120" t="n">
-        <v>2776.401128792723</v>
+        <v>887.288318673809</v>
       </c>
       <c r="I120" t="n">
-        <v>7.07</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>7350</v>
+        <v>1861</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
+        <v>3102784</v>
+      </c>
+      <c r="G121" t="n">
+        <v>8614573000</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2776.401128792723</v>
+      </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S100QRVC.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3549</v>
+        <v>7350</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1735200</v>
-      </c>
-      <c r="G122" t="n">
-        <v>11532479000</v>
-      </c>
-      <c r="H122" t="n">
-        <v>6646.195827570309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QRVC.zip</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>6770</v>
+        <v>3549</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>11259700</v>
+        <v>1735200</v>
       </c>
       <c r="G123" t="n">
-        <v>14161429000</v>
+        <v>11532479000</v>
       </c>
       <c r="H123" t="n">
-        <v>1257.709264012363</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="I123" t="n">
-        <v>5.13</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3391</v>
+        <v>6770</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5009,101 +5009,101 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>6354522</v>
+        <v>11259700</v>
       </c>
       <c r="G124" t="n">
-        <v>28876223000</v>
+        <v>14161429000</v>
       </c>
       <c r="H124" t="n">
-        <v>4544.200649553184</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I124" t="n">
-        <v>12.84</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QRUW.zip</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1951</v>
+        <v>3391</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>5561200</v>
+        <v>6354522</v>
       </c>
       <c r="G125" t="n">
-        <v>12623472000</v>
+        <v>28876223000</v>
       </c>
       <c r="H125" t="n">
-        <v>2269.918722577861</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="I125" t="n">
-        <v>5.06</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3085</v>
+        <v>1951</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1756300</v>
+        <v>5561200</v>
       </c>
       <c r="G126" t="n">
-        <v>4694343000</v>
+        <v>12623472000</v>
       </c>
       <c r="H126" t="n">
-        <v>2672.859420372374</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I126" t="n">
-        <v>5.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5112,142 +5112,146 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>9842</v>
+        <v>3085</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2082200</v>
+        <v>1756300</v>
       </c>
       <c r="G127" t="n">
-        <v>3059101000</v>
+        <v>4694343000</v>
       </c>
       <c r="H127" t="n">
-        <v>1469.167707232735</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I127" t="n">
-        <v>5.029999999999999</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S100QI52.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>9672</v>
+        <v>9842</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2410900</v>
+        <v>2082200</v>
       </c>
       <c r="G128" t="n">
-        <v>9382590000</v>
+        <v>3059101000</v>
       </c>
       <c r="H128" t="n">
-        <v>3891.73752540545</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="I128" t="n">
-        <v>8.380000000000001</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QI52.zip</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3558</v>
+        <v>9672</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1214200</v>
+        <v>2410900</v>
       </c>
       <c r="G129" t="n">
-        <v>1538785000</v>
+        <v>9382590000</v>
       </c>
       <c r="H129" t="n">
-        <v>1267.324164058639</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="I129" t="n">
-        <v>10.57</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2329</v>
+        <v>3558</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
+        <v>1214200</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1267.324164058639</v>
+      </c>
       <c r="I130" t="n">
-        <v>9.550000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QF8K.zip</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5275,303 +5279,299 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>4324</v>
+        <v>2329</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G132" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H132" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>5.050000000000001</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3608</v>
+        <v>4324</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4569000</v>
+        <v>13655200</v>
       </c>
       <c r="G133" t="n">
-        <v>2005111000</v>
+        <v>56753467000</v>
       </c>
       <c r="H133" t="n">
-        <v>438.851170934559</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I133" t="n">
-        <v>5.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>6804</v>
+        <v>3608</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3315900</v>
+        <v>4569000</v>
       </c>
       <c r="G134" t="n">
-        <v>4322098000</v>
+        <v>2005111000</v>
       </c>
       <c r="H134" t="n">
-        <v>1303.446424801713</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I134" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>6236</v>
+        <v>6804</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>911500</v>
+        <v>3315900</v>
       </c>
       <c r="G135" t="n">
-        <v>1306557000</v>
+        <v>4322098000</v>
       </c>
       <c r="H135" t="n">
-        <v>1433.414152495886</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I135" t="n">
-        <v>19.45</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>6770</v>
+        <v>6236</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2344200</v>
+        <v>911500</v>
       </c>
       <c r="G136" t="n">
-        <v>2853488000</v>
+        <v>1306557000</v>
       </c>
       <c r="H136" t="n">
-        <v>1217.254500469243</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I136" t="n">
-        <v>1.07</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>7272</v>
+        <v>6770</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>17688500</v>
+        <v>2344200</v>
       </c>
       <c r="G137" t="n">
-        <v>52513090000</v>
+        <v>2853488000</v>
       </c>
       <c r="H137" t="n">
-        <v>2968.770104870396</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I137" t="n">
-        <v>5.050000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4956</v>
+        <v>7272</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2039200</v>
+        <v>17688500</v>
       </c>
       <c r="G138" t="n">
-        <v>3273303000</v>
+        <v>52513090000</v>
       </c>
       <c r="H138" t="n">
-        <v>1605.189780306002</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I138" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100PYKO.zip</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>8057</v>
+        <v>4956</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>787800</v>
+        <v>2039200</v>
       </c>
       <c r="G139" t="n">
-        <v>2754799000</v>
+        <v>3273303000</v>
       </c>
       <c r="H139" t="n">
-        <v>3496.825336379792</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="I139" t="n">
-        <v>7.56</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PVDC.zip</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3391</v>
+        <v>8057</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5593,89 +5593,126 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2617759</v>
+        <v>787800</v>
       </c>
       <c r="G140" t="n">
-        <v>21628867000</v>
+        <v>2754799000</v>
       </c>
       <c r="H140" t="n">
-        <v>8262.359904024779</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="I140" t="n">
-        <v>5.29</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>S100PV61.zip</t>
+          <t>S100PV98.zip</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3132</v>
+        <v>3391</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4697500</v>
+        <v>2617759</v>
       </c>
       <c r="G141" t="n">
-        <v>8653324000</v>
+        <v>21628867000</v>
       </c>
       <c r="H141" t="n">
-        <v>1842.11261309207</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="I141" t="n">
-        <v>7.539999999999999</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>S100PV61.zip</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>3132</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2022-12-15</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>4697500</v>
+      </c>
+      <c r="G142" t="n">
+        <v>8653324000</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1842.11261309207</v>
+      </c>
+      <c r="I142" t="n">
+        <v>7.539999999999999</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>S100PNUO.zip</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D143" t="n">
         <v>3205</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2022-11-17</t>
         </is>
       </c>
-      <c r="F142" t="n">
+      <c r="F143" t="n">
         <v>2552200</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G143" t="n">
         <v>492702000</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H143" t="n">
         <v>193.0499177180472</v>
       </c>
-      <c r="I142" t="n">
+      <c r="I143" t="n">
         <v>6.77</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,21 +1258,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9302</v>
+        <v>3106</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1280,36 +1280,36 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3799000</v>
+        <v>900156</v>
       </c>
       <c r="G23" t="n">
-        <v>5671170000</v>
+        <v>4095263000</v>
       </c>
       <c r="H23" t="n">
-        <v>1492.806001579363</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I23" t="n">
-        <v>5.07</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3106</v>
+        <v>9302</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>900156</v>
+        <v>3799000</v>
       </c>
       <c r="G24" t="n">
-        <v>4095263000</v>
+        <v>5671170000</v>
       </c>
       <c r="H24" t="n">
-        <v>4549.503641591014</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="25">
@@ -2923,12 +2923,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2948,10 +2948,10 @@
         <v>4062075</v>
       </c>
       <c r="G68" t="n">
-        <v>20578848000</v>
+        <v>8729143000</v>
       </c>
       <c r="H68" t="n">
-        <v>5066.092575838703</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I68" t="n">
         <v>5.2</v>
@@ -2960,12 +2960,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2985,10 +2985,10 @@
         <v>4062075</v>
       </c>
       <c r="G69" t="n">
-        <v>8729143000</v>
+        <v>20578848000</v>
       </c>
       <c r="H69" t="n">
-        <v>2148.936934940886</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I69" t="n">
         <v>5.2</v>
@@ -3293,21 +3293,21 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4042</v>
+        <v>3591</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3315,36 +3315,36 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>16459200</v>
+        <v>2846091</v>
       </c>
       <c r="G78" t="n">
-        <v>33451116000</v>
+        <v>6888596000</v>
       </c>
       <c r="H78" t="n">
-        <v>2032.365850102071</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I78" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3591</v>
+        <v>4042</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3352,16 +3352,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2846091</v>
+        <v>16459200</v>
       </c>
       <c r="G79" t="n">
-        <v>6888596000</v>
+        <v>33451116000</v>
       </c>
       <c r="H79" t="n">
-        <v>2420.370957920882</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I79" t="n">
-        <v>5.13</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="80">
@@ -4366,7 +4366,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100RY2V.zip</t>
+          <t>S100RYRP.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4380,7 +4380,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5186</v>
+        <v>5947</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4388,22 +4388,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1536900</v>
+        <v>7446200</v>
       </c>
       <c r="G107" t="n">
-        <v>4758738000</v>
+        <v>21182239000</v>
       </c>
       <c r="H107" t="n">
-        <v>3096.322467304314</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="I107" t="n">
-        <v>5.08</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100RYRP.zip</t>
+          <t>S100RY2V.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5947</v>
+        <v>5186</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4425,16 +4425,16 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>7446200</v>
+        <v>1536900</v>
       </c>
       <c r="G108" t="n">
-        <v>21182239000</v>
+        <v>4758738000</v>
       </c>
       <c r="H108" t="n">
-        <v>2844.704547285864</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="I108" t="n">
-        <v>4.96</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="109">
@@ -4843,12 +4843,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>7157</v>
+        <v>1861</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4865,27 +4865,27 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4536300</v>
+        <v>3102784</v>
       </c>
       <c r="G120" t="n">
-        <v>4025006000</v>
+        <v>8614573000</v>
       </c>
       <c r="H120" t="n">
-        <v>887.288318673809</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="I120" t="n">
-        <v>6.5</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4894,7 +4894,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1861</v>
+        <v>7157</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4902,16 +4902,16 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3102784</v>
+        <v>4536300</v>
       </c>
       <c r="G121" t="n">
-        <v>8614573000</v>
+        <v>4025006000</v>
       </c>
       <c r="H121" t="n">
-        <v>2776.401128792723</v>
+        <v>887.288318673809</v>
       </c>
       <c r="I121" t="n">
-        <v>7.07</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="122">
@@ -4987,21 +4987,21 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QRUW.zip</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>6770</v>
+        <v>3391</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5009,36 +5009,36 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>11259700</v>
+        <v>6354522</v>
       </c>
       <c r="G124" t="n">
-        <v>14161429000</v>
+        <v>28876223000</v>
       </c>
       <c r="H124" t="n">
-        <v>1257.709264012363</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="I124" t="n">
-        <v>5.13</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3391</v>
+        <v>6770</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>6354522</v>
+        <v>11259700</v>
       </c>
       <c r="G125" t="n">
-        <v>28876223000</v>
+        <v>14161429000</v>
       </c>
       <c r="H125" t="n">
-        <v>4544.200649553184</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I125" t="n">
-        <v>12.84</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="126">
@@ -5679,43 +5679,6 @@
         <v>7.539999999999999</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>S100PNUO.zip</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>jplvh010000-lvh-001_E27325-000_2022-11-17_01_2022-11-25.csv</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>株式会社ストラテジックキャピタル</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>3205</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2022-11-17</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>2552200</v>
-      </c>
-      <c r="G143" t="n">
-        <v>492702000</v>
-      </c>
-      <c r="H143" t="n">
-        <v>193.0499177180472</v>
-      </c>
-      <c r="I143" t="n">
-        <v>6.77</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,123 +483,123 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100X1A3.zip</t>
+          <t>S100X894.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-11-05_01_2025-11-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-11-28_01_2025-12-05.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7940</v>
+        <v>8011</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>551300</v>
       </c>
       <c r="G2" t="n">
-        <v>101000</v>
+        <v>1831405000</v>
       </c>
       <c r="H2" t="n">
-        <v>1010</v>
+        <v>3321.975331035734</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100WWWV.zip</t>
+          <t>S100X89B.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-11-28_01_2025-12-05.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6890</v>
+        <v>6856</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>4180400</v>
       </c>
       <c r="G3" t="n">
-        <v>203000</v>
+        <v>49662804000</v>
       </c>
       <c r="H3" t="n">
-        <v>2030</v>
+        <v>11879.91675437757</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100WWOW.zip</t>
+          <t>S100X8JJ.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-11-26_01_2025-12-05.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2432</v>
+        <v>4549</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>2546351</v>
       </c>
       <c r="G4" t="n">
-        <v>226000</v>
+        <v>4958319000</v>
       </c>
       <c r="H4" t="n">
-        <v>2260</v>
+        <v>1947.225264702313</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100WSIC.zip</t>
+          <t>S100X1A3.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-11-05_01_2025-11-12.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,21 +608,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6875</v>
+        <v>7940</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>487000</v>
+        <v>101000</v>
       </c>
       <c r="H5" t="n">
-        <v>4870</v>
+        <v>1010</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -631,12 +631,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WQFH.zip</t>
+          <t>S100WWWV.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,21 +645,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4917</v>
+        <v>6890</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>204000</v>
+        <v>203000</v>
       </c>
       <c r="H6" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WQ4O.zip</t>
+          <t>S100WWOW.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -682,146 +682,146 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8233</v>
+        <v>2432</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>261400</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>287906000</v>
+        <v>226000</v>
       </c>
       <c r="H7" t="n">
-        <v>1101.400153022188</v>
+        <v>2260</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100WO9C.zip</t>
+          <t>S100WSIC.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2229</v>
+        <v>6875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8012900</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>23390757000</v>
+        <v>487000</v>
       </c>
       <c r="H8" t="n">
-        <v>2919.137515755844</v>
+        <v>4870</v>
       </c>
       <c r="I8" t="n">
-        <v>5.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WQFH.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5983</v>
+        <v>4917</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>44800</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>315399000</v>
+        <v>204000</v>
       </c>
       <c r="H9" t="n">
-        <v>7040.15625</v>
+        <v>2040</v>
       </c>
       <c r="I9" t="n">
-        <v>4.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WQ4O.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5983</v>
+        <v>8233</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>44800</v>
+        <v>261400</v>
       </c>
       <c r="G10" t="n">
-        <v>315399000</v>
+        <v>287906000</v>
       </c>
       <c r="H10" t="n">
-        <v>7040.15625</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="I10" t="n">
-        <v>4.07</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100WKF3.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -830,220 +830,220 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6104</v>
+        <v>2229</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1297500</v>
+        <v>8012900</v>
       </c>
       <c r="G11" t="n">
-        <v>4476090000</v>
+        <v>23390757000</v>
       </c>
       <c r="H11" t="n">
-        <v>3449.780346820809</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I11" t="n">
-        <v>5.23</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100WCIP.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5331</v>
+        <v>5983</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1481600</v>
+        <v>44800</v>
       </c>
       <c r="G12" t="n">
-        <v>5294365000</v>
+        <v>315399000</v>
       </c>
       <c r="H12" t="n">
-        <v>3573.410502159827</v>
+        <v>7040.15625</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6952</v>
+        <v>5983</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12332900</v>
+        <v>44800</v>
       </c>
       <c r="G13" t="n">
-        <v>14653495000</v>
+        <v>315399000</v>
       </c>
       <c r="H13" t="n">
-        <v>1188.162962482466</v>
+        <v>7040.15625</v>
       </c>
       <c r="I13" t="n">
-        <v>5.19</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6145</v>
+        <v>6104</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>1297500</v>
       </c>
       <c r="G14" t="n">
-        <v>171000</v>
+        <v>4476090000</v>
       </c>
       <c r="H14" t="n">
-        <v>1710</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100WACZ.zip</t>
+          <t>S100WCIP.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8715</v>
+        <v>5331</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3810400</v>
+        <v>1481600</v>
       </c>
       <c r="G15" t="n">
-        <v>2500615000</v>
+        <v>5294365000</v>
       </c>
       <c r="H15" t="n">
-        <v>656.2604975855553</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="I15" t="n">
-        <v>5.08</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100W5LT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8585</v>
+        <v>6952</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8986800</v>
+        <v>12332900</v>
       </c>
       <c r="G16" t="n">
-        <v>7174886000</v>
+        <v>14653495000</v>
       </c>
       <c r="H16" t="n">
-        <v>798.3805136422309</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I16" t="n">
-        <v>5.23</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1052,21 +1052,21 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6908</v>
+        <v>6145</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>992000</v>
+        <v>171000</v>
       </c>
       <c r="H17" t="n">
-        <v>2480</v>
+        <v>1710</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1075,12 +1075,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100VV1I.zip</t>
+          <t>S100WACZ.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1089,144 +1089,146 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8923</v>
+        <v>8715</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2434800</v>
+        <v>3810400</v>
       </c>
       <c r="G18" t="n">
-        <v>4266809000</v>
+        <v>2500615000</v>
       </c>
       <c r="H18" t="n">
-        <v>1752.426893379333</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100VUUK.zip</t>
+          <t>S100W5LT.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9069</v>
+        <v>8585</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8793900</v>
+        <v>8986800</v>
       </c>
       <c r="G19" t="n">
-        <v>13684104000</v>
+        <v>7174886000</v>
       </c>
       <c r="H19" t="n">
-        <v>1556.090471804319</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="I19" t="n">
-        <v>5.01</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1878</v>
+        <v>6908</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3475000</v>
+        <v>400</v>
       </c>
       <c r="G20" t="n">
-        <v>47745269000</v>
+        <v>992000</v>
       </c>
       <c r="H20" t="n">
-        <v>13739.64575539568</v>
+        <v>2480</v>
       </c>
       <c r="I20" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VV1I.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3328</v>
+        <v>8923</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2434800</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
+        <v>4266809000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1752.426893379333</v>
+      </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VQJZ.zip</t>
+          <t>S100VUUK.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1235,317 +1237,315 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3076</v>
+        <v>9069</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2841700</v>
+        <v>8793900</v>
       </c>
       <c r="G22" t="n">
-        <v>5705436000</v>
+        <v>13684104000</v>
       </c>
       <c r="H22" t="n">
-        <v>2007.754513143541</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="I22" t="n">
-        <v>5.02</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3106</v>
+        <v>1878</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>900156</v>
+        <v>3475000</v>
       </c>
       <c r="G23" t="n">
-        <v>4095263000</v>
+        <v>47745269000</v>
       </c>
       <c r="H23" t="n">
-        <v>4549.503641591014</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9302</v>
+        <v>3328</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3799000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>5671170000</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1492.806001579363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>5.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VQJZ.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9684</v>
+        <v>3076</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6704059</v>
+        <v>2841700</v>
       </c>
       <c r="G25" t="n">
-        <v>42054369000</v>
+        <v>5705436000</v>
       </c>
       <c r="H25" t="n">
-        <v>6272.971195510064</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="I25" t="n">
-        <v>5.47</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4619</v>
+        <v>9302</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>3799000</v>
       </c>
       <c r="G26" t="n">
-        <v>119000</v>
+        <v>5671170000</v>
       </c>
       <c r="H26" t="n">
-        <v>1190</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6332</v>
+        <v>3106</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>900156</v>
       </c>
       <c r="G27" t="n">
-        <v>141000</v>
+        <v>4095263000</v>
       </c>
       <c r="H27" t="n">
-        <v>1410</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4849</v>
+        <v>9684</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2946942</v>
+        <v>6704059</v>
       </c>
       <c r="G28" t="n">
-        <v>5148132000</v>
+        <v>42054369000</v>
       </c>
       <c r="H28" t="n">
-        <v>1746.940387696806</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I28" t="n">
-        <v>5.93</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6927</v>
+        <v>4619</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1142700</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>1023871000</v>
+        <v>119000</v>
       </c>
       <c r="H29" t="n">
-        <v>896.0103264198827</v>
+        <v>1190</v>
       </c>
       <c r="I29" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4676</v>
+        <v>6332</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>242000</v>
+        <v>141000</v>
       </c>
       <c r="H30" t="n">
-        <v>2420</v>
+        <v>1410</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1554,109 +1554,109 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1776</v>
+        <v>6927</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>126500</v>
+        <v>1142700</v>
       </c>
       <c r="G31" t="n">
-        <v>153399000</v>
+        <v>1023871000</v>
       </c>
       <c r="H31" t="n">
-        <v>1212.640316205534</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I31" t="n">
-        <v>1.36</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3963</v>
+        <v>4849</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1507900</v>
+        <v>2946942</v>
       </c>
       <c r="G32" t="n">
-        <v>635874000</v>
+        <v>5148132000</v>
       </c>
       <c r="H32" t="n">
-        <v>421.6950726175476</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I32" t="n">
-        <v>5.18</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6923</v>
+        <v>4676</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>256000</v>
+        <v>242000</v>
       </c>
       <c r="H33" t="n">
-        <v>2560</v>
+        <v>2420</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1665,12 +1665,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1679,109 +1679,109 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6890</v>
+        <v>1776</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>30000</v>
+        <v>126500</v>
       </c>
       <c r="G34" t="n">
-        <v>71610000</v>
+        <v>153399000</v>
       </c>
       <c r="H34" t="n">
-        <v>2387</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100VCMT.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3132</v>
+        <v>3963</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>8970900</v>
+        <v>1507900</v>
       </c>
       <c r="G35" t="n">
-        <v>10240398000</v>
+        <v>635874000</v>
       </c>
       <c r="H35" t="n">
-        <v>1141.512891683109</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I35" t="n">
-        <v>5.01</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4512</v>
+        <v>6923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2137400</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>620573000</v>
+        <v>256000</v>
       </c>
       <c r="H36" t="n">
-        <v>290.3401328717133</v>
+        <v>2560</v>
       </c>
       <c r="I36" t="n">
-        <v>6.140000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1790,220 +1790,220 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9006</v>
+        <v>6890</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>30000</v>
       </c>
       <c r="G37" t="n">
-        <v>34824000</v>
+        <v>71610000</v>
       </c>
       <c r="H37" t="n">
-        <v>1160.8</v>
+        <v>2387</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100VCMT.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9987</v>
+        <v>3132</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3888200</v>
+        <v>8970900</v>
       </c>
       <c r="G38" t="n">
-        <v>16086019000</v>
+        <v>10240398000</v>
       </c>
       <c r="H38" t="n">
-        <v>4137.137750115735</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100V7YO.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4626</v>
+        <v>4512</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4670190</v>
+        <v>2137400</v>
       </c>
       <c r="G39" t="n">
-        <v>16652257000</v>
+        <v>620573000</v>
       </c>
       <c r="H39" t="n">
-        <v>3565.648720929983</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7732</v>
+        <v>9006</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>7995900</v>
+        <v>30000</v>
       </c>
       <c r="G40" t="n">
-        <v>16678425000</v>
+        <v>34824000</v>
       </c>
       <c r="H40" t="n">
-        <v>2085.872134468915</v>
+        <v>1160.8</v>
       </c>
       <c r="I40" t="n">
-        <v>7.380000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3861</v>
+        <v>9987</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>3888200</v>
       </c>
       <c r="G41" t="n">
-        <v>59000</v>
+        <v>16086019000</v>
       </c>
       <c r="H41" t="n">
-        <v>590</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V7YO.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5715</v>
+        <v>4626</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>4670190</v>
       </c>
       <c r="G42" t="n">
-        <v>160000</v>
+        <v>16652257000</v>
       </c>
       <c r="H42" t="n">
-        <v>1600</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100UYE4.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2012,72 +2012,72 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3978</v>
+        <v>7732</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2891700</v>
+        <v>7995900</v>
       </c>
       <c r="G43" t="n">
-        <v>3425686000</v>
+        <v>16678425000</v>
       </c>
       <c r="H43" t="n">
-        <v>1184.661617733513</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I43" t="n">
-        <v>7.12</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100UWW1.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4452</v>
+        <v>3861</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>24347342</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>148917027000</v>
+        <v>59000</v>
       </c>
       <c r="H44" t="n">
-        <v>6116.356643776557</v>
+        <v>590</v>
       </c>
       <c r="I44" t="n">
-        <v>5.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2086,21 +2086,21 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9257</v>
+        <v>5715</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F45" t="n">
         <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>57000</v>
+        <v>160000</v>
       </c>
       <c r="H45" t="n">
-        <v>570</v>
+        <v>1600</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2109,49 +2109,49 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100UMDQ.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9531</v>
+        <v>3978</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>19554300</v>
+        <v>2891700</v>
       </c>
       <c r="G46" t="n">
-        <v>64960321000</v>
+        <v>3425686000</v>
       </c>
       <c r="H46" t="n">
-        <v>3322.047887165483</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I46" t="n">
-        <v>5.029999999999999</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100UORL.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2160,220 +2160,220 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4385</v>
+        <v>4452</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>8815360</v>
+        <v>24347342</v>
       </c>
       <c r="G47" t="n">
-        <v>17684138000</v>
+        <v>148917027000</v>
       </c>
       <c r="H47" t="n">
-        <v>2006.059650428343</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I47" t="n">
-        <v>5.37</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100UMI2.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7984</v>
+        <v>9257</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6096500</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>13153972000</v>
+        <v>57000</v>
       </c>
       <c r="H48" t="n">
-        <v>2157.626835069302</v>
+        <v>570</v>
       </c>
       <c r="I48" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100UMJC.zip</t>
+          <t>S100UMDQ.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1973</v>
+        <v>9531</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8973383</v>
+        <v>19554300</v>
       </c>
       <c r="G49" t="n">
-        <v>24947403000</v>
+        <v>64960321000</v>
       </c>
       <c r="H49" t="n">
-        <v>2780.155823060266</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="I49" t="n">
-        <v>6.01</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6908</v>
+        <v>4385</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>502000</v>
+        <v>8815360</v>
       </c>
       <c r="G50" t="n">
-        <v>1257178000</v>
+        <v>17684138000</v>
       </c>
       <c r="H50" t="n">
-        <v>2504.338645418327</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I50" t="n">
-        <v>2.04</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100UIC4.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3765</v>
+        <v>7984</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4552900</v>
+        <v>6096500</v>
       </c>
       <c r="G51" t="n">
-        <v>13383536000</v>
+        <v>13153972000</v>
       </c>
       <c r="H51" t="n">
-        <v>2939.562915943684</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I51" t="n">
-        <v>5.47</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5482</v>
+        <v>1973</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>433300</v>
+        <v>8973383</v>
       </c>
       <c r="G52" t="n">
-        <v>1367192000</v>
+        <v>24947403000</v>
       </c>
       <c r="H52" t="n">
-        <v>3155.301177013616</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I52" t="n">
-        <v>2.18</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2382,72 +2382,72 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>8141</v>
+        <v>6908</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>502000</v>
       </c>
       <c r="G53" t="n">
-        <v>93000</v>
+        <v>1257178000</v>
       </c>
       <c r="H53" t="n">
-        <v>930</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UIC4.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4272</v>
+        <v>3765</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>26855100</v>
+        <v>4552900</v>
       </c>
       <c r="G54" t="n">
-        <v>29860350000</v>
+        <v>13383536000</v>
       </c>
       <c r="H54" t="n">
-        <v>1111.90611839092</v>
+        <v>2939.562915943684</v>
       </c>
       <c r="I54" t="n">
-        <v>15.75</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2456,294 +2456,294 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6145</v>
+        <v>5482</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>433300</v>
       </c>
       <c r="G55" t="n">
-        <v>171000</v>
+        <v>1367192000</v>
       </c>
       <c r="H55" t="n">
-        <v>1710</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100UBH9.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3569</v>
+        <v>4272</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4271704</v>
+        <v>26855100</v>
       </c>
       <c r="G56" t="n">
-        <v>5808044000</v>
+        <v>29860350000</v>
       </c>
       <c r="H56" t="n">
-        <v>1359.655069733296</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I56" t="n">
-        <v>6.279999999999999</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4205</v>
+        <v>8141</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>14426600</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>24829312000</v>
+        <v>93000</v>
       </c>
       <c r="H57" t="n">
-        <v>1721.078563209627</v>
+        <v>930</v>
       </c>
       <c r="I57" t="n">
-        <v>6.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100U9FC.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6516</v>
+        <v>6145</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>679500</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>4792335000</v>
+        <v>171000</v>
       </c>
       <c r="H58" t="n">
-        <v>7052.737306843267</v>
+        <v>1710</v>
       </c>
       <c r="I58" t="n">
-        <v>5.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2327</v>
+        <v>4205</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>9154320</v>
+        <v>14426600</v>
       </c>
       <c r="G59" t="n">
-        <v>23450671000</v>
+        <v>24829312000</v>
       </c>
       <c r="H59" t="n">
-        <v>2561.705402476645</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UBH9.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3989</v>
+        <v>3569</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1206000</v>
+        <v>4271704</v>
       </c>
       <c r="G60" t="n">
-        <v>787604000</v>
+        <v>5808044000</v>
       </c>
       <c r="H60" t="n">
-        <v>653.0713101160862</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="I60" t="n">
-        <v>5.2</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U9FC.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6908</v>
+        <v>6516</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>679500</v>
       </c>
       <c r="G61" t="n">
-        <v>288000</v>
+        <v>4792335000</v>
       </c>
       <c r="H61" t="n">
-        <v>2880</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5988</v>
+        <v>2327</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>527300</v>
+        <v>9154320</v>
       </c>
       <c r="G62" t="n">
-        <v>1212090000</v>
+        <v>23450671000</v>
       </c>
       <c r="H62" t="n">
-        <v>2298.672482457804</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I62" t="n">
-        <v>1.42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2752,220 +2752,220 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3529</v>
+        <v>3989</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>998000</v>
+        <v>1206000</v>
       </c>
       <c r="G63" t="n">
-        <v>667598000</v>
+        <v>787604000</v>
       </c>
       <c r="H63" t="n">
-        <v>668.9358717434869</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I63" t="n">
-        <v>5.76</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>7305</v>
+        <v>6908</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>309800</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>1321438000</v>
+        <v>288000</v>
       </c>
       <c r="H64" t="n">
-        <v>4265.455132343447</v>
+        <v>2880</v>
       </c>
       <c r="I64" t="n">
-        <v>5.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2168</v>
+        <v>5988</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2094200</v>
+        <v>527300</v>
       </c>
       <c r="G65" t="n">
-        <v>4445105000</v>
+        <v>1212090000</v>
       </c>
       <c r="H65" t="n">
-        <v>2122.579027791042</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I65" t="n">
-        <v>5.02</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5541</v>
+        <v>3529</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>998000</v>
       </c>
       <c r="G66" t="n">
-        <v>127000</v>
+        <v>667598000</v>
       </c>
       <c r="H66" t="n">
-        <v>1270</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>8803</v>
+        <v>7305</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>309800</v>
       </c>
       <c r="G67" t="n">
-        <v>361000</v>
+        <v>1321438000</v>
       </c>
       <c r="H67" t="n">
-        <v>3610</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4967</v>
+        <v>5541</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>8729143000</v>
+        <v>127000</v>
       </c>
       <c r="H68" t="n">
-        <v>2148.936934940886</v>
+        <v>1270</v>
       </c>
       <c r="I68" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2974,243 +2974,243 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4967</v>
+        <v>2168</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4062075</v>
+        <v>2094200</v>
       </c>
       <c r="G69" t="n">
-        <v>20578848000</v>
+        <v>4445105000</v>
       </c>
       <c r="H69" t="n">
-        <v>5066.092575838703</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I69" t="n">
-        <v>5.2</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100U325.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9882</v>
+        <v>8803</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2505000</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>5292086000</v>
+        <v>361000</v>
       </c>
       <c r="H70" t="n">
-        <v>2112.609181636727</v>
+        <v>3610</v>
       </c>
       <c r="I70" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>8129</v>
+        <v>4967</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>7258230</v>
+        <v>4062075</v>
       </c>
       <c r="G71" t="n">
-        <v>24720910000</v>
+        <v>8729143000</v>
       </c>
       <c r="H71" t="n">
-        <v>3405.914389596362</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I71" t="n">
-        <v>9.460000000000001</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100U2CM.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2206</v>
+        <v>4967</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3462600</v>
+        <v>4062075</v>
       </c>
       <c r="G72" t="n">
-        <v>14385811000</v>
+        <v>20578848000</v>
       </c>
       <c r="H72" t="n">
-        <v>4154.626869982095</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I72" t="n">
-        <v>5.06</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U325.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3666</v>
+        <v>9882</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1053200</v>
+        <v>2505000</v>
       </c>
       <c r="G73" t="n">
-        <v>663809000</v>
+        <v>5292086000</v>
       </c>
       <c r="H73" t="n">
-        <v>630.278199772123</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="I73" t="n">
-        <v>5.16</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4347</v>
+        <v>8129</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>614893</v>
+        <v>7258230</v>
       </c>
       <c r="G74" t="n">
-        <v>940560000</v>
+        <v>24720910000</v>
       </c>
       <c r="H74" t="n">
-        <v>1529.631984751819</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I74" t="n">
-        <v>8.200000000000001</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U2CM.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8129</v>
+        <v>2206</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3886330</v>
+        <v>3462600</v>
       </c>
       <c r="G75" t="n">
-        <v>10549885000</v>
+        <v>14385811000</v>
       </c>
       <c r="H75" t="n">
-        <v>2714.613787300615</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="I75" t="n">
         <v>5.06</v>
@@ -3219,12 +3219,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3233,72 +3233,72 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>8929</v>
+        <v>3666</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1260812</v>
+        <v>1053200</v>
       </c>
       <c r="G76" t="n">
-        <v>1699255000</v>
+        <v>663809000</v>
       </c>
       <c r="H76" t="n">
-        <v>1347.74653160027</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I76" t="n">
-        <v>5.140000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>7278</v>
+        <v>4347</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>115400</v>
+        <v>614893</v>
       </c>
       <c r="G77" t="n">
-        <v>302115000</v>
+        <v>940560000</v>
       </c>
       <c r="H77" t="n">
-        <v>2617.980935875217</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I77" t="n">
-        <v>0.24</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3307,72 +3307,72 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3591</v>
+        <v>8129</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2846091</v>
+        <v>3886330</v>
       </c>
       <c r="G78" t="n">
-        <v>6888596000</v>
+        <v>10549885000</v>
       </c>
       <c r="H78" t="n">
-        <v>2420.370957920882</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I78" t="n">
-        <v>5.13</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4042</v>
+        <v>8929</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>16459200</v>
+        <v>1260812</v>
       </c>
       <c r="G79" t="n">
-        <v>33451116000</v>
+        <v>1699255000</v>
       </c>
       <c r="H79" t="n">
-        <v>2032.365850102071</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I79" t="n">
-        <v>5.06</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3381,95 +3381,95 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4521</v>
+        <v>7278</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>115400</v>
       </c>
       <c r="G80" t="n">
-        <v>353000</v>
+        <v>302115000</v>
       </c>
       <c r="H80" t="n">
-        <v>3530</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100TJBE.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8923</v>
+        <v>3591</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2445600</v>
+        <v>2846091</v>
       </c>
       <c r="G81" t="n">
-        <v>3856031000</v>
+        <v>6888596000</v>
       </c>
       <c r="H81" t="n">
-        <v>1576.721867844292</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I81" t="n">
-        <v>5.02</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4347</v>
+        <v>4042</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>400493</v>
+        <v>16459200</v>
       </c>
       <c r="G82" t="n">
-        <v>580713000</v>
+        <v>33451116000</v>
       </c>
       <c r="H82" t="n">
-        <v>1449.995380693296</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I82" t="n">
         <v>5.06</v>
@@ -3478,160 +3478,160 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>9024</v>
+        <v>4521</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>16207437</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>27823532000</v>
+        <v>353000</v>
       </c>
       <c r="H83" t="n">
-        <v>1716.713876475349</v>
+        <v>3530</v>
       </c>
       <c r="I83" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TJBE.zip</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1518</v>
+        <v>8923</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>2445600</v>
       </c>
       <c r="G84" t="n">
-        <v>292000</v>
+        <v>3856031000</v>
       </c>
       <c r="H84" t="n">
-        <v>2920</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>7731</v>
+        <v>4347</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>17639800</v>
+        <v>400493</v>
       </c>
       <c r="G85" t="n">
-        <v>26675255000</v>
+        <v>580713000</v>
       </c>
       <c r="H85" t="n">
-        <v>1512.21980974841</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I85" t="n">
-        <v>5.02</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4536</v>
+        <v>9024</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>18290500</v>
+        <v>16207437</v>
       </c>
       <c r="G86" t="n">
-        <v>24591924000</v>
+        <v>27823532000</v>
       </c>
       <c r="H86" t="n">
-        <v>1344.518957928979</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I86" t="n">
-        <v>5.02</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3640,21 +3640,21 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4185</v>
+        <v>1518</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F87" t="n">
         <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>405000</v>
+        <v>292000</v>
       </c>
       <c r="H87" t="n">
-        <v>4050</v>
+        <v>2920</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3663,86 +3663,86 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4549</v>
+        <v>7731</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2006900</v>
+        <v>17639800</v>
       </c>
       <c r="G88" t="n">
-        <v>3367745000</v>
+        <v>26675255000</v>
       </c>
       <c r="H88" t="n">
-        <v>1678.083113259255</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I88" t="n">
-        <v>5.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S100SZYE.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>9627</v>
+        <v>4536</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3401100</v>
+        <v>18290500</v>
       </c>
       <c r="G89" t="n">
-        <v>9648726000</v>
+        <v>24591924000</v>
       </c>
       <c r="H89" t="n">
-        <v>2836.942753814942</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I89" t="n">
-        <v>9.6</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3751,21 +3751,21 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>8304</v>
+        <v>4185</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F90" t="n">
         <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>219000</v>
+        <v>405000</v>
       </c>
       <c r="H90" t="n">
-        <v>2190</v>
+        <v>4050</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -3774,12 +3774,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3788,257 +3788,257 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3328</v>
+        <v>4549</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>845300</v>
+        <v>2006900</v>
       </c>
       <c r="G91" t="n">
-        <v>1219326000</v>
+        <v>3367745000</v>
       </c>
       <c r="H91" t="n">
-        <v>1442.477227019993</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I91" t="n">
-        <v>6.54</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3328</v>
+        <v>9627</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>675500</v>
+        <v>3401100</v>
       </c>
       <c r="G92" t="n">
-        <v>976503000</v>
+        <v>9648726000</v>
       </c>
       <c r="H92" t="n">
-        <v>1445.60029607698</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I92" t="n">
-        <v>5.220000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100ST3I.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>8818</v>
+        <v>8304</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2505000</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>3361654000</v>
+        <v>219000</v>
       </c>
       <c r="H93" t="n">
-        <v>1341.977644710579</v>
+        <v>2190</v>
       </c>
       <c r="I93" t="n">
-        <v>5.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5541</v>
+        <v>3328</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>845300</v>
       </c>
       <c r="G94" t="n">
-        <v>117000</v>
+        <v>1219326000</v>
       </c>
       <c r="H94" t="n">
-        <v>1170</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S100SN7U.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>7315</v>
+        <v>3328</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6994900</v>
+        <v>675500</v>
       </c>
       <c r="G95" t="n">
-        <v>5874641000</v>
+        <v>976503000</v>
       </c>
       <c r="H95" t="n">
-        <v>839.8463166020958</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I95" t="n">
-        <v>14.23</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100SLMH.zip</t>
+          <t>S100ST3I.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4837</v>
+        <v>8818</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5428600</v>
+        <v>2505000</v>
       </c>
       <c r="G96" t="n">
-        <v>4378021000</v>
+        <v>3361654000</v>
       </c>
       <c r="H96" t="n">
-        <v>806.4733080352208</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="I96" t="n">
-        <v>9.74</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4631</v>
+        <v>5541</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>6563759</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>16844475000</v>
+        <v>117000</v>
       </c>
       <c r="H97" t="n">
-        <v>2566.284807227078</v>
+        <v>1170</v>
       </c>
       <c r="I97" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4047,72 +4047,72 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4293</v>
+        <v>7315</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20896886</v>
+        <v>6994900</v>
       </c>
       <c r="G98" t="n">
-        <v>9376038000</v>
+        <v>5874641000</v>
       </c>
       <c r="H98" t="n">
-        <v>448.6811097117532</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I98" t="n">
-        <v>9.9</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S100SHYB.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5449</v>
+        <v>4837</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2114100</v>
+        <v>5428600</v>
       </c>
       <c r="G99" t="n">
-        <v>3695597000</v>
+        <v>4378021000</v>
       </c>
       <c r="H99" t="n">
-        <v>1748.071046781136</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I99" t="n">
-        <v>5</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100SDCB.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4121,109 +4121,109 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6232</v>
+        <v>4293</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1499000</v>
+        <v>20896886</v>
       </c>
       <c r="G100" t="n">
-        <v>1369002000</v>
+        <v>9376038000</v>
       </c>
       <c r="H100" t="n">
-        <v>913.2768512341561</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I100" t="n">
-        <v>10.47</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S100SB0S.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6237</v>
+        <v>4631</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1129500</v>
+        <v>6563759</v>
       </c>
       <c r="G101" t="n">
-        <v>1537738000</v>
+        <v>16844475000</v>
       </c>
       <c r="H101" t="n">
-        <v>1361.432492253209</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I101" t="n">
-        <v>5.02</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SHYB.zip</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4987</v>
+        <v>5449</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1543800</v>
+        <v>2114100</v>
       </c>
       <c r="G102" t="n">
-        <v>874286000</v>
+        <v>3695597000</v>
       </c>
       <c r="H102" t="n">
-        <v>566.3207669387226</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="I102" t="n">
-        <v>5.779999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S100S4PN.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4232,401 +4232,401 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4739</v>
+        <v>6232</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>15400600</v>
+        <v>1499000</v>
       </c>
       <c r="G103" t="n">
-        <v>66216726000</v>
+        <v>1369002000</v>
       </c>
       <c r="H103" t="n">
-        <v>4299.619884939548</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I103" t="n">
-        <v>6.419999999999999</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100SB0S.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2501</v>
+        <v>6237</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4010500</v>
+        <v>1129500</v>
       </c>
       <c r="G104" t="n">
-        <v>10817766000</v>
+        <v>1537738000</v>
       </c>
       <c r="H104" t="n">
-        <v>2697.360927565142</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="I104" t="n">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4023</v>
+        <v>4987</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>100</v>
+        <v>1543800</v>
       </c>
       <c r="G105" t="n">
-        <v>796000</v>
+        <v>874286000</v>
       </c>
       <c r="H105" t="n">
-        <v>7960</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5844</v>
+        <v>4739</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4998800</v>
+        <v>15400600</v>
       </c>
       <c r="G106" t="n">
-        <v>24949147000</v>
+        <v>66216726000</v>
       </c>
       <c r="H106" t="n">
-        <v>4991.027246539169</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I106" t="n">
-        <v>6.59</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100RYRP.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5947</v>
+        <v>2501</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>7446200</v>
+        <v>4010500</v>
       </c>
       <c r="G107" t="n">
-        <v>21182239000</v>
+        <v>10817766000</v>
       </c>
       <c r="H107" t="n">
-        <v>2844.704547285864</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I107" t="n">
-        <v>4.96</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100RY2V.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5186</v>
+        <v>4023</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1536900</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>4758738000</v>
+        <v>796000</v>
       </c>
       <c r="H108" t="n">
-        <v>3096.322467304314</v>
+        <v>7960</v>
       </c>
       <c r="I108" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>8303</v>
+        <v>5844</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>20000000</v>
+        <v>4998800</v>
       </c>
       <c r="G109" t="n">
-        <v>56014500000</v>
+        <v>24949147000</v>
       </c>
       <c r="H109" t="n">
-        <v>2800.725</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I109" t="n">
-        <v>9.75</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RYRP.zip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2812</v>
+        <v>5947</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+        <v>7446200</v>
+      </c>
+      <c r="G110" t="n">
+        <v>21182239000</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2844.704547285864</v>
+      </c>
       <c r="I110" t="n">
-        <v>9.779999999999999</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S100RU33.zip</t>
+          <t>S100RY2V.zip</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5451</v>
+        <v>5186</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1752800</v>
+        <v>1536900</v>
       </c>
       <c r="G111" t="n">
-        <v>5669831000</v>
+        <v>4758738000</v>
       </c>
       <c r="H111" t="n">
-        <v>3234.727863989046</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="I111" t="n">
-        <v>5.029999999999999</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>9072</v>
+        <v>8303</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>8377400</v>
+        <v>20000000</v>
       </c>
       <c r="G112" t="n">
-        <v>13394541000</v>
+        <v>56014500000</v>
       </c>
       <c r="H112" t="n">
-        <v>1598.889989734285</v>
+        <v>2800.725</v>
       </c>
       <c r="I112" t="n">
-        <v>12.74</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S100RSA5.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5194</v>
+        <v>2812</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1068798</v>
-      </c>
-      <c r="G113" t="n">
-        <v>997342000</v>
-      </c>
-      <c r="H113" t="n">
-        <v>933.1435874692879</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>9.77</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S100RIEU.zip</t>
+          <t>S100RU33.zip</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4635,327 +4635,331 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>8871</v>
+        <v>5451</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1807700</v>
+        <v>1752800</v>
       </c>
       <c r="G114" t="n">
-        <v>3235548000</v>
+        <v>5669831000</v>
       </c>
       <c r="H114" t="n">
-        <v>1789.870000553189</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="I114" t="n">
-        <v>5.050000000000001</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S100RGLG.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5929</v>
+        <v>9072</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>11571500</v>
+        <v>8377400</v>
       </c>
       <c r="G115" t="n">
-        <v>15114770000</v>
+        <v>13394541000</v>
       </c>
       <c r="H115" t="n">
-        <v>1306.206628354146</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I115" t="n">
-        <v>5.01</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RSA5.zip</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>8140</v>
+        <v>5194</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1322800</v>
+        <v>1068798</v>
       </c>
       <c r="G116" t="n">
-        <v>4536170000</v>
+        <v>997342000</v>
       </c>
       <c r="H116" t="n">
-        <v>3429.218324765649</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="I116" t="n">
-        <v>5.29</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100RIEU.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1878</v>
+        <v>8871</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3452100</v>
+        <v>1807700</v>
       </c>
       <c r="G117" t="n">
-        <v>44793976000</v>
+        <v>3235548000</v>
       </c>
       <c r="H117" t="n">
-        <v>12975.86280814577</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="I117" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S100QVRX.zip</t>
+          <t>S100RGLG.zip</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1882</v>
+        <v>5929</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>533500</v>
+        <v>11571500</v>
       </c>
       <c r="G118" t="n">
-        <v>2009924000</v>
+        <v>15114770000</v>
       </c>
       <c r="H118" t="n">
-        <v>3767.430178069353</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="I118" t="n">
-        <v>5.11</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>S100QV9B.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3593</v>
+        <v>8140</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1637060</v>
+        <v>1322800</v>
       </c>
       <c r="G119" t="n">
-        <v>5502657000</v>
+        <v>4536170000</v>
       </c>
       <c r="H119" t="n">
-        <v>3361.304411567078</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I119" t="n">
-        <v>6.48</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1861</v>
+        <v>1878</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3102784</v>
+        <v>3452100</v>
       </c>
       <c r="G120" t="n">
-        <v>8614573000</v>
+        <v>44793976000</v>
       </c>
       <c r="H120" t="n">
-        <v>2776.401128792723</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="I120" t="n">
-        <v>7.07</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QVRX.zip</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>7157</v>
+        <v>1882</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4536300</v>
+        <v>533500</v>
       </c>
       <c r="G121" t="n">
-        <v>4025006000</v>
+        <v>2009924000</v>
       </c>
       <c r="H121" t="n">
-        <v>887.288318673809</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="I121" t="n">
-        <v>6.5</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QV9B.zip</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>7350</v>
+        <v>3593</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
+        <v>1637060</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5502657000</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3361.304411567078</v>
+      </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S100QRVC.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4964,35 +4968,35 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3549</v>
+        <v>1861</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1735200</v>
+        <v>3102784</v>
       </c>
       <c r="G123" t="n">
-        <v>11532479000</v>
+        <v>8614573000</v>
       </c>
       <c r="H123" t="n">
-        <v>6646.195827570309</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="I123" t="n">
-        <v>5.5</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5001,146 +5005,142 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3391</v>
+        <v>7157</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>6354522</v>
+        <v>4536300</v>
       </c>
       <c r="G124" t="n">
-        <v>28876223000</v>
+        <v>4025006000</v>
       </c>
       <c r="H124" t="n">
-        <v>4544.200649553184</v>
+        <v>887.288318673809</v>
       </c>
       <c r="I124" t="n">
-        <v>12.84</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6770</v>
+        <v>7350</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>11259700</v>
-      </c>
-      <c r="G125" t="n">
-        <v>14161429000</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1257.709264012363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>5.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QRVC.zip</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1951</v>
+        <v>3549</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>5561200</v>
+        <v>1735200</v>
       </c>
       <c r="G126" t="n">
-        <v>12623472000</v>
+        <v>11532479000</v>
       </c>
       <c r="H126" t="n">
-        <v>2269.918722577861</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="I126" t="n">
-        <v>5.06</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QRUW.zip</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3085</v>
+        <v>3391</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1756300</v>
+        <v>6354522</v>
       </c>
       <c r="G127" t="n">
-        <v>4694343000</v>
+        <v>28876223000</v>
       </c>
       <c r="H127" t="n">
-        <v>2672.859420372374</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="I127" t="n">
-        <v>5.31</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5149,397 +5149,397 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>9842</v>
+        <v>6770</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2082200</v>
+        <v>11259700</v>
       </c>
       <c r="G128" t="n">
-        <v>3059101000</v>
+        <v>14161429000</v>
       </c>
       <c r="H128" t="n">
-        <v>1469.167707232735</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I128" t="n">
-        <v>5.029999999999999</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S100QI52.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>9672</v>
+        <v>1951</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2410900</v>
+        <v>5561200</v>
       </c>
       <c r="G129" t="n">
-        <v>9382590000</v>
+        <v>12623472000</v>
       </c>
       <c r="H129" t="n">
-        <v>3891.73752540545</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I129" t="n">
-        <v>8.380000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3558</v>
+        <v>3085</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1214200</v>
+        <v>1756300</v>
       </c>
       <c r="G130" t="n">
-        <v>1538785000</v>
+        <v>4694343000</v>
       </c>
       <c r="H130" t="n">
-        <v>1267.324164058639</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I130" t="n">
-        <v>10.57</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2329</v>
+        <v>9842</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
+        <v>2082200</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3059101000</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1469.167707232735</v>
+      </c>
       <c r="I131" t="n">
-        <v>9.550000000000001</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QI52.zip</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2329</v>
+        <v>9672</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
+        <v>2410900</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9382590000</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3891.73752540545</v>
+      </c>
       <c r="I132" t="n">
-        <v>9.550000000000001</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4324</v>
+        <v>3558</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>13655200</v>
+        <v>1214200</v>
       </c>
       <c r="G133" t="n">
-        <v>56753467000</v>
+        <v>1538785000</v>
       </c>
       <c r="H133" t="n">
-        <v>4156.179843576074</v>
+        <v>1267.324164058639</v>
       </c>
       <c r="I133" t="n">
-        <v>5.050000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QF8K.zip</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3608</v>
+        <v>2329</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4569000</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2005111000</v>
-      </c>
-      <c r="H134" t="n">
-        <v>438.851170934559</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>5.07</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>6804</v>
+        <v>2329</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3315900</v>
-      </c>
-      <c r="G135" t="n">
-        <v>4322098000</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1303.446424801713</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>5.26</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>6236</v>
+        <v>4324</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>911500</v>
+        <v>13655200</v>
       </c>
       <c r="G136" t="n">
-        <v>1306557000</v>
+        <v>56753467000</v>
       </c>
       <c r="H136" t="n">
-        <v>1433.414152495886</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I136" t="n">
-        <v>19.45</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>6770</v>
+        <v>3608</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2344200</v>
+        <v>4569000</v>
       </c>
       <c r="G137" t="n">
-        <v>2853488000</v>
+        <v>2005111000</v>
       </c>
       <c r="H137" t="n">
-        <v>1217.254500469243</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I137" t="n">
-        <v>1.07</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>7272</v>
+        <v>6804</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>17688500</v>
+        <v>3315900</v>
       </c>
       <c r="G138" t="n">
-        <v>52513090000</v>
+        <v>4322098000</v>
       </c>
       <c r="H138" t="n">
-        <v>2968.770104870396</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I138" t="n">
-        <v>5.050000000000001</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5548,134 +5548,245 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4956</v>
+        <v>6236</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2039200</v>
+        <v>911500</v>
       </c>
       <c r="G139" t="n">
-        <v>3273303000</v>
+        <v>1306557000</v>
       </c>
       <c r="H139" t="n">
-        <v>1605.189780306002</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I139" t="n">
-        <v>5.01</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>8057</v>
+        <v>6770</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>787800</v>
+        <v>2344200</v>
       </c>
       <c r="G140" t="n">
-        <v>2754799000</v>
+        <v>2853488000</v>
       </c>
       <c r="H140" t="n">
-        <v>3496.825336379792</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I140" t="n">
-        <v>7.56</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3391</v>
+        <v>7272</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2617759</v>
+        <v>17688500</v>
       </c>
       <c r="G141" t="n">
-        <v>21628867000</v>
+        <v>52513090000</v>
       </c>
       <c r="H141" t="n">
-        <v>8262.359904024779</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I141" t="n">
-        <v>5.29</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>S100PYKO.zip</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>4956</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>2039200</v>
+      </c>
+      <c r="G142" t="n">
+        <v>3273303000</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1605.189780306002</v>
+      </c>
+      <c r="I142" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>S100PVDC.zip</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>8057</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>787800</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2754799000</v>
+      </c>
+      <c r="H143" t="n">
+        <v>3496.825336379792</v>
+      </c>
+      <c r="I143" t="n">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>S100PV98.zip</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>3391</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>2617759</v>
+      </c>
+      <c r="G144" t="n">
+        <v>21628867000</v>
+      </c>
+      <c r="H144" t="n">
+        <v>8262.359904024779</v>
+      </c>
+      <c r="I144" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
           <t>S100PV61.zip</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D145" t="n">
         <v>3132</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2022-12-15</t>
         </is>
       </c>
-      <c r="F142" t="n">
+      <c r="F145" t="n">
         <v>4697500</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G145" t="n">
         <v>8653324000</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H145" t="n">
         <v>1842.11261309207</v>
       </c>
-      <c r="I142" t="n">
+      <c r="I145" t="n">
         <v>7.539999999999999</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,38 +483,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100X894.zip</t>
+          <t>S100X96D.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-11-28_01_2025-12-05.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2025-12-03_01_2025-12-10.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8011</v>
+        <v>6201</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>551300</v>
+        <v>16322100</v>
       </c>
       <c r="G2" t="n">
-        <v>1831405000</v>
+        <v>268179335457000</v>
       </c>
       <c r="H2" t="n">
-        <v>3321.975331035734</v>
+        <v>16430443.10823975</v>
       </c>
       <c r="I2" t="n">
-        <v>5.36</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="3">
@@ -557,12 +557,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100X8JJ.zip</t>
+          <t>S100X894.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-11-26_01_2025-12-05.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-11-28_01_2025-12-05.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,72 +571,72 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4549</v>
+        <v>8011</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2546351</v>
+        <v>551300</v>
       </c>
       <c r="G4" t="n">
-        <v>4958319000</v>
+        <v>1831405000</v>
       </c>
       <c r="H4" t="n">
-        <v>1947.225264702313</v>
+        <v>3321.975331035734</v>
       </c>
       <c r="I4" t="n">
-        <v>7.37</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100X1A3.zip</t>
+          <t>S100X8JJ.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-11-05_01_2025-11-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-11-26_01_2025-12-05.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7940</v>
+        <v>4549</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>2546351</v>
       </c>
       <c r="G5" t="n">
-        <v>101000</v>
+        <v>4958319000</v>
       </c>
       <c r="H5" t="n">
-        <v>1010</v>
+        <v>1947.225264702313</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100WWWV.zip</t>
+          <t>S100X1A3.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-11-05_01_2025-11-12.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,21 +645,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6890</v>
+        <v>7940</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>203000</v>
+        <v>101000</v>
       </c>
       <c r="H6" t="n">
-        <v>2030</v>
+        <v>1010</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WWOW.zip</t>
+          <t>S100WWWV.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -682,21 +682,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2432</v>
+        <v>6890</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>226000</v>
+        <v>203000</v>
       </c>
       <c r="H7" t="n">
-        <v>2260</v>
+        <v>2030</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -705,12 +705,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100WSIC.zip</t>
+          <t>S100WWOW.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,21 +719,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6875</v>
+        <v>2432</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>487000</v>
+        <v>226000</v>
       </c>
       <c r="H8" t="n">
-        <v>4870</v>
+        <v>2260</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -742,12 +742,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100WQFH.zip</t>
+          <t>S100WSIC.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -756,21 +756,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4917</v>
+        <v>6875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>204000</v>
+        <v>487000</v>
       </c>
       <c r="H9" t="n">
-        <v>2040</v>
+        <v>4870</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -779,12 +779,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100WQ4O.zip</t>
+          <t>S100WQFH.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -793,109 +793,109 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8233</v>
+        <v>4917</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>261400</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>287906000</v>
+        <v>204000</v>
       </c>
       <c r="H10" t="n">
-        <v>1101.400153022188</v>
+        <v>2040</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100WO9C.zip</t>
+          <t>S100WQ4O.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2229</v>
+        <v>8233</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8012900</v>
+        <v>261400</v>
       </c>
       <c r="G11" t="n">
-        <v>23390757000</v>
+        <v>287906000</v>
       </c>
       <c r="H11" t="n">
-        <v>2919.137515755844</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="I11" t="n">
-        <v>5.98</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5983</v>
+        <v>2229</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>44800</v>
+        <v>8012900</v>
       </c>
       <c r="G12" t="n">
-        <v>315399000</v>
+        <v>23390757000</v>
       </c>
       <c r="H12" t="n">
-        <v>7040.15625</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I12" t="n">
-        <v>4.07</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -927,308 +927,308 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100WKF3.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6104</v>
+        <v>5983</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1297500</v>
+        <v>44800</v>
       </c>
       <c r="G14" t="n">
-        <v>4476090000</v>
+        <v>315399000</v>
       </c>
       <c r="H14" t="n">
-        <v>3449.780346820809</v>
+        <v>7040.15625</v>
       </c>
       <c r="I14" t="n">
-        <v>5.23</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100WCIP.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5331</v>
+        <v>6104</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1481600</v>
+        <v>1297500</v>
       </c>
       <c r="G15" t="n">
-        <v>5294365000</v>
+        <v>4476090000</v>
       </c>
       <c r="H15" t="n">
-        <v>3573.410502159827</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WCIP.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6952</v>
+        <v>5331</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12332900</v>
+        <v>1481600</v>
       </c>
       <c r="G16" t="n">
-        <v>14653495000</v>
+        <v>5294365000</v>
       </c>
       <c r="H16" t="n">
-        <v>1188.162962482466</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="I16" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6145</v>
+        <v>6952</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>12332900</v>
       </c>
       <c r="G17" t="n">
-        <v>171000</v>
+        <v>14653495000</v>
       </c>
       <c r="H17" t="n">
-        <v>1710</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100WACZ.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8715</v>
+        <v>6145</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3810400</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>2500615000</v>
+        <v>171000</v>
       </c>
       <c r="H18" t="n">
-        <v>656.2604975855553</v>
+        <v>1710</v>
       </c>
       <c r="I18" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100W5LT.zip</t>
+          <t>S100WACZ.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8585</v>
+        <v>8715</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8986800</v>
+        <v>3810400</v>
       </c>
       <c r="G19" t="n">
-        <v>7174886000</v>
+        <v>2500615000</v>
       </c>
       <c r="H19" t="n">
-        <v>798.3805136422309</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="I19" t="n">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100W5LT.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6908</v>
+        <v>8585</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>400</v>
+        <v>8986800</v>
       </c>
       <c r="G20" t="n">
-        <v>992000</v>
+        <v>7174886000</v>
       </c>
       <c r="H20" t="n">
-        <v>2480</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100VV1I.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8923</v>
+        <v>6908</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2434800</v>
+        <v>400</v>
       </c>
       <c r="G21" t="n">
-        <v>4266809000</v>
+        <v>992000</v>
       </c>
       <c r="H21" t="n">
-        <v>1752.426893379333</v>
+        <v>2480</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VUUK.zip</t>
+          <t>S100VV1I.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1237,190 +1237,190 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9069</v>
+        <v>8923</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8793900</v>
+        <v>2434800</v>
       </c>
       <c r="G22" t="n">
-        <v>13684104000</v>
+        <v>4266809000</v>
       </c>
       <c r="H22" t="n">
-        <v>1556.090471804319</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="I22" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100VUUK.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1878</v>
+        <v>9069</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3475000</v>
+        <v>8793900</v>
       </c>
       <c r="G23" t="n">
-        <v>47745269000</v>
+        <v>13684104000</v>
       </c>
       <c r="H23" t="n">
-        <v>13739.64575539568</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="I23" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VQJZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3076</v>
+        <v>3328</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2841700</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5705436000</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2007.754513143541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VQJZ.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9302</v>
+        <v>3076</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3799000</v>
+        <v>2841700</v>
       </c>
       <c r="G26" t="n">
-        <v>5671170000</v>
+        <v>5705436000</v>
       </c>
       <c r="H26" t="n">
-        <v>1492.806001579363</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="I26" t="n">
-        <v>5.07</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3106</v>
+        <v>9302</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1428,101 +1428,101 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>900156</v>
+        <v>3799000</v>
       </c>
       <c r="G27" t="n">
-        <v>4095263000</v>
+        <v>5671170000</v>
       </c>
       <c r="H27" t="n">
-        <v>4549.503641591014</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9684</v>
+        <v>3106</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6704059</v>
+        <v>900156</v>
       </c>
       <c r="G28" t="n">
-        <v>42054369000</v>
+        <v>4095263000</v>
       </c>
       <c r="H28" t="n">
-        <v>6272.971195510064</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I28" t="n">
-        <v>5.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G29" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H29" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1531,21 +1531,21 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H30" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1554,38 +1554,38 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6927</v>
+        <v>6332</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1142700</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>1023871000</v>
+        <v>141000</v>
       </c>
       <c r="H31" t="n">
-        <v>896.0103264198827</v>
+        <v>1410</v>
       </c>
       <c r="I31" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1628,160 +1628,160 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4676</v>
+        <v>6927</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G33" t="n">
-        <v>242000</v>
+        <v>1023871000</v>
       </c>
       <c r="H33" t="n">
-        <v>2420</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H34" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I34" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G35" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H35" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I35" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G36" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H36" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1790,192 +1790,192 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H37" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100VCMT.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3132</v>
+        <v>6890</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>8970900</v>
+        <v>30000</v>
       </c>
       <c r="G38" t="n">
-        <v>10240398000</v>
+        <v>71610000</v>
       </c>
       <c r="H38" t="n">
-        <v>1141.512891683109</v>
+        <v>2387</v>
       </c>
       <c r="I38" t="n">
-        <v>5.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VCMT.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4512</v>
+        <v>3132</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2137400</v>
+        <v>8970900</v>
       </c>
       <c r="G39" t="n">
-        <v>620573000</v>
+        <v>10240398000</v>
       </c>
       <c r="H39" t="n">
-        <v>290.3401328717133</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="I39" t="n">
-        <v>6.140000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G40" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H40" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9987</v>
+        <v>9006</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3888200</v>
+        <v>30000</v>
       </c>
       <c r="G41" t="n">
-        <v>16086019000</v>
+        <v>34824000</v>
       </c>
       <c r="H41" t="n">
-        <v>4137.137750115735</v>
+        <v>1160.8</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100V7YO.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4626</v>
+        <v>9987</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1983,27 +1983,27 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4670190</v>
+        <v>3888200</v>
       </c>
       <c r="G42" t="n">
-        <v>16652257000</v>
+        <v>16086019000</v>
       </c>
       <c r="H42" t="n">
-        <v>3565.648720929983</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100V7YO.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2012,72 +2012,72 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7732</v>
+        <v>4626</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7995900</v>
+        <v>4670190</v>
       </c>
       <c r="G43" t="n">
-        <v>16678425000</v>
+        <v>16652257000</v>
       </c>
       <c r="H43" t="n">
-        <v>2085.872134468915</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="I43" t="n">
-        <v>7.380000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3861</v>
+        <v>7732</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>7995900</v>
       </c>
       <c r="G44" t="n">
-        <v>59000</v>
+        <v>16678425000</v>
       </c>
       <c r="H44" t="n">
-        <v>590</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2086,21 +2086,21 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5715</v>
+        <v>3861</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F45" t="n">
         <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>160000</v>
+        <v>59000</v>
       </c>
       <c r="H45" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2109,49 +2109,49 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100UYE4.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3978</v>
+        <v>5715</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2891700</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>3425686000</v>
+        <v>160000</v>
       </c>
       <c r="H46" t="n">
-        <v>1184.661617733513</v>
+        <v>1600</v>
       </c>
       <c r="I46" t="n">
-        <v>7.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100UWW1.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2160,146 +2160,146 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4452</v>
+        <v>3978</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>24347342</v>
+        <v>2891700</v>
       </c>
       <c r="G47" t="n">
-        <v>148917027000</v>
+        <v>3425686000</v>
       </c>
       <c r="H47" t="n">
-        <v>6116.356643776557</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I47" t="n">
-        <v>5.23</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9257</v>
+        <v>4452</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>24347342</v>
       </c>
       <c r="G48" t="n">
-        <v>57000</v>
+        <v>148917027000</v>
       </c>
       <c r="H48" t="n">
-        <v>570</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100UMDQ.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>9531</v>
+        <v>9257</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>19554300</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>64960321000</v>
+        <v>57000</v>
       </c>
       <c r="H49" t="n">
-        <v>3322.047887165483</v>
+        <v>570</v>
       </c>
       <c r="I49" t="n">
-        <v>5.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100UORL.zip</t>
+          <t>S100UMDQ.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4385</v>
+        <v>9531</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>8815360</v>
+        <v>19554300</v>
       </c>
       <c r="G50" t="n">
-        <v>17684138000</v>
+        <v>64960321000</v>
       </c>
       <c r="H50" t="n">
-        <v>2006.059650428343</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="I50" t="n">
-        <v>5.37</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100UMI2.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2308,35 +2308,35 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>7984</v>
+        <v>4385</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6096500</v>
+        <v>8815360</v>
       </c>
       <c r="G51" t="n">
-        <v>13153972000</v>
+        <v>17684138000</v>
       </c>
       <c r="H51" t="n">
-        <v>2157.626835069302</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I51" t="n">
-        <v>5.02</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100UMJC.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2345,192 +2345,192 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1973</v>
+        <v>7984</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>8973383</v>
+        <v>6096500</v>
       </c>
       <c r="G52" t="n">
-        <v>24947403000</v>
+        <v>13153972000</v>
       </c>
       <c r="H52" t="n">
-        <v>2780.155823060266</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I52" t="n">
-        <v>6.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6908</v>
+        <v>1973</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>502000</v>
+        <v>8973383</v>
       </c>
       <c r="G53" t="n">
-        <v>1257178000</v>
+        <v>24947403000</v>
       </c>
       <c r="H53" t="n">
-        <v>2504.338645418327</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I53" t="n">
-        <v>2.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100UIC4.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3765</v>
+        <v>6908</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4552900</v>
+        <v>502000</v>
       </c>
       <c r="G54" t="n">
-        <v>13383536000</v>
+        <v>1257178000</v>
       </c>
       <c r="H54" t="n">
-        <v>2939.562915943684</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I54" t="n">
-        <v>5.47</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UIC4.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5482</v>
+        <v>3765</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>433300</v>
+        <v>4552900</v>
       </c>
       <c r="G55" t="n">
-        <v>1367192000</v>
+        <v>13383536000</v>
       </c>
       <c r="H55" t="n">
-        <v>3155.301177013616</v>
+        <v>2939.562915943684</v>
       </c>
       <c r="I55" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4272</v>
+        <v>5482</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>26855100</v>
+        <v>433300</v>
       </c>
       <c r="G56" t="n">
-        <v>29860350000</v>
+        <v>1367192000</v>
       </c>
       <c r="H56" t="n">
-        <v>1111.90611839092</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I56" t="n">
-        <v>15.75</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>8141</v>
+        <v>4272</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2538,27 +2538,27 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G57" t="n">
-        <v>93000</v>
+        <v>29860350000</v>
       </c>
       <c r="H57" t="n">
-        <v>930</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2567,21 +2567,21 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6145</v>
+        <v>8141</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F58" t="n">
         <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>171000</v>
+        <v>93000</v>
       </c>
       <c r="H58" t="n">
-        <v>1710</v>
+        <v>930</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2590,44 +2590,44 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4205</v>
+        <v>6145</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>14426600</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>24829312000</v>
+        <v>171000</v>
       </c>
       <c r="H59" t="n">
-        <v>1721.078563209627</v>
+        <v>1710</v>
       </c>
       <c r="I59" t="n">
-        <v>6.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100UBH9.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3569</v>
+        <v>4205</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2649,175 +2649,175 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4271704</v>
+        <v>14426600</v>
       </c>
       <c r="G60" t="n">
-        <v>5808044000</v>
+        <v>24829312000</v>
       </c>
       <c r="H60" t="n">
-        <v>1359.655069733296</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I60" t="n">
-        <v>6.279999999999999</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S100U9FC.zip</t>
+          <t>S100UBH9.zip</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6516</v>
+        <v>3569</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>679500</v>
+        <v>4271704</v>
       </c>
       <c r="G61" t="n">
-        <v>4792335000</v>
+        <v>5808044000</v>
       </c>
       <c r="H61" t="n">
-        <v>7052.737306843267</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="I61" t="n">
-        <v>5.24</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100U9FC.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2327</v>
+        <v>6516</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>9154320</v>
+        <v>679500</v>
       </c>
       <c r="G62" t="n">
-        <v>23450671000</v>
+        <v>4792335000</v>
       </c>
       <c r="H62" t="n">
-        <v>2561.705402476645</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3989</v>
+        <v>2327</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1206000</v>
+        <v>9154320</v>
       </c>
       <c r="G63" t="n">
-        <v>787604000</v>
+        <v>23450671000</v>
       </c>
       <c r="H63" t="n">
-        <v>653.0713101160862</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I63" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>6908</v>
+        <v>3989</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>1206000</v>
       </c>
       <c r="G64" t="n">
-        <v>288000</v>
+        <v>787604000</v>
       </c>
       <c r="H64" t="n">
-        <v>2880</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2826,72 +2826,72 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5988</v>
+        <v>6908</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>527300</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>1212090000</v>
+        <v>288000</v>
       </c>
       <c r="H65" t="n">
-        <v>2298.672482457804</v>
+        <v>2880</v>
       </c>
       <c r="I65" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3529</v>
+        <v>5988</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>998000</v>
+        <v>527300</v>
       </c>
       <c r="G66" t="n">
-        <v>667598000</v>
+        <v>1212090000</v>
       </c>
       <c r="H66" t="n">
-        <v>668.9358717434869</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I66" t="n">
-        <v>5.76</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2900,81 +2900,81 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>7305</v>
+        <v>3529</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>309800</v>
+        <v>998000</v>
       </c>
       <c r="G67" t="n">
-        <v>1321438000</v>
+        <v>667598000</v>
       </c>
       <c r="H67" t="n">
-        <v>4265.455132343447</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I67" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>5541</v>
+        <v>7305</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>309800</v>
       </c>
       <c r="G68" t="n">
-        <v>127000</v>
+        <v>1321438000</v>
       </c>
       <c r="H68" t="n">
-        <v>1270</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2168</v>
+        <v>5541</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2982,64 +2982,64 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2094200</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>4445105000</v>
+        <v>127000</v>
       </c>
       <c r="H69" t="n">
-        <v>2122.579027791042</v>
+        <v>1270</v>
       </c>
       <c r="I69" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>8803</v>
+        <v>2168</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>2094200</v>
       </c>
       <c r="G70" t="n">
-        <v>361000</v>
+        <v>4445105000</v>
       </c>
       <c r="H70" t="n">
-        <v>3610</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3059,10 +3059,10 @@
         <v>4062075</v>
       </c>
       <c r="G71" t="n">
-        <v>8729143000</v>
+        <v>20578848000</v>
       </c>
       <c r="H71" t="n">
-        <v>2148.936934940886</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I71" t="n">
         <v>5.2</v>
@@ -3071,12 +3071,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3096,10 +3096,10 @@
         <v>4062075</v>
       </c>
       <c r="G72" t="n">
-        <v>20578848000</v>
+        <v>8729143000</v>
       </c>
       <c r="H72" t="n">
-        <v>5066.092575838703</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I72" t="n">
         <v>5.2</v>
@@ -3108,160 +3108,160 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100U325.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>9882</v>
+        <v>8803</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2505000</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>5292086000</v>
+        <v>361000</v>
       </c>
       <c r="H73" t="n">
-        <v>2112.609181636727</v>
+        <v>3610</v>
       </c>
       <c r="I73" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U325.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8129</v>
+        <v>9882</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>7258230</v>
+        <v>2505000</v>
       </c>
       <c r="G74" t="n">
-        <v>24720910000</v>
+        <v>5292086000</v>
       </c>
       <c r="H74" t="n">
-        <v>3405.914389596362</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="I74" t="n">
-        <v>9.460000000000001</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100U2CM.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2206</v>
+        <v>8129</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3462600</v>
+        <v>7258230</v>
       </c>
       <c r="G75" t="n">
-        <v>14385811000</v>
+        <v>24720910000</v>
       </c>
       <c r="H75" t="n">
-        <v>4154.626869982095</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I75" t="n">
-        <v>5.06</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U2CM.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3666</v>
+        <v>2206</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1053200</v>
+        <v>3462600</v>
       </c>
       <c r="G76" t="n">
-        <v>663809000</v>
+        <v>14385811000</v>
       </c>
       <c r="H76" t="n">
-        <v>630.278199772123</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="I76" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3270,192 +3270,192 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4347</v>
+        <v>3666</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>614893</v>
+        <v>1053200</v>
       </c>
       <c r="G77" t="n">
-        <v>940560000</v>
+        <v>663809000</v>
       </c>
       <c r="H77" t="n">
-        <v>1529.631984751819</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I77" t="n">
-        <v>8.200000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8129</v>
+        <v>4347</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3886330</v>
+        <v>614893</v>
       </c>
       <c r="G78" t="n">
-        <v>10549885000</v>
+        <v>940560000</v>
       </c>
       <c r="H78" t="n">
-        <v>2714.613787300615</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I78" t="n">
-        <v>5.06</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8929</v>
+        <v>8129</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1260812</v>
+        <v>3886330</v>
       </c>
       <c r="G79" t="n">
-        <v>1699255000</v>
+        <v>10549885000</v>
       </c>
       <c r="H79" t="n">
-        <v>1347.74653160027</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I79" t="n">
-        <v>5.140000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7278</v>
+        <v>8929</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>115400</v>
+        <v>1260812</v>
       </c>
       <c r="G80" t="n">
-        <v>302115000</v>
+        <v>1699255000</v>
       </c>
       <c r="H80" t="n">
-        <v>2617.980935875217</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I80" t="n">
-        <v>0.24</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3591</v>
+        <v>7278</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2846091</v>
+        <v>115400</v>
       </c>
       <c r="G81" t="n">
-        <v>6888596000</v>
+        <v>302115000</v>
       </c>
       <c r="H81" t="n">
-        <v>2420.370957920882</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I81" t="n">
-        <v>5.13</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100TK8M.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4042</v>
+        <v>3591</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3463,249 +3463,249 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>16459200</v>
+        <v>2846091</v>
       </c>
       <c r="G82" t="n">
-        <v>33451116000</v>
+        <v>6888596000</v>
       </c>
       <c r="H82" t="n">
-        <v>2032.365850102071</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I82" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TK8M.zip</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-06-04_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4521</v>
+        <v>4042</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>16459200</v>
       </c>
       <c r="G83" t="n">
-        <v>353000</v>
+        <v>33451116000</v>
       </c>
       <c r="H83" t="n">
-        <v>3530</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100TJBE.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>8923</v>
+        <v>4521</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2445600</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>3856031000</v>
+        <v>353000</v>
       </c>
       <c r="H84" t="n">
-        <v>1576.721867844292</v>
+        <v>3530</v>
       </c>
       <c r="I84" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TJBE.zip</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4347</v>
+        <v>8923</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>400493</v>
+        <v>2445600</v>
       </c>
       <c r="G85" t="n">
-        <v>580713000</v>
+        <v>3856031000</v>
       </c>
       <c r="H85" t="n">
-        <v>1449.995380693296</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="I85" t="n">
-        <v>5.06</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>9024</v>
+        <v>4347</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>16207437</v>
+        <v>400493</v>
       </c>
       <c r="G86" t="n">
-        <v>27823532000</v>
+        <v>580713000</v>
       </c>
       <c r="H86" t="n">
-        <v>1716.713876475349</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I86" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1518</v>
+        <v>9024</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>16207437</v>
       </c>
       <c r="G87" t="n">
-        <v>292000</v>
+        <v>27823532000</v>
       </c>
       <c r="H87" t="n">
-        <v>2920</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>7731</v>
+        <v>1518</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>26675255000</v>
+        <v>292000</v>
       </c>
       <c r="H88" t="n">
-        <v>1512.21980974841</v>
+        <v>2920</v>
       </c>
       <c r="I88" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3714,21 +3714,21 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4536</v>
+        <v>7731</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>18290500</v>
+        <v>17639800</v>
       </c>
       <c r="G89" t="n">
-        <v>24591924000</v>
+        <v>26675255000</v>
       </c>
       <c r="H89" t="n">
-        <v>1344.518957928979</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I89" t="n">
         <v>5.02</v>
@@ -3737,197 +3737,197 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4185</v>
+        <v>4536</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>100</v>
+        <v>18290500</v>
       </c>
       <c r="G90" t="n">
-        <v>405000</v>
+        <v>24591924000</v>
       </c>
       <c r="H90" t="n">
-        <v>4050</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4549</v>
+        <v>4185</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2006900</v>
+        <v>100</v>
       </c>
       <c r="G91" t="n">
-        <v>3367745000</v>
+        <v>405000</v>
       </c>
       <c r="H91" t="n">
-        <v>1678.083113259255</v>
+        <v>4050</v>
       </c>
       <c r="I91" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100SZYE.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9627</v>
+        <v>4549</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3401100</v>
+        <v>2006900</v>
       </c>
       <c r="G92" t="n">
-        <v>9648726000</v>
+        <v>3367745000</v>
       </c>
       <c r="H92" t="n">
-        <v>2836.942753814942</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I92" t="n">
-        <v>9.6</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>8304</v>
+        <v>9627</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>3401100</v>
       </c>
       <c r="G93" t="n">
-        <v>219000</v>
+        <v>9648726000</v>
       </c>
       <c r="H93" t="n">
-        <v>2190</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3328</v>
+        <v>8304</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>845300</v>
+        <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>1219326000</v>
+        <v>219000</v>
       </c>
       <c r="H94" t="n">
-        <v>1442.477227019993</v>
+        <v>2190</v>
       </c>
       <c r="I94" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3940,142 +3940,142 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>675500</v>
+        <v>845300</v>
       </c>
       <c r="G95" t="n">
-        <v>976503000</v>
+        <v>1219326000</v>
       </c>
       <c r="H95" t="n">
-        <v>1445.60029607698</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I95" t="n">
-        <v>5.220000000000001</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100ST3I.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>8818</v>
+        <v>3328</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2505000</v>
+        <v>675500</v>
       </c>
       <c r="G96" t="n">
-        <v>3361654000</v>
+        <v>976503000</v>
       </c>
       <c r="H96" t="n">
-        <v>1341.977644710579</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I96" t="n">
-        <v>5.09</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100ST3I.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5541</v>
+        <v>8818</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>100</v>
+        <v>2505000</v>
       </c>
       <c r="G97" t="n">
-        <v>117000</v>
+        <v>3361654000</v>
       </c>
       <c r="H97" t="n">
-        <v>1170</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S100SN7U.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>7315</v>
+        <v>5541</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>6994900</v>
+        <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>5874641000</v>
+        <v>117000</v>
       </c>
       <c r="H98" t="n">
-        <v>839.8463166020958</v>
+        <v>1170</v>
       </c>
       <c r="I98" t="n">
-        <v>14.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S100SLMH.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4084,35 +4084,35 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>4837</v>
+        <v>7315</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>5428600</v>
+        <v>6994900</v>
       </c>
       <c r="G99" t="n">
-        <v>4378021000</v>
+        <v>5874641000</v>
       </c>
       <c r="H99" t="n">
-        <v>806.4733080352208</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I99" t="n">
-        <v>9.74</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4121,30 +4121,30 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4293</v>
+        <v>4837</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20896886</v>
+        <v>5428600</v>
       </c>
       <c r="G100" t="n">
-        <v>9376038000</v>
+        <v>4378021000</v>
       </c>
       <c r="H100" t="n">
-        <v>448.6811097117532</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I100" t="n">
-        <v>9.9</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S100SJ27.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4631</v>
+        <v>4293</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4166,349 +4166,349 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>6563759</v>
+        <v>20896886</v>
       </c>
       <c r="G101" t="n">
-        <v>16844475000</v>
+        <v>9376038000</v>
       </c>
       <c r="H101" t="n">
-        <v>2566.284807227078</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I101" t="n">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S100SHYB.zip</t>
+          <t>S100SJ27.zip</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5449</v>
+        <v>4631</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2114100</v>
+        <v>6563759</v>
       </c>
       <c r="G102" t="n">
-        <v>3695597000</v>
+        <v>16844475000</v>
       </c>
       <c r="H102" t="n">
-        <v>1748.071046781136</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="I102" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S100SDCB.zip</t>
+          <t>S100SHYB.zip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>6232</v>
+        <v>5449</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1499000</v>
+        <v>2114100</v>
       </c>
       <c r="G103" t="n">
-        <v>1369002000</v>
+        <v>3695597000</v>
       </c>
       <c r="H103" t="n">
-        <v>913.2768512341561</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="I103" t="n">
-        <v>10.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100SB0S.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6237</v>
+        <v>6232</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1129500</v>
+        <v>1499000</v>
       </c>
       <c r="G104" t="n">
-        <v>1537738000</v>
+        <v>1369002000</v>
       </c>
       <c r="H104" t="n">
-        <v>1361.432492253209</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I104" t="n">
-        <v>5.02</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SB0S.zip</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4987</v>
+        <v>6237</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1543800</v>
+        <v>1129500</v>
       </c>
       <c r="G105" t="n">
-        <v>874286000</v>
+        <v>1537738000</v>
       </c>
       <c r="H105" t="n">
-        <v>566.3207669387226</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="I105" t="n">
-        <v>5.779999999999999</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S100S4PN.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4739</v>
+        <v>4987</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>15400600</v>
+        <v>1543800</v>
       </c>
       <c r="G106" t="n">
-        <v>66216726000</v>
+        <v>874286000</v>
       </c>
       <c r="H106" t="n">
-        <v>4299.619884939548</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I106" t="n">
-        <v>6.419999999999999</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2501</v>
+        <v>4739</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4010500</v>
+        <v>15400600</v>
       </c>
       <c r="G107" t="n">
-        <v>10817766000</v>
+        <v>66216726000</v>
       </c>
       <c r="H107" t="n">
-        <v>2697.360927565142</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I107" t="n">
-        <v>5.09</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4023</v>
+        <v>2501</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>100</v>
+        <v>4010500</v>
       </c>
       <c r="G108" t="n">
-        <v>796000</v>
+        <v>10817766000</v>
       </c>
       <c r="H108" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5844</v>
+        <v>4023</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>24949147000</v>
+        <v>796000</v>
       </c>
       <c r="H109" t="n">
-        <v>4991.027246539169</v>
+        <v>7960</v>
       </c>
       <c r="I109" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S100RYRP.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5947</v>
+        <v>5844</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>7446200</v>
+        <v>4998800</v>
       </c>
       <c r="G110" t="n">
-        <v>21182239000</v>
+        <v>24949147000</v>
       </c>
       <c r="H110" t="n">
-        <v>2844.704547285864</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I110" t="n">
-        <v>4.96</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="111">
@@ -4551,452 +4551,452 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RYRP.zip</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>8303</v>
+        <v>5947</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20000000</v>
+        <v>7446200</v>
       </c>
       <c r="G112" t="n">
-        <v>56014500000</v>
+        <v>21182239000</v>
       </c>
       <c r="H112" t="n">
-        <v>2800.725</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="I112" t="n">
-        <v>9.75</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2812</v>
+        <v>8303</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I113" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S100RU33.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>5451</v>
+        <v>2812</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1752800</v>
-      </c>
-      <c r="G114" t="n">
-        <v>5669831000</v>
-      </c>
-      <c r="H114" t="n">
-        <v>3234.727863989046</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>5.029999999999999</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RU33.zip</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>9072</v>
+        <v>5451</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>8377400</v>
+        <v>1752800</v>
       </c>
       <c r="G115" t="n">
-        <v>13394541000</v>
+        <v>5669831000</v>
       </c>
       <c r="H115" t="n">
-        <v>1598.889989734285</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="I115" t="n">
-        <v>12.74</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S100RSA5.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>5194</v>
+        <v>9072</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1068798</v>
+        <v>8377400</v>
       </c>
       <c r="G116" t="n">
-        <v>997342000</v>
+        <v>13394541000</v>
       </c>
       <c r="H116" t="n">
-        <v>933.1435874692879</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I116" t="n">
-        <v>9.77</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100RIEU.zip</t>
+          <t>S100RSA5.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>8871</v>
+        <v>5194</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1807700</v>
+        <v>1068798</v>
       </c>
       <c r="G117" t="n">
-        <v>3235548000</v>
+        <v>997342000</v>
       </c>
       <c r="H117" t="n">
-        <v>1789.870000553189</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="I117" t="n">
-        <v>5.050000000000001</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S100RGLG.zip</t>
+          <t>S100RIEU.zip</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>5929</v>
+        <v>8871</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>11571500</v>
+        <v>1807700</v>
       </c>
       <c r="G118" t="n">
-        <v>15114770000</v>
+        <v>3235548000</v>
       </c>
       <c r="H118" t="n">
-        <v>1306.206628354146</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="I118" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RGLG.zip</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>8140</v>
+        <v>5929</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1322800</v>
+        <v>11571500</v>
       </c>
       <c r="G119" t="n">
-        <v>4536170000</v>
+        <v>15114770000</v>
       </c>
       <c r="H119" t="n">
-        <v>3429.218324765649</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="I119" t="n">
-        <v>5.29</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1878</v>
+        <v>8140</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3452100</v>
+        <v>1322800</v>
       </c>
       <c r="G120" t="n">
-        <v>44793976000</v>
+        <v>4536170000</v>
       </c>
       <c r="H120" t="n">
-        <v>12975.86280814577</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I120" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S100QVRX.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>533500</v>
+        <v>3452100</v>
       </c>
       <c r="G121" t="n">
-        <v>2009924000</v>
+        <v>44793976000</v>
       </c>
       <c r="H121" t="n">
-        <v>3767.430178069353</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="I121" t="n">
-        <v>5.11</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S100QV9B.zip</t>
+          <t>S100QVRX.zip</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3593</v>
+        <v>1882</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1637060</v>
+        <v>533500</v>
       </c>
       <c r="G122" t="n">
-        <v>5502657000</v>
+        <v>2009924000</v>
       </c>
       <c r="H122" t="n">
-        <v>3361.304411567078</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="I122" t="n">
-        <v>6.48</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QV9B.zip</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1861</v>
+        <v>3593</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3102784</v>
+        <v>1637060</v>
       </c>
       <c r="G123" t="n">
-        <v>8614573000</v>
+        <v>5502657000</v>
       </c>
       <c r="H123" t="n">
-        <v>2776.401128792723</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="I123" t="n">
-        <v>7.07</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7157</v>
+        <v>1861</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5013,97 +5013,97 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4536300</v>
+        <v>3102784</v>
       </c>
       <c r="G124" t="n">
-        <v>4025006000</v>
+        <v>8614573000</v>
       </c>
       <c r="H124" t="n">
-        <v>887.288318673809</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="I124" t="n">
-        <v>6.5</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>7350</v>
+        <v>7157</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
+        <v>4536300</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4025006000</v>
+      </c>
+      <c r="H125" t="n">
+        <v>887.288318673809</v>
+      </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S100QRVC.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3549</v>
+        <v>7350</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1735200</v>
-      </c>
-      <c r="G126" t="n">
-        <v>11532479000</v>
-      </c>
-      <c r="H126" t="n">
-        <v>6646.195827570309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100QRVC.zip</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5112,44 +5112,44 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3391</v>
+        <v>3549</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>6354522</v>
+        <v>1735200</v>
       </c>
       <c r="G127" t="n">
-        <v>28876223000</v>
+        <v>11532479000</v>
       </c>
       <c r="H127" t="n">
-        <v>4544.200649553184</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="I127" t="n">
-        <v>12.84</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QRUW.zip</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>6770</v>
+        <v>3391</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5157,101 +5157,101 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>11259700</v>
+        <v>6354522</v>
       </c>
       <c r="G128" t="n">
-        <v>14161429000</v>
+        <v>28876223000</v>
       </c>
       <c r="H128" t="n">
-        <v>1257.709264012363</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="I128" t="n">
-        <v>5.13</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1951</v>
+        <v>6770</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>5561200</v>
+        <v>11259700</v>
       </c>
       <c r="G129" t="n">
-        <v>12623472000</v>
+        <v>14161429000</v>
       </c>
       <c r="H129" t="n">
-        <v>2269.918722577861</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I129" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3085</v>
+        <v>1951</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1756300</v>
+        <v>5561200</v>
       </c>
       <c r="G130" t="n">
-        <v>4694343000</v>
+        <v>12623472000</v>
       </c>
       <c r="H130" t="n">
-        <v>2672.859420372374</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I130" t="n">
-        <v>5.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5260,142 +5260,146 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>9842</v>
+        <v>3085</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2082200</v>
+        <v>1756300</v>
       </c>
       <c r="G131" t="n">
-        <v>3059101000</v>
+        <v>4694343000</v>
       </c>
       <c r="H131" t="n">
-        <v>1469.167707232735</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I131" t="n">
-        <v>5.029999999999999</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S100QI52.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>9672</v>
+        <v>9842</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2410900</v>
+        <v>2082200</v>
       </c>
       <c r="G132" t="n">
-        <v>9382590000</v>
+        <v>3059101000</v>
       </c>
       <c r="H132" t="n">
-        <v>3891.73752540545</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="I132" t="n">
-        <v>8.380000000000001</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QI52.zip</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3558</v>
+        <v>9672</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1214200</v>
+        <v>2410900</v>
       </c>
       <c r="G133" t="n">
-        <v>1538785000</v>
+        <v>9382590000</v>
       </c>
       <c r="H133" t="n">
-        <v>1267.324164058639</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="I133" t="n">
-        <v>10.57</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2329</v>
+        <v>3558</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
+        <v>1214200</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1267.324164058639</v>
+      </c>
       <c r="I134" t="n">
-        <v>9.550000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QF8K.zip</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5423,303 +5427,299 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>4324</v>
+        <v>2329</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G136" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H136" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>5.050000000000001</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3608</v>
+        <v>4324</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>4569000</v>
+        <v>13655200</v>
       </c>
       <c r="G137" t="n">
-        <v>2005111000</v>
+        <v>56753467000</v>
       </c>
       <c r="H137" t="n">
-        <v>438.851170934559</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I137" t="n">
-        <v>5.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>6804</v>
+        <v>3608</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3315900</v>
+        <v>4569000</v>
       </c>
       <c r="G138" t="n">
-        <v>4322098000</v>
+        <v>2005111000</v>
       </c>
       <c r="H138" t="n">
-        <v>1303.446424801713</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I138" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>6236</v>
+        <v>6804</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>911500</v>
+        <v>3315900</v>
       </c>
       <c r="G139" t="n">
-        <v>1306557000</v>
+        <v>4322098000</v>
       </c>
       <c r="H139" t="n">
-        <v>1433.414152495886</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I139" t="n">
-        <v>19.45</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>6770</v>
+        <v>6236</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2344200</v>
+        <v>911500</v>
       </c>
       <c r="G140" t="n">
-        <v>2853488000</v>
+        <v>1306557000</v>
       </c>
       <c r="H140" t="n">
-        <v>1217.254500469243</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I140" t="n">
-        <v>1.07</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>7272</v>
+        <v>6770</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>17688500</v>
+        <v>2344200</v>
       </c>
       <c r="G141" t="n">
-        <v>52513090000</v>
+        <v>2853488000</v>
       </c>
       <c r="H141" t="n">
-        <v>2968.770104870396</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I141" t="n">
-        <v>5.050000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4956</v>
+        <v>7272</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2039200</v>
+        <v>17688500</v>
       </c>
       <c r="G142" t="n">
-        <v>3273303000</v>
+        <v>52513090000</v>
       </c>
       <c r="H142" t="n">
-        <v>1605.189780306002</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I142" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100PYKO.zip</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>8057</v>
+        <v>4956</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>787800</v>
+        <v>2039200</v>
       </c>
       <c r="G143" t="n">
-        <v>2754799000</v>
+        <v>3273303000</v>
       </c>
       <c r="H143" t="n">
-        <v>3496.825336379792</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="I143" t="n">
-        <v>7.56</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PVDC.zip</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3391</v>
+        <v>8057</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5741,52 +5741,89 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2617759</v>
+        <v>787800</v>
       </c>
       <c r="G144" t="n">
-        <v>21628867000</v>
+        <v>2754799000</v>
       </c>
       <c r="H144" t="n">
-        <v>8262.359904024779</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="I144" t="n">
-        <v>5.29</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>S100PV98.zip</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>3391</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>2617759</v>
+      </c>
+      <c r="G145" t="n">
+        <v>21628867000</v>
+      </c>
+      <c r="H145" t="n">
+        <v>8262.359904024779</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
           <t>S100PV61.zip</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D146" t="n">
         <v>3132</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2022-12-15</t>
         </is>
       </c>
-      <c r="F145" t="n">
+      <c r="F146" t="n">
         <v>4697500</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G146" t="n">
         <v>8653324000</v>
       </c>
-      <c r="H145" t="n">
+      <c r="H146" t="n">
         <v>1842.11261309207</v>
       </c>
-      <c r="I145" t="n">
+      <c r="I146" t="n">
         <v>7.539999999999999</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,58 +520,58 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100X89B.zip</t>
+          <t>S100X9NR.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-11-28_01_2025-12-05.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2025-12-03_02_2025-12-11.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6856</v>
+        <v>6201</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4180400</v>
+        <v>16322100</v>
       </c>
       <c r="G3" t="n">
-        <v>49662804000</v>
+        <v>268179335000</v>
       </c>
       <c r="H3" t="n">
-        <v>11879.91675437757</v>
+        <v>16430.4430802409</v>
       </c>
       <c r="I3" t="n">
-        <v>9.9</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100X894.zip</t>
+          <t>S100X89B.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-11-28_01_2025-12-05.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-11-28_01_2025-12-05.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8011</v>
+        <v>6856</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -579,27 +579,27 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>551300</v>
+        <v>4180400</v>
       </c>
       <c r="G4" t="n">
-        <v>1831405000</v>
+        <v>49662804000</v>
       </c>
       <c r="H4" t="n">
-        <v>3321.975331035734</v>
+        <v>11879.91675437757</v>
       </c>
       <c r="I4" t="n">
-        <v>5.36</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S100X8JJ.zip</t>
+          <t>S100X894.zip</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-11-26_01_2025-12-05.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-11-28_01_2025-12-05.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,72 +608,72 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4549</v>
+        <v>8011</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2546351</v>
+        <v>551300</v>
       </c>
       <c r="G5" t="n">
-        <v>4958319000</v>
+        <v>1831405000</v>
       </c>
       <c r="H5" t="n">
-        <v>1947.225264702313</v>
+        <v>3321.975331035734</v>
       </c>
       <c r="I5" t="n">
-        <v>7.37</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100X1A3.zip</t>
+          <t>S100X8JJ.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-11-05_01_2025-11-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-11-26_01_2025-12-05.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7940</v>
+        <v>4549</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>2546351</v>
       </c>
       <c r="G6" t="n">
-        <v>101000</v>
+        <v>4958319000</v>
       </c>
       <c r="H6" t="n">
-        <v>1010</v>
+        <v>1947.225264702313</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100WWWV.zip</t>
+          <t>S100X1A3.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-11-05_01_2025-11-12.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -682,21 +682,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6890</v>
+        <v>7940</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>203000</v>
+        <v>101000</v>
       </c>
       <c r="H7" t="n">
-        <v>2030</v>
+        <v>1010</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -705,12 +705,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100WWOW.zip</t>
+          <t>S100WWWV.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,21 +719,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2432</v>
+        <v>6890</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>226000</v>
+        <v>203000</v>
       </c>
       <c r="H8" t="n">
-        <v>2260</v>
+        <v>2030</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -742,12 +742,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100WSIC.zip</t>
+          <t>S100WWOW.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -756,21 +756,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6875</v>
+        <v>2432</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>487000</v>
+        <v>226000</v>
       </c>
       <c r="H9" t="n">
-        <v>4870</v>
+        <v>2260</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -779,12 +779,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100WQFH.zip</t>
+          <t>S100WSIC.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4917</v>
+        <v>6875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>204000</v>
+        <v>487000</v>
       </c>
       <c r="H10" t="n">
-        <v>2040</v>
+        <v>4870</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -816,12 +816,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100WQ4O.zip</t>
+          <t>S100WQFH.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -830,109 +830,109 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8233</v>
+        <v>4917</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>261400</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>287906000</v>
+        <v>204000</v>
       </c>
       <c r="H11" t="n">
-        <v>1101.400153022188</v>
+        <v>2040</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100WO9C.zip</t>
+          <t>S100WQ4O.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2229</v>
+        <v>8233</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8012900</v>
+        <v>261400</v>
       </c>
       <c r="G12" t="n">
-        <v>23390757000</v>
+        <v>287906000</v>
       </c>
       <c r="H12" t="n">
-        <v>2919.137515755844</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="I12" t="n">
-        <v>5.98</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5983</v>
+        <v>2229</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>44800</v>
+        <v>8012900</v>
       </c>
       <c r="G13" t="n">
-        <v>315399000</v>
+        <v>23390757000</v>
       </c>
       <c r="H13" t="n">
-        <v>7040.15625</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I13" t="n">
-        <v>4.07</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100WO50.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -964,308 +964,308 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S100WKF3.zip</t>
+          <t>S100WO50.zip</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-12.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6104</v>
+        <v>5983</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1297500</v>
+        <v>44800</v>
       </c>
       <c r="G15" t="n">
-        <v>4476090000</v>
+        <v>315399000</v>
       </c>
       <c r="H15" t="n">
-        <v>3449.780346820809</v>
+        <v>7040.15625</v>
       </c>
       <c r="I15" t="n">
-        <v>5.23</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100WCIP.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5331</v>
+        <v>6104</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1481600</v>
+        <v>1297500</v>
       </c>
       <c r="G16" t="n">
-        <v>5294365000</v>
+        <v>4476090000</v>
       </c>
       <c r="H16" t="n">
-        <v>3573.410502159827</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I16" t="n">
-        <v>5.1</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WCIP.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6952</v>
+        <v>5331</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12332900</v>
+        <v>1481600</v>
       </c>
       <c r="G17" t="n">
-        <v>14653495000</v>
+        <v>5294365000</v>
       </c>
       <c r="H17" t="n">
-        <v>1188.162962482466</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="I17" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6145</v>
+        <v>6952</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>12332900</v>
       </c>
       <c r="G18" t="n">
-        <v>171000</v>
+        <v>14653495000</v>
       </c>
       <c r="H18" t="n">
-        <v>1710</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100WACZ.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8715</v>
+        <v>6145</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3810400</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>2500615000</v>
+        <v>171000</v>
       </c>
       <c r="H19" t="n">
-        <v>656.2604975855553</v>
+        <v>1710</v>
       </c>
       <c r="I19" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100W5LT.zip</t>
+          <t>S100WACZ.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8585</v>
+        <v>8715</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8986800</v>
+        <v>3810400</v>
       </c>
       <c r="G20" t="n">
-        <v>7174886000</v>
+        <v>2500615000</v>
       </c>
       <c r="H20" t="n">
-        <v>798.3805136422309</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="I20" t="n">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100W5LT.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6908</v>
+        <v>8585</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>400</v>
+        <v>8986800</v>
       </c>
       <c r="G21" t="n">
-        <v>992000</v>
+        <v>7174886000</v>
       </c>
       <c r="H21" t="n">
-        <v>2480</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100VV1I.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8923</v>
+        <v>6908</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2434800</v>
+        <v>400</v>
       </c>
       <c r="G22" t="n">
-        <v>4266809000</v>
+        <v>992000</v>
       </c>
       <c r="H22" t="n">
-        <v>1752.426893379333</v>
+        <v>2480</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VUUK.zip</t>
+          <t>S100VV1I.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1274,190 +1274,190 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9069</v>
+        <v>8923</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8793900</v>
+        <v>2434800</v>
       </c>
       <c r="G23" t="n">
-        <v>13684104000</v>
+        <v>4266809000</v>
       </c>
       <c r="H23" t="n">
-        <v>1556.090471804319</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="I23" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100VUUK.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1878</v>
+        <v>9069</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3475000</v>
+        <v>8793900</v>
       </c>
       <c r="G24" t="n">
-        <v>47745269000</v>
+        <v>13684104000</v>
       </c>
       <c r="H24" t="n">
-        <v>13739.64575539568</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="I24" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VQJZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3076</v>
+        <v>3328</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2841700</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5705436000</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2007.754513143541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VQJZ.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9302</v>
+        <v>3076</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3799000</v>
+        <v>2841700</v>
       </c>
       <c r="G27" t="n">
-        <v>5671170000</v>
+        <v>5705436000</v>
       </c>
       <c r="H27" t="n">
-        <v>1492.806001579363</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="I27" t="n">
-        <v>5.07</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3106</v>
+        <v>9302</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1465,101 +1465,101 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>900156</v>
+        <v>3799000</v>
       </c>
       <c r="G28" t="n">
-        <v>4095263000</v>
+        <v>5671170000</v>
       </c>
       <c r="H28" t="n">
-        <v>4549.503641591014</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9684</v>
+        <v>3106</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6704059</v>
+        <v>900156</v>
       </c>
       <c r="G29" t="n">
-        <v>42054369000</v>
+        <v>4095263000</v>
       </c>
       <c r="H29" t="n">
-        <v>6272.971195510064</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I29" t="n">
-        <v>5.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G30" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H30" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1568,21 +1568,21 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H31" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1591,58 +1591,58 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4849</v>
+        <v>6332</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2946942</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>5148132000</v>
+        <v>141000</v>
       </c>
       <c r="H32" t="n">
-        <v>1746.940387696806</v>
+        <v>1410</v>
       </c>
       <c r="I32" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6927</v>
+        <v>4849</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1650,175 +1650,175 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1142700</v>
+        <v>2946942</v>
       </c>
       <c r="G33" t="n">
-        <v>1023871000</v>
+        <v>5148132000</v>
       </c>
       <c r="H33" t="n">
-        <v>896.0103264198827</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I33" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4676</v>
+        <v>6927</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G34" t="n">
-        <v>242000</v>
+        <v>1023871000</v>
       </c>
       <c r="H34" t="n">
-        <v>2420</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H35" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I35" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G36" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H36" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I36" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G37" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H37" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1827,172 +1827,172 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H38" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100VCMT.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3132</v>
+        <v>6890</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>8970900</v>
+        <v>30000</v>
       </c>
       <c r="G39" t="n">
-        <v>10240398000</v>
+        <v>71610000</v>
       </c>
       <c r="H39" t="n">
-        <v>1141.512891683109</v>
+        <v>2387</v>
       </c>
       <c r="I39" t="n">
-        <v>5.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VCMT.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4512</v>
+        <v>3132</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2137400</v>
+        <v>8970900</v>
       </c>
       <c r="G40" t="n">
-        <v>620573000</v>
+        <v>10240398000</v>
       </c>
       <c r="H40" t="n">
-        <v>290.3401328717133</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="I40" t="n">
-        <v>6.140000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G41" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H41" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100V827.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9987</v>
+        <v>9006</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3888200</v>
+        <v>30000</v>
       </c>
       <c r="G42" t="n">
-        <v>16086019000</v>
+        <v>34824000</v>
       </c>
       <c r="H42" t="n">
-        <v>4137.137750115735</v>
+        <v>1160.8</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43">
@@ -2035,86 +2035,86 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100V827.zip</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-02-10_01_2025-02-12.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7732</v>
+        <v>9987</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>7995900</v>
+        <v>3888200</v>
       </c>
       <c r="G44" t="n">
-        <v>16678425000</v>
+        <v>16086019000</v>
       </c>
       <c r="H44" t="n">
-        <v>2085.872134468915</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="I44" t="n">
-        <v>7.380000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3861</v>
+        <v>7732</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>7995900</v>
       </c>
       <c r="G45" t="n">
-        <v>59000</v>
+        <v>16678425000</v>
       </c>
       <c r="H45" t="n">
-        <v>590</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100V3YF.zip</t>
+          <t>S100V4AM.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2123,21 +2123,21 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5715</v>
+        <v>3861</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="F46" t="n">
         <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>160000</v>
+        <v>59000</v>
       </c>
       <c r="H46" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2146,49 +2146,49 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S100UYE4.zip</t>
+          <t>S100V3YF.zip</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-01-10_01_2025-01-20.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3978</v>
+        <v>5715</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2891700</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>3425686000</v>
+        <v>160000</v>
       </c>
       <c r="H47" t="n">
-        <v>1184.661617733513</v>
+        <v>1600</v>
       </c>
       <c r="I47" t="n">
-        <v>7.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S100UWW1.zip</t>
+          <t>S100UYE4.zip</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-13_01_2024-12-17.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2197,146 +2197,146 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4452</v>
+        <v>3978</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>24347342</v>
+        <v>2891700</v>
       </c>
       <c r="G48" t="n">
-        <v>148917027000</v>
+        <v>3425686000</v>
       </c>
       <c r="H48" t="n">
-        <v>6116.356643776557</v>
+        <v>1184.661617733513</v>
       </c>
       <c r="I48" t="n">
-        <v>5.23</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S100UWQK.zip</t>
+          <t>S100UWW1.zip</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-12-05_01_2024-12-10.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>9257</v>
+        <v>4452</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>24347342</v>
       </c>
       <c r="G49" t="n">
-        <v>57000</v>
+        <v>148917027000</v>
       </c>
       <c r="H49" t="n">
-        <v>570</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S100UMDQ.zip</t>
+          <t>S100UWQK.zip</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-12-02_01_2024-12-09.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>9531</v>
+        <v>9257</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>19554300</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>64960321000</v>
+        <v>57000</v>
       </c>
       <c r="H50" t="n">
-        <v>3322.047887165483</v>
+        <v>570</v>
       </c>
       <c r="I50" t="n">
-        <v>5.029999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S100UORL.zip</t>
+          <t>S100UMDQ.zip</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2024-11-12_01_2024-11-19.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4385</v>
+        <v>9531</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>8815360</v>
+        <v>19554300</v>
       </c>
       <c r="G51" t="n">
-        <v>17684138000</v>
+        <v>64960321000</v>
       </c>
       <c r="H51" t="n">
-        <v>2006.059650428343</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="I51" t="n">
-        <v>5.37</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S100UMI2.zip</t>
+          <t>S100UORL.zip</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-06_01_2024-11-13.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2345,35 +2345,35 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>7984</v>
+        <v>4385</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6096500</v>
+        <v>8815360</v>
       </c>
       <c r="G52" t="n">
-        <v>13153972000</v>
+        <v>17684138000</v>
       </c>
       <c r="H52" t="n">
-        <v>2157.626835069302</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="I52" t="n">
-        <v>5.02</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S100UMJC.zip</t>
+          <t>S100UMI2.zip</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-11-01_01_2024-11-06.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2382,192 +2382,192 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1973</v>
+        <v>7984</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>8973383</v>
+        <v>6096500</v>
       </c>
       <c r="G53" t="n">
-        <v>24947403000</v>
+        <v>13153972000</v>
       </c>
       <c r="H53" t="n">
-        <v>2780.155823060266</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="I53" t="n">
-        <v>6.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S100UKY9.zip</t>
+          <t>S100UMJC.zip</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-10-30_01_2024-11-07.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6908</v>
+        <v>1973</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>502000</v>
+        <v>8973383</v>
       </c>
       <c r="G54" t="n">
-        <v>1257178000</v>
+        <v>24947403000</v>
       </c>
       <c r="H54" t="n">
-        <v>2504.338645418327</v>
+        <v>2780.155823060266</v>
       </c>
       <c r="I54" t="n">
-        <v>2.04</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>S100UIC4.zip</t>
+          <t>S100UKY9.zip</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-10-22_01_2024-10-29.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3765</v>
+        <v>6908</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4552900</v>
+        <v>502000</v>
       </c>
       <c r="G55" t="n">
-        <v>13383536000</v>
+        <v>1257178000</v>
       </c>
       <c r="H55" t="n">
-        <v>2939.562915943684</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="I55" t="n">
-        <v>5.47</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S100UEDF.zip</t>
+          <t>S100UIC4.zip</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2024-10-08_01_2024-10-16.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5482</v>
+        <v>3765</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>433300</v>
+        <v>4552900</v>
       </c>
       <c r="G56" t="n">
-        <v>1367192000</v>
+        <v>13383536000</v>
       </c>
       <c r="H56" t="n">
-        <v>3155.301177013616</v>
+        <v>2939.562915943684</v>
       </c>
       <c r="I56" t="n">
-        <v>2.18</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S100UE9B.zip</t>
+          <t>S100UEDF.zip</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-13_01_2024-09-24.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4272</v>
+        <v>5482</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>26855100</v>
+        <v>433300</v>
       </c>
       <c r="G57" t="n">
-        <v>29860350000</v>
+        <v>1367192000</v>
       </c>
       <c r="H57" t="n">
-        <v>1111.90611839092</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="I57" t="n">
-        <v>15.75</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>S100UCI9.zip</t>
+          <t>S100UE9B.zip</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-09-06_02_2024-09-19.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8141</v>
+        <v>4272</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2575,27 +2575,27 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>26855100</v>
       </c>
       <c r="G58" t="n">
-        <v>93000</v>
+        <v>29860350000</v>
       </c>
       <c r="H58" t="n">
-        <v>930</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S100UBQ6.zip</t>
+          <t>S100UCI9.zip</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-06_01_2024-09-13.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2604,21 +2604,21 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6145</v>
+        <v>8141</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="F59" t="n">
         <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>171000</v>
+        <v>93000</v>
       </c>
       <c r="H59" t="n">
-        <v>1710</v>
+        <v>930</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2627,38 +2627,38 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S100UB89.zip</t>
+          <t>S100UBQ6.zip</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-09-03_01_2024-09-10.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4205</v>
+        <v>6145</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>14426600</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>24829312000</v>
+        <v>171000</v>
       </c>
       <c r="H60" t="n">
-        <v>1721.078563209627</v>
+        <v>1710</v>
       </c>
       <c r="I60" t="n">
-        <v>6.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2701,160 +2701,160 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>S100U9FC.zip</t>
+          <t>S100UB89.zip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-08-30_01_2024-09-06.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6516</v>
+        <v>4205</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>679500</v>
+        <v>14426600</v>
       </c>
       <c r="G62" t="n">
-        <v>4792335000</v>
+        <v>24829312000</v>
       </c>
       <c r="H62" t="n">
-        <v>7052.737306843267</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="I62" t="n">
-        <v>5.24</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>S100UA4H.zip</t>
+          <t>S100U9FC.zip</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-08-20_01_2024-08-27.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2327</v>
+        <v>6516</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>9154320</v>
+        <v>679500</v>
       </c>
       <c r="G63" t="n">
-        <v>23450671000</v>
+        <v>4792335000</v>
       </c>
       <c r="H63" t="n">
-        <v>2561.705402476645</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S100U8JX.zip</t>
+          <t>S100UA4H.zip</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-08-19_01_2024-08-26.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3989</v>
+        <v>2327</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1206000</v>
+        <v>9154320</v>
       </c>
       <c r="G64" t="n">
-        <v>787604000</v>
+        <v>23450671000</v>
       </c>
       <c r="H64" t="n">
-        <v>653.0713101160862</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="I64" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S100U8Q2.zip</t>
+          <t>S100U8JX.zip</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-14_01_2024-08-21.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>6908</v>
+        <v>3989</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>1206000</v>
       </c>
       <c r="G65" t="n">
-        <v>288000</v>
+        <v>787604000</v>
       </c>
       <c r="H65" t="n">
-        <v>2880</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S100U705.zip</t>
+          <t>S100U8Q2.zip</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2024-08-13_01_2024-08-20.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2863,72 +2863,72 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5988</v>
+        <v>6908</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>527300</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>1212090000</v>
+        <v>288000</v>
       </c>
       <c r="H66" t="n">
-        <v>2298.672482457804</v>
+        <v>2880</v>
       </c>
       <c r="I66" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S100U5II.zip</t>
+          <t>S100U705.zip</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-08-06_01_2024-08-14.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3529</v>
+        <v>5988</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>998000</v>
+        <v>527300</v>
       </c>
       <c r="G67" t="n">
-        <v>667598000</v>
+        <v>1212090000</v>
       </c>
       <c r="H67" t="n">
-        <v>668.9358717434869</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="I67" t="n">
-        <v>5.76</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>S100U528.zip</t>
+          <t>S100U5II.zip</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-08-01_01_2024-08-08.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2937,81 +2937,81 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7305</v>
+        <v>3529</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>309800</v>
+        <v>998000</v>
       </c>
       <c r="G68" t="n">
-        <v>1321438000</v>
+        <v>667598000</v>
       </c>
       <c r="H68" t="n">
-        <v>4265.455132343447</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="I68" t="n">
-        <v>5.12</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S100U4Z7.zip</t>
+          <t>S100U528.zip</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-30_01_2024-08-06.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>5541</v>
+        <v>7305</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>309800</v>
       </c>
       <c r="G69" t="n">
-        <v>127000</v>
+        <v>1321438000</v>
       </c>
       <c r="H69" t="n">
-        <v>1270</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S100U47L.zip</t>
+          <t>S100U4Z7.zip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-25_01_2024-08-01.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2168</v>
+        <v>5541</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3019,27 +3019,27 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2094200</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>4445105000</v>
+        <v>127000</v>
       </c>
       <c r="H70" t="n">
-        <v>2122.579027791042</v>
+        <v>1270</v>
       </c>
       <c r="I70" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S100UK9S.zip</t>
+          <t>S100U47L.zip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-25_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3048,44 +3048,44 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4967</v>
+        <v>2168</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4062075</v>
+        <v>2094200</v>
       </c>
       <c r="G71" t="n">
-        <v>20578848000</v>
+        <v>4445105000</v>
       </c>
       <c r="H71" t="n">
-        <v>5066.092575838703</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="I71" t="n">
-        <v>5.2</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S100U3HM.zip</t>
+          <t>S100U45I.zip</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4967</v>
+        <v>8803</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3093,36 +3093,36 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4062075</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>8729143000</v>
+        <v>361000</v>
       </c>
       <c r="H72" t="n">
-        <v>2148.936934940886</v>
+        <v>3610</v>
       </c>
       <c r="I72" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S100U45I.zip</t>
+          <t>S100U3HM.zip</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-07-22_01_2024-07-29.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-07-24.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>8803</v>
+        <v>4967</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3130,175 +3130,175 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>4062075</v>
       </c>
       <c r="G73" t="n">
-        <v>361000</v>
+        <v>8729143000</v>
       </c>
       <c r="H73" t="n">
-        <v>3610</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S100U325.zip</t>
+          <t>S100UK9S.zip</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-07-22_01_2024-10-23.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>9882</v>
+        <v>4967</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2505000</v>
+        <v>4062075</v>
       </c>
       <c r="G74" t="n">
-        <v>5292086000</v>
+        <v>20578848000</v>
       </c>
       <c r="H74" t="n">
-        <v>2112.609181636727</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="I74" t="n">
-        <v>5.02</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S100U4Z0.zip</t>
+          <t>S100U325.zip</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-07-19_01_2024-07-26.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8129</v>
+        <v>9882</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>7258230</v>
+        <v>2505000</v>
       </c>
       <c r="G75" t="n">
-        <v>24720910000</v>
+        <v>5292086000</v>
       </c>
       <c r="H75" t="n">
-        <v>3405.914389596362</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="I75" t="n">
-        <v>9.460000000000001</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S100U2CM.zip</t>
+          <t>S100U4Z0.zip</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-07-16_02_2024-07-31.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2206</v>
+        <v>8129</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3462600</v>
+        <v>7258230</v>
       </c>
       <c r="G76" t="n">
-        <v>14385811000</v>
+        <v>24720910000</v>
       </c>
       <c r="H76" t="n">
-        <v>4154.626869982095</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="I76" t="n">
-        <v>5.06</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S100U07U.zip</t>
+          <t>S100U2CM.zip</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-07-10_01_2024-07-18.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3666</v>
+        <v>2206</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1053200</v>
+        <v>3462600</v>
       </c>
       <c r="G77" t="n">
-        <v>663809000</v>
+        <v>14385811000</v>
       </c>
       <c r="H77" t="n">
-        <v>630.278199772123</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="I77" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S100U1HO.zip</t>
+          <t>S100U07U.zip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-04_01_2024-07-11.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3307,172 +3307,172 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4347</v>
+        <v>3666</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>614893</v>
+        <v>1053200</v>
       </c>
       <c r="G78" t="n">
-        <v>940560000</v>
+        <v>663809000</v>
       </c>
       <c r="H78" t="n">
-        <v>1529.631984751819</v>
+        <v>630.278199772123</v>
       </c>
       <c r="I78" t="n">
-        <v>8.200000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S100TRA6.zip</t>
+          <t>S100U1HO.zip</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-07-03_01_2024-07-12.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8129</v>
+        <v>4347</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3886330</v>
+        <v>614893</v>
       </c>
       <c r="G79" t="n">
-        <v>10549885000</v>
+        <v>940560000</v>
       </c>
       <c r="H79" t="n">
-        <v>2714.613787300615</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="I79" t="n">
-        <v>5.06</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S100TMDP.zip</t>
+          <t>S100TRA6.zip</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-17_01_2024-06-24.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>8929</v>
+        <v>8129</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1260812</v>
+        <v>3886330</v>
       </c>
       <c r="G80" t="n">
-        <v>1699255000</v>
+        <v>10549885000</v>
       </c>
       <c r="H80" t="n">
-        <v>1347.74653160027</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="I80" t="n">
-        <v>5.140000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S100TMID.zip</t>
+          <t>S100TMDP.zip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-06-11_01_2024-06-18.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>7278</v>
+        <v>8929</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>115400</v>
+        <v>1260812</v>
       </c>
       <c r="G81" t="n">
-        <v>302115000</v>
+        <v>1699255000</v>
       </c>
       <c r="H81" t="n">
-        <v>2617.980935875217</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="I81" t="n">
-        <v>0.24</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S100TLGT.zip</t>
+          <t>S100TMID.zip</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-06-10_01_2024-06-17.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3591</v>
+        <v>7278</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2846091</v>
+        <v>115400</v>
       </c>
       <c r="G82" t="n">
-        <v>6888596000</v>
+        <v>302115000</v>
       </c>
       <c r="H82" t="n">
-        <v>2420.370957920882</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="I82" t="n">
-        <v>5.13</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="83">
@@ -3515,234 +3515,234 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S100TJMY.zip</t>
+          <t>S100TLGT.zip</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-06-04_01_2024-06-11.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4521</v>
+        <v>3591</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>2846091</v>
       </c>
       <c r="G84" t="n">
-        <v>353000</v>
+        <v>6888596000</v>
       </c>
       <c r="H84" t="n">
-        <v>3530</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S100TJBE.zip</t>
+          <t>S100TJMY.zip</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-29_01_2024-06-05.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8923</v>
+        <v>4521</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2445600</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>3856031000</v>
+        <v>353000</v>
       </c>
       <c r="H85" t="n">
-        <v>1576.721867844292</v>
+        <v>3530</v>
       </c>
       <c r="I85" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S100THZ6.zip</t>
+          <t>S100TJBE.zip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2024-05-27_01_2024-06-03.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4347</v>
+        <v>8923</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>400493</v>
+        <v>2445600</v>
       </c>
       <c r="G86" t="n">
-        <v>580713000</v>
+        <v>3856031000</v>
       </c>
       <c r="H86" t="n">
-        <v>1449.995380693296</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="I86" t="n">
-        <v>5.06</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S100TFJS.zip</t>
+          <t>S100THZ6.zip</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-05-22_01_2024-05-29.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>9024</v>
+        <v>4347</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>16207437</v>
+        <v>400493</v>
       </c>
       <c r="G87" t="n">
-        <v>27823532000</v>
+        <v>580713000</v>
       </c>
       <c r="H87" t="n">
-        <v>1716.713876475349</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="I87" t="n">
-        <v>5.01</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S100TDVX.zip</t>
+          <t>S100TFJS.zip</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2024-05-07_01_2024-05-14.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1518</v>
+        <v>9024</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>100</v>
+        <v>16207437</v>
       </c>
       <c r="G88" t="n">
-        <v>292000</v>
+        <v>27823532000</v>
       </c>
       <c r="H88" t="n">
-        <v>2920</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S100TBA3.zip</t>
+          <t>S100TDVX.zip</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-05-02_01_2024-05-13.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>7731</v>
+        <v>1518</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>17639800</v>
+        <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>26675255000</v>
+        <v>292000</v>
       </c>
       <c r="H89" t="n">
-        <v>1512.21980974841</v>
+        <v>2920</v>
       </c>
       <c r="I89" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S100TB1B.zip</t>
+          <t>S100TBA3.zip</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2024-04-22_01_2024-04-23.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3751,21 +3751,21 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4536</v>
+        <v>7731</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>18290500</v>
+        <v>17639800</v>
       </c>
       <c r="G90" t="n">
-        <v>24591924000</v>
+        <v>26675255000</v>
       </c>
       <c r="H90" t="n">
-        <v>1344.518957928979</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="I90" t="n">
         <v>5.02</v>
@@ -3774,197 +3774,197 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S100T7B6.zip</t>
+          <t>S100TB1B.zip</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2024-04-19_01_2024-04-22.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4185</v>
+        <v>4536</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>18290500</v>
       </c>
       <c r="G91" t="n">
-        <v>405000</v>
+        <v>24591924000</v>
       </c>
       <c r="H91" t="n">
-        <v>4050</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S100T0IC.zip</t>
+          <t>S100T7B6.zip</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-03-26_01_2024-04-02.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4549</v>
+        <v>4185</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2006900</v>
+        <v>100</v>
       </c>
       <c r="G92" t="n">
-        <v>3367745000</v>
+        <v>405000</v>
       </c>
       <c r="H92" t="n">
-        <v>1678.083113259255</v>
+        <v>4050</v>
       </c>
       <c r="I92" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S100SZYE.zip</t>
+          <t>S100T0IC.zip</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-03-05_01_2024-03-11.csv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9627</v>
+        <v>4549</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3401100</v>
+        <v>2006900</v>
       </c>
       <c r="G93" t="n">
-        <v>9648726000</v>
+        <v>3367745000</v>
       </c>
       <c r="H93" t="n">
-        <v>2836.942753814942</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="I93" t="n">
-        <v>9.6</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S100SXVR.zip</t>
+          <t>S100SZYE.zip</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-03-04_01_2024-03-06.csv</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>8304</v>
+        <v>9627</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>3401100</v>
       </c>
       <c r="G94" t="n">
-        <v>219000</v>
+        <v>9648726000</v>
       </c>
       <c r="H94" t="n">
-        <v>2190</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S100SY8N.zip</t>
+          <t>S100SXVR.zip</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-02-20_01_2024-02-28.csv</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3328</v>
+        <v>8304</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>845300</v>
+        <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>1219326000</v>
+        <v>219000</v>
       </c>
       <c r="H95" t="n">
-        <v>1442.477227019993</v>
+        <v>2190</v>
       </c>
       <c r="I95" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S100SW6R.zip</t>
+          <t>S100SY8N.zip</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-15_01_2024-02-27.csv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3977,142 +3977,142 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>675500</v>
+        <v>845300</v>
       </c>
       <c r="G96" t="n">
-        <v>976503000</v>
+        <v>1219326000</v>
       </c>
       <c r="H96" t="n">
-        <v>1445.60029607698</v>
+        <v>1442.477227019993</v>
       </c>
       <c r="I96" t="n">
-        <v>5.220000000000001</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S100ST3I.zip</t>
+          <t>S100SW6R.zip</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2024-02-13_01_2024-02-20.csv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>8818</v>
+        <v>3328</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2505000</v>
+        <v>675500</v>
       </c>
       <c r="G97" t="n">
-        <v>3361654000</v>
+        <v>976503000</v>
       </c>
       <c r="H97" t="n">
-        <v>1341.977644710579</v>
+        <v>1445.60029607698</v>
       </c>
       <c r="I97" t="n">
-        <v>5.09</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S100SO4R.zip</t>
+          <t>S100ST3I.zip</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2024-02-07_01_2024-02-15.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5541</v>
+        <v>8818</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>2505000</v>
       </c>
       <c r="G98" t="n">
-        <v>117000</v>
+        <v>3361654000</v>
       </c>
       <c r="H98" t="n">
-        <v>1170</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S100SN7U.zip</t>
+          <t>S100SO4R.zip</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2024-01-18_01_2024-01-25.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>7315</v>
+        <v>5541</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>6994900</v>
+        <v>100</v>
       </c>
       <c r="G99" t="n">
-        <v>5874641000</v>
+        <v>117000</v>
       </c>
       <c r="H99" t="n">
-        <v>839.8463166020958</v>
+        <v>1170</v>
       </c>
       <c r="I99" t="n">
-        <v>14.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S100SLMH.zip</t>
+          <t>S100SN7U.zip</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-16_01_2024-01-23.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4121,35 +4121,35 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4837</v>
+        <v>7315</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>5428600</v>
+        <v>6994900</v>
       </c>
       <c r="G100" t="n">
-        <v>4378021000</v>
+        <v>5874641000</v>
       </c>
       <c r="H100" t="n">
-        <v>806.4733080352208</v>
+        <v>839.8463166020958</v>
       </c>
       <c r="I100" t="n">
-        <v>9.74</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S100SJ0K.zip</t>
+          <t>S100SLMH.zip</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2024-01-09_01_2024-01-16.csv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4158,24 +4158,24 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4293</v>
+        <v>4837</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>20896886</v>
+        <v>5428600</v>
       </c>
       <c r="G101" t="n">
-        <v>9376038000</v>
+        <v>4378021000</v>
       </c>
       <c r="H101" t="n">
-        <v>448.6811097117532</v>
+        <v>806.4733080352208</v>
       </c>
       <c r="I101" t="n">
-        <v>9.9</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="102">
@@ -4218,334 +4218,334 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S100SHYB.zip</t>
+          <t>S100SJ0K.zip</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-12-21_01_2023-12-28.csv</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5449</v>
+        <v>4293</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2114100</v>
+        <v>20896886</v>
       </c>
       <c r="G103" t="n">
-        <v>3695597000</v>
+        <v>9376038000</v>
       </c>
       <c r="H103" t="n">
-        <v>1748.071046781136</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="I103" t="n">
-        <v>5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S100SDCB.zip</t>
+          <t>S100SHYB.zip</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-12-19_01_2023-12-26.csv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6232</v>
+        <v>5449</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1499000</v>
+        <v>2114100</v>
       </c>
       <c r="G104" t="n">
-        <v>1369002000</v>
+        <v>3695597000</v>
       </c>
       <c r="H104" t="n">
-        <v>913.2768512341561</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="I104" t="n">
-        <v>10.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S100SB0S.zip</t>
+          <t>S100SDCB.zip</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-29_01_2023-12-04.csv</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>6237</v>
+        <v>6232</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1129500</v>
+        <v>1499000</v>
       </c>
       <c r="G105" t="n">
-        <v>1537738000</v>
+        <v>1369002000</v>
       </c>
       <c r="H105" t="n">
-        <v>1361.432492253209</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="I105" t="n">
-        <v>5.02</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S100S8AS.zip</t>
+          <t>S100SB0S.zip</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-11-09_01_2023-11-16.csv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4987</v>
+        <v>6237</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1543800</v>
+        <v>1129500</v>
       </c>
       <c r="G106" t="n">
-        <v>874286000</v>
+        <v>1537738000</v>
       </c>
       <c r="H106" t="n">
-        <v>566.3207669387226</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="I106" t="n">
-        <v>5.779999999999999</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S100S4PN.zip</t>
+          <t>S100S8AS.zip</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-11-08_01_2023-11-15.csv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>4739</v>
+        <v>4987</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>15400600</v>
+        <v>1543800</v>
       </c>
       <c r="G107" t="n">
-        <v>66216726000</v>
+        <v>874286000</v>
       </c>
       <c r="H107" t="n">
-        <v>4299.619884939548</v>
+        <v>566.3207669387226</v>
       </c>
       <c r="I107" t="n">
-        <v>6.419999999999999</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S100S1V3.zip</t>
+          <t>S100S4PN.zip</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-11-02_01_2023-11-07.csv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2501</v>
+        <v>4739</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4010500</v>
+        <v>15400600</v>
       </c>
       <c r="G108" t="n">
-        <v>10817766000</v>
+        <v>66216726000</v>
       </c>
       <c r="H108" t="n">
-        <v>2697.360927565142</v>
+        <v>4299.619884939548</v>
       </c>
       <c r="I108" t="n">
-        <v>5.09</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S100RZUR.zip</t>
+          <t>S100S1V3.zip</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2023-10-12_01_2023-10-19.csv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4023</v>
+        <v>2501</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>100</v>
+        <v>4010500</v>
       </c>
       <c r="G109" t="n">
-        <v>796000</v>
+        <v>10817766000</v>
       </c>
       <c r="H109" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S100RYJW.zip</t>
+          <t>S100RZUR.zip</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-10-04_01_2023-10-12.csv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5844</v>
+        <v>4023</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4998800</v>
+        <v>100</v>
       </c>
       <c r="G110" t="n">
-        <v>24949147000</v>
+        <v>796000</v>
       </c>
       <c r="H110" t="n">
-        <v>4991.027246539169</v>
+        <v>7960</v>
       </c>
       <c r="I110" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S100RY2V.zip</t>
+          <t>S100RYJW.zip</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-10-02_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5186</v>
+        <v>5844</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1536900</v>
+        <v>4998800</v>
       </c>
       <c r="G111" t="n">
-        <v>4758738000</v>
+        <v>24949147000</v>
       </c>
       <c r="H111" t="n">
-        <v>3096.322467304314</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="I111" t="n">
-        <v>5.08</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="112">
@@ -4588,452 +4588,452 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S100RX5R.zip</t>
+          <t>S100RY2V.zip</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-09-27_01_2023-10-04.csv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>8303</v>
+        <v>5186</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20000000</v>
+        <v>1536900</v>
       </c>
       <c r="G113" t="n">
-        <v>56014500000</v>
+        <v>4758738000</v>
       </c>
       <c r="H113" t="n">
-        <v>2800.725</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="I113" t="n">
-        <v>9.75</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S100RVIC.zip</t>
+          <t>S100RX5R.zip</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
+          <t>jplvh010000-lvh-001_E04037-000_2023-09-21_01_2023-09-28.csv</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2812</v>
+        <v>8303</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2023-09-11</t>
+          <t>2023-09-21</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1120000</v>
-      </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+        <v>20000000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>56014500000</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2800.725</v>
+      </c>
       <c r="I114" t="n">
-        <v>9.779999999999999</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S100RU33.zip</t>
+          <t>S100RVIC.zip</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-09-11_01_2023-09-19.csv</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5451</v>
+        <v>2812</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1752800</v>
-      </c>
-      <c r="G115" t="n">
-        <v>5669831000</v>
-      </c>
-      <c r="H115" t="n">
-        <v>3234.727863989046</v>
-      </c>
+        <v>1120000</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>5.029999999999999</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S100RT6D.zip</t>
+          <t>S100RU33.zip</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-09-08_01_2023-09-15.csv</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>9072</v>
+        <v>5451</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>8377400</v>
+        <v>1752800</v>
       </c>
       <c r="G116" t="n">
-        <v>13394541000</v>
+        <v>5669831000</v>
       </c>
       <c r="H116" t="n">
-        <v>1598.889989734285</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="I116" t="n">
-        <v>12.74</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S100RSA5.zip</t>
+          <t>S100RT6D.zip</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-09-04_02_2023-09-06.csv</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>5194</v>
+        <v>9072</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1068798</v>
+        <v>8377400</v>
       </c>
       <c r="G117" t="n">
-        <v>997342000</v>
+        <v>13394541000</v>
       </c>
       <c r="H117" t="n">
-        <v>933.1435874692879</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="I117" t="n">
-        <v>9.77</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S100RIEU.zip</t>
+          <t>S100RSA5.zip</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-08-28_01_2023-09-01.csv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>8871</v>
+        <v>5194</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1807700</v>
+        <v>1068798</v>
       </c>
       <c r="G118" t="n">
-        <v>3235548000</v>
+        <v>997342000</v>
       </c>
       <c r="H118" t="n">
-        <v>1789.870000553189</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="I118" t="n">
-        <v>5.050000000000001</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>S100RGLG.zip</t>
+          <t>S100RIEU.zip</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2023-08-01_01_2023-08-08.csv</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5929</v>
+        <v>8871</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>11571500</v>
+        <v>1807700</v>
       </c>
       <c r="G119" t="n">
-        <v>15114770000</v>
+        <v>3235548000</v>
       </c>
       <c r="H119" t="n">
-        <v>1306.206628354146</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="I119" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S100R23B.zip</t>
+          <t>S100RGLG.zip</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-07-24_01_2023-07-31.csv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>8140</v>
+        <v>5929</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1322800</v>
+        <v>11571500</v>
       </c>
       <c r="G120" t="n">
-        <v>4536170000</v>
+        <v>15114770000</v>
       </c>
       <c r="H120" t="n">
-        <v>3429.218324765649</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="I120" t="n">
-        <v>5.29</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S100QVSV.zip</t>
+          <t>S100R23B.zip</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-06-20_01_2023-06-27.csv</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1878</v>
+        <v>8140</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3452100</v>
+        <v>1322800</v>
       </c>
       <c r="G121" t="n">
-        <v>44793976000</v>
+        <v>4536170000</v>
       </c>
       <c r="H121" t="n">
-        <v>12975.86280814577</v>
+        <v>3429.218324765649</v>
       </c>
       <c r="I121" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S100QVRX.zip</t>
+          <t>S100QVSV.zip</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
+          <t>jplvh010000-lvh-002_E24872-000_2023-06-02_01_2023-06-05.csv</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>533500</v>
+        <v>3452100</v>
       </c>
       <c r="G122" t="n">
-        <v>2009924000</v>
+        <v>44793976000</v>
       </c>
       <c r="H122" t="n">
-        <v>3767.430178069353</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="I122" t="n">
-        <v>5.11</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S100QV9B.zip</t>
+          <t>S100QVRX.zip</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
+          <t>jplvh010000-lvh-002_E27325-000_2023-05-31_01_2023-06-07.csv</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3593</v>
+        <v>1882</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1637060</v>
+        <v>533500</v>
       </c>
       <c r="G123" t="n">
-        <v>5502657000</v>
+        <v>2009924000</v>
       </c>
       <c r="H123" t="n">
-        <v>3361.304411567078</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="I123" t="n">
-        <v>6.48</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S100QUDZ.zip</t>
+          <t>S100QV9B.zip</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
+          <t>jplvh010000-lvh-001_E08827-000_2023-05-25_01_2023-06-02.csv</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1861</v>
+        <v>3593</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3102784</v>
+        <v>1637060</v>
       </c>
       <c r="G124" t="n">
-        <v>8614573000</v>
+        <v>5502657000</v>
       </c>
       <c r="H124" t="n">
-        <v>2776.401128792723</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="I124" t="n">
-        <v>7.07</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S100QU54.zip</t>
+          <t>S100QUDZ.zip</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-29.csv</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>7157</v>
+        <v>1861</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5050,97 +5050,97 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>4536300</v>
+        <v>3102784</v>
       </c>
       <c r="G125" t="n">
-        <v>4025006000</v>
+        <v>8614573000</v>
       </c>
       <c r="H125" t="n">
-        <v>887.288318673809</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="I125" t="n">
-        <v>6.5</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S100QSK8.zip</t>
+          <t>S100QU54.zip</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-24_01_2023-05-31.csv</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>7350</v>
+        <v>7157</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+        <v>4536300</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4025006000</v>
+      </c>
+      <c r="H126" t="n">
+        <v>887.288318673809</v>
+      </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S100QRVC.zip</t>
+          <t>S100QSK8.zip</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
+          <t>jplvh020000-lvh-001_E24872-000_2023-05-16_02_2023-05-19.csv</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3549</v>
+        <v>7350</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1735200</v>
-      </c>
-      <c r="G127" t="n">
-        <v>11532479000</v>
-      </c>
-      <c r="H127" t="n">
-        <v>6646.195827570309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S100QRUW.zip</t>
+          <t>S100QRVC.zip</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-15_01_2023-05-18.csv</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5149,44 +5149,44 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3391</v>
+        <v>3549</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>6354522</v>
+        <v>1735200</v>
       </c>
       <c r="G128" t="n">
-        <v>28876223000</v>
+        <v>11532479000</v>
       </c>
       <c r="H128" t="n">
-        <v>4544.200649553184</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="I128" t="n">
-        <v>12.84</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S100QP55.zip</t>
+          <t>S100QRUW.zip</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-05-08_01_2023-05-16.csv</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>6770</v>
+        <v>3391</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5194,101 +5194,101 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>11259700</v>
+        <v>6354522</v>
       </c>
       <c r="G129" t="n">
-        <v>14161429000</v>
+        <v>28876223000</v>
       </c>
       <c r="H129" t="n">
-        <v>1257.709264012363</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="I129" t="n">
-        <v>5.13</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S100QNRY.zip</t>
+          <t>S100QP55.zip</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-05-08_01_2023-05-15.csv</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1951</v>
+        <v>6770</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5561200</v>
+        <v>11259700</v>
       </c>
       <c r="G130" t="n">
-        <v>12623472000</v>
+        <v>14161429000</v>
       </c>
       <c r="H130" t="n">
-        <v>2269.918722577861</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="I130" t="n">
-        <v>5.06</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S100QNNV.zip</t>
+          <t>S100QNRY.zip</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-04-26_01_2023-04-27.csv</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3085</v>
+        <v>1951</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1756300</v>
+        <v>5561200</v>
       </c>
       <c r="G131" t="n">
-        <v>4694343000</v>
+        <v>12623472000</v>
       </c>
       <c r="H131" t="n">
-        <v>2672.859420372374</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="I131" t="n">
-        <v>5.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S100QJNN.zip</t>
+          <t>S100QNNV.zip</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-04-25_01_2023-05-02.csv</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5297,142 +5297,146 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>9842</v>
+        <v>3085</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2082200</v>
+        <v>1756300</v>
       </c>
       <c r="G132" t="n">
-        <v>3059101000</v>
+        <v>4694343000</v>
       </c>
       <c r="H132" t="n">
-        <v>1469.167707232735</v>
+        <v>2672.859420372374</v>
       </c>
       <c r="I132" t="n">
-        <v>5.029999999999999</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S100QI52.zip</t>
+          <t>S100QJNN.zip</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
+          <t>jplvh020000-lvh-001_E35393-000_2023-03-30_01_2023-04-06.csv</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>9672</v>
+        <v>9842</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2410900</v>
+        <v>2082200</v>
       </c>
       <c r="G133" t="n">
-        <v>9382590000</v>
+        <v>3059101000</v>
       </c>
       <c r="H133" t="n">
-        <v>3891.73752540545</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="I133" t="n">
-        <v>8.380000000000001</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S100QGUZ.zip</t>
+          <t>S100QI52.zip</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2023-03-28_01_2023-03-30.csv</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3558</v>
+        <v>9672</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1214200</v>
+        <v>2410900</v>
       </c>
       <c r="G134" t="n">
-        <v>1538785000</v>
+        <v>9382590000</v>
       </c>
       <c r="H134" t="n">
-        <v>1267.324164058639</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="I134" t="n">
-        <v>10.57</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>S100QF8K.zip</t>
+          <t>S100QGUZ.zip</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-03-22_01_2023-03-28.csv</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2329</v>
+        <v>3558</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4463000</v>
-      </c>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
+        <v>1214200</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1538785000</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1267.324164058639</v>
+      </c>
       <c r="I135" t="n">
-        <v>9.550000000000001</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>S100QF0T.zip</t>
+          <t>S100QF8K.zip</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_02_2023-03-22.csv</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5460,303 +5464,299 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S100QDGW.zip</t>
+          <t>S100QF0T.zip</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
+          <t>jplvh030000-lvh-001_E33309-000_2023-03-13_01_2023-03-20.csv</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>4324</v>
+        <v>2329</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>13655200</v>
-      </c>
-      <c r="G137" t="n">
-        <v>56753467000</v>
-      </c>
-      <c r="H137" t="n">
-        <v>4156.179843576074</v>
-      </c>
+        <v>4463000</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>5.050000000000001</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S100QBB7.zip</t>
+          <t>S100QDGW.zip</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-03-10_01_2023-03-13.csv</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3608</v>
+        <v>4324</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>4569000</v>
+        <v>13655200</v>
       </c>
       <c r="G138" t="n">
-        <v>2005111000</v>
+        <v>56753467000</v>
       </c>
       <c r="H138" t="n">
-        <v>438.851170934559</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="I138" t="n">
-        <v>5.07</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S100Q8UN.zip</t>
+          <t>S100QBB7.zip</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-02-24_01_2023-03-01.csv</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>6804</v>
+        <v>3608</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3315900</v>
+        <v>4569000</v>
       </c>
       <c r="G139" t="n">
-        <v>4322098000</v>
+        <v>2005111000</v>
       </c>
       <c r="H139" t="n">
-        <v>1303.446424801713</v>
+        <v>438.851170934559</v>
       </c>
       <c r="I139" t="n">
-        <v>5.26</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>S100Q1O2.zip</t>
+          <t>S100Q8UN.zip</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-02-13_01_2023-02-20.csv</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>6236</v>
+        <v>6804</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>911500</v>
+        <v>3315900</v>
       </c>
       <c r="G140" t="n">
-        <v>1306557000</v>
+        <v>4322098000</v>
       </c>
       <c r="H140" t="n">
-        <v>1433.414152495886</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="I140" t="n">
-        <v>19.45</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>S100Q1FN.zip</t>
+          <t>S100Q1O2.zip</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-27_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>6770</v>
+        <v>6236</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2344200</v>
+        <v>911500</v>
       </c>
       <c r="G141" t="n">
-        <v>2853488000</v>
+        <v>1306557000</v>
       </c>
       <c r="H141" t="n">
-        <v>1217.254500469243</v>
+        <v>1433.414152495886</v>
       </c>
       <c r="I141" t="n">
-        <v>1.07</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>S100PZAN.zip</t>
+          <t>S100Q1FN.zip</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2023-01-24_01_2023-01-31.csv</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>7272</v>
+        <v>6770</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>17688500</v>
+        <v>2344200</v>
       </c>
       <c r="G142" t="n">
-        <v>52513090000</v>
+        <v>2853488000</v>
       </c>
       <c r="H142" t="n">
-        <v>2968.770104870396</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="I142" t="n">
-        <v>5.050000000000001</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>S100PYKO.zip</t>
+          <t>S100PZAN.zip</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2023-01-16_01_2023-01-17.csv</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4956</v>
+        <v>7272</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2039200</v>
+        <v>17688500</v>
       </c>
       <c r="G143" t="n">
-        <v>3273303000</v>
+        <v>52513090000</v>
       </c>
       <c r="H143" t="n">
-        <v>1605.189780306002</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="I143" t="n">
-        <v>5.01</v>
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>S100PVDC.zip</t>
+          <t>S100PYKO.zip</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2023-01-11_01_2023-01-16.csv</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>8057</v>
+        <v>4956</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>787800</v>
+        <v>2039200</v>
       </c>
       <c r="G144" t="n">
-        <v>2754799000</v>
+        <v>3273303000</v>
       </c>
       <c r="H144" t="n">
-        <v>3496.825336379792</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="I144" t="n">
-        <v>7.56</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>S100PV98.zip</t>
+          <t>S100PVDC.zip</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3391</v>
+        <v>8057</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5778,52 +5778,89 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2617759</v>
+        <v>787800</v>
       </c>
       <c r="G145" t="n">
-        <v>21628867000</v>
+        <v>2754799000</v>
       </c>
       <c r="H145" t="n">
-        <v>8262.359904024779</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="I145" t="n">
-        <v>5.29</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>S100PV98.zip</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>jplvh010000-lvh-001_E31883-000_2022-12-19_01_2022-12-26.csv</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>3391</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>2617759</v>
+      </c>
+      <c r="G146" t="n">
+        <v>21628867000</v>
+      </c>
+      <c r="H146" t="n">
+        <v>8262.359904024779</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
           <t>S100PV61.zip</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>jplvh010000-lvh-001_E08827-000_2022-12-15_01_2022-12-23.csv</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D147" t="n">
         <v>3132</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2022-12-15</t>
         </is>
       </c>
-      <c r="F146" t="n">
+      <c r="F147" t="n">
         <v>4697500</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G147" t="n">
         <v>8653324000</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H147" t="n">
         <v>1842.11261309207</v>
       </c>
-      <c r="I146" t="n">
+      <c r="I147" t="n">
         <v>7.539999999999999</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄一覧.xlsx
+++ b/docs/アクティビスト銘柄一覧.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,49 +483,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S100X96D.zip</t>
+          <t>S100X9IB.zip</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35450-000_2025-12-03_01_2025-12-10.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-12-05_01_2025-12-12.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6201</v>
+        <v>9742</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>16322100</v>
+        <v>1048500</v>
       </c>
       <c r="G2" t="n">
-        <v>268179335457000</v>
+        <v>1970276000</v>
       </c>
       <c r="H2" t="n">
-        <v>16430443.10823975</v>
+        <v>1879.137815927515</v>
       </c>
       <c r="I2" t="n">
-        <v>5.01</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S100X9NR.zip</t>
+          <t>S100X96D.zip</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35450-000_2025-12-03_02_2025-12-11.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2025-12-03_01_2025-12-10.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,10 +545,10 @@
         <v>16322100</v>
       </c>
       <c r="G3" t="n">
-        <v>268179335000</v>
+        <v>268179335457000</v>
       </c>
       <c r="H3" t="n">
-        <v>16430.4430802409</v>
+        <v>16430443.10823975</v>
       </c>
       <c r="I3" t="n">
         <v>5.01</v>
@@ -557,38 +557,38 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S100X89B.zip</t>
+          <t>S100X9NR.zip</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-11-28_01_2025-12-05.csv</t>
+          <t>jplvh010000-lvh-001_E35450-000_2025-12-03_02_2025-12-11.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6856</v>
+        <v>6201</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4180400</v>
+        <v>16322100</v>
       </c>
       <c r="G4" t="n">
-        <v>49662804000</v>
+        <v>268179335000</v>
       </c>
       <c r="H4" t="n">
-        <v>11879.91675437757</v>
+        <v>16430.4430802409</v>
       </c>
       <c r="I4" t="n">
-        <v>9.9</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="5">
@@ -631,86 +631,86 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S100X8JJ.zip</t>
+          <t>S100X89B.zip</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-11-26_01_2025-12-05.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-11-28_01_2025-12-05.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4549</v>
+        <v>6856</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2546351</v>
+        <v>4180400</v>
       </c>
       <c r="G6" t="n">
-        <v>4958319000</v>
+        <v>49662804000</v>
       </c>
       <c r="H6" t="n">
-        <v>1947.225264702313</v>
+        <v>11879.91675437757</v>
       </c>
       <c r="I6" t="n">
-        <v>7.37</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S100X1A3.zip</t>
+          <t>S100X8JJ.zip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-11-05_01_2025-11-12.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-11-26_01_2025-12-05.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7940</v>
+        <v>4549</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>2546351</v>
       </c>
       <c r="G7" t="n">
-        <v>101000</v>
+        <v>4958319000</v>
       </c>
       <c r="H7" t="n">
-        <v>1010</v>
+        <v>1947.225264702313</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S100WWWV.zip</t>
+          <t>S100X1A3.zip</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-11-05_01_2025-11-12.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -719,21 +719,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6890</v>
+        <v>7940</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>203000</v>
+        <v>101000</v>
       </c>
       <c r="H8" t="n">
-        <v>2030</v>
+        <v>1010</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -742,12 +742,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S100WWOW.zip</t>
+          <t>S100WWWV.zip</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-22_01_2025-10-29.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -756,21 +756,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2432</v>
+        <v>6890</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>226000</v>
+        <v>203000</v>
       </c>
       <c r="H9" t="n">
-        <v>2260</v>
+        <v>2030</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -779,12 +779,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S100WSIC.zip</t>
+          <t>S100WWOW.zip</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-10-20_01_2025-10-27.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6875</v>
+        <v>2432</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>487000</v>
+        <v>226000</v>
       </c>
       <c r="H10" t="n">
-        <v>4870</v>
+        <v>2260</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -816,12 +816,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S100WQFH.zip</t>
+          <t>S100WSIC.zip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-24_01_2025-10-01.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -830,21 +830,21 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4917</v>
+        <v>6875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>204000</v>
+        <v>487000</v>
       </c>
       <c r="H11" t="n">
-        <v>2040</v>
+        <v>4870</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -853,12 +853,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S100WQ4O.zip</t>
+          <t>S100WQFH.zip</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-09-16_01_2025-09-24.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -867,98 +867,98 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8233</v>
+        <v>4917</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>261400</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>287906000</v>
+        <v>204000</v>
       </c>
       <c r="H12" t="n">
-        <v>1101.400153022188</v>
+        <v>2040</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S100WO9C.zip</t>
+          <t>S100WQ4O.zip</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-09-12_01_2025-09-22.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2229</v>
+        <v>8233</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8012900</v>
+        <v>261400</v>
       </c>
       <c r="G13" t="n">
-        <v>23390757000</v>
+        <v>287906000</v>
       </c>
       <c r="H13" t="n">
-        <v>2919.137515755844</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="I13" t="n">
-        <v>5.98</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S100WOYY.zip</t>
+          <t>S100WO9C.zip</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-09-09_01_2025-09-16.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5983</v>
+        <v>2229</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>44800</v>
+        <v>8012900</v>
       </c>
       <c r="G14" t="n">
-        <v>315399000</v>
+        <v>23390757000</v>
       </c>
       <c r="H14" t="n">
-        <v>7040.15625</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="I14" t="n">
-        <v>4.07</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="15">
@@ -1001,308 +1001,308 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S100WKF3.zip</t>
+          <t>S100WOYY.zip</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
+          <t>jplvh010000-lvh-001_E40869-000_2025-09-05_01_2025-09-17.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6104</v>
+        <v>5983</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1297500</v>
+        <v>44800</v>
       </c>
       <c r="G16" t="n">
-        <v>4476090000</v>
+        <v>315399000</v>
       </c>
       <c r="H16" t="n">
-        <v>3449.780346820809</v>
+        <v>7040.15625</v>
       </c>
       <c r="I16" t="n">
-        <v>5.23</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S100WCIP.zip</t>
+          <t>S100WKF3.zip</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-08-19_01_2025-08-22.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5331</v>
+        <v>6104</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1481600</v>
+        <v>1297500</v>
       </c>
       <c r="G17" t="n">
-        <v>5294365000</v>
+        <v>4476090000</v>
       </c>
       <c r="H17" t="n">
-        <v>3573.410502159827</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="I17" t="n">
-        <v>5.1</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S100WB2Y.zip</t>
+          <t>S100WCIP.zip</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-07-10_01_2025-07-17.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6952</v>
+        <v>5331</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12332900</v>
+        <v>1481600</v>
       </c>
       <c r="G18" t="n">
-        <v>14653495000</v>
+        <v>5294365000</v>
       </c>
       <c r="H18" t="n">
-        <v>1188.162962482466</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="I18" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S100WAVT.zip</t>
+          <t>S100WB2Y.zip</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-07-02_01_2025-07-09.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6145</v>
+        <v>6952</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>12332900</v>
       </c>
       <c r="G19" t="n">
-        <v>171000</v>
+        <v>14653495000</v>
       </c>
       <c r="H19" t="n">
-        <v>1710</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S100WACZ.zip</t>
+          <t>S100WAVT.zip</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-30_01_2025-07-07.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8715</v>
+        <v>6145</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3810400</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>2500615000</v>
+        <v>171000</v>
       </c>
       <c r="H20" t="n">
-        <v>656.2604975855553</v>
+        <v>1710</v>
       </c>
       <c r="I20" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S100W5LT.zip</t>
+          <t>S100WACZ.zip</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-06-26_01_2025-07-03.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8585</v>
+        <v>8715</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8986800</v>
+        <v>3810400</v>
       </c>
       <c r="G21" t="n">
-        <v>7174886000</v>
+        <v>2500615000</v>
       </c>
       <c r="H21" t="n">
-        <v>798.3805136422309</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="I21" t="n">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S100W435.zip</t>
+          <t>S100W5LT.zip</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
+          <t>jplvh010000-lvh-001_E27325-000_2025-06-24_01_2025-07-01.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6908</v>
+        <v>8585</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>400</v>
+        <v>8986800</v>
       </c>
       <c r="G22" t="n">
-        <v>992000</v>
+        <v>7174886000</v>
       </c>
       <c r="H22" t="n">
-        <v>2480</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S100VV1I.zip</t>
+          <t>S100W435.zip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-06-19_01_2025-06-26.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8923</v>
+        <v>6908</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2434800</v>
+        <v>400</v>
       </c>
       <c r="G23" t="n">
-        <v>4266809000</v>
+        <v>992000</v>
       </c>
       <c r="H23" t="n">
-        <v>1752.426893379333</v>
+        <v>2480</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S100VUUK.zip</t>
+          <t>S100VV1I.zip</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-29_01_2025-06-05.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1311,190 +1311,190 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9069</v>
+        <v>8923</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8793900</v>
+        <v>2434800</v>
       </c>
       <c r="G24" t="n">
-        <v>13684104000</v>
+        <v>4266809000</v>
       </c>
       <c r="H24" t="n">
-        <v>1556.090471804319</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="I24" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S100VT64.zip</t>
+          <t>S100VUUK.zip</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-28_01_2025-06-04.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1878</v>
+        <v>9069</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3475000</v>
+        <v>8793900</v>
       </c>
       <c r="G25" t="n">
-        <v>47745269000</v>
+        <v>13684104000</v>
       </c>
       <c r="H25" t="n">
-        <v>13739.64575539568</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="I25" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S100VRQO.zip</t>
+          <t>S100VT64.zip</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
+          <t>jplvh010000-lvh-001_E24872-000_2025-05-22_01_2025-05-23.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3328</v>
+        <v>1878</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3475000</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+        <v>47745269000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>13739.64575539568</v>
+      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S100VQJZ.zip</t>
+          <t>S100VRQO.zip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
+          <t>jplvh020000-lvh-001_E34595-000_2025-05-07_02_2025-05-16.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3076</v>
+        <v>3328</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2841700</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>5705436000</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2007.754513143541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>5.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S100VPVZ.zip</t>
+          <t>S100VQJZ.zip</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-05-02_01_2025-05-13.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9302</v>
+        <v>3076</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3799000</v>
+        <v>2841700</v>
       </c>
       <c r="G28" t="n">
-        <v>5671170000</v>
+        <v>5705436000</v>
       </c>
       <c r="H28" t="n">
-        <v>1492.806001579363</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="I28" t="n">
-        <v>5.07</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S100VP86.zip</t>
+          <t>S100VPVZ.zip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3106</v>
+        <v>9302</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1502,101 +1502,101 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>900156</v>
+        <v>3799000</v>
       </c>
       <c r="G29" t="n">
-        <v>4095263000</v>
+        <v>5671170000</v>
       </c>
       <c r="H29" t="n">
-        <v>4549.503641591014</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S100VONW.zip</t>
+          <t>S100VP86.zip</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-04-28_01_2025-05-08.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9684</v>
+        <v>3106</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6704059</v>
+        <v>900156</v>
       </c>
       <c r="G30" t="n">
-        <v>42054369000</v>
+        <v>4095263000</v>
       </c>
       <c r="H30" t="n">
-        <v>6272.971195510064</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="I30" t="n">
-        <v>5.47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S100VLU2.zip</t>
+          <t>S100VONW.zip</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
+          <t>jplvh010000-lvh-001_E33309-000_2025-04-21_01_2025-04-28.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4619</v>
+        <v>9684</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>6704059</v>
       </c>
       <c r="G31" t="n">
-        <v>119000</v>
+        <v>42054369000</v>
       </c>
       <c r="H31" t="n">
-        <v>1190</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S100VLGK.zip</t>
+          <t>S100VLU2.zip</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-07_01_2025-04-14.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1605,21 +1605,21 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6332</v>
+        <v>4619</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>141000</v>
+        <v>119000</v>
       </c>
       <c r="H32" t="n">
-        <v>1410</v>
+        <v>1190</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1628,58 +1628,58 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S100VJXU.zip</t>
+          <t>S100VLGK.zip</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-04-04_01_2025-04-11.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4849</v>
+        <v>6332</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2946942</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>5148132000</v>
+        <v>141000</v>
       </c>
       <c r="H33" t="n">
-        <v>1746.940387696806</v>
+        <v>1410</v>
       </c>
       <c r="I33" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S100VJZS.zip</t>
+          <t>S100VJXU.zip</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6927</v>
+        <v>4849</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1687,175 +1687,175 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1142700</v>
+        <v>2946942</v>
       </c>
       <c r="G34" t="n">
-        <v>1023871000</v>
+        <v>5148132000</v>
       </c>
       <c r="H34" t="n">
-        <v>896.0103264198827</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="I34" t="n">
-        <v>5.01</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S100VJYW.zip</t>
+          <t>S100VJZS.zip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-31_01_2025-04-07.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4676</v>
+        <v>6927</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>1142700</v>
       </c>
       <c r="G35" t="n">
-        <v>242000</v>
+        <v>1023871000</v>
       </c>
       <c r="H35" t="n">
-        <v>2420</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S100VIX7.zip</t>
+          <t>S100VJYW.zip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
+          <t>jplvh010000-lvh-001_E24231-000_2025-03-27_01_2025-04-03.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1776</v>
+        <v>4676</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>126500</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>153399000</v>
+        <v>242000</v>
       </c>
       <c r="H36" t="n">
-        <v>1212.640316205534</v>
+        <v>2420</v>
       </c>
       <c r="I36" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S100VFPV.zip</t>
+          <t>S100VIX7.zip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-25_01_2025-04-01.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3963</v>
+        <v>1776</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1507900</v>
+        <v>126500</v>
       </c>
       <c r="G37" t="n">
-        <v>635874000</v>
+        <v>153399000</v>
       </c>
       <c r="H37" t="n">
-        <v>421.6950726175476</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="I37" t="n">
-        <v>5.18</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S100VF2W.zip</t>
+          <t>S100VFPV.zip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-03-19_01_2025-03-27.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6923</v>
+        <v>3963</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>1507900</v>
       </c>
       <c r="G38" t="n">
-        <v>256000</v>
+        <v>635874000</v>
       </c>
       <c r="H38" t="n">
-        <v>2560</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S100VE1G.zip</t>
+          <t>S100VF2W.zip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-12_01_2025-03-19.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1864,172 +1864,172 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6890</v>
+        <v>6923</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>71610000</v>
+        <v>256000</v>
       </c>
       <c r="H39" t="n">
-        <v>2387</v>
+        <v>2560</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S100VCMT.zip</t>
+          <t>S100VE1G.zip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
+          <t>jplvh010000-lvh-001_E35393-000_2025-03-07_01_2025-03-14.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3132</v>
+        <v>6890</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>8970900</v>
+        <v>30000</v>
       </c>
       <c r="G40" t="n">
-        <v>10240398000</v>
+        <v>71610000</v>
       </c>
       <c r="H40" t="n">
-        <v>1141.512891683109</v>
+        <v>2387</v>
       </c>
       <c r="I40" t="n">
-        <v>5.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S100VAJU.zip</t>
+          <t>S100VCMT.zip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
+          <t>jplvh010000-lvh-001_E39237-000_2025-03-03_01_2025-03-10.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4512</v>
+        <v>3132</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2137400</v>
+        <v>8970900</v>
       </c>
       <c r="G41" t="n">
-        <v>620573000</v>
+        <v>10240398000</v>
       </c>
       <c r="H41" t="n">
-        <v>290.3401328717133</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="I41" t="n">
-        <v>6.140000000000001</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S100V9Z0.zip</t>
+          <t>S100VAJU.zip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
+          <t>jplvh010000-lvh-001_E34595-000_2025-02-19_01_2025-02-27.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9006</v>
+        <v>4512</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>30000</v>
+        <v>2137400</v>
       </c>
       <c r="G42" t="n">
-        <v>34824000</v>
+        <v>620573000</v>
       </c>
       <c r="H42" t="n">
-        <v>1160.8</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S100V7YO.zip</t>
+          <t>S100V9Z0.zip</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
+          <t>jplvh010000-lvh-002_E35393-000_2025-02-13_01_2025-02-20.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4626</v>
+        <v>9006</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4670190</v>
+        <v>30000</v>
       </c>
       <c r="G43" t="n">
-        <v>16652257000</v>
+        <v>34824000</v>
       </c>
       <c r="H43" t="n">
-        <v>3565.648720929983</v>
+        <v>1160.8</v>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44">
@@ -2072,12 +2072,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S100V45I.zip</t>
+          <t>S100V7YO.zip</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-02-10_01_2025-02-18.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2086,72 +2086,72 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7732</v>
+        <v>4626</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>7995900</v>
+        <v>4670190</v>
       </c>
       <c r="G45" t="n">
-        <v>16678425000</v>
+        <v>16652257000</v>
       </c>
       <c r="H45" t="n">
-        <v>2085.872134468915</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="I45" t="n">
-        <v>7.380000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S100V4AM.zip</t>
+          <t>S100V45I.zip</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jplvh010000-lvh-001_E35393-000_2025-01-15_01_2025-01-22.csv</t>
+          <t>jplvh010000-lvh-001_E31883-000_2025-01-17_01_2025-01-24.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3861</v>
+        <v>7732</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>7995900</v>
       </c>
       <c r="G46" t="n">
-        <v>59000</v>
+        <v>16678425000</v>
       </c>
       <c r="H46" t="n">
-        <v>590</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>7.380000000000001</v>
       </c